--- a/01. Document/DropOut_project v2011.08.25.xlsx
+++ b/01. Document/DropOut_project v2011.08.25.xlsx
@@ -797,10 +797,10 @@
   <dimension ref="A1:BP74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="8" topLeftCell="I9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="8" topLeftCell="H9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -828,19 +828,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:68">
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="20" t="s">
         <v>19</v>
       </c>
       <c r="E1" s="13"/>
     </row>
     <row r="2" spans="1:68" ht="18.75">
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="13">
+      <c r="D2" s="20">
         <f t="shared" ref="D2:D7" si="0">SUMIF($D$9:$D$70,C2,$E$9:$E$70)</f>
         <v>0</v>
       </c>
@@ -863,10 +863,10 @@
       <c r="P2" s="28"/>
     </row>
     <row r="3" spans="1:68">
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -876,30 +876,30 @@
       </c>
     </row>
     <row r="4" spans="1:68">
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E4" s="13"/>
     </row>
     <row r="5" spans="1:68">
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E5" s="13"/>
     </row>
     <row r="6" spans="1:68">
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -907,10 +907,7 @@
     </row>
     <row r="7" spans="1:68">
       <c r="C7" s="13"/>
-      <c r="D7" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="D7" s="13"/>
       <c r="E7" s="13"/>
       <c r="I7">
         <v>1</v>

--- a/01. Document/DropOut_project v2011.08.25.xlsx
+++ b/01. Document/DropOut_project v2011.08.25.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -13,7 +13,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Plan!$A$8:$BQ$69</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -474,9 +474,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -514,6 +511,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -885,16 +885,16 @@
   <dimension ref="A1:BQ69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="8" topLeftCell="H36" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="8" topLeftCell="H28" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="C40" sqref="C40"/>
+      <selection pane="bottomRight" activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4.28515625" customWidth="1"/>
-    <col min="3" max="3" width="50" style="30" customWidth="1"/>
+    <col min="3" max="3" width="50" style="29" customWidth="1"/>
     <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.140625" customWidth="1"/>
     <col min="6" max="6" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
@@ -918,16 +918,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:69">
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="24" t="s">
         <v>16</v>
       </c>
       <c r="D1" s="17" t="s">
         <v>17</v>
       </c>
       <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
     </row>
     <row r="2" spans="1:69" ht="18.75">
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="24" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="17">
@@ -937,6 +938,7 @@
       <c r="E2" s="11" t="s">
         <v>67</v>
       </c>
+      <c r="F2" s="11"/>
       <c r="G2" s="2" t="s">
         <v>20</v>
       </c>
@@ -944,18 +946,18 @@
         <f>60*(2/3)</f>
         <v>40</v>
       </c>
-      <c r="K2" s="23" t="s">
+      <c r="K2" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="23"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
     </row>
     <row r="3" spans="1:69">
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="24" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="17">
@@ -965,12 +967,13 @@
       <c r="E3" s="11" t="s">
         <v>68</v>
       </c>
+      <c r="F3" s="11"/>
       <c r="G3" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:69">
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="24" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="17">
@@ -980,27 +983,31 @@
       <c r="E4" s="11" t="s">
         <v>69</v>
       </c>
+      <c r="F4" s="11"/>
     </row>
     <row r="5" spans="1:69">
-      <c r="C5" s="25"/>
+      <c r="C5" s="24"/>
       <c r="D5" s="17">
         <f>SUMIF($D$9:$D$65,C5,$E$9:$E$65)</f>
         <v>0</v>
       </c>
       <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
     </row>
     <row r="6" spans="1:69">
-      <c r="C6" s="25"/>
+      <c r="C6" s="24"/>
       <c r="D6" s="17">
         <f>SUMIF($D$9:$D$65,C6,$E$9:$E$65)</f>
         <v>0</v>
       </c>
       <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
     </row>
     <row r="7" spans="1:69">
-      <c r="C7" s="26"/>
+      <c r="C7" s="25"/>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
       <c r="J7">
         <v>1</v>
       </c>
@@ -1449,7 +1456,7 @@
     </row>
     <row r="9" spans="1:69" s="7" customFormat="1">
       <c r="B9" s="6"/>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="26" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="6"/>
@@ -1597,12 +1604,12 @@
       <c r="BP10" s="1"/>
       <c r="BQ10" s="1"/>
     </row>
-    <row r="11" spans="1:69" ht="30">
+    <row r="11" spans="1:69">
       <c r="A11">
         <v>2</v>
       </c>
       <c r="B11" s="3"/>
-      <c r="C11" s="28" t="s">
+      <c r="C11" s="27" t="s">
         <v>23</v>
       </c>
       <c r="D11" s="3" t="s">
@@ -1689,7 +1696,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="6"/>
-      <c r="C12" s="27" t="s">
+      <c r="C12" s="26" t="s">
         <v>9</v>
       </c>
       <c r="D12" s="6"/>
@@ -1851,7 +1858,7 @@
         <v>5</v>
       </c>
       <c r="B14" s="6"/>
-      <c r="C14" s="27" t="s">
+      <c r="C14" s="26" t="s">
         <v>54</v>
       </c>
       <c r="D14" s="6"/>
@@ -1928,7 +1935,7 @@
       <c r="B15" s="3">
         <v>1</v>
       </c>
-      <c r="C15" s="29" t="s">
+      <c r="C15" s="28" t="s">
         <v>36</v>
       </c>
       <c r="D15" s="3" t="s">
@@ -2029,7 +2036,7 @@
       <c r="B16" s="3">
         <v>2</v>
       </c>
-      <c r="C16" s="29" t="s">
+      <c r="C16" s="28" t="s">
         <v>70</v>
       </c>
       <c r="D16" s="3" t="s">
@@ -2128,7 +2135,7 @@
       <c r="B17" s="3">
         <v>3</v>
       </c>
-      <c r="C17" s="28" t="s">
+      <c r="C17" s="27" t="s">
         <v>28</v>
       </c>
       <c r="D17" s="3" t="s">
@@ -2213,7 +2220,7 @@
       <c r="B18" s="3">
         <v>4</v>
       </c>
-      <c r="C18" s="29" t="s">
+      <c r="C18" s="28" t="s">
         <v>24</v>
       </c>
       <c r="D18" s="3" t="s">
@@ -2304,7 +2311,7 @@
       <c r="B19" s="3">
         <v>5</v>
       </c>
-      <c r="C19" s="29" t="s">
+      <c r="C19" s="28" t="s">
         <v>25</v>
       </c>
       <c r="D19" s="3" t="s">
@@ -2399,7 +2406,7 @@
       <c r="B20" s="3">
         <v>6</v>
       </c>
-      <c r="C20" s="29" t="s">
+      <c r="C20" s="28" t="s">
         <v>26</v>
       </c>
       <c r="D20" s="3" t="s">
@@ -2494,7 +2501,7 @@
       <c r="B21" s="3">
         <v>7</v>
       </c>
-      <c r="C21" s="29" t="s">
+      <c r="C21" s="28" t="s">
         <v>27</v>
       </c>
       <c r="D21" s="3" t="s">
@@ -2589,7 +2596,7 @@
       <c r="B22" s="3">
         <v>8</v>
       </c>
-      <c r="C22" s="28"/>
+      <c r="C22" s="27"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="4">
@@ -2670,7 +2677,7 @@
       <c r="B23" s="3">
         <v>9</v>
       </c>
-      <c r="C23" s="27" t="s">
+      <c r="C23" s="26" t="s">
         <v>55</v>
       </c>
       <c r="D23" s="6"/>
@@ -2747,7 +2754,7 @@
       <c r="B24" s="3">
         <v>10</v>
       </c>
-      <c r="C24" s="28" t="s">
+      <c r="C24" s="27" t="s">
         <v>29</v>
       </c>
       <c r="D24" s="3" t="s">
@@ -2838,7 +2845,7 @@
       <c r="B25" s="3">
         <v>11</v>
       </c>
-      <c r="C25" s="28" t="s">
+      <c r="C25" s="27" t="s">
         <v>39</v>
       </c>
       <c r="D25" s="3" t="s">
@@ -2929,7 +2936,7 @@
       <c r="B26" s="3">
         <v>12</v>
       </c>
-      <c r="C26" s="28" t="s">
+      <c r="C26" s="27" t="s">
         <v>30</v>
       </c>
       <c r="D26" s="3" t="s">
@@ -3020,7 +3027,7 @@
       <c r="B27" s="3">
         <v>13</v>
       </c>
-      <c r="C27" s="28" t="s">
+      <c r="C27" s="27" t="s">
         <v>40</v>
       </c>
       <c r="D27" s="3" t="s">
@@ -3113,7 +3120,7 @@
       <c r="B28" s="3">
         <v>14</v>
       </c>
-      <c r="C28" s="28" t="s">
+      <c r="C28" s="27" t="s">
         <v>31</v>
       </c>
       <c r="D28" s="3" t="s">
@@ -3202,7 +3209,7 @@
       <c r="B29" s="3">
         <v>15</v>
       </c>
-      <c r="C29" s="28" t="s">
+      <c r="C29" s="27" t="s">
         <v>41</v>
       </c>
       <c r="D29" s="3" t="s">
@@ -3299,7 +3306,7 @@
       <c r="B30" s="3">
         <v>16</v>
       </c>
-      <c r="C30" s="28" t="s">
+      <c r="C30" s="27" t="s">
         <v>32</v>
       </c>
       <c r="D30" s="3" t="s">
@@ -3390,7 +3397,7 @@
       <c r="B31" s="3">
         <v>17</v>
       </c>
-      <c r="C31" s="28" t="s">
+      <c r="C31" s="27" t="s">
         <v>62</v>
       </c>
       <c r="D31" s="3" t="s">
@@ -3467,7 +3474,7 @@
         <v>23</v>
       </c>
       <c r="B32" s="3"/>
-      <c r="C32" s="28" t="s">
+      <c r="C32" s="27" t="s">
         <v>63</v>
       </c>
       <c r="D32" s="3" t="s">
@@ -3556,7 +3563,7 @@
         <v>24</v>
       </c>
       <c r="B33" s="3"/>
-      <c r="C33" s="28" t="s">
+      <c r="C33" s="27" t="s">
         <v>64</v>
       </c>
       <c r="D33" s="3" t="s">
@@ -3649,7 +3656,7 @@
       <c r="B34" s="3">
         <v>17</v>
       </c>
-      <c r="C34" s="24" t="s">
+      <c r="C34" s="23" t="s">
         <v>33</v>
       </c>
       <c r="D34" s="3" t="s">
@@ -3750,7 +3757,7 @@
       <c r="B35" s="3">
         <v>18</v>
       </c>
-      <c r="C35" s="28" t="s">
+      <c r="C35" s="27" t="s">
         <v>76</v>
       </c>
       <c r="D35" s="3" t="s">
@@ -3936,7 +3943,7 @@
         <v>28</v>
       </c>
       <c r="B37" s="3"/>
-      <c r="C37" s="32" t="s">
+      <c r="C37" s="31" t="s">
         <v>85</v>
       </c>
       <c r="D37" s="3"/>
@@ -4011,7 +4018,7 @@
         <v>29</v>
       </c>
       <c r="B38" s="3"/>
-      <c r="C38" s="36" t="s">
+      <c r="C38" s="35" t="s">
         <v>90</v>
       </c>
       <c r="D38" s="3"/>
@@ -4086,7 +4093,7 @@
         <v>30</v>
       </c>
       <c r="B39" s="3"/>
-      <c r="C39" s="32"/>
+      <c r="C39" s="31"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
       <c r="F39" s="4"/>
@@ -4159,7 +4166,7 @@
         <v>31</v>
       </c>
       <c r="B40" s="3"/>
-      <c r="C40" s="36" t="s">
+      <c r="C40" s="35" t="s">
         <v>91</v>
       </c>
       <c r="D40" s="3"/>
@@ -4234,7 +4241,7 @@
         <v>32</v>
       </c>
       <c r="B41" s="3"/>
-      <c r="C41" s="32" t="s">
+      <c r="C41" s="31" t="s">
         <v>87</v>
       </c>
       <c r="D41" s="3"/>
@@ -4306,7 +4313,7 @@
     </row>
     <row r="42" spans="1:69">
       <c r="B42" s="3"/>
-      <c r="C42" s="32" t="s">
+      <c r="C42" s="31" t="s">
         <v>89</v>
       </c>
       <c r="D42" s="3"/>
@@ -4378,7 +4385,7 @@
     </row>
     <row r="43" spans="1:69">
       <c r="B43" s="3"/>
-      <c r="C43" s="32" t="s">
+      <c r="C43" s="31" t="s">
         <v>95</v>
       </c>
       <c r="D43" s="3"/>
@@ -4522,7 +4529,7 @@
     </row>
     <row r="45" spans="1:69">
       <c r="B45" s="3"/>
-      <c r="C45" s="36" t="s">
+      <c r="C45" s="35" t="s">
         <v>92</v>
       </c>
       <c r="D45" s="3"/>
@@ -4594,7 +4601,7 @@
     </row>
     <row r="46" spans="1:69">
       <c r="B46" s="3"/>
-      <c r="C46" s="37"/>
+      <c r="C46" s="36"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
       <c r="F46" s="4"/>
@@ -4664,7 +4671,7 @@
     </row>
     <row r="47" spans="1:69">
       <c r="B47" s="3"/>
-      <c r="C47" s="37"/>
+      <c r="C47" s="36"/>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
       <c r="F47" s="4"/>
@@ -4734,7 +4741,7 @@
     </row>
     <row r="48" spans="1:69">
       <c r="B48" s="3"/>
-      <c r="C48" s="36" t="s">
+      <c r="C48" s="35" t="s">
         <v>93</v>
       </c>
       <c r="D48" s="3"/>
@@ -4806,7 +4813,7 @@
     </row>
     <row r="49" spans="1:69">
       <c r="B49" s="3"/>
-      <c r="C49" s="32" t="s">
+      <c r="C49" s="31" t="s">
         <v>86</v>
       </c>
       <c r="D49" s="3"/>
@@ -4878,7 +4885,7 @@
     </row>
     <row r="50" spans="1:69">
       <c r="B50" s="3"/>
-      <c r="C50" s="32" t="s">
+      <c r="C50" s="31" t="s">
         <v>88</v>
       </c>
       <c r="D50" s="3"/>
@@ -4950,7 +4957,7 @@
     </row>
     <row r="51" spans="1:69">
       <c r="B51" s="3"/>
-      <c r="C51" s="34"/>
+      <c r="C51" s="33"/>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
       <c r="F51" s="4"/>
@@ -5020,7 +5027,7 @@
     </row>
     <row r="52" spans="1:69">
       <c r="B52" s="3"/>
-      <c r="C52" s="33" t="s">
+      <c r="C52" s="32" t="s">
         <v>94</v>
       </c>
       <c r="D52" s="3"/>
@@ -5092,7 +5099,7 @@
     </row>
     <row r="53" spans="1:69">
       <c r="B53" s="3"/>
-      <c r="C53" s="32"/>
+      <c r="C53" s="31"/>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
       <c r="F53" s="4"/>
@@ -5162,7 +5169,7 @@
     </row>
     <row r="54" spans="1:69">
       <c r="B54" s="3"/>
-      <c r="C54" s="35"/>
+      <c r="C54" s="34"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
       <c r="F54" s="4"/>
@@ -5232,7 +5239,7 @@
     </row>
     <row r="55" spans="1:69">
       <c r="B55" s="3"/>
-      <c r="C55" s="35"/>
+      <c r="C55" s="34"/>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
       <c r="F55" s="4"/>
@@ -5302,7 +5309,7 @@
     </row>
     <row r="56" spans="1:69">
       <c r="B56" s="3"/>
-      <c r="C56" s="35"/>
+      <c r="C56" s="34"/>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
       <c r="F56" s="4"/>
@@ -5372,7 +5379,7 @@
     </row>
     <row r="57" spans="1:69">
       <c r="B57" s="3"/>
-      <c r="C57" s="35"/>
+      <c r="C57" s="34"/>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
       <c r="F57" s="4"/>
@@ -5520,7 +5527,7 @@
       <c r="B59" s="3">
         <v>20</v>
       </c>
-      <c r="C59" s="24" t="s">
+      <c r="C59" s="23" t="s">
         <v>34</v>
       </c>
       <c r="D59" s="3" t="s">
@@ -5798,14 +5805,14 @@
       <c r="BP61" s="17"/>
       <c r="BQ61" s="17"/>
     </row>
-    <row r="62" spans="1:69" ht="30">
+    <row r="62" spans="1:69">
       <c r="A62">
         <v>37</v>
       </c>
       <c r="B62" s="3">
         <v>23</v>
       </c>
-      <c r="C62" s="28" t="s">
+      <c r="C62" s="27" t="s">
         <v>35</v>
       </c>
       <c r="D62" s="3" t="s">
@@ -6104,7 +6111,7 @@
       <c r="B65" s="3">
         <v>26</v>
       </c>
-      <c r="C65" s="28"/>
+      <c r="C65" s="27"/>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
       <c r="F65" s="4">
@@ -6197,7 +6204,7 @@
       <c r="A69">
         <v>44</v>
       </c>
-      <c r="C69" s="31" t="s">
+      <c r="C69" s="30" t="s">
         <v>10</v>
       </c>
       <c r="F69" s="5"/>
@@ -6426,7 +6433,7 @@
       <formula>AND(H11&lt;&gt;$E$4,$G$10&lt;TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="2">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H10:H65">
       <formula1>$E$2:$E$6</formula1>
     </dataValidation>

--- a/01. Document/DropOut_project v2011.08.25.xlsx
+++ b/01. Document/DropOut_project v2011.08.25.xlsx
@@ -11,14 +11,14 @@
     <sheet name="Convension" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Plan!$A$8:$BQ$69</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Plan!$A$8:$BQ$72</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="102">
   <si>
     <t>STT</t>
   </si>
@@ -281,9 +281,6 @@
     <t>- Tham số luyện mạng</t>
   </si>
   <si>
-    <t>- Hiển thị dữ liệu từ file text</t>
-  </si>
-  <si>
     <t>- Truy vấn kết quả</t>
   </si>
   <si>
@@ -309,6 +306,24 @@
   </si>
   <si>
     <t xml:space="preserve">          - Chuẩn hóa dạng -1-&gt;1</t>
+  </si>
+  <si>
+    <t>Giao diện</t>
+  </si>
+  <si>
+    <t>Module chương trình</t>
+  </si>
+  <si>
+    <t>- Hiển thị dữ liệu từ file text, csv</t>
+  </si>
+  <si>
+    <t>- Làm sạch dữ liệu, khử nhiễu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          - Rời rạc hóa dữ liệu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- </t>
   </si>
 </sst>
 </file>
@@ -519,7 +534,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="11">
     <dxf>
       <fill>
         <patternFill>
@@ -541,6 +556,48 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF0000CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FF0000CC"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
         </patternFill>
       </fill>
     </dxf>
@@ -882,13 +939,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BQ69"/>
+  <dimension ref="A1:BQ72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="8" topLeftCell="H28" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="8" topLeftCell="H32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="D37" sqref="D37"/>
+      <selection pane="bottomRight" activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -932,7 +989,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="17">
-        <f>SUMIF($D$9:$D$65,C2,$E$9:$E$65)</f>
+        <f>SUMIF($D$9:$D$68,C2,$E$9:$E$68)</f>
         <v>0</v>
       </c>
       <c r="E2" s="11" t="s">
@@ -961,7 +1018,7 @@
         <v>18</v>
       </c>
       <c r="D3" s="17">
-        <f>SUMIF($D$9:$D$65,#REF!,$E$9:$E$65)</f>
+        <f>SUMIF($D$9:$D$68,#REF!,$E$9:$E$68)</f>
         <v>0</v>
       </c>
       <c r="E3" s="11" t="s">
@@ -977,7 +1034,7 @@
         <v>19</v>
       </c>
       <c r="D4" s="17">
-        <f>SUMIF($D$9:$D$65,C3,$E$9:$E$65)</f>
+        <f>SUMIF($D$9:$D$68,C3,$E$9:$E$68)</f>
         <v>0</v>
       </c>
       <c r="E4" s="11" t="s">
@@ -988,7 +1045,7 @@
     <row r="5" spans="1:69">
       <c r="C5" s="24"/>
       <c r="D5" s="17">
-        <f>SUMIF($D$9:$D$65,C5,$E$9:$E$65)</f>
+        <f>SUMIF($D$9:$D$68,C5,$E$9:$E$68)</f>
         <v>0</v>
       </c>
       <c r="E5" s="11"/>
@@ -997,7 +1054,7 @@
     <row r="6" spans="1:69">
       <c r="C6" s="24"/>
       <c r="D6" s="17">
-        <f>SUMIF($D$9:$D$65,C6,$E$9:$E$65)</f>
+        <f>SUMIF($D$9:$D$68,C6,$E$9:$E$68)</f>
         <v>0</v>
       </c>
       <c r="E6" s="11"/>
@@ -1526,11 +1583,11 @@
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="4">
-        <f>IFERROR( HLOOKUP("BE",J10:BD$69,$A$69-$A10+1,FALSE),0)+ IFERROR( HLOOKUP("B",J10:BD$69,$A$69-$A10+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J10:BD$72,$A$72-$A10+1,FALSE),0)+ IFERROR( HLOOKUP("B",J10:BD$72,$A$72-$A10+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="G10" s="4">
-        <f>IFERROR( HLOOKUP("BE",J10:BD$69,$A$69-$A10+1,FALSE),0)+ IFERROR( HLOOKUP("E",J10:BD$69,$A$69-$A10+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J10:BD$72,$A$72-$A10+1,FALSE),0)+ IFERROR( HLOOKUP("E",J10:BD$72,$A$72-$A10+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H10" s="4" t="s">
@@ -1617,11 +1674,11 @@
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="4">
-        <f>IFERROR( HLOOKUP("BE",J11:BD$69,$A$69-$A11+1,FALSE),0)+ IFERROR( HLOOKUP("B",J11:BD$69,$A$69-$A11+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J11:BD$72,$A$72-$A11+1,FALSE),0)+ IFERROR( HLOOKUP("B",J11:BD$72,$A$72-$A11+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="G11" s="4">
-        <f>IFERROR( HLOOKUP("BE",J11:BD$69,$A$69-$A11+1,FALSE),0)+ IFERROR( HLOOKUP("E",J11:BD$69,$A$69-$A11+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J11:BD$72,$A$72-$A11+1,FALSE),0)+ IFERROR( HLOOKUP("E",J11:BD$72,$A$72-$A11+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H11" s="4" t="s">
@@ -1779,11 +1836,11 @@
       </c>
       <c r="E13" s="12"/>
       <c r="F13" s="13">
-        <f>IFERROR( HLOOKUP("BE",J13:BD$69,$A$69-$A13+1,FALSE),0)+ IFERROR( HLOOKUP("B",J13:BD$69,$A$69-$A13+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J13:BD$72,$A$72-$A13+1,FALSE),0)+ IFERROR( HLOOKUP("B",J13:BD$72,$A$72-$A13+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="G13" s="13">
-        <f>IFERROR( HLOOKUP("BE",J13:BD$69,$A$69-$A13+1,FALSE),0)+ IFERROR( HLOOKUP("E",J13:BD$69,$A$69-$A13+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J13:BD$72,$A$72-$A13+1,FALSE),0)+ IFERROR( HLOOKUP("E",J13:BD$72,$A$72-$A13+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H13" s="4" t="s">
@@ -1943,11 +2000,11 @@
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="4">
-        <f>IFERROR( HLOOKUP("BE",J15:BD$69,$A$69-$A15+1,FALSE),0)+ IFERROR( HLOOKUP("B",J15:BD$69,$A$69-$A15+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J15:BD$72,$A$72-$A15+1,FALSE),0)+ IFERROR( HLOOKUP("B",J15:BD$72,$A$72-$A15+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="G15" s="4">
-        <f>IFERROR( HLOOKUP("BE",J15:BD$69,$A$69-$A15+1,FALSE),0)+ IFERROR( HLOOKUP("E",J15:BD$69,$A$69-$A15+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J15:BD$72,$A$72-$A15+1,FALSE),0)+ IFERROR( HLOOKUP("E",J15:BD$72,$A$72-$A15+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H15" s="4" t="s">
@@ -2044,11 +2101,11 @@
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="4">
-        <f>IFERROR( HLOOKUP("BE",J16:BD$69,$A$69-$A16+1,FALSE),0)+ IFERROR( HLOOKUP("B",J16:BD$69,$A$69-$A16+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J16:BD$72,$A$72-$A16+1,FALSE),0)+ IFERROR( HLOOKUP("B",J16:BD$72,$A$72-$A16+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="G16" s="4">
-        <f>IFERROR( HLOOKUP("BE",J16:BD$69,$A$69-$A16+1,FALSE),0)+ IFERROR( HLOOKUP("E",J16:BD$69,$A$69-$A16+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J16:BD$72,$A$72-$A16+1,FALSE),0)+ IFERROR( HLOOKUP("E",J16:BD$72,$A$72-$A16+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H16" s="4" t="s">
@@ -2228,11 +2285,11 @@
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="4">
-        <f>IFERROR( HLOOKUP("BE",J18:BD$69,$A$69-$A18+1,FALSE),0)+ IFERROR( HLOOKUP("B",J18:BD$69,$A$69-$A18+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J18:BD$72,$A$72-$A18+1,FALSE),0)+ IFERROR( HLOOKUP("B",J18:BD$72,$A$72-$A18+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="G18" s="4">
-        <f>IFERROR( HLOOKUP("BE",J18:BD$69,$A$69-$A18+1,FALSE),0)+ IFERROR( HLOOKUP("E",J18:BD$69,$A$69-$A18+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J18:BD$72,$A$72-$A18+1,FALSE),0)+ IFERROR( HLOOKUP("E",J18:BD$72,$A$72-$A18+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H18" s="4" t="s">
@@ -2319,11 +2376,11 @@
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="4">
-        <f>IFERROR( HLOOKUP("BE",J19:BD$69,$A$69-$A19+1,FALSE),0)+ IFERROR( HLOOKUP("B",J19:BD$69,$A$69-$A19+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J19:BD$72,$A$72-$A19+1,FALSE),0)+ IFERROR( HLOOKUP("B",J19:BD$72,$A$72-$A19+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="G19" s="4">
-        <f>IFERROR( HLOOKUP("BE",J19:BD$69,$A$69-$A19+1,FALSE),0)+ IFERROR( HLOOKUP("E",J19:BD$69,$A$69-$A19+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J19:BD$72,$A$72-$A19+1,FALSE),0)+ IFERROR( HLOOKUP("E",J19:BD$72,$A$72-$A19+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H19" s="4" t="s">
@@ -2414,11 +2471,11 @@
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="4">
-        <f>IFERROR( HLOOKUP("BE",J20:BD$69,$A$69-$A20+1,FALSE),0)+ IFERROR( HLOOKUP("B",J20:BD$69,$A$69-$A20+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J20:BD$72,$A$72-$A20+1,FALSE),0)+ IFERROR( HLOOKUP("B",J20:BD$72,$A$72-$A20+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="G20" s="4">
-        <f>IFERROR( HLOOKUP("BE",J20:BD$69,$A$69-$A20+1,FALSE),0)+ IFERROR( HLOOKUP("E",J20:BD$69,$A$69-$A20+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J20:BD$72,$A$72-$A20+1,FALSE),0)+ IFERROR( HLOOKUP("E",J20:BD$72,$A$72-$A20+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H20" s="4" t="s">
@@ -2509,11 +2566,11 @@
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="4">
-        <f>IFERROR( HLOOKUP("BE",J21:BD$69,$A$69-$A21+1,FALSE),0)+ IFERROR( HLOOKUP("B",J21:BD$69,$A$69-$A21+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J21:BD$72,$A$72-$A21+1,FALSE),0)+ IFERROR( HLOOKUP("B",J21:BD$72,$A$72-$A21+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="G21" s="4">
-        <f>IFERROR( HLOOKUP("BE",J21:BD$69,$A$69-$A21+1,FALSE),0)+ IFERROR( HLOOKUP("E",J21:BD$69,$A$69-$A21+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J21:BD$72,$A$72-$A21+1,FALSE),0)+ IFERROR( HLOOKUP("E",J21:BD$72,$A$72-$A21+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H21" s="4" t="s">
@@ -2600,11 +2657,11 @@
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="4">
-        <f>IFERROR( HLOOKUP("BE",J22:BD$69,$A$69-$A22+1,FALSE),0)+ IFERROR( HLOOKUP("B",J22:BD$69,$A$69-$A22+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J22:BD$72,$A$72-$A22+1,FALSE),0)+ IFERROR( HLOOKUP("B",J22:BD$72,$A$72-$A22+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="G22" s="4">
-        <f>IFERROR( HLOOKUP("BE",J22:BD$69,$A$69-$A22+1,FALSE),0)+ IFERROR( HLOOKUP("E",J22:BD$69,$A$69-$A22+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J22:BD$72,$A$72-$A22+1,FALSE),0)+ IFERROR( HLOOKUP("E",J22:BD$72,$A$72-$A22+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H22" s="4"/>
@@ -2762,11 +2819,11 @@
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="4">
-        <f>IFERROR( HLOOKUP("BE",J24:BD$69,$A$69-$A24+1,FALSE),0)+ IFERROR( HLOOKUP("B",J24:BD$69,$A$69-$A24+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J24:BD$72,$A$72-$A24+1,FALSE),0)+ IFERROR( HLOOKUP("B",J24:BD$72,$A$72-$A24+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="G24" s="4">
-        <f>IFERROR( HLOOKUP("BE",J24:BD$69,$A$69-$A24+1,FALSE),0)+ IFERROR( HLOOKUP("E",J24:BD$69,$A$69-$A24+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J24:BD$72,$A$72-$A24+1,FALSE),0)+ IFERROR( HLOOKUP("E",J24:BD$72,$A$72-$A24+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H24" s="4" t="s">
@@ -2853,11 +2910,11 @@
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="4">
-        <f>IFERROR( HLOOKUP("BE",J25:BD$69,$A$69-$A25+1,FALSE),0)+ IFERROR( HLOOKUP("B",J25:BD$69,$A$69-$A25+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J25:BD$72,$A$72-$A25+1,FALSE),0)+ IFERROR( HLOOKUP("B",J25:BD$72,$A$72-$A25+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="G25" s="4">
-        <f>IFERROR( HLOOKUP("BE",J25:BD$69,$A$69-$A25+1,FALSE),0)+ IFERROR( HLOOKUP("E",J25:BD$69,$A$69-$A25+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J25:BD$72,$A$72-$A25+1,FALSE),0)+ IFERROR( HLOOKUP("E",J25:BD$72,$A$72-$A25+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H25" s="4" t="s">
@@ -2944,11 +3001,11 @@
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="4">
-        <f>IFERROR( HLOOKUP("BE",J26:BD$69,$A$69-$A26+1,FALSE),0)+ IFERROR( HLOOKUP("B",J26:BD$69,$A$69-$A26+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J26:BD$72,$A$72-$A26+1,FALSE),0)+ IFERROR( HLOOKUP("B",J26:BD$72,$A$72-$A26+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="G26" s="4">
-        <f>IFERROR( HLOOKUP("BE",J26:BD$69,$A$69-$A26+1,FALSE),0)+ IFERROR( HLOOKUP("E",J26:BD$69,$A$69-$A26+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J26:BD$72,$A$72-$A26+1,FALSE),0)+ IFERROR( HLOOKUP("E",J26:BD$72,$A$72-$A26+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H26" s="4" t="s">
@@ -3035,11 +3092,11 @@
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="4">
-        <f>IFERROR( HLOOKUP("BE",J27:BD$69,$A$69-$A27+1,FALSE),0)+ IFERROR( HLOOKUP("B",J27:BD$69,$A$69-$A27+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J27:BD$72,$A$72-$A27+1,FALSE),0)+ IFERROR( HLOOKUP("B",J27:BD$72,$A$72-$A27+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="G27" s="4">
-        <f>IFERROR( HLOOKUP("BE",J27:BD$69,$A$69-$A27+1,FALSE),0)+ IFERROR( HLOOKUP("E",J27:BD$69,$A$69-$A27+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J27:BD$72,$A$72-$A27+1,FALSE),0)+ IFERROR( HLOOKUP("E",J27:BD$72,$A$72-$A27+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H27" s="4" t="s">
@@ -3128,11 +3185,11 @@
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="4">
-        <f>IFERROR( HLOOKUP("BE",J28:BD$69,$A$69-$A28+1,FALSE),0)+ IFERROR( HLOOKUP("B",J28:BD$69,$A$69-$A28+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J28:BD$72,$A$72-$A28+1,FALSE),0)+ IFERROR( HLOOKUP("B",J28:BD$72,$A$72-$A28+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="G28" s="4">
-        <f>IFERROR( HLOOKUP("BE",J28:BD$69,$A$69-$A28+1,FALSE),0)+ IFERROR( HLOOKUP("E",J28:BD$69,$A$69-$A28+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J28:BD$72,$A$72-$A28+1,FALSE),0)+ IFERROR( HLOOKUP("E",J28:BD$72,$A$72-$A28+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H28" s="4" t="s">
@@ -3217,11 +3274,11 @@
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="4">
-        <f>IFERROR( HLOOKUP("BE",J29:BD$69,$A$69-$A29+1,FALSE),0)+ IFERROR( HLOOKUP("B",J29:BD$69,$A$69-$A29+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J29:BD$72,$A$72-$A29+1,FALSE),0)+ IFERROR( HLOOKUP("B",J29:BD$72,$A$72-$A29+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="G29" s="4">
-        <f>IFERROR( HLOOKUP("BE",J29:BD$69,$A$69-$A29+1,FALSE),0)+ IFERROR( HLOOKUP("E",J29:BD$69,$A$69-$A29+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J29:BD$72,$A$72-$A29+1,FALSE),0)+ IFERROR( HLOOKUP("E",J29:BD$72,$A$72-$A29+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H29" s="4" t="s">
@@ -3314,11 +3371,11 @@
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="4">
-        <f>IFERROR( HLOOKUP("BE",J30:BD$69,$A$69-$A30+1,FALSE),0)+ IFERROR( HLOOKUP("B",J30:BD$69,$A$69-$A30+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J30:BD$72,$A$72-$A30+1,FALSE),0)+ IFERROR( HLOOKUP("B",J30:BD$72,$A$72-$A30+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="G30" s="4">
-        <f>IFERROR( HLOOKUP("BE",J30:BD$69,$A$69-$A30+1,FALSE),0)+ IFERROR( HLOOKUP("E",J30:BD$69,$A$69-$A30+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J30:BD$72,$A$72-$A30+1,FALSE),0)+ IFERROR( HLOOKUP("E",J30:BD$72,$A$72-$A30+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H30" s="4" t="s">
@@ -3482,11 +3539,11 @@
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="4">
-        <f>IFERROR( HLOOKUP("BE",J32:BD$69,$A$69-$A32+1,FALSE),0)+ IFERROR( HLOOKUP("B",J32:BD$69,$A$69-$A32+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J32:BD$72,$A$72-$A32+1,FALSE),0)+ IFERROR( HLOOKUP("B",J32:BD$72,$A$72-$A32+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="G32" s="4">
-        <f>IFERROR( HLOOKUP("BE",J32:BD$69,$A$69-$A32+1,FALSE),0)+ IFERROR( HLOOKUP("E",J32:BD$69,$A$69-$A32+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J32:BD$72,$A$72-$A32+1,FALSE),0)+ IFERROR( HLOOKUP("E",J32:BD$72,$A$72-$A32+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H32" s="4" t="s">
@@ -3571,11 +3628,11 @@
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="4">
-        <f>IFERROR( HLOOKUP("BE",J33:BD$69,$A$69-$A33+1,FALSE),0)+ IFERROR( HLOOKUP("B",J33:BD$69,$A$69-$A33+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J33:BD$72,$A$72-$A33+1,FALSE),0)+ IFERROR( HLOOKUP("B",J33:BD$72,$A$72-$A33+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="G33" s="4">
-        <f>IFERROR( HLOOKUP("BE",J33:BD$69,$A$69-$A33+1,FALSE),0)+ IFERROR( HLOOKUP("E",J33:BD$69,$A$69-$A33+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J33:BD$72,$A$72-$A33+1,FALSE),0)+ IFERROR( HLOOKUP("E",J33:BD$72,$A$72-$A33+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H33" s="4" t="s">
@@ -3664,11 +3721,11 @@
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="4">
-        <f>IFERROR( HLOOKUP("BE",J34:BD$69,$A$69-$A34+1,FALSE),0)+ IFERROR( HLOOKUP("B",J34:BD$69,$A$69-$A34+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J34:BD$72,$A$72-$A34+1,FALSE),0)+ IFERROR( HLOOKUP("B",J34:BD$72,$A$72-$A34+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="G34" s="4">
-        <f>IFERROR( HLOOKUP("BE",J34:BD$69,$A$69-$A34+1,FALSE),0)+ IFERROR( HLOOKUP("E",J34:BD$69,$A$69-$A34+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J34:BD$72,$A$72-$A34+1,FALSE),0)+ IFERROR( HLOOKUP("E",J34:BD$72,$A$72-$A34+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H34" s="4" t="s">
@@ -3765,11 +3822,11 @@
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="4">
-        <f>IFERROR( HLOOKUP("BE",J35:BD$69,$A$69-$A35+1,FALSE),0)+ IFERROR( HLOOKUP("B",J35:BD$69,$A$69-$A35+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J35:BD$72,$A$72-$A35+1,FALSE),0)+ IFERROR( HLOOKUP("B",J35:BD$72,$A$72-$A35+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="G35" s="4">
-        <f>IFERROR( HLOOKUP("BE",J35:BD$69,$A$69-$A35+1,FALSE),0)+ IFERROR( HLOOKUP("E",J35:BD$69,$A$69-$A35+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J35:BD$72,$A$72-$A35+1,FALSE),0)+ IFERROR( HLOOKUP("E",J35:BD$72,$A$72-$A35+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H35" s="4" t="s">
@@ -3860,11 +3917,11 @@
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="4">
-        <f>IFERROR( HLOOKUP("BE",J36:BD$69,$A$69-$A36+1,FALSE),0)+ IFERROR( HLOOKUP("B",J36:BD$69,$A$69-$A36+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J36:BD$72,$A$72-$A36+1,FALSE),0)+ IFERROR( HLOOKUP("B",J36:BD$72,$A$72-$A36+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="G36" s="4">
-        <f>IFERROR( HLOOKUP("BE",J36:BD$69,$A$69-$A36+1,FALSE),0)+ IFERROR( HLOOKUP("E",J36:BD$69,$A$69-$A36+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J36:BD$72,$A$72-$A36+1,FALSE),0)+ IFERROR( HLOOKUP("E",J36:BD$72,$A$72-$A36+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H36" s="4" t="s">
@@ -3946,12 +4003,18 @@
       <c r="C37" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="D37" s="3"/>
+      <c r="D37" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="E37" s="3"/>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="3"/>
+      <c r="H37" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>96</v>
+      </c>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="17"/>
@@ -3984,11 +4047,21 @@
       <c r="AM37" s="1"/>
       <c r="AN37" s="17"/>
       <c r="AO37" s="17"/>
-      <c r="AP37" s="1"/>
-      <c r="AQ37" s="1"/>
-      <c r="AR37" s="1"/>
-      <c r="AS37" s="1"/>
-      <c r="AT37" s="1"/>
+      <c r="AP37" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AQ37" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AR37" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AS37" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AT37" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="AU37" s="17"/>
       <c r="AV37" s="17"/>
       <c r="AW37" s="1"/>
@@ -4019,7 +4092,7 @@
       </c>
       <c r="B38" s="3"/>
       <c r="C38" s="35" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
@@ -4089,9 +4162,6 @@
       <c r="BQ38" s="17"/>
     </row>
     <row r="39" spans="1:69">
-      <c r="A39">
-        <v>30</v>
-      </c>
       <c r="B39" s="3"/>
       <c r="C39" s="31"/>
       <c r="D39" s="3"/>
@@ -4167,7 +4237,7 @@
       </c>
       <c r="B40" s="3"/>
       <c r="C40" s="35" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
@@ -4242,14 +4312,20 @@
       </c>
       <c r="B41" s="3"/>
       <c r="C41" s="31" t="s">
-        <v>87</v>
-      </c>
-      <c r="D41" s="3"/>
+        <v>98</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="E41" s="3"/>
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
-      <c r="I41" s="3"/>
+      <c r="H41" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>97</v>
+      </c>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="17"/>
@@ -4314,14 +4390,20 @@
     <row r="42" spans="1:69">
       <c r="B42" s="3"/>
       <c r="C42" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="D42" s="3"/>
+        <v>99</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="E42" s="3"/>
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
-      <c r="H42" s="4"/>
-      <c r="I42" s="3"/>
+      <c r="H42" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>97</v>
+      </c>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="17"/>
@@ -4386,14 +4468,20 @@
     <row r="43" spans="1:69">
       <c r="B43" s="3"/>
       <c r="C43" s="31" t="s">
-        <v>95</v>
-      </c>
-      <c r="D43" s="3"/>
+        <v>88</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="E43" s="3"/>
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
-      <c r="H43" s="4"/>
-      <c r="I43" s="3"/>
+      <c r="H43" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>97</v>
+      </c>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="L43" s="17"/>
@@ -4457,8 +4545,8 @@
     </row>
     <row r="44" spans="1:69">
       <c r="B44" s="3"/>
-      <c r="C44" s="3" t="s">
-        <v>96</v>
+      <c r="C44" s="35" t="s">
+        <v>91</v>
       </c>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
@@ -4529,15 +4617,21 @@
     </row>
     <row r="45" spans="1:69">
       <c r="B45" s="3"/>
-      <c r="C45" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="D45" s="3"/>
+      <c r="C45" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="E45" s="3"/>
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
-      <c r="H45" s="4"/>
-      <c r="I45" s="3"/>
+      <c r="H45" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>97</v>
+      </c>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
       <c r="L45" s="17"/>
@@ -4601,13 +4695,21 @@
     </row>
     <row r="46" spans="1:69">
       <c r="B46" s="3"/>
-      <c r="C46" s="36"/>
-      <c r="D46" s="3"/>
+      <c r="C46" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="E46" s="3"/>
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
-      <c r="H46" s="4"/>
-      <c r="I46" s="3"/>
+      <c r="H46" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>97</v>
+      </c>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
       <c r="L46" s="17"/>
@@ -4671,13 +4773,21 @@
     </row>
     <row r="47" spans="1:69">
       <c r="B47" s="3"/>
-      <c r="C47" s="36"/>
-      <c r="D47" s="3"/>
+      <c r="C47" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="E47" s="3"/>
       <c r="F47" s="4"/>
       <c r="G47" s="4"/>
-      <c r="H47" s="4"/>
-      <c r="I47" s="3"/>
+      <c r="H47" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>97</v>
+      </c>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
       <c r="L47" s="17"/>
@@ -4741,9 +4851,7 @@
     </row>
     <row r="48" spans="1:69">
       <c r="B48" s="3"/>
-      <c r="C48" s="35" t="s">
-        <v>93</v>
-      </c>
+      <c r="C48" s="36"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
       <c r="F48" s="4"/>
@@ -4813,9 +4921,7 @@
     </row>
     <row r="49" spans="1:69">
       <c r="B49" s="3"/>
-      <c r="C49" s="31" t="s">
-        <v>86</v>
-      </c>
+      <c r="C49" s="36"/>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
       <c r="F49" s="4"/>
@@ -4885,8 +4991,8 @@
     </row>
     <row r="50" spans="1:69">
       <c r="B50" s="3"/>
-      <c r="C50" s="31" t="s">
-        <v>88</v>
+      <c r="C50" s="35" t="s">
+        <v>92</v>
       </c>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
@@ -4957,8 +5063,12 @@
     </row>
     <row r="51" spans="1:69">
       <c r="B51" s="3"/>
-      <c r="C51" s="33"/>
-      <c r="D51" s="3"/>
+      <c r="C51" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="E51" s="3"/>
       <c r="F51" s="4"/>
       <c r="G51" s="4"/>
@@ -5027,10 +5137,12 @@
     </row>
     <row r="52" spans="1:69">
       <c r="B52" s="3"/>
-      <c r="C52" s="32" t="s">
-        <v>94</v>
-      </c>
-      <c r="D52" s="3"/>
+      <c r="C52" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="E52" s="3"/>
       <c r="F52" s="4"/>
       <c r="G52" s="4"/>
@@ -5099,7 +5211,9 @@
     </row>
     <row r="53" spans="1:69">
       <c r="B53" s="3"/>
-      <c r="C53" s="31"/>
+      <c r="C53" s="31" t="s">
+        <v>101</v>
+      </c>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
       <c r="F53" s="4"/>
@@ -5169,7 +5283,7 @@
     </row>
     <row r="54" spans="1:69">
       <c r="B54" s="3"/>
-      <c r="C54" s="34"/>
+      <c r="C54" s="33"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
       <c r="F54" s="4"/>
@@ -5239,7 +5353,9 @@
     </row>
     <row r="55" spans="1:69">
       <c r="B55" s="3"/>
-      <c r="C55" s="34"/>
+      <c r="C55" s="32" t="s">
+        <v>93</v>
+      </c>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
       <c r="F55" s="4"/>
@@ -5309,7 +5425,7 @@
     </row>
     <row r="56" spans="1:69">
       <c r="B56" s="3"/>
-      <c r="C56" s="34"/>
+      <c r="C56" s="31"/>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
       <c r="F56" s="4"/>
@@ -5448,11 +5564,8 @@
       <c r="BQ57" s="17"/>
     </row>
     <row r="58" spans="1:69">
-      <c r="A58">
-        <v>33</v>
-      </c>
       <c r="B58" s="3"/>
-      <c r="C58" s="3"/>
+      <c r="C58" s="34"/>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
       <c r="F58" s="4"/>
@@ -5521,33 +5634,14 @@
       <c r="BQ58" s="17"/>
     </row>
     <row r="59" spans="1:69">
-      <c r="A59">
-        <v>34</v>
-      </c>
-      <c r="B59" s="3">
-        <v>20</v>
-      </c>
-      <c r="C59" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>19</v>
-      </c>
+      <c r="B59" s="3"/>
+      <c r="C59" s="34"/>
+      <c r="D59" s="3"/>
       <c r="E59" s="3"/>
-      <c r="F59" s="4">
-        <f>IFERROR( HLOOKUP("BE",J59:BD$69,$A$69-$A59+1,FALSE),0)+ IFERROR( HLOOKUP("B",J59:BD$69,$A$69-$A59+1,FALSE),0)</f>
-        <v>40795</v>
-      </c>
-      <c r="G59" s="4">
-        <f>IFERROR( HLOOKUP("BE",J59:BD$69,$A$69-$A59+1,FALSE),0)+ IFERROR( HLOOKUP("E",J59:BD$69,$A$69-$A59+1,FALSE),0)</f>
-        <v>40809</v>
-      </c>
-      <c r="H59" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>58</v>
-      </c>
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="4"/>
+      <c r="I59" s="3"/>
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
       <c r="L59" s="17"/>
@@ -5563,51 +5657,21 @@
       <c r="V59" s="1"/>
       <c r="W59" s="1"/>
       <c r="X59" s="1"/>
-      <c r="Y59" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z59" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA59" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB59" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC59" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD59" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AE59" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AF59" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AG59" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="AH59" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="AI59" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AJ59" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AK59" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AL59" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AM59" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="Y59" s="1"/>
+      <c r="Z59" s="17"/>
+      <c r="AA59" s="17"/>
+      <c r="AB59" s="1"/>
+      <c r="AC59" s="1"/>
+      <c r="AD59" s="1"/>
+      <c r="AE59" s="1"/>
+      <c r="AF59" s="1"/>
+      <c r="AG59" s="17"/>
+      <c r="AH59" s="17"/>
+      <c r="AI59" s="1"/>
+      <c r="AJ59" s="1"/>
+      <c r="AK59" s="1"/>
+      <c r="AL59" s="1"/>
+      <c r="AM59" s="1"/>
       <c r="AN59" s="17"/>
       <c r="AO59" s="17"/>
       <c r="AP59" s="1"/>
@@ -5640,27 +5704,14 @@
       <c r="BQ59" s="17"/>
     </row>
     <row r="60" spans="1:69">
-      <c r="A60">
-        <v>35</v>
-      </c>
-      <c r="B60" s="3">
-        <v>21</v>
-      </c>
-      <c r="C60" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>19</v>
-      </c>
+      <c r="B60" s="3"/>
+      <c r="C60" s="34"/>
+      <c r="D60" s="3"/>
       <c r="E60" s="3"/>
       <c r="F60" s="4"/>
       <c r="G60" s="4"/>
-      <c r="H60" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>58</v>
-      </c>
+      <c r="H60" s="4"/>
+      <c r="I60" s="3"/>
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
       <c r="L60" s="17"/>
@@ -5724,26 +5775,16 @@
     </row>
     <row r="61" spans="1:69">
       <c r="A61">
-        <v>36</v>
-      </c>
-      <c r="B61" s="3">
-        <v>22</v>
-      </c>
-      <c r="C61" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>19</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="B61" s="3"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
       <c r="E61" s="3"/>
       <c r="F61" s="4"/>
       <c r="G61" s="4"/>
-      <c r="H61" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="I61" s="3" t="s">
-        <v>58</v>
-      </c>
+      <c r="H61" s="4"/>
+      <c r="I61" s="3"/>
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
       <c r="L61" s="17"/>
@@ -5807,31 +5848,31 @@
     </row>
     <row r="62" spans="1:69">
       <c r="A62">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B62" s="3">
-        <v>23</v>
-      </c>
-      <c r="C62" s="27" t="s">
-        <v>35</v>
+        <v>20</v>
+      </c>
+      <c r="C62" s="23" t="s">
+        <v>34</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E62" s="3"/>
       <c r="F62" s="4">
-        <f>IFERROR( HLOOKUP("BE",J62:BD$69,$A$69-$A62+1,FALSE),0)+ IFERROR( HLOOKUP("B",J62:BD$69,$A$69-$A62+1,FALSE),0)</f>
-        <v>40821</v>
+        <f>IFERROR( HLOOKUP("BE",J62:BD$72,$A$72-$A62+1,FALSE),0)+ IFERROR( HLOOKUP("B",J62:BD$72,$A$72-$A62+1,FALSE),0)</f>
+        <v>40795</v>
       </c>
       <c r="G62" s="4">
-        <f>IFERROR( HLOOKUP("BE",J62:BD$69,$A$69-$A62+1,FALSE),0)+ IFERROR( HLOOKUP("E",J62:BD$69,$A$69-$A62+1,FALSE),0)</f>
-        <v>40821</v>
+        <f>IFERROR( HLOOKUP("BE",J62:BD$72,$A$72-$A62+1,FALSE),0)+ IFERROR( HLOOKUP("E",J62:BD$72,$A$72-$A62+1,FALSE),0)</f>
+        <v>40809</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J62" s="1"/>
       <c r="K62" s="1"/>
@@ -5848,21 +5889,51 @@
       <c r="V62" s="1"/>
       <c r="W62" s="1"/>
       <c r="X62" s="1"/>
-      <c r="Y62" s="1"/>
-      <c r="Z62" s="17"/>
-      <c r="AA62" s="17"/>
-      <c r="AB62" s="1"/>
-      <c r="AC62" s="1"/>
-      <c r="AD62" s="1"/>
-      <c r="AE62" s="1"/>
-      <c r="AF62" s="1"/>
-      <c r="AG62" s="17"/>
-      <c r="AH62" s="17"/>
-      <c r="AI62" s="1"/>
-      <c r="AJ62" s="1"/>
-      <c r="AK62" s="1"/>
-      <c r="AL62" s="1"/>
-      <c r="AM62" s="1"/>
+      <c r="Y62" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z62" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA62" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB62" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC62" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD62" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE62" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF62" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AG62" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="AH62" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="AI62" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AJ62" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AK62" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AL62" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AM62" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="AN62" s="17"/>
       <c r="AO62" s="17"/>
       <c r="AP62" s="1"/>
@@ -5874,9 +5945,7 @@
       <c r="AV62" s="17"/>
       <c r="AW62" s="1"/>
       <c r="AX62" s="1"/>
-      <c r="AY62" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="AY62" s="1"/>
       <c r="AZ62" s="1"/>
       <c r="BA62" s="1"/>
       <c r="BB62" s="17"/>
@@ -5898,26 +5967,20 @@
     </row>
     <row r="63" spans="1:69">
       <c r="A63">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B63" s="3">
-        <v>24</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>37</v>
+        <v>21</v>
+      </c>
+      <c r="C63" s="12" t="s">
+        <v>82</v>
       </c>
       <c r="D63" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E63" s="3"/>
-      <c r="F63" s="4">
-        <f>IFERROR( HLOOKUP("BE",J63:BD$69,$A$69-$A63+1,FALSE),0)+ IFERROR( HLOOKUP("B",J63:BD$69,$A$69-$A63+1,FALSE),0)</f>
-        <v>40813</v>
-      </c>
-      <c r="G63" s="4">
-        <f>IFERROR( HLOOKUP("BE",J63:BD$69,$A$69-$A63+1,FALSE),0)+ IFERROR( HLOOKUP("E",J63:BD$69,$A$69-$A63+1,FALSE),0)</f>
-        <v>40820</v>
-      </c>
+      <c r="F63" s="4"/>
+      <c r="G63" s="4"/>
       <c r="H63" s="4" t="s">
         <v>67</v>
       </c>
@@ -5957,30 +6020,14 @@
       <c r="AN63" s="17"/>
       <c r="AO63" s="17"/>
       <c r="AP63" s="1"/>
-      <c r="AQ63" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AR63" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AS63" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AT63" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AU63" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="AV63" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="AW63" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AX63" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="AQ63" s="1"/>
+      <c r="AR63" s="1"/>
+      <c r="AS63" s="1"/>
+      <c r="AT63" s="1"/>
+      <c r="AU63" s="17"/>
+      <c r="AV63" s="17"/>
+      <c r="AW63" s="1"/>
+      <c r="AX63" s="1"/>
       <c r="AY63" s="1"/>
       <c r="AZ63" s="1"/>
       <c r="BA63" s="1"/>
@@ -6003,26 +6050,20 @@
     </row>
     <row r="64" spans="1:69">
       <c r="A64">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B64" s="3">
-        <v>25</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>38</v>
+        <v>22</v>
+      </c>
+      <c r="C64" s="12" t="s">
+        <v>83</v>
       </c>
       <c r="D64" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E64" s="3"/>
-      <c r="F64" s="4">
-        <f>IFERROR( HLOOKUP("BE",J64:BD$69,$A$69-$A64+1,FALSE),0)+ IFERROR( HLOOKUP("B",J64:BD$69,$A$69-$A64+1,FALSE),0)</f>
-        <v>40821</v>
-      </c>
-      <c r="G64" s="4">
-        <f>IFERROR( HLOOKUP("BE",J64:BD$69,$A$69-$A64+1,FALSE),0)+ IFERROR( HLOOKUP("E",J64:BD$69,$A$69-$A64+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
+      <c r="F64" s="4"/>
+      <c r="G64" s="4"/>
       <c r="H64" s="4" t="s">
         <v>67</v>
       </c>
@@ -6070,27 +6111,13 @@
       <c r="AV64" s="17"/>
       <c r="AW64" s="1"/>
       <c r="AX64" s="1"/>
-      <c r="AY64" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="AZ64" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="BA64" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="BB64" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="BC64" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="BD64" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="BE64" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="AY64" s="1"/>
+      <c r="AZ64" s="1"/>
+      <c r="BA64" s="1"/>
+      <c r="BB64" s="17"/>
+      <c r="BC64" s="17"/>
+      <c r="BD64" s="1"/>
+      <c r="BE64" s="1"/>
       <c r="BF64" s="1"/>
       <c r="BG64" s="1"/>
       <c r="BH64" s="1"/>
@@ -6104,26 +6131,34 @@
       <c r="BP64" s="17"/>
       <c r="BQ64" s="17"/>
     </row>
-    <row r="65" spans="1:69" ht="18.75" customHeight="1">
+    <row r="65" spans="1:69">
       <c r="A65">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B65" s="3">
-        <v>26</v>
-      </c>
-      <c r="C65" s="27"/>
-      <c r="D65" s="3"/>
+        <v>23</v>
+      </c>
+      <c r="C65" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="E65" s="3"/>
       <c r="F65" s="4">
-        <f>IFERROR( HLOOKUP("BE",J65:BD$69,$A$69-$A65+1,FALSE),0)+ IFERROR( HLOOKUP("B",J65:BD$69,$A$69-$A65+1,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR( HLOOKUP("BE",J65:BD$72,$A$72-$A65+1,FALSE),0)+ IFERROR( HLOOKUP("B",J65:BD$72,$A$72-$A65+1,FALSE),0)</f>
+        <v>40821</v>
       </c>
       <c r="G65" s="4">
-        <f>IFERROR( HLOOKUP("BE",J65:BD$69,$A$69-$A65+1,FALSE),0)+ IFERROR( HLOOKUP("E",J65:BD$69,$A$69-$A65+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H65" s="4"/>
-      <c r="I65" s="3"/>
+        <f>IFERROR( HLOOKUP("BE",J65:BD$72,$A$72-$A65+1,FALSE),0)+ IFERROR( HLOOKUP("E",J65:BD$72,$A$72-$A65+1,FALSE),0)</f>
+        <v>40821</v>
+      </c>
+      <c r="H65" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="I65" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="J65" s="1"/>
       <c r="K65" s="1"/>
       <c r="L65" s="17"/>
@@ -6165,7 +6200,9 @@
       <c r="AV65" s="17"/>
       <c r="AW65" s="1"/>
       <c r="AX65" s="1"/>
-      <c r="AY65" s="1"/>
+      <c r="AY65" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="AZ65" s="1"/>
       <c r="BA65" s="1"/>
       <c r="BB65" s="17"/>
@@ -6187,224 +6224,513 @@
     </row>
     <row r="66" spans="1:69">
       <c r="A66">
-        <v>41</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="B66" s="3">
+        <v>24</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E66" s="3"/>
+      <c r="F66" s="4">
+        <f>IFERROR( HLOOKUP("BE",J66:BD$72,$A$72-$A66+1,FALSE),0)+ IFERROR( HLOOKUP("B",J66:BD$72,$A$72-$A66+1,FALSE),0)</f>
+        <v>40813</v>
+      </c>
+      <c r="G66" s="4">
+        <f>IFERROR( HLOOKUP("BE",J66:BD$72,$A$72-$A66+1,FALSE),0)+ IFERROR( HLOOKUP("E",J66:BD$72,$A$72-$A66+1,FALSE),0)</f>
+        <v>40820</v>
+      </c>
+      <c r="H66" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J66" s="1"/>
+      <c r="K66" s="1"/>
+      <c r="L66" s="17"/>
+      <c r="M66" s="17"/>
+      <c r="N66" s="1"/>
+      <c r="O66" s="1"/>
+      <c r="P66" s="1"/>
+      <c r="Q66" s="1"/>
+      <c r="R66" s="17"/>
+      <c r="S66" s="17"/>
+      <c r="T66" s="17"/>
+      <c r="U66" s="1"/>
+      <c r="V66" s="1"/>
+      <c r="W66" s="1"/>
+      <c r="X66" s="1"/>
+      <c r="Y66" s="1"/>
+      <c r="Z66" s="17"/>
+      <c r="AA66" s="17"/>
+      <c r="AB66" s="1"/>
+      <c r="AC66" s="1"/>
+      <c r="AD66" s="1"/>
+      <c r="AE66" s="1"/>
+      <c r="AF66" s="1"/>
+      <c r="AG66" s="17"/>
+      <c r="AH66" s="17"/>
+      <c r="AI66" s="1"/>
+      <c r="AJ66" s="1"/>
+      <c r="AK66" s="1"/>
+      <c r="AL66" s="1"/>
+      <c r="AM66" s="1"/>
+      <c r="AN66" s="17"/>
+      <c r="AO66" s="17"/>
+      <c r="AP66" s="1"/>
+      <c r="AQ66" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AR66" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AS66" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AT66" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AU66" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="AV66" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="AW66" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AX66" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AY66" s="1"/>
+      <c r="AZ66" s="1"/>
+      <c r="BA66" s="1"/>
+      <c r="BB66" s="17"/>
+      <c r="BC66" s="17"/>
+      <c r="BD66" s="1"/>
+      <c r="BE66" s="1"/>
+      <c r="BF66" s="1"/>
+      <c r="BG66" s="1"/>
+      <c r="BH66" s="1"/>
+      <c r="BI66" s="17"/>
+      <c r="BJ66" s="17"/>
+      <c r="BK66" s="1"/>
+      <c r="BL66" s="1"/>
+      <c r="BM66" s="1"/>
+      <c r="BN66" s="1"/>
+      <c r="BO66" s="1"/>
+      <c r="BP66" s="17"/>
+      <c r="BQ66" s="17"/>
     </row>
     <row r="67" spans="1:69">
       <c r="A67">
+        <v>39</v>
+      </c>
+      <c r="B67" s="3">
+        <v>25</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E67" s="3"/>
+      <c r="F67" s="4">
+        <f>IFERROR( HLOOKUP("BE",J67:BD$72,$A$72-$A67+1,FALSE),0)+ IFERROR( HLOOKUP("B",J67:BD$72,$A$72-$A67+1,FALSE),0)</f>
+        <v>40821</v>
+      </c>
+      <c r="G67" s="4">
+        <f>IFERROR( HLOOKUP("BE",J67:BD$72,$A$72-$A67+1,FALSE),0)+ IFERROR( HLOOKUP("E",J67:BD$72,$A$72-$A67+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H67" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="I67" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J67" s="1"/>
+      <c r="K67" s="1"/>
+      <c r="L67" s="17"/>
+      <c r="M67" s="17"/>
+      <c r="N67" s="1"/>
+      <c r="O67" s="1"/>
+      <c r="P67" s="1"/>
+      <c r="Q67" s="1"/>
+      <c r="R67" s="17"/>
+      <c r="S67" s="17"/>
+      <c r="T67" s="17"/>
+      <c r="U67" s="1"/>
+      <c r="V67" s="1"/>
+      <c r="W67" s="1"/>
+      <c r="X67" s="1"/>
+      <c r="Y67" s="1"/>
+      <c r="Z67" s="17"/>
+      <c r="AA67" s="17"/>
+      <c r="AB67" s="1"/>
+      <c r="AC67" s="1"/>
+      <c r="AD67" s="1"/>
+      <c r="AE67" s="1"/>
+      <c r="AF67" s="1"/>
+      <c r="AG67" s="17"/>
+      <c r="AH67" s="17"/>
+      <c r="AI67" s="1"/>
+      <c r="AJ67" s="1"/>
+      <c r="AK67" s="1"/>
+      <c r="AL67" s="1"/>
+      <c r="AM67" s="1"/>
+      <c r="AN67" s="17"/>
+      <c r="AO67" s="17"/>
+      <c r="AP67" s="1"/>
+      <c r="AQ67" s="1"/>
+      <c r="AR67" s="1"/>
+      <c r="AS67" s="1"/>
+      <c r="AT67" s="1"/>
+      <c r="AU67" s="17"/>
+      <c r="AV67" s="17"/>
+      <c r="AW67" s="1"/>
+      <c r="AX67" s="1"/>
+      <c r="AY67" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="AZ67" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="BA67" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="BB67" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="BC67" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="BD67" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="BE67" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="BF67" s="1"/>
+      <c r="BG67" s="1"/>
+      <c r="BH67" s="1"/>
+      <c r="BI67" s="17"/>
+      <c r="BJ67" s="17"/>
+      <c r="BK67" s="1"/>
+      <c r="BL67" s="1"/>
+      <c r="BM67" s="1"/>
+      <c r="BN67" s="1"/>
+      <c r="BO67" s="1"/>
+      <c r="BP67" s="17"/>
+      <c r="BQ67" s="17"/>
+    </row>
+    <row r="68" spans="1:69" ht="18.75" customHeight="1">
+      <c r="A68">
+        <v>40</v>
+      </c>
+      <c r="B68" s="3">
+        <v>26</v>
+      </c>
+      <c r="C68" s="27"/>
+      <c r="D68" s="3"/>
+      <c r="E68" s="3"/>
+      <c r="F68" s="4">
+        <f>IFERROR( HLOOKUP("BE",J68:BD$72,$A$72-$A68+1,FALSE),0)+ IFERROR( HLOOKUP("B",J68:BD$72,$A$72-$A68+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="G68" s="4">
+        <f>IFERROR( HLOOKUP("BE",J68:BD$72,$A$72-$A68+1,FALSE),0)+ IFERROR( HLOOKUP("E",J68:BD$72,$A$72-$A68+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H68" s="4"/>
+      <c r="I68" s="3"/>
+      <c r="J68" s="1"/>
+      <c r="K68" s="1"/>
+      <c r="L68" s="17"/>
+      <c r="M68" s="17"/>
+      <c r="N68" s="1"/>
+      <c r="O68" s="1"/>
+      <c r="P68" s="1"/>
+      <c r="Q68" s="1"/>
+      <c r="R68" s="17"/>
+      <c r="S68" s="17"/>
+      <c r="T68" s="17"/>
+      <c r="U68" s="1"/>
+      <c r="V68" s="1"/>
+      <c r="W68" s="1"/>
+      <c r="X68" s="1"/>
+      <c r="Y68" s="1"/>
+      <c r="Z68" s="17"/>
+      <c r="AA68" s="17"/>
+      <c r="AB68" s="1"/>
+      <c r="AC68" s="1"/>
+      <c r="AD68" s="1"/>
+      <c r="AE68" s="1"/>
+      <c r="AF68" s="1"/>
+      <c r="AG68" s="17"/>
+      <c r="AH68" s="17"/>
+      <c r="AI68" s="1"/>
+      <c r="AJ68" s="1"/>
+      <c r="AK68" s="1"/>
+      <c r="AL68" s="1"/>
+      <c r="AM68" s="1"/>
+      <c r="AN68" s="17"/>
+      <c r="AO68" s="17"/>
+      <c r="AP68" s="1"/>
+      <c r="AQ68" s="1"/>
+      <c r="AR68" s="1"/>
+      <c r="AS68" s="1"/>
+      <c r="AT68" s="1"/>
+      <c r="AU68" s="17"/>
+      <c r="AV68" s="17"/>
+      <c r="AW68" s="1"/>
+      <c r="AX68" s="1"/>
+      <c r="AY68" s="1"/>
+      <c r="AZ68" s="1"/>
+      <c r="BA68" s="1"/>
+      <c r="BB68" s="17"/>
+      <c r="BC68" s="17"/>
+      <c r="BD68" s="1"/>
+      <c r="BE68" s="1"/>
+      <c r="BF68" s="1"/>
+      <c r="BG68" s="1"/>
+      <c r="BH68" s="1"/>
+      <c r="BI68" s="17"/>
+      <c r="BJ68" s="17"/>
+      <c r="BK68" s="1"/>
+      <c r="BL68" s="1"/>
+      <c r="BM68" s="1"/>
+      <c r="BN68" s="1"/>
+      <c r="BO68" s="1"/>
+      <c r="BP68" s="17"/>
+      <c r="BQ68" s="17"/>
+    </row>
+    <row r="69" spans="1:69">
+      <c r="A69">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="70" spans="1:69">
+      <c r="A70">
         <v>42</v>
       </c>
     </row>
-    <row r="68" spans="1:69">
-      <c r="A68">
+    <row r="71" spans="1:69">
+      <c r="A71">
         <v>43</v>
       </c>
     </row>
-    <row r="69" spans="1:69" s="10" customFormat="1">
-      <c r="A69">
+    <row r="72" spans="1:69" s="10" customFormat="1">
+      <c r="A72">
         <v>44</v>
       </c>
-      <c r="C69" s="30" t="s">
+      <c r="C72" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="F69" s="5"/>
-      <c r="G69" s="5"/>
-      <c r="H69" s="5"/>
-      <c r="J69" s="5">
+      <c r="F72" s="5"/>
+      <c r="G72" s="5"/>
+      <c r="H72" s="5"/>
+      <c r="J72" s="5">
         <f>J8</f>
         <v>40780</v>
       </c>
-      <c r="K69" s="5">
-        <f t="shared" ref="K69:BD69" si="1">K8</f>
+      <c r="K72" s="5">
+        <f t="shared" ref="K72:BD72" si="1">K8</f>
         <v>40781</v>
       </c>
-      <c r="L69" s="5">
+      <c r="L72" s="5">
         <f t="shared" si="1"/>
         <v>40782</v>
       </c>
-      <c r="M69" s="5">
+      <c r="M72" s="5">
         <f t="shared" si="1"/>
         <v>40783</v>
       </c>
-      <c r="N69" s="5">
+      <c r="N72" s="5">
         <f t="shared" si="1"/>
         <v>40784</v>
       </c>
-      <c r="O69" s="5">
+      <c r="O72" s="5">
         <f t="shared" si="1"/>
         <v>40785</v>
       </c>
-      <c r="P69" s="5">
+      <c r="P72" s="5">
         <f t="shared" si="1"/>
         <v>40786</v>
       </c>
-      <c r="Q69" s="5">
+      <c r="Q72" s="5">
         <f t="shared" si="1"/>
         <v>40787</v>
       </c>
-      <c r="R69" s="5">
+      <c r="R72" s="5">
         <f t="shared" si="1"/>
         <v>40788</v>
       </c>
-      <c r="S69" s="5">
+      <c r="S72" s="5">
         <f t="shared" si="1"/>
         <v>40789</v>
       </c>
-      <c r="T69" s="5">
+      <c r="T72" s="5">
         <f t="shared" si="1"/>
         <v>40790</v>
       </c>
-      <c r="U69" s="5">
+      <c r="U72" s="5">
         <f t="shared" si="1"/>
         <v>40791</v>
       </c>
-      <c r="V69" s="5">
+      <c r="V72" s="5">
         <f t="shared" si="1"/>
         <v>40792</v>
       </c>
-      <c r="W69" s="5">
+      <c r="W72" s="5">
         <f t="shared" si="1"/>
         <v>40793</v>
       </c>
-      <c r="X69" s="5">
+      <c r="X72" s="5">
         <f t="shared" si="1"/>
         <v>40794</v>
       </c>
-      <c r="Y69" s="5">
+      <c r="Y72" s="5">
         <f t="shared" si="1"/>
         <v>40795</v>
       </c>
-      <c r="Z69" s="5">
+      <c r="Z72" s="5">
         <f t="shared" si="1"/>
         <v>40796</v>
       </c>
-      <c r="AA69" s="5">
+      <c r="AA72" s="5">
         <f t="shared" si="1"/>
         <v>40797</v>
       </c>
-      <c r="AB69" s="5">
+      <c r="AB72" s="5">
         <f t="shared" si="1"/>
         <v>40798</v>
       </c>
-      <c r="AC69" s="5">
+      <c r="AC72" s="5">
         <f t="shared" si="1"/>
         <v>40799</v>
       </c>
-      <c r="AD69" s="5">
+      <c r="AD72" s="5">
         <f t="shared" si="1"/>
         <v>40800</v>
       </c>
-      <c r="AE69" s="5">
+      <c r="AE72" s="5">
         <f t="shared" si="1"/>
         <v>40801</v>
       </c>
-      <c r="AF69" s="5">
+      <c r="AF72" s="5">
         <f t="shared" si="1"/>
         <v>40802</v>
       </c>
-      <c r="AG69" s="5">
+      <c r="AG72" s="5">
         <f t="shared" si="1"/>
         <v>40803</v>
       </c>
-      <c r="AH69" s="5">
+      <c r="AH72" s="5">
         <f t="shared" si="1"/>
         <v>40804</v>
       </c>
-      <c r="AI69" s="5">
+      <c r="AI72" s="5">
         <f t="shared" si="1"/>
         <v>40805</v>
       </c>
-      <c r="AJ69" s="5">
+      <c r="AJ72" s="5">
         <f t="shared" si="1"/>
         <v>40806</v>
       </c>
-      <c r="AK69" s="5">
+      <c r="AK72" s="5">
         <f t="shared" si="1"/>
         <v>40807</v>
       </c>
-      <c r="AL69" s="5">
+      <c r="AL72" s="5">
         <f t="shared" si="1"/>
         <v>40808</v>
       </c>
-      <c r="AM69" s="5">
+      <c r="AM72" s="5">
         <f t="shared" si="1"/>
         <v>40809</v>
       </c>
-      <c r="AN69" s="5">
+      <c r="AN72" s="5">
         <f t="shared" si="1"/>
         <v>40810</v>
       </c>
-      <c r="AO69" s="5">
+      <c r="AO72" s="5">
         <f t="shared" si="1"/>
         <v>40811</v>
       </c>
-      <c r="AP69" s="5">
+      <c r="AP72" s="5">
         <f t="shared" si="1"/>
         <v>40812</v>
       </c>
-      <c r="AQ69" s="5">
+      <c r="AQ72" s="5">
         <f t="shared" si="1"/>
         <v>40813</v>
       </c>
-      <c r="AR69" s="5">
+      <c r="AR72" s="5">
         <f t="shared" si="1"/>
         <v>40814</v>
       </c>
-      <c r="AS69" s="5">
+      <c r="AS72" s="5">
         <f t="shared" si="1"/>
         <v>40815</v>
       </c>
-      <c r="AT69" s="5">
+      <c r="AT72" s="5">
         <f t="shared" si="1"/>
         <v>40816</v>
       </c>
-      <c r="AU69" s="5">
+      <c r="AU72" s="5">
         <f t="shared" si="1"/>
         <v>40817</v>
       </c>
-      <c r="AV69" s="5">
+      <c r="AV72" s="5">
         <f t="shared" si="1"/>
         <v>40818</v>
       </c>
-      <c r="AW69" s="5">
+      <c r="AW72" s="5">
         <f t="shared" si="1"/>
         <v>40819</v>
       </c>
-      <c r="AX69" s="5">
+      <c r="AX72" s="5">
         <f t="shared" si="1"/>
         <v>40820</v>
       </c>
-      <c r="AY69" s="5">
+      <c r="AY72" s="5">
         <f t="shared" si="1"/>
         <v>40821</v>
       </c>
-      <c r="AZ69" s="5">
+      <c r="AZ72" s="5">
         <f t="shared" si="1"/>
         <v>40822</v>
       </c>
-      <c r="BA69" s="5">
+      <c r="BA72" s="5">
         <f t="shared" si="1"/>
         <v>40823</v>
       </c>
-      <c r="BB69" s="5">
+      <c r="BB72" s="5">
         <f t="shared" si="1"/>
         <v>40824</v>
       </c>
-      <c r="BC69" s="5">
+      <c r="BC72" s="5">
         <f t="shared" si="1"/>
         <v>40825</v>
       </c>
-      <c r="BD69" s="5">
+      <c r="BD72" s="5">
         <f t="shared" si="1"/>
         <v>40826</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A8:BQ69"/>
+  <autoFilter ref="A8:BQ72"/>
   <mergeCells count="1">
     <mergeCell ref="K2:Q2"/>
   </mergeCells>
-  <conditionalFormatting sqref="J66:AW66 J13:BD13 J10:AF11 AG11 AH10:BD11 J15:BD22 J24:BD65 AU11:AV65 BB11:BC65 BE10:BQ65">
+  <conditionalFormatting sqref="J69:AW69 J44:BQ68 J13:BD13 J10:AF11 AG11 AH10:BD11 J15:BD22 AU11:AV38 BB11:BC38 J24:BD43 BE10:BQ43">
     <cfRule type="cellIs" dxfId="6" priority="34" operator="equal">
       <formula>"-"</formula>
     </cfRule>
@@ -6415,12 +6741,12 @@
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J13:BD13 J10:AF11 AG11 AH10:BD11 J15:BD22 J24:BD65 AU11:AV65 BB11:BC65 BE10:BQ65">
+  <conditionalFormatting sqref="J44:BQ68 J13:BD13 J10:AF11 AG11 AH10:BD11 J15:BD22 AU11:AV38 BB11:BC38 J24:BD43 BE10:BQ43">
     <cfRule type="cellIs" dxfId="3" priority="33" operator="equal">
       <formula>"BE"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H10:H11 H13 H15:H22 H24:H65">
+  <conditionalFormatting sqref="H10:H11 H13 H15:H22 H24:H68">
     <cfRule type="cellIs" dxfId="2" priority="15" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
@@ -6428,16 +6754,16 @@
       <formula>AND(H10&lt;&gt;$E$4,$G$10&lt;TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H11 H13 H15:H22 H24:H65">
+  <conditionalFormatting sqref="H11 H13 H15:H22 H24:H68">
     <cfRule type="expression" dxfId="0" priority="19">
       <formula>AND(H11&lt;&gt;$E$4,$G$10&lt;TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H10:H65">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H10:H68">
       <formula1>$E$2:$E$6</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D10:D11 D13 D15:D22 D24:D65">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D13 D15:D22 D24:D68 D10:D11">
       <formula1>$C$2:$C$4</formula1>
     </dataValidation>
   </dataValidations>

--- a/01. Document/DropOut_project v2011.08.25.xlsx
+++ b/01. Document/DropOut_project v2011.08.25.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -13,12 +13,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Plan!$A$8:$BQ$72</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="102">
   <si>
     <t>STT</t>
   </si>
@@ -534,7 +534,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="7">
     <dxf>
       <fill>
         <patternFill>
@@ -556,48 +556,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF0000CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill>
-          <stop position="0">
-            <color rgb="FF0000CC"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFF0000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
         </patternFill>
       </fill>
     </dxf>
@@ -939,13 +897,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:BQ72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="8" topLeftCell="H32" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="8" topLeftCell="H24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="D43" sqref="D43"/>
+      <selection pane="bottomRight" activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1570,7 +1529,7 @@
       <c r="BC9" s="6"/>
       <c r="BD9" s="6"/>
     </row>
-    <row r="10" spans="1:69">
+    <row r="10" spans="1:69" hidden="1">
       <c r="A10">
         <v>1</v>
       </c>
@@ -1823,7 +1782,7 @@
       <c r="BP12" s="17"/>
       <c r="BQ12" s="17"/>
     </row>
-    <row r="13" spans="1:69" s="16" customFormat="1">
+    <row r="13" spans="1:69" s="16" customFormat="1" hidden="1">
       <c r="A13">
         <v>4</v>
       </c>
@@ -2147,14 +2106,10 @@
       <c r="AN16" s="17"/>
       <c r="AO16" s="17"/>
       <c r="AP16" s="1"/>
-      <c r="AQ16" s="1" t="s">
+      <c r="AQ16" s="1"/>
+      <c r="AR16" s="1"/>
+      <c r="AS16" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="AR16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AS16" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="AT16" s="1" t="s">
         <v>13</v>
@@ -3706,7 +3661,7 @@
       <c r="BP33" s="17"/>
       <c r="BQ33" s="17"/>
     </row>
-    <row r="34" spans="1:69">
+    <row r="34" spans="1:69" hidden="1">
       <c r="A34">
         <v>25</v>
       </c>
@@ -3902,7 +3857,7 @@
       <c r="BP35" s="17"/>
       <c r="BQ35" s="17"/>
     </row>
-    <row r="36" spans="1:69">
+    <row r="36" spans="1:69" hidden="1">
       <c r="A36">
         <v>27</v>
       </c>
@@ -3995,7 +3950,7 @@
       <c r="BP36" s="17"/>
       <c r="BQ36" s="17"/>
     </row>
-    <row r="37" spans="1:69">
+    <row r="37" spans="1:69" hidden="1">
       <c r="A37">
         <v>28</v>
       </c>
@@ -4306,7 +4261,7 @@
       <c r="BP40" s="17"/>
       <c r="BQ40" s="17"/>
     </row>
-    <row r="41" spans="1:69">
+    <row r="41" spans="1:69" hidden="1">
       <c r="A41">
         <v>32</v>
       </c>
@@ -4387,7 +4342,7 @@
       <c r="BP41" s="17"/>
       <c r="BQ41" s="17"/>
     </row>
-    <row r="42" spans="1:69">
+    <row r="42" spans="1:69" hidden="1">
       <c r="B42" s="3"/>
       <c r="C42" s="31" t="s">
         <v>99</v>
@@ -4465,7 +4420,7 @@
       <c r="BP42" s="17"/>
       <c r="BQ42" s="17"/>
     </row>
-    <row r="43" spans="1:69">
+    <row r="43" spans="1:69" hidden="1">
       <c r="B43" s="3"/>
       <c r="C43" s="31" t="s">
         <v>88</v>
@@ -4615,7 +4570,7 @@
       <c r="BP44" s="17"/>
       <c r="BQ44" s="17"/>
     </row>
-    <row r="45" spans="1:69">
+    <row r="45" spans="1:69" hidden="1">
       <c r="B45" s="3"/>
       <c r="C45" s="3" t="s">
         <v>100</v>
@@ -4693,7 +4648,7 @@
       <c r="BP45" s="17"/>
       <c r="BQ45" s="17"/>
     </row>
-    <row r="46" spans="1:69">
+    <row r="46" spans="1:69" hidden="1">
       <c r="B46" s="3"/>
       <c r="C46" s="31" t="s">
         <v>94</v>
@@ -4771,7 +4726,7 @@
       <c r="BP46" s="17"/>
       <c r="BQ46" s="17"/>
     </row>
-    <row r="47" spans="1:69">
+    <row r="47" spans="1:69" hidden="1">
       <c r="B47" s="3"/>
       <c r="C47" s="3" t="s">
         <v>95</v>
@@ -5061,7 +5016,7 @@
       <c r="BP50" s="17"/>
       <c r="BQ50" s="17"/>
     </row>
-    <row r="51" spans="1:69">
+    <row r="51" spans="1:69" hidden="1">
       <c r="B51" s="3"/>
       <c r="C51" s="31" t="s">
         <v>86</v>
@@ -5135,7 +5090,7 @@
       <c r="BP51" s="17"/>
       <c r="BQ51" s="17"/>
     </row>
-    <row r="52" spans="1:69">
+    <row r="52" spans="1:69" hidden="1">
       <c r="B52" s="3"/>
       <c r="C52" s="31" t="s">
         <v>87</v>
@@ -5846,7 +5801,7 @@
       <c r="BP61" s="17"/>
       <c r="BQ61" s="17"/>
     </row>
-    <row r="62" spans="1:69">
+    <row r="62" spans="1:69" hidden="1">
       <c r="A62">
         <v>34</v>
       </c>
@@ -5965,7 +5920,7 @@
       <c r="BP62" s="17"/>
       <c r="BQ62" s="17"/>
     </row>
-    <row r="63" spans="1:69">
+    <row r="63" spans="1:69" hidden="1">
       <c r="A63">
         <v>35</v>
       </c>
@@ -6048,7 +6003,7 @@
       <c r="BP63" s="17"/>
       <c r="BQ63" s="17"/>
     </row>
-    <row r="64" spans="1:69">
+    <row r="64" spans="1:69" hidden="1">
       <c r="A64">
         <v>36</v>
       </c>
@@ -6222,7 +6177,7 @@
       <c r="BP65" s="17"/>
       <c r="BQ65" s="17"/>
     </row>
-    <row r="66" spans="1:69">
+    <row r="66" spans="1:69" hidden="1">
       <c r="A66">
         <v>38</v>
       </c>
@@ -6327,7 +6282,7 @@
       <c r="BP66" s="17"/>
       <c r="BQ66" s="17"/>
     </row>
-    <row r="67" spans="1:69">
+    <row r="67" spans="1:69" hidden="1">
       <c r="A67">
         <v>39</v>
       </c>
@@ -6726,7 +6681,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A8:BQ72"/>
+  <autoFilter ref="A8:BQ72">
+    <filterColumn colId="3">
+      <filters blank="1">
+        <filter val="Trinhnv"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="1">
     <mergeCell ref="K2:Q2"/>
   </mergeCells>

--- a/01. Document/DropOut_project v2011.08.25.xlsx
+++ b/01. Document/DropOut_project v2011.08.25.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Convension" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Plan!$A$8:$BQ$72</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Plan!$A$8:$BQ$65</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
@@ -457,7 +457,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -518,9 +518,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -534,7 +531,73 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="14">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FF0000CC"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -898,13 +961,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:BQ72"/>
+  <dimension ref="A1:BQ65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="8" topLeftCell="H24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="8" topLeftCell="H9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="H27" sqref="H27"/>
+      <selection pane="bottomRight" activeCell="A10" sqref="A10:A65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -916,9 +979,9 @@
     <col min="6" max="6" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.28515625" style="2" customWidth="1"/>
     <col min="8" max="8" width="11.28515625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="38" width="5.7109375" hidden="1" customWidth="1"/>
-    <col min="39" max="56" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="37" width="5.7109375" customWidth="1"/>
+    <col min="38" max="56" width="5.7109375" bestFit="1" customWidth="1"/>
     <col min="57" max="57" width="5.7109375" customWidth="1"/>
     <col min="58" max="58" width="5.85546875" customWidth="1"/>
     <col min="59" max="59" width="5.42578125" customWidth="1"/>
@@ -948,7 +1011,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="17">
-        <f>SUMIF($D$9:$D$68,C2,$E$9:$E$68)</f>
+        <f>SUMIF($D$9:$D$61,C2,$E$9:$E$61)</f>
         <v>0</v>
       </c>
       <c r="E2" s="11" t="s">
@@ -962,22 +1025,22 @@
         <f>60*(2/3)</f>
         <v>40</v>
       </c>
-      <c r="K2" s="37" t="s">
+      <c r="K2" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="37"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="36"/>
+      <c r="P2" s="36"/>
+      <c r="Q2" s="36"/>
     </row>
     <row r="3" spans="1:69">
       <c r="C3" s="24" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="17">
-        <f>SUMIF($D$9:$D$68,#REF!,$E$9:$E$68)</f>
+        <f>SUMIF($D$9:$D$61,#REF!,$E$9:$E$61)</f>
         <v>0</v>
       </c>
       <c r="E3" s="11" t="s">
@@ -993,7 +1056,7 @@
         <v>19</v>
       </c>
       <c r="D4" s="17">
-        <f>SUMIF($D$9:$D$68,C3,$E$9:$E$68)</f>
+        <f>SUMIF($D$9:$D$61,C3,$E$9:$E$61)</f>
         <v>0</v>
       </c>
       <c r="E4" s="11" t="s">
@@ -1004,7 +1067,7 @@
     <row r="5" spans="1:69">
       <c r="C5" s="24"/>
       <c r="D5" s="17">
-        <f>SUMIF($D$9:$D$68,C5,$E$9:$E$68)</f>
+        <f>SUMIF($D$9:$D$61,C5,$E$9:$E$61)</f>
         <v>0</v>
       </c>
       <c r="E5" s="11"/>
@@ -1013,7 +1076,7 @@
     <row r="6" spans="1:69">
       <c r="C6" s="24"/>
       <c r="D6" s="17">
-        <f>SUMIF($D$9:$D$68,C6,$E$9:$E$68)</f>
+        <f>SUMIF($D$9:$D$61,C6,$E$9:$E$61)</f>
         <v>0</v>
       </c>
       <c r="E6" s="11"/>
@@ -1542,12 +1605,12 @@
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="4">
-        <f>IFERROR( HLOOKUP("BE",J10:BD$72,$A$72-$A10+1,FALSE),0)+ IFERROR( HLOOKUP("B",J10:BD$72,$A$72-$A10+1,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR( HLOOKUP("BE",J10:BQ$65,$A$65-$A10+1,FALSE),0)+ IFERROR( HLOOKUP("B",J10:BQ$65,$A$65-$A10+1,FALSE),0)</f>
+        <v>40780</v>
       </c>
       <c r="G10" s="4">
-        <f>IFERROR( HLOOKUP("BE",J10:BD$72,$A$72-$A10+1,FALSE),0)+ IFERROR( HLOOKUP("E",J10:BD$72,$A$72-$A10+1,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR( HLOOKUP("BE",J10:BQ$65,$A$65-$A10+1,FALSE),0)+ IFERROR( HLOOKUP("E",J10:BQ$65,$A$65-$A10+1,FALSE),0)</f>
+        <v>40780</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>69</v>
@@ -1633,12 +1696,12 @@
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="4">
-        <f>IFERROR( HLOOKUP("BE",J11:BD$72,$A$72-$A11+1,FALSE),0)+ IFERROR( HLOOKUP("B",J11:BD$72,$A$72-$A11+1,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR( HLOOKUP("BE",J11:BQ$65,$A$65-$A11+1,FALSE),0)+ IFERROR( HLOOKUP("B",J11:BQ$65,$A$65-$A11+1,FALSE),0)</f>
+        <v>40780</v>
       </c>
       <c r="G11" s="4">
-        <f>IFERROR( HLOOKUP("BE",J11:BD$72,$A$72-$A11+1,FALSE),0)+ IFERROR( HLOOKUP("E",J11:BD$72,$A$72-$A11+1,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR( HLOOKUP("BE",J11:BQ$65,$A$65-$A11+1,FALSE),0)+ IFERROR( HLOOKUP("E",J11:BQ$65,$A$65-$A11+1,FALSE),0)</f>
+        <v>40780</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>69</v>
@@ -1717,8 +1780,14 @@
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
+      <c r="F12" s="6">
+        <f>IFERROR( HLOOKUP("BE",J12:BQ$65,$A$65-$A12+1,FALSE),0)+ IFERROR( HLOOKUP("B",J12:BQ$65,$A$65-$A12+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="G12" s="6">
+        <f>IFERROR( HLOOKUP("BE",J12:BQ$65,$A$65-$A12+1,FALSE),0)+ IFERROR( HLOOKUP("E",J12:BQ$65,$A$65-$A12+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
@@ -1795,12 +1864,12 @@
       </c>
       <c r="E13" s="12"/>
       <c r="F13" s="13">
-        <f>IFERROR( HLOOKUP("BE",J13:BD$72,$A$72-$A13+1,FALSE),0)+ IFERROR( HLOOKUP("B",J13:BD$72,$A$72-$A13+1,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR( HLOOKUP("BE",J13:BQ$65,$A$65-$A13+1,FALSE),0)+ IFERROR( HLOOKUP("B",J13:BQ$65,$A$65-$A13+1,FALSE),0)</f>
+        <v>40780</v>
       </c>
       <c r="G13" s="13">
-        <f>IFERROR( HLOOKUP("BE",J13:BD$72,$A$72-$A13+1,FALSE),0)+ IFERROR( HLOOKUP("E",J13:BD$72,$A$72-$A13+1,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR( HLOOKUP("BE",J13:BQ$65,$A$65-$A13+1,FALSE),0)+ IFERROR( HLOOKUP("E",J13:BQ$65,$A$65-$A13+1,FALSE),0)</f>
+        <v>40780</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>69</v>
@@ -1879,8 +1948,14 @@
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
+      <c r="F14" s="6">
+        <f>IFERROR( HLOOKUP("BE",J14:BQ$65,$A$65-$A14+1,FALSE),0)+ IFERROR( HLOOKUP("B",J14:BQ$65,$A$65-$A14+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="G14" s="6">
+        <f>IFERROR( HLOOKUP("BE",J14:BQ$65,$A$65-$A14+1,FALSE),0)+ IFERROR( HLOOKUP("E",J14:BQ$65,$A$65-$A14+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
@@ -1959,12 +2034,12 @@
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="4">
-        <f>IFERROR( HLOOKUP("BE",J15:BD$72,$A$72-$A15+1,FALSE),0)+ IFERROR( HLOOKUP("B",J15:BD$72,$A$72-$A15+1,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR( HLOOKUP("BE",J15:BQ$65,$A$65-$A15+1,FALSE),0)+ IFERROR( HLOOKUP("B",J15:BQ$65,$A$65-$A15+1,FALSE),0)</f>
+        <v>40780</v>
       </c>
       <c r="G15" s="4">
-        <f>IFERROR( HLOOKUP("BE",J15:BD$72,$A$72-$A15+1,FALSE),0)+ IFERROR( HLOOKUP("E",J15:BD$72,$A$72-$A15+1,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR( HLOOKUP("BE",J15:BQ$65,$A$65-$A15+1,FALSE),0)+ IFERROR( HLOOKUP("E",J15:BQ$65,$A$65-$A15+1,FALSE),0)</f>
+        <v>40787</v>
       </c>
       <c r="H15" s="4" t="s">
         <v>69</v>
@@ -2060,12 +2135,12 @@
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="4">
-        <f>IFERROR( HLOOKUP("BE",J16:BD$72,$A$72-$A16+1,FALSE),0)+ IFERROR( HLOOKUP("B",J16:BD$72,$A$72-$A16+1,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR( HLOOKUP("BE",J16:BQ$65,$A$65-$A16+1,FALSE),0)+ IFERROR( HLOOKUP("B",J16:BQ$65,$A$65-$A16+1,FALSE),0)</f>
+        <v>40815</v>
       </c>
       <c r="G16" s="4">
-        <f>IFERROR( HLOOKUP("BE",J16:BD$72,$A$72-$A16+1,FALSE),0)+ IFERROR( HLOOKUP("E",J16:BD$72,$A$72-$A16+1,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR( HLOOKUP("BE",J16:BQ$65,$A$65-$A16+1,FALSE),0)+ IFERROR( HLOOKUP("E",J16:BQ$65,$A$65-$A16+1,FALSE),0)</f>
+        <v>40819</v>
       </c>
       <c r="H16" s="4" t="s">
         <v>68</v>
@@ -2154,8 +2229,14 @@
         <v>18</v>
       </c>
       <c r="E17" s="3"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
+      <c r="F17" s="4">
+        <f>IFERROR( HLOOKUP("BE",J17:BQ$65,$A$65-$A17+1,FALSE),0)+ IFERROR( HLOOKUP("B",J17:BQ$65,$A$65-$A17+1,FALSE),0)</f>
+        <v>40812</v>
+      </c>
+      <c r="G17" s="4">
+        <f>IFERROR( HLOOKUP("BE",J17:BQ$65,$A$65-$A17+1,FALSE),0)+ IFERROR( HLOOKUP("E",J17:BQ$65,$A$65-$A17+1,FALSE),0)</f>
+        <v>40812</v>
+      </c>
       <c r="H17" s="4" t="s">
         <v>67</v>
       </c>
@@ -2240,12 +2321,12 @@
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="4">
-        <f>IFERROR( HLOOKUP("BE",J18:BD$72,$A$72-$A18+1,FALSE),0)+ IFERROR( HLOOKUP("B",J18:BD$72,$A$72-$A18+1,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR( HLOOKUP("BE",J18:BQ$65,$A$65-$A18+1,FALSE),0)+ IFERROR( HLOOKUP("B",J18:BQ$65,$A$65-$A18+1,FALSE),0)</f>
+        <v>40820</v>
       </c>
       <c r="G18" s="4">
-        <f>IFERROR( HLOOKUP("BE",J18:BD$72,$A$72-$A18+1,FALSE),0)+ IFERROR( HLOOKUP("E",J18:BD$72,$A$72-$A18+1,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR( HLOOKUP("BE",J18:BQ$65,$A$65-$A18+1,FALSE),0)+ IFERROR( HLOOKUP("E",J18:BQ$65,$A$65-$A18+1,FALSE),0)</f>
+        <v>40820</v>
       </c>
       <c r="H18" s="4" t="s">
         <v>67</v>
@@ -2331,12 +2412,12 @@
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="4">
-        <f>IFERROR( HLOOKUP("BE",J19:BD$72,$A$72-$A19+1,FALSE),0)+ IFERROR( HLOOKUP("B",J19:BD$72,$A$72-$A19+1,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR( HLOOKUP("BE",J19:BQ$65,$A$65-$A19+1,FALSE),0)+ IFERROR( HLOOKUP("B",J19:BQ$65,$A$65-$A19+1,FALSE),0)</f>
+        <v>40821</v>
       </c>
       <c r="G19" s="4">
-        <f>IFERROR( HLOOKUP("BE",J19:BD$72,$A$72-$A19+1,FALSE),0)+ IFERROR( HLOOKUP("E",J19:BD$72,$A$72-$A19+1,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR( HLOOKUP("BE",J19:BQ$65,$A$65-$A19+1,FALSE),0)+ IFERROR( HLOOKUP("E",J19:BQ$65,$A$65-$A19+1,FALSE),0)</f>
+        <v>40823</v>
       </c>
       <c r="H19" s="4" t="s">
         <v>67</v>
@@ -2426,12 +2507,12 @@
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="4">
-        <f>IFERROR( HLOOKUP("BE",J20:BD$72,$A$72-$A20+1,FALSE),0)+ IFERROR( HLOOKUP("B",J20:BD$72,$A$72-$A20+1,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR( HLOOKUP("BE",J20:BQ$65,$A$65-$A20+1,FALSE),0)+ IFERROR( HLOOKUP("B",J20:BQ$65,$A$65-$A20+1,FALSE),0)</f>
+        <v>40826</v>
       </c>
       <c r="G20" s="4">
-        <f>IFERROR( HLOOKUP("BE",J20:BD$72,$A$72-$A20+1,FALSE),0)+ IFERROR( HLOOKUP("E",J20:BD$72,$A$72-$A20+1,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR( HLOOKUP("BE",J20:BQ$65,$A$65-$A20+1,FALSE),0)+ IFERROR( HLOOKUP("E",J20:BQ$65,$A$65-$A20+1,FALSE),0)</f>
+        <v>40828</v>
       </c>
       <c r="H20" s="4" t="s">
         <v>67</v>
@@ -2521,12 +2602,12 @@
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="4">
-        <f>IFERROR( HLOOKUP("BE",J21:BD$72,$A$72-$A21+1,FALSE),0)+ IFERROR( HLOOKUP("B",J21:BD$72,$A$72-$A21+1,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR( HLOOKUP("BE",J21:BQ$65,$A$65-$A21+1,FALSE),0)+ IFERROR( HLOOKUP("B",J21:BQ$65,$A$65-$A21+1,FALSE),0)</f>
+        <v>40829</v>
       </c>
       <c r="G21" s="4">
-        <f>IFERROR( HLOOKUP("BE",J21:BD$72,$A$72-$A21+1,FALSE),0)+ IFERROR( HLOOKUP("E",J21:BD$72,$A$72-$A21+1,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR( HLOOKUP("BE",J21:BQ$65,$A$65-$A21+1,FALSE),0)+ IFERROR( HLOOKUP("E",J21:BQ$65,$A$65-$A21+1,FALSE),0)</f>
+        <v>40833</v>
       </c>
       <c r="H21" s="4" t="s">
         <v>67</v>
@@ -2601,73 +2682,75 @@
       <c r="BP21" s="17"/>
       <c r="BQ21" s="17"/>
     </row>
-    <row r="22" spans="1:69">
+    <row r="22" spans="1:69" s="7" customFormat="1">
       <c r="A22">
         <v>13</v>
       </c>
       <c r="B22" s="3">
-        <v>8</v>
-      </c>
-      <c r="C22" s="27"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="4">
-        <f>IFERROR( HLOOKUP("BE",J22:BD$72,$A$72-$A22+1,FALSE),0)+ IFERROR( HLOOKUP("B",J22:BD$72,$A$72-$A22+1,FALSE),0)</f>
+        <v>9</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6">
+        <f>IFERROR( HLOOKUP("BE",J22:BQ$65,$A$65-$A22+1,FALSE),0)+ IFERROR( HLOOKUP("B",J22:BQ$65,$A$65-$A22+1,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="G22" s="4">
-        <f>IFERROR( HLOOKUP("BE",J22:BD$72,$A$72-$A22+1,FALSE),0)+ IFERROR( HLOOKUP("E",J22:BD$72,$A$72-$A22+1,FALSE),0)</f>
+      <c r="G22" s="6">
+        <f>IFERROR( HLOOKUP("BE",J22:BQ$65,$A$65-$A22+1,FALSE),0)+ IFERROR( HLOOKUP("E",J22:BQ$65,$A$65-$A22+1,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="H22" s="4"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="17"/>
-      <c r="M22" s="17"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
-      <c r="Q22" s="1"/>
-      <c r="R22" s="17"/>
-      <c r="S22" s="17"/>
-      <c r="T22" s="17"/>
-      <c r="U22" s="1"/>
-      <c r="V22" s="1"/>
-      <c r="W22" s="1"/>
-      <c r="X22" s="1"/>
-      <c r="Y22" s="1"/>
-      <c r="Z22" s="17"/>
-      <c r="AA22" s="17"/>
-      <c r="AB22" s="1"/>
-      <c r="AC22" s="1"/>
-      <c r="AD22" s="1"/>
-      <c r="AE22" s="1"/>
-      <c r="AF22" s="1"/>
-      <c r="AG22" s="17"/>
-      <c r="AH22" s="17"/>
-      <c r="AI22" s="1"/>
-      <c r="AJ22" s="1"/>
-      <c r="AK22" s="1"/>
-      <c r="AL22" s="1"/>
-      <c r="AM22" s="1"/>
-      <c r="AN22" s="17"/>
-      <c r="AO22" s="17"/>
-      <c r="AP22" s="1"/>
-      <c r="AQ22" s="1"/>
-      <c r="AR22" s="1"/>
-      <c r="AS22" s="1"/>
-      <c r="AT22" s="1"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="21"/>
+      <c r="M22" s="21"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="21"/>
+      <c r="S22" s="21"/>
+      <c r="T22" s="21"/>
+      <c r="U22" s="6"/>
+      <c r="V22" s="6"/>
+      <c r="W22" s="6"/>
+      <c r="X22" s="6"/>
+      <c r="Y22" s="6"/>
+      <c r="Z22" s="21"/>
+      <c r="AA22" s="21"/>
+      <c r="AB22" s="6"/>
+      <c r="AC22" s="6"/>
+      <c r="AD22" s="6"/>
+      <c r="AE22" s="6"/>
+      <c r="AF22" s="6"/>
+      <c r="AG22" s="21"/>
+      <c r="AH22" s="21"/>
+      <c r="AI22" s="6"/>
+      <c r="AJ22" s="6"/>
+      <c r="AK22" s="6"/>
+      <c r="AL22" s="6"/>
+      <c r="AM22" s="6"/>
+      <c r="AN22" s="21"/>
+      <c r="AO22" s="21"/>
+      <c r="AP22" s="6"/>
+      <c r="AQ22" s="6"/>
+      <c r="AR22" s="6"/>
+      <c r="AS22" s="6"/>
+      <c r="AT22" s="6"/>
       <c r="AU22" s="17"/>
       <c r="AV22" s="17"/>
-      <c r="AW22" s="1"/>
-      <c r="AX22" s="1"/>
-      <c r="AY22" s="1"/>
-      <c r="AZ22" s="1"/>
-      <c r="BA22" s="1"/>
+      <c r="AW22" s="6"/>
+      <c r="AX22" s="6"/>
+      <c r="AY22" s="6"/>
+      <c r="AZ22" s="6"/>
+      <c r="BA22" s="6"/>
       <c r="BB22" s="17"/>
       <c r="BC22" s="17"/>
-      <c r="BD22" s="1"/>
+      <c r="BD22" s="6"/>
       <c r="BE22" s="1"/>
       <c r="BF22" s="1"/>
       <c r="BG22" s="1"/>
@@ -2682,69 +2765,83 @@
       <c r="BP22" s="17"/>
       <c r="BQ22" s="17"/>
     </row>
-    <row r="23" spans="1:69" s="7" customFormat="1">
+    <row r="23" spans="1:69">
       <c r="A23">
         <v>14</v>
       </c>
       <c r="B23" s="3">
-        <v>9</v>
-      </c>
-      <c r="C23" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="21"/>
-      <c r="M23" s="21"/>
-      <c r="N23" s="6"/>
-      <c r="O23" s="6"/>
-      <c r="P23" s="6"/>
-      <c r="Q23" s="6"/>
-      <c r="R23" s="21"/>
-      <c r="S23" s="21"/>
-      <c r="T23" s="21"/>
-      <c r="U23" s="6"/>
-      <c r="V23" s="6"/>
-      <c r="W23" s="6"/>
-      <c r="X23" s="6"/>
-      <c r="Y23" s="6"/>
-      <c r="Z23" s="21"/>
-      <c r="AA23" s="21"/>
-      <c r="AB23" s="6"/>
-      <c r="AC23" s="6"/>
-      <c r="AD23" s="6"/>
-      <c r="AE23" s="6"/>
-      <c r="AF23" s="6"/>
-      <c r="AG23" s="21"/>
-      <c r="AH23" s="21"/>
-      <c r="AI23" s="6"/>
-      <c r="AJ23" s="6"/>
-      <c r="AK23" s="6"/>
-      <c r="AL23" s="6"/>
-      <c r="AM23" s="6"/>
-      <c r="AN23" s="21"/>
-      <c r="AO23" s="21"/>
-      <c r="AP23" s="6"/>
-      <c r="AQ23" s="6"/>
-      <c r="AR23" s="6"/>
-      <c r="AS23" s="6"/>
-      <c r="AT23" s="6"/>
+        <v>10</v>
+      </c>
+      <c r="C23" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" s="3"/>
+      <c r="F23" s="4">
+        <f>IFERROR( HLOOKUP("BE",J23:BQ$65,$A$65-$A23+1,FALSE),0)+ IFERROR( HLOOKUP("B",J23:BQ$65,$A$65-$A23+1,FALSE),0)</f>
+        <v>40780</v>
+      </c>
+      <c r="G23" s="4">
+        <f>IFERROR( HLOOKUP("BE",J23:BQ$65,$A$65-$A23+1,FALSE),0)+ IFERROR( HLOOKUP("E",J23:BQ$65,$A$65-$A23+1,FALSE),0)</f>
+        <v>40780</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K23" s="1"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="17"/>
+      <c r="S23" s="17"/>
+      <c r="T23" s="17"/>
+      <c r="U23" s="1"/>
+      <c r="V23" s="1"/>
+      <c r="W23" s="1"/>
+      <c r="X23" s="1"/>
+      <c r="Y23" s="1"/>
+      <c r="Z23" s="17"/>
+      <c r="AA23" s="17"/>
+      <c r="AB23" s="1"/>
+      <c r="AC23" s="1"/>
+      <c r="AD23" s="1"/>
+      <c r="AE23" s="1"/>
+      <c r="AF23" s="1"/>
+      <c r="AG23" s="17"/>
+      <c r="AH23" s="17"/>
+      <c r="AI23" s="1"/>
+      <c r="AJ23" s="1"/>
+      <c r="AK23" s="1"/>
+      <c r="AL23" s="1"/>
+      <c r="AM23" s="1"/>
+      <c r="AN23" s="17"/>
+      <c r="AO23" s="17"/>
+      <c r="AP23" s="1"/>
+      <c r="AQ23" s="1"/>
+      <c r="AR23" s="1"/>
+      <c r="AS23" s="1"/>
+      <c r="AT23" s="1"/>
       <c r="AU23" s="17"/>
       <c r="AV23" s="17"/>
-      <c r="AW23" s="6"/>
-      <c r="AX23" s="6"/>
-      <c r="AY23" s="6"/>
-      <c r="AZ23" s="6"/>
-      <c r="BA23" s="6"/>
+      <c r="AW23" s="1"/>
+      <c r="AX23" s="1"/>
+      <c r="AY23" s="1"/>
+      <c r="AZ23" s="1"/>
+      <c r="BA23" s="1"/>
       <c r="BB23" s="17"/>
       <c r="BC23" s="17"/>
-      <c r="BD23" s="6"/>
+      <c r="BD23" s="1"/>
       <c r="BE23" s="1"/>
       <c r="BF23" s="1"/>
       <c r="BG23" s="1"/>
@@ -2759,33 +2856,33 @@
       <c r="BP23" s="17"/>
       <c r="BQ23" s="17"/>
     </row>
-    <row r="24" spans="1:69">
+    <row r="24" spans="1:69" ht="30">
       <c r="A24">
         <v>15</v>
       </c>
       <c r="B24" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C24" s="27" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="4">
-        <f>IFERROR( HLOOKUP("BE",J24:BD$72,$A$72-$A24+1,FALSE),0)+ IFERROR( HLOOKUP("B",J24:BD$72,$A$72-$A24+1,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR( HLOOKUP("BE",J24:BQ$65,$A$65-$A24+1,FALSE),0)+ IFERROR( HLOOKUP("B",J24:BQ$65,$A$65-$A24+1,FALSE),0)</f>
+        <v>40780</v>
       </c>
       <c r="G24" s="4">
-        <f>IFERROR( HLOOKUP("BE",J24:BD$72,$A$72-$A24+1,FALSE),0)+ IFERROR( HLOOKUP("E",J24:BD$72,$A$72-$A24+1,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR( HLOOKUP("BE",J24:BQ$65,$A$65-$A24+1,FALSE),0)+ IFERROR( HLOOKUP("E",J24:BQ$65,$A$65-$A24+1,FALSE),0)</f>
+        <v>40780</v>
       </c>
       <c r="H24" s="4" t="s">
         <v>69</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>14</v>
@@ -2850,33 +2947,33 @@
       <c r="BP24" s="17"/>
       <c r="BQ24" s="17"/>
     </row>
-    <row r="25" spans="1:69" ht="30">
+    <row r="25" spans="1:69">
       <c r="A25">
         <v>16</v>
       </c>
       <c r="B25" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C25" s="27" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="4">
-        <f>IFERROR( HLOOKUP("BE",J25:BD$72,$A$72-$A25+1,FALSE),0)+ IFERROR( HLOOKUP("B",J25:BD$72,$A$72-$A25+1,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR( HLOOKUP("BE",J25:BQ$65,$A$65-$A25+1,FALSE),0)+ IFERROR( HLOOKUP("B",J25:BQ$65,$A$65-$A25+1,FALSE),0)</f>
+        <v>40780</v>
       </c>
       <c r="G25" s="4">
-        <f>IFERROR( HLOOKUP("BE",J25:BD$72,$A$72-$A25+1,FALSE),0)+ IFERROR( HLOOKUP("E",J25:BD$72,$A$72-$A25+1,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR( HLOOKUP("BE",J25:BQ$65,$A$65-$A25+1,FALSE),0)+ IFERROR( HLOOKUP("E",J25:BQ$65,$A$65-$A25+1,FALSE),0)</f>
+        <v>40780</v>
       </c>
       <c r="H25" s="4" t="s">
         <v>69</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>14</v>
@@ -2941,37 +3038,35 @@
       <c r="BP25" s="17"/>
       <c r="BQ25" s="17"/>
     </row>
-    <row r="26" spans="1:69">
+    <row r="26" spans="1:69" ht="30">
       <c r="A26">
         <v>17</v>
       </c>
       <c r="B26" s="3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C26" s="27" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="4">
-        <f>IFERROR( HLOOKUP("BE",J26:BD$72,$A$72-$A26+1,FALSE),0)+ IFERROR( HLOOKUP("B",J26:BD$72,$A$72-$A26+1,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR( HLOOKUP("BE",J26:BQ$65,$A$65-$A26+1,FALSE),0)+ IFERROR( HLOOKUP("B",J26:BQ$65,$A$65-$A26+1,FALSE),0)</f>
+        <v>40813</v>
       </c>
       <c r="G26" s="4">
-        <f>IFERROR( HLOOKUP("BE",J26:BD$72,$A$72-$A26+1,FALSE),0)+ IFERROR( HLOOKUP("E",J26:BD$72,$A$72-$A26+1,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR( HLOOKUP("BE",J26:BQ$65,$A$65-$A26+1,FALSE),0)+ IFERROR( HLOOKUP("E",J26:BQ$65,$A$65-$A26+1,FALSE),0)</f>
+        <v>40814</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>14</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="J26" s="1"/>
       <c r="K26" s="1"/>
       <c r="L26" s="17"/>
       <c r="M26" s="17"/>
@@ -3004,8 +3099,12 @@
       <c r="AN26" s="17"/>
       <c r="AO26" s="17"/>
       <c r="AP26" s="1"/>
-      <c r="AQ26" s="1"/>
-      <c r="AR26" s="1"/>
+      <c r="AQ26" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AR26" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="AS26" s="1"/>
       <c r="AT26" s="1"/>
       <c r="AU26" s="17"/>
@@ -3032,33 +3131,33 @@
       <c r="BP26" s="17"/>
       <c r="BQ26" s="17"/>
     </row>
-    <row r="27" spans="1:69" ht="30">
+    <row r="27" spans="1:69">
       <c r="A27">
         <v>18</v>
       </c>
       <c r="B27" s="3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C27" s="27" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="4">
-        <f>IFERROR( HLOOKUP("BE",J27:BD$72,$A$72-$A27+1,FALSE),0)+ IFERROR( HLOOKUP("B",J27:BD$72,$A$72-$A27+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J27:BQ$65,$A$65-$A27+1,FALSE),0)+ IFERROR( HLOOKUP("B",J27:BQ$65,$A$65-$A27+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="G27" s="4">
-        <f>IFERROR( HLOOKUP("BE",J27:BD$72,$A$72-$A27+1,FALSE),0)+ IFERROR( HLOOKUP("E",J27:BD$72,$A$72-$A27+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J27:BQ$65,$A$65-$A27+1,FALSE),0)+ IFERROR( HLOOKUP("E",J27:BQ$65,$A$65-$A27+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
@@ -3093,12 +3192,8 @@
       <c r="AN27" s="17"/>
       <c r="AO27" s="17"/>
       <c r="AP27" s="1"/>
-      <c r="AQ27" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AR27" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="AQ27" s="1"/>
+      <c r="AR27" s="1"/>
       <c r="AS27" s="1"/>
       <c r="AT27" s="1"/>
       <c r="AU27" s="17"/>
@@ -3125,33 +3220,33 @@
       <c r="BP27" s="17"/>
       <c r="BQ27" s="17"/>
     </row>
-    <row r="28" spans="1:69">
+    <row r="28" spans="1:69" ht="30">
       <c r="A28">
         <v>19</v>
       </c>
       <c r="B28" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C28" s="27" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="4">
-        <f>IFERROR( HLOOKUP("BE",J28:BD$72,$A$72-$A28+1,FALSE),0)+ IFERROR( HLOOKUP("B",J28:BD$72,$A$72-$A28+1,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR( HLOOKUP("BE",J28:BQ$65,$A$65-$A28+1,FALSE),0)+ IFERROR( HLOOKUP("B",J28:BQ$65,$A$65-$A28+1,FALSE),0)</f>
+        <v>40795</v>
       </c>
       <c r="G28" s="4">
-        <f>IFERROR( HLOOKUP("BE",J28:BD$72,$A$72-$A28+1,FALSE),0)+ IFERROR( HLOOKUP("E",J28:BD$72,$A$72-$A28+1,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR( HLOOKUP("BE",J28:BQ$65,$A$65-$A28+1,FALSE),0)+ IFERROR( HLOOKUP("E",J28:BQ$65,$A$65-$A28+1,FALSE),0)</f>
+        <v>40800</v>
       </c>
       <c r="H28" s="4" t="s">
         <v>67</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
@@ -3168,12 +3263,20 @@
       <c r="V28" s="1"/>
       <c r="W28" s="1"/>
       <c r="X28" s="1"/>
-      <c r="Y28" s="1"/>
+      <c r="Y28" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="Z28" s="17"/>
       <c r="AA28" s="17"/>
-      <c r="AB28" s="1"/>
-      <c r="AC28" s="1"/>
-      <c r="AD28" s="1"/>
+      <c r="AB28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD28" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="AE28" s="1"/>
       <c r="AF28" s="1"/>
       <c r="AG28" s="17"/>
@@ -3214,35 +3317,37 @@
       <c r="BP28" s="17"/>
       <c r="BQ28" s="17"/>
     </row>
-    <row r="29" spans="1:69" ht="30">
+    <row r="29" spans="1:69">
       <c r="A29">
         <v>20</v>
       </c>
       <c r="B29" s="3">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C29" s="27" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="4">
-        <f>IFERROR( HLOOKUP("BE",J29:BD$72,$A$72-$A29+1,FALSE),0)+ IFERROR( HLOOKUP("B",J29:BD$72,$A$72-$A29+1,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR( HLOOKUP("BE",J29:BQ$65,$A$65-$A29+1,FALSE),0)+ IFERROR( HLOOKUP("B",J29:BQ$65,$A$65-$A29+1,FALSE),0)</f>
+        <v>40780</v>
       </c>
       <c r="G29" s="4">
-        <f>IFERROR( HLOOKUP("BE",J29:BD$72,$A$72-$A29+1,FALSE),0)+ IFERROR( HLOOKUP("E",J29:BD$72,$A$72-$A29+1,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR( HLOOKUP("BE",J29:BQ$65,$A$65-$A29+1,FALSE),0)+ IFERROR( HLOOKUP("E",J29:BQ$65,$A$65-$A29+1,FALSE),0)</f>
+        <v>40780</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="J29" s="1"/>
+        <v>79</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="K29" s="1"/>
       <c r="L29" s="17"/>
       <c r="M29" s="17"/>
@@ -3257,20 +3362,12 @@
       <c r="V29" s="1"/>
       <c r="W29" s="1"/>
       <c r="X29" s="1"/>
-      <c r="Y29" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="Y29" s="1"/>
       <c r="Z29" s="17"/>
       <c r="AA29" s="17"/>
-      <c r="AB29" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC29" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD29" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="AB29" s="1"/>
+      <c r="AC29" s="1"/>
+      <c r="AD29" s="1"/>
       <c r="AE29" s="1"/>
       <c r="AF29" s="1"/>
       <c r="AG29" s="17"/>
@@ -3316,32 +3413,26 @@
         <v>21</v>
       </c>
       <c r="B30" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C30" s="27" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="4">
-        <f>IFERROR( HLOOKUP("BE",J30:BD$72,$A$72-$A30+1,FALSE),0)+ IFERROR( HLOOKUP("B",J30:BD$72,$A$72-$A30+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J30:BQ$65,$A$65-$A30+1,FALSE),0)+ IFERROR( HLOOKUP("B",J30:BQ$65,$A$65-$A30+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="G30" s="4">
-        <f>IFERROR( HLOOKUP("BE",J30:BD$72,$A$72-$A30+1,FALSE),0)+ IFERROR( HLOOKUP("E",J30:BD$72,$A$72-$A30+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J30:BQ$65,$A$65-$A30+1,FALSE),0)+ IFERROR( HLOOKUP("E",J30:BQ$65,$A$65-$A30+1,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="H30" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="I30" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="H30" s="4"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="17"/>
       <c r="M30" s="17"/>
@@ -3406,22 +3497,32 @@
       <c r="A31">
         <v>22</v>
       </c>
-      <c r="B31" s="3">
-        <v>17</v>
-      </c>
+      <c r="B31" s="3"/>
       <c r="C31" s="27" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E31" s="3"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="3"/>
+      <c r="F31" s="4">
+        <f>IFERROR( HLOOKUP("BE",J31:BQ$65,$A$65-$A31+1,FALSE),0)+ IFERROR( HLOOKUP("B",J31:BQ$65,$A$65-$A31+1,FALSE),0)</f>
+        <v>40781</v>
+      </c>
+      <c r="G31" s="4">
+        <f>IFERROR( HLOOKUP("BE",J31:BQ$65,$A$65-$A31+1,FALSE),0)+ IFERROR( HLOOKUP("E",J31:BQ$65,$A$65-$A31+1,FALSE),0)</f>
+        <v>40781</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>80</v>
+      </c>
       <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
+      <c r="K31" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="L31" s="17"/>
       <c r="M31" s="17"/>
       <c r="N31" s="1"/>
@@ -3487,33 +3588,35 @@
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="27" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="4">
-        <f>IFERROR( HLOOKUP("BE",J32:BD$72,$A$72-$A32+1,FALSE),0)+ IFERROR( HLOOKUP("B",J32:BD$72,$A$72-$A32+1,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR( HLOOKUP("BE",J32:BQ$65,$A$65-$A32+1,FALSE),0)+ IFERROR( HLOOKUP("B",J32:BQ$65,$A$65-$A32+1,FALSE),0)</f>
+        <v>40781</v>
       </c>
       <c r="G32" s="4">
-        <f>IFERROR( HLOOKUP("BE",J32:BD$72,$A$72-$A32+1,FALSE),0)+ IFERROR( HLOOKUP("E",J32:BD$72,$A$72-$A32+1,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR( HLOOKUP("BE",J32:BQ$65,$A$65-$A32+1,FALSE),0)+ IFERROR( HLOOKUP("E",J32:BQ$65,$A$65-$A32+1,FALSE),0)</f>
+        <v>40784</v>
       </c>
       <c r="H32" s="4" t="s">
         <v>69</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J32" s="1"/>
       <c r="K32" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="L32" s="17"/>
       <c r="M32" s="17"/>
-      <c r="N32" s="1"/>
+      <c r="N32" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="O32" s="1"/>
       <c r="P32" s="1"/>
       <c r="Q32" s="1"/>
@@ -3570,44 +3673,54 @@
       <c r="BP32" s="17"/>
       <c r="BQ32" s="17"/>
     </row>
-    <row r="33" spans="1:69">
+    <row r="33" spans="1:69" hidden="1">
       <c r="A33">
         <v>24</v>
       </c>
-      <c r="B33" s="3"/>
-      <c r="C33" s="27" t="s">
-        <v>64</v>
+      <c r="B33" s="3">
+        <v>17</v>
+      </c>
+      <c r="C33" s="23" t="s">
+        <v>33</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="4">
-        <f>IFERROR( HLOOKUP("BE",J33:BD$72,$A$72-$A33+1,FALSE),0)+ IFERROR( HLOOKUP("B",J33:BD$72,$A$72-$A33+1,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR( HLOOKUP("BE",J33:BQ$65,$A$65-$A33+1,FALSE),0)+ IFERROR( HLOOKUP("B",J33:BQ$65,$A$65-$A33+1,FALSE),0)</f>
+        <v>40780</v>
       </c>
       <c r="G33" s="4">
-        <f>IFERROR( HLOOKUP("BE",J33:BD$72,$A$72-$A33+1,FALSE),0)+ IFERROR( HLOOKUP("E",J33:BD$72,$A$72-$A33+1,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR( HLOOKUP("BE",J33:BQ$65,$A$65-$A33+1,FALSE),0)+ IFERROR( HLOOKUP("E",J33:BQ$65,$A$65-$A33+1,FALSE),0)</f>
+        <v>40787</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="J33" s="1"/>
+        <v>57</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="K33" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L33" s="17"/>
       <c r="M33" s="17"/>
       <c r="N33" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O33" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P33" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q33" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O33" s="1"/>
-      <c r="P33" s="1"/>
-      <c r="Q33" s="1"/>
       <c r="R33" s="17"/>
       <c r="S33" s="17"/>
       <c r="T33" s="17"/>
@@ -3661,54 +3774,42 @@
       <c r="BP33" s="17"/>
       <c r="BQ33" s="17"/>
     </row>
-    <row r="34" spans="1:69" hidden="1">
+    <row r="34" spans="1:69">
       <c r="A34">
         <v>25</v>
       </c>
       <c r="B34" s="3">
-        <v>17</v>
-      </c>
-      <c r="C34" s="23" t="s">
-        <v>33</v>
+        <v>18</v>
+      </c>
+      <c r="C34" s="27" t="s">
+        <v>76</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="4">
-        <f>IFERROR( HLOOKUP("BE",J34:BD$72,$A$72-$A34+1,FALSE),0)+ IFERROR( HLOOKUP("B",J34:BD$72,$A$72-$A34+1,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR( HLOOKUP("BE",J34:BQ$65,$A$65-$A34+1,FALSE),0)+ IFERROR( HLOOKUP("B",J34:BQ$65,$A$65-$A34+1,FALSE),0)</f>
+        <v>40826</v>
       </c>
       <c r="G34" s="4">
-        <f>IFERROR( HLOOKUP("BE",J34:BD$72,$A$72-$A34+1,FALSE),0)+ IFERROR( HLOOKUP("E",J34:BD$72,$A$72-$A34+1,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR( HLOOKUP("BE",J34:BQ$65,$A$65-$A34+1,FALSE),0)+ IFERROR( HLOOKUP("E",J34:BQ$65,$A$65-$A34+1,FALSE),0)</f>
+        <v>40828</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K34" s="1" t="s">
-        <v>13</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
       <c r="L34" s="17"/>
       <c r="M34" s="17"/>
-      <c r="N34" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O34" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P34" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q34" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
       <c r="R34" s="17"/>
       <c r="S34" s="17"/>
       <c r="T34" s="17"/>
@@ -3747,9 +3848,15 @@
       <c r="BA34" s="1"/>
       <c r="BB34" s="17"/>
       <c r="BC34" s="17"/>
-      <c r="BD34" s="1"/>
-      <c r="BE34" s="1"/>
-      <c r="BF34" s="1"/>
+      <c r="BD34" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="BE34" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="BF34" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="BG34" s="1"/>
       <c r="BH34" s="1"/>
       <c r="BI34" s="17"/>
@@ -3762,33 +3869,33 @@
       <c r="BP34" s="17"/>
       <c r="BQ34" s="17"/>
     </row>
-    <row r="35" spans="1:69">
+    <row r="35" spans="1:69" hidden="1">
       <c r="A35">
         <v>26</v>
       </c>
       <c r="B35" s="3">
-        <v>18</v>
-      </c>
-      <c r="C35" s="27" t="s">
-        <v>76</v>
+        <v>19</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>84</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="4">
-        <f>IFERROR( HLOOKUP("BE",J35:BD$72,$A$72-$A35+1,FALSE),0)+ IFERROR( HLOOKUP("B",J35:BD$72,$A$72-$A35+1,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR( HLOOKUP("BE",J35:BQ$65,$A$65-$A35+1,FALSE),0)+ IFERROR( HLOOKUP("B",J35:BQ$65,$A$65-$A35+1,FALSE),0)</f>
+        <v>40791</v>
       </c>
       <c r="G35" s="4">
-        <f>IFERROR( HLOOKUP("BE",J35:BD$72,$A$72-$A35+1,FALSE),0)+ IFERROR( HLOOKUP("E",J35:BD$72,$A$72-$A35+1,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR( HLOOKUP("BE",J35:BQ$65,$A$65-$A35+1,FALSE),0)+ IFERROR( HLOOKUP("E",J35:BQ$65,$A$65-$A35+1,FALSE),0)</f>
+        <v>40792</v>
       </c>
       <c r="H35" s="4" t="s">
         <v>67</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
@@ -3801,8 +3908,12 @@
       <c r="R35" s="17"/>
       <c r="S35" s="17"/>
       <c r="T35" s="17"/>
-      <c r="U35" s="1"/>
-      <c r="V35" s="1"/>
+      <c r="U35" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="V35" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="W35" s="1"/>
       <c r="X35" s="1"/>
       <c r="Y35" s="1"/>
@@ -3836,15 +3947,9 @@
       <c r="BA35" s="1"/>
       <c r="BB35" s="17"/>
       <c r="BC35" s="17"/>
-      <c r="BD35" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="BE35" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="BF35" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="BD35" s="1"/>
+      <c r="BE35" s="1"/>
+      <c r="BF35" s="1"/>
       <c r="BG35" s="1"/>
       <c r="BH35" s="1"/>
       <c r="BI35" s="17"/>
@@ -3861,29 +3966,27 @@
       <c r="A36">
         <v>27</v>
       </c>
-      <c r="B36" s="3">
+      <c r="B36" s="3"/>
+      <c r="C36" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="D36" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>6</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="4">
-        <f>IFERROR( HLOOKUP("BE",J36:BD$72,$A$72-$A36+1,FALSE),0)+ IFERROR( HLOOKUP("B",J36:BD$72,$A$72-$A36+1,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR( HLOOKUP("BE",J36:BQ$65,$A$65-$A36+1,FALSE),0)+ IFERROR( HLOOKUP("B",J36:BQ$65,$A$65-$A36+1,FALSE),0)</f>
+        <v>40812</v>
       </c>
       <c r="G36" s="4">
-        <f>IFERROR( HLOOKUP("BE",J36:BD$72,$A$72-$A36+1,FALSE),0)+ IFERROR( HLOOKUP("E",J36:BD$72,$A$72-$A36+1,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR( HLOOKUP("BE",J36:BQ$65,$A$65-$A36+1,FALSE),0)+ IFERROR( HLOOKUP("E",J36:BQ$65,$A$65-$A36+1,FALSE),0)</f>
+        <v>40816</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
@@ -3896,12 +3999,8 @@
       <c r="R36" s="17"/>
       <c r="S36" s="17"/>
       <c r="T36" s="17"/>
-      <c r="U36" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="V36" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="U36" s="1"/>
+      <c r="V36" s="1"/>
       <c r="W36" s="1"/>
       <c r="X36" s="1"/>
       <c r="Y36" s="1"/>
@@ -3921,11 +4020,21 @@
       <c r="AM36" s="1"/>
       <c r="AN36" s="17"/>
       <c r="AO36" s="17"/>
-      <c r="AP36" s="1"/>
-      <c r="AQ36" s="1"/>
-      <c r="AR36" s="1"/>
-      <c r="AS36" s="1"/>
-      <c r="AT36" s="1"/>
+      <c r="AP36" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AQ36" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AR36" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AS36" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AT36" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="AU36" s="17"/>
       <c r="AV36" s="17"/>
       <c r="AW36" s="1"/>
@@ -3950,26 +4059,26 @@
       <c r="BP36" s="17"/>
       <c r="BQ36" s="17"/>
     </row>
-    <row r="37" spans="1:69" hidden="1">
+    <row r="37" spans="1:69">
       <c r="A37">
         <v>28</v>
       </c>
       <c r="B37" s="3"/>
-      <c r="C37" s="31" t="s">
-        <v>85</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>19</v>
-      </c>
+      <c r="C37" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="D37" s="3"/>
       <c r="E37" s="3"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="I37" s="3" t="s">
-        <v>96</v>
-      </c>
+      <c r="F37" s="4">
+        <f>IFERROR( HLOOKUP("BE",J37:BQ$65,$A$65-$A37+1,FALSE),0)+ IFERROR( HLOOKUP("B",J37:BQ$65,$A$65-$A37+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="G37" s="4">
+        <f>IFERROR( HLOOKUP("BE",J37:BQ$65,$A$65-$A37+1,FALSE),0)+ IFERROR( HLOOKUP("E",J37:BQ$65,$A$65-$A37+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H37" s="4"/>
+      <c r="I37" s="3"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="17"/>
@@ -4002,21 +4111,11 @@
       <c r="AM37" s="1"/>
       <c r="AN37" s="17"/>
       <c r="AO37" s="17"/>
-      <c r="AP37" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AQ37" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AR37" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AS37" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AT37" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="AP37" s="1"/>
+      <c r="AQ37" s="1"/>
+      <c r="AR37" s="1"/>
+      <c r="AS37" s="1"/>
+      <c r="AT37" s="1"/>
       <c r="AU37" s="17"/>
       <c r="AV37" s="17"/>
       <c r="AW37" s="1"/>
@@ -4046,13 +4145,17 @@
         <v>29</v>
       </c>
       <c r="B38" s="3"/>
-      <c r="C38" s="35" t="s">
-        <v>89</v>
-      </c>
+      <c r="C38" s="31"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
+      <c r="F38" s="4">
+        <f>IFERROR( HLOOKUP("BE",J38:BQ$65,$A$65-$A38+1,FALSE),0)+ IFERROR( HLOOKUP("B",J38:BQ$65,$A$65-$A38+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="G38" s="4">
+        <f>IFERROR( HLOOKUP("BE",J38:BQ$65,$A$65-$A38+1,FALSE),0)+ IFERROR( HLOOKUP("E",J38:BQ$65,$A$65-$A38+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
       <c r="H38" s="4"/>
       <c r="I38" s="3"/>
       <c r="J38" s="1"/>
@@ -4117,12 +4220,23 @@
       <c r="BQ38" s="17"/>
     </row>
     <row r="39" spans="1:69">
+      <c r="A39">
+        <v>30</v>
+      </c>
       <c r="B39" s="3"/>
-      <c r="C39" s="31"/>
+      <c r="C39" s="34" t="s">
+        <v>90</v>
+      </c>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
+      <c r="F39" s="4">
+        <f>IFERROR( HLOOKUP("BE",J39:BQ$65,$A$65-$A39+1,FALSE),0)+ IFERROR( HLOOKUP("B",J39:BQ$65,$A$65-$A39+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="G39" s="4">
+        <f>IFERROR( HLOOKUP("BE",J39:BQ$65,$A$65-$A39+1,FALSE),0)+ IFERROR( HLOOKUP("E",J39:BQ$65,$A$65-$A39+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
       <c r="H39" s="4"/>
       <c r="I39" s="3"/>
       <c r="J39" s="1"/>
@@ -4186,20 +4300,32 @@
       <c r="BP39" s="17"/>
       <c r="BQ39" s="17"/>
     </row>
-    <row r="40" spans="1:69">
+    <row r="40" spans="1:69" hidden="1">
       <c r="A40">
         <v>31</v>
       </c>
       <c r="B40" s="3"/>
-      <c r="C40" s="35" t="s">
-        <v>90</v>
-      </c>
-      <c r="D40" s="3"/>
+      <c r="C40" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="E40" s="3"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
-      <c r="I40" s="3"/>
+      <c r="F40" s="4">
+        <f>IFERROR( HLOOKUP("BE",J40:BQ$65,$A$65-$A40+1,FALSE),0)+ IFERROR( HLOOKUP("B",J40:BQ$65,$A$65-$A40+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="G40" s="4">
+        <f>IFERROR( HLOOKUP("BE",J40:BQ$65,$A$65-$A40+1,FALSE),0)+ IFERROR( HLOOKUP("E",J40:BQ$65,$A$65-$A40+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>97</v>
+      </c>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="17"/>
@@ -4267,16 +4393,22 @@
       </c>
       <c r="B41" s="3"/>
       <c r="C41" s="31" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E41" s="3"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
+      <c r="F41" s="4">
+        <f>IFERROR( HLOOKUP("BE",J41:BQ$65,$A$65-$A41+1,FALSE),0)+ IFERROR( HLOOKUP("B",J41:BQ$65,$A$65-$A41+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="G41" s="4">
+        <f>IFERROR( HLOOKUP("BE",J41:BQ$65,$A$65-$A41+1,FALSE),0)+ IFERROR( HLOOKUP("E",J41:BQ$65,$A$65-$A41+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
       <c r="H41" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>97</v>
@@ -4343,16 +4475,25 @@
       <c r="BQ41" s="17"/>
     </row>
     <row r="42" spans="1:69" hidden="1">
+      <c r="A42">
+        <v>33</v>
+      </c>
       <c r="B42" s="3"/>
       <c r="C42" s="31" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="E42" s="3"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
+      <c r="F42" s="4">
+        <f>IFERROR( HLOOKUP("BE",J42:BQ$65,$A$65-$A42+1,FALSE),0)+ IFERROR( HLOOKUP("B",J42:BQ$65,$A$65-$A42+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="G42" s="4">
+        <f>IFERROR( HLOOKUP("BE",J42:BQ$65,$A$65-$A42+1,FALSE),0)+ IFERROR( HLOOKUP("E",J42:BQ$65,$A$65-$A42+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
       <c r="H42" s="4" t="s">
         <v>67</v>
       </c>
@@ -4420,23 +4561,26 @@
       <c r="BP42" s="17"/>
       <c r="BQ42" s="17"/>
     </row>
-    <row r="43" spans="1:69" hidden="1">
+    <row r="43" spans="1:69">
+      <c r="A43">
+        <v>34</v>
+      </c>
       <c r="B43" s="3"/>
-      <c r="C43" s="31" t="s">
-        <v>88</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>6</v>
-      </c>
+      <c r="C43" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="D43" s="3"/>
       <c r="E43" s="3"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>97</v>
-      </c>
+      <c r="F43" s="4">
+        <f>IFERROR( HLOOKUP("BE",J43:BQ$65,$A$65-$A43+1,FALSE),0)+ IFERROR( HLOOKUP("B",J43:BQ$65,$A$65-$A43+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="G43" s="4">
+        <f>IFERROR( HLOOKUP("BE",J43:BQ$65,$A$65-$A43+1,FALSE),0)+ IFERROR( HLOOKUP("E",J43:BQ$65,$A$65-$A43+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H43" s="4"/>
+      <c r="I43" s="3"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="L43" s="17"/>
@@ -4498,17 +4642,32 @@
       <c r="BP43" s="17"/>
       <c r="BQ43" s="17"/>
     </row>
-    <row r="44" spans="1:69">
+    <row r="44" spans="1:69" hidden="1">
+      <c r="A44">
+        <v>35</v>
+      </c>
       <c r="B44" s="3"/>
-      <c r="C44" s="35" t="s">
-        <v>91</v>
-      </c>
-      <c r="D44" s="3"/>
+      <c r="C44" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="E44" s="3"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
-      <c r="H44" s="4"/>
-      <c r="I44" s="3"/>
+      <c r="F44" s="4">
+        <f>IFERROR( HLOOKUP("BE",J44:BQ$65,$A$65-$A44+1,FALSE),0)+ IFERROR( HLOOKUP("B",J44:BQ$65,$A$65-$A44+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="G44" s="4">
+        <f>IFERROR( HLOOKUP("BE",J44:BQ$65,$A$65-$A44+1,FALSE),0)+ IFERROR( HLOOKUP("E",J44:BQ$65,$A$65-$A44+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>97</v>
+      </c>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
       <c r="L44" s="17"/>
@@ -4571,16 +4730,25 @@
       <c r="BQ44" s="17"/>
     </row>
     <row r="45" spans="1:69" hidden="1">
+      <c r="A45">
+        <v>36</v>
+      </c>
       <c r="B45" s="3"/>
-      <c r="C45" s="3" t="s">
-        <v>100</v>
+      <c r="C45" s="31" t="s">
+        <v>94</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E45" s="3"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="4"/>
+      <c r="F45" s="4">
+        <f>IFERROR( HLOOKUP("BE",J45:BQ$65,$A$65-$A45+1,FALSE),0)+ IFERROR( HLOOKUP("B",J45:BQ$65,$A$65-$A45+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="G45" s="4">
+        <f>IFERROR( HLOOKUP("BE",J45:BQ$65,$A$65-$A45+1,FALSE),0)+ IFERROR( HLOOKUP("E",J45:BQ$65,$A$65-$A45+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
       <c r="H45" s="4" t="s">
         <v>67</v>
       </c>
@@ -4649,16 +4817,25 @@
       <c r="BQ45" s="17"/>
     </row>
     <row r="46" spans="1:69" hidden="1">
+      <c r="A46">
+        <v>37</v>
+      </c>
       <c r="B46" s="3"/>
-      <c r="C46" s="31" t="s">
-        <v>94</v>
+      <c r="C46" s="3" t="s">
+        <v>95</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E46" s="3"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
+      <c r="F46" s="4">
+        <f>IFERROR( HLOOKUP("BE",J46:BQ$65,$A$65-$A46+1,FALSE),0)+ IFERROR( HLOOKUP("B",J46:BQ$65,$A$65-$A46+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="G46" s="4">
+        <f>IFERROR( HLOOKUP("BE",J46:BQ$65,$A$65-$A46+1,FALSE),0)+ IFERROR( HLOOKUP("E",J46:BQ$65,$A$65-$A46+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
       <c r="H46" s="4" t="s">
         <v>67</v>
       </c>
@@ -4726,23 +4903,24 @@
       <c r="BP46" s="17"/>
       <c r="BQ46" s="17"/>
     </row>
-    <row r="47" spans="1:69" hidden="1">
+    <row r="47" spans="1:69">
+      <c r="A47">
+        <v>38</v>
+      </c>
       <c r="B47" s="3"/>
-      <c r="C47" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>19</v>
-      </c>
+      <c r="C47" s="35"/>
+      <c r="D47" s="3"/>
       <c r="E47" s="3"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="4"/>
-      <c r="H47" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>97</v>
-      </c>
+      <c r="F47" s="4">
+        <f>IFERROR( HLOOKUP("BE",J47:BQ$65,$A$65-$A47+1,FALSE),0)+ IFERROR( HLOOKUP("B",J47:BQ$65,$A$65-$A47+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="G47" s="4">
+        <f>IFERROR( HLOOKUP("BE",J47:BQ$65,$A$65-$A47+1,FALSE),0)+ IFERROR( HLOOKUP("E",J47:BQ$65,$A$65-$A47+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H47" s="4"/>
+      <c r="I47" s="3"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
       <c r="L47" s="17"/>
@@ -4805,12 +4983,23 @@
       <c r="BQ47" s="17"/>
     </row>
     <row r="48" spans="1:69">
+      <c r="A48">
+        <v>39</v>
+      </c>
       <c r="B48" s="3"/>
-      <c r="C48" s="36"/>
+      <c r="C48" s="34" t="s">
+        <v>92</v>
+      </c>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
+      <c r="F48" s="4">
+        <f>IFERROR( HLOOKUP("BE",J48:BQ$65,$A$65-$A48+1,FALSE),0)+ IFERROR( HLOOKUP("B",J48:BQ$65,$A$65-$A48+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="G48" s="4">
+        <f>IFERROR( HLOOKUP("BE",J48:BQ$65,$A$65-$A48+1,FALSE),0)+ IFERROR( HLOOKUP("E",J48:BQ$65,$A$65-$A48+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
       <c r="H48" s="4"/>
       <c r="I48" s="3"/>
       <c r="J48" s="1"/>
@@ -4874,13 +5063,26 @@
       <c r="BP48" s="17"/>
       <c r="BQ48" s="17"/>
     </row>
-    <row r="49" spans="1:69">
+    <row r="49" spans="1:69" hidden="1">
+      <c r="A49">
+        <v>40</v>
+      </c>
       <c r="B49" s="3"/>
-      <c r="C49" s="36"/>
-      <c r="D49" s="3"/>
+      <c r="C49" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="E49" s="3"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
+      <c r="F49" s="4">
+        <f>IFERROR( HLOOKUP("BE",J49:BQ$65,$A$65-$A49+1,FALSE),0)+ IFERROR( HLOOKUP("B",J49:BQ$65,$A$65-$A49+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="G49" s="4">
+        <f>IFERROR( HLOOKUP("BE",J49:BQ$65,$A$65-$A49+1,FALSE),0)+ IFERROR( HLOOKUP("E",J49:BQ$65,$A$65-$A49+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
       <c r="H49" s="4"/>
       <c r="I49" s="3"/>
       <c r="J49" s="1"/>
@@ -4944,15 +5146,26 @@
       <c r="BP49" s="17"/>
       <c r="BQ49" s="17"/>
     </row>
-    <row r="50" spans="1:69">
+    <row r="50" spans="1:69" hidden="1">
+      <c r="A50">
+        <v>41</v>
+      </c>
       <c r="B50" s="3"/>
-      <c r="C50" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="D50" s="3"/>
+      <c r="C50" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="E50" s="3"/>
-      <c r="F50" s="4"/>
-      <c r="G50" s="4"/>
+      <c r="F50" s="4">
+        <f>IFERROR( HLOOKUP("BE",J50:BQ$65,$A$65-$A50+1,FALSE),0)+ IFERROR( HLOOKUP("B",J50:BQ$65,$A$65-$A50+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="G50" s="4">
+        <f>IFERROR( HLOOKUP("BE",J50:BQ$65,$A$65-$A50+1,FALSE),0)+ IFERROR( HLOOKUP("E",J50:BQ$65,$A$65-$A50+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
       <c r="H50" s="4"/>
       <c r="I50" s="3"/>
       <c r="J50" s="1"/>
@@ -5016,17 +5229,24 @@
       <c r="BP50" s="17"/>
       <c r="BQ50" s="17"/>
     </row>
-    <row r="51" spans="1:69" hidden="1">
+    <row r="51" spans="1:69">
+      <c r="A51">
+        <v>42</v>
+      </c>
       <c r="B51" s="3"/>
       <c r="C51" s="31" t="s">
-        <v>86</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>19</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="D51" s="3"/>
       <c r="E51" s="3"/>
-      <c r="F51" s="4"/>
-      <c r="G51" s="4"/>
+      <c r="F51" s="4">
+        <f>IFERROR( HLOOKUP("BE",J51:BQ$65,$A$65-$A51+1,FALSE),0)+ IFERROR( HLOOKUP("B",J51:BQ$65,$A$65-$A51+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="G51" s="4">
+        <f>IFERROR( HLOOKUP("BE",J51:BQ$65,$A$65-$A51+1,FALSE),0)+ IFERROR( HLOOKUP("E",J51:BQ$65,$A$65-$A51+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
       <c r="H51" s="4"/>
       <c r="I51" s="3"/>
       <c r="J51" s="1"/>
@@ -5090,17 +5310,22 @@
       <c r="BP51" s="17"/>
       <c r="BQ51" s="17"/>
     </row>
-    <row r="52" spans="1:69" hidden="1">
+    <row r="52" spans="1:69">
+      <c r="A52">
+        <v>43</v>
+      </c>
       <c r="B52" s="3"/>
-      <c r="C52" s="31" t="s">
-        <v>87</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>19</v>
-      </c>
+      <c r="C52" s="33"/>
+      <c r="D52" s="3"/>
       <c r="E52" s="3"/>
-      <c r="F52" s="4"/>
-      <c r="G52" s="4"/>
+      <c r="F52" s="4">
+        <f>IFERROR( HLOOKUP("BE",J52:BQ$65,$A$65-$A52+1,FALSE),0)+ IFERROR( HLOOKUP("B",J52:BQ$65,$A$65-$A52+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="G52" s="4">
+        <f>IFERROR( HLOOKUP("BE",J52:BQ$65,$A$65-$A52+1,FALSE),0)+ IFERROR( HLOOKUP("E",J52:BQ$65,$A$65-$A52+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
       <c r="H52" s="4"/>
       <c r="I52" s="3"/>
       <c r="J52" s="1"/>
@@ -5165,14 +5390,23 @@
       <c r="BQ52" s="17"/>
     </row>
     <row r="53" spans="1:69">
+      <c r="A53">
+        <v>44</v>
+      </c>
       <c r="B53" s="3"/>
-      <c r="C53" s="31" t="s">
-        <v>101</v>
+      <c r="C53" s="32" t="s">
+        <v>93</v>
       </c>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
-      <c r="F53" s="4"/>
-      <c r="G53" s="4"/>
+      <c r="F53" s="4">
+        <f>IFERROR( HLOOKUP("BE",J53:BQ$65,$A$65-$A53+1,FALSE),0)+ IFERROR( HLOOKUP("B",J53:BQ$65,$A$65-$A53+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="G53" s="4">
+        <f>IFERROR( HLOOKUP("BE",J53:BQ$65,$A$65-$A53+1,FALSE),0)+ IFERROR( HLOOKUP("E",J53:BQ$65,$A$65-$A53+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
       <c r="H53" s="4"/>
       <c r="I53" s="3"/>
       <c r="J53" s="1"/>
@@ -5237,12 +5471,21 @@
       <c r="BQ53" s="17"/>
     </row>
     <row r="54" spans="1:69">
+      <c r="A54">
+        <v>45</v>
+      </c>
       <c r="B54" s="3"/>
-      <c r="C54" s="33"/>
+      <c r="C54" s="31"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
-      <c r="F54" s="4"/>
-      <c r="G54" s="4"/>
+      <c r="F54" s="4">
+        <f>IFERROR( HLOOKUP("BE",J54:BQ$65,$A$65-$A54+1,FALSE),0)+ IFERROR( HLOOKUP("B",J54:BQ$65,$A$65-$A54+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="G54" s="4">
+        <f>IFERROR( HLOOKUP("BE",J54:BQ$65,$A$65-$A54+1,FALSE),0)+ IFERROR( HLOOKUP("E",J54:BQ$65,$A$65-$A54+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
       <c r="H54" s="4"/>
       <c r="I54" s="3"/>
       <c r="J54" s="1"/>
@@ -5306,17 +5549,34 @@
       <c r="BP54" s="17"/>
       <c r="BQ54" s="17"/>
     </row>
-    <row r="55" spans="1:69">
-      <c r="B55" s="3"/>
-      <c r="C55" s="32" t="s">
-        <v>93</v>
-      </c>
-      <c r="D55" s="3"/>
+    <row r="55" spans="1:69" hidden="1">
+      <c r="A55">
+        <v>46</v>
+      </c>
+      <c r="B55" s="3">
+        <v>20</v>
+      </c>
+      <c r="C55" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="E55" s="3"/>
-      <c r="F55" s="4"/>
-      <c r="G55" s="4"/>
-      <c r="H55" s="4"/>
-      <c r="I55" s="3"/>
+      <c r="F55" s="4">
+        <f>IFERROR( HLOOKUP("BE",J55:BQ$65,$A$65-$A55+1,FALSE),0)+ IFERROR( HLOOKUP("B",J55:BQ$65,$A$65-$A55+1,FALSE),0)</f>
+        <v>40795</v>
+      </c>
+      <c r="G55" s="4">
+        <f>IFERROR( HLOOKUP("BE",J55:BQ$65,$A$65-$A55+1,FALSE),0)+ IFERROR( HLOOKUP("E",J55:BQ$65,$A$65-$A55+1,FALSE),0)</f>
+        <v>40809</v>
+      </c>
+      <c r="H55" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="I55" s="3" t="s">
+        <v>58</v>
+      </c>
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
       <c r="L55" s="17"/>
@@ -5332,21 +5592,51 @@
       <c r="V55" s="1"/>
       <c r="W55" s="1"/>
       <c r="X55" s="1"/>
-      <c r="Y55" s="1"/>
-      <c r="Z55" s="17"/>
-      <c r="AA55" s="17"/>
-      <c r="AB55" s="1"/>
-      <c r="AC55" s="1"/>
-      <c r="AD55" s="1"/>
-      <c r="AE55" s="1"/>
-      <c r="AF55" s="1"/>
-      <c r="AG55" s="17"/>
-      <c r="AH55" s="17"/>
-      <c r="AI55" s="1"/>
-      <c r="AJ55" s="1"/>
-      <c r="AK55" s="1"/>
-      <c r="AL55" s="1"/>
-      <c r="AM55" s="1"/>
+      <c r="Y55" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z55" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA55" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB55" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC55" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD55" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE55" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF55" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AG55" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="AH55" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="AI55" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AJ55" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AK55" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AL55" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AM55" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="AN55" s="17"/>
       <c r="AO55" s="17"/>
       <c r="AP55" s="1"/>
@@ -5378,15 +5668,34 @@
       <c r="BP55" s="17"/>
       <c r="BQ55" s="17"/>
     </row>
-    <row r="56" spans="1:69">
-      <c r="B56" s="3"/>
-      <c r="C56" s="31"/>
-      <c r="D56" s="3"/>
+    <row r="56" spans="1:69" hidden="1">
+      <c r="A56">
+        <v>47</v>
+      </c>
+      <c r="B56" s="3">
+        <v>21</v>
+      </c>
+      <c r="C56" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="E56" s="3"/>
-      <c r="F56" s="4"/>
-      <c r="G56" s="4"/>
-      <c r="H56" s="4"/>
-      <c r="I56" s="3"/>
+      <c r="F56" s="4">
+        <f>IFERROR( HLOOKUP("BE",J56:BQ$65,$A$65-$A56+1,FALSE),0)+ IFERROR( HLOOKUP("B",J56:BQ$65,$A$65-$A56+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="G56" s="4">
+        <f>IFERROR( HLOOKUP("BE",J56:BQ$65,$A$65-$A56+1,FALSE),0)+ IFERROR( HLOOKUP("E",J56:BQ$65,$A$65-$A56+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H56" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="I56" s="3" t="s">
+        <v>58</v>
+      </c>
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
       <c r="L56" s="17"/>
@@ -5448,15 +5757,34 @@
       <c r="BP56" s="17"/>
       <c r="BQ56" s="17"/>
     </row>
-    <row r="57" spans="1:69">
-      <c r="B57" s="3"/>
-      <c r="C57" s="34"/>
-      <c r="D57" s="3"/>
+    <row r="57" spans="1:69" hidden="1">
+      <c r="A57">
+        <v>48</v>
+      </c>
+      <c r="B57" s="3">
+        <v>22</v>
+      </c>
+      <c r="C57" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="E57" s="3"/>
-      <c r="F57" s="4"/>
-      <c r="G57" s="4"/>
-      <c r="H57" s="4"/>
-      <c r="I57" s="3"/>
+      <c r="F57" s="4">
+        <f>IFERROR( HLOOKUP("BE",J57:BQ$65,$A$65-$A57+1,FALSE),0)+ IFERROR( HLOOKUP("B",J57:BQ$65,$A$65-$A57+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="G57" s="4">
+        <f>IFERROR( HLOOKUP("BE",J57:BQ$65,$A$65-$A57+1,FALSE),0)+ IFERROR( HLOOKUP("E",J57:BQ$65,$A$65-$A57+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H57" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>58</v>
+      </c>
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
       <c r="L57" s="17"/>
@@ -5519,14 +5847,33 @@
       <c r="BQ57" s="17"/>
     </row>
     <row r="58" spans="1:69">
-      <c r="B58" s="3"/>
-      <c r="C58" s="34"/>
-      <c r="D58" s="3"/>
+      <c r="A58">
+        <v>49</v>
+      </c>
+      <c r="B58" s="3">
+        <v>23</v>
+      </c>
+      <c r="C58" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="E58" s="3"/>
-      <c r="F58" s="4"/>
-      <c r="G58" s="4"/>
-      <c r="H58" s="4"/>
-      <c r="I58" s="3"/>
+      <c r="F58" s="4">
+        <f>IFERROR( HLOOKUP("BE",J58:BQ$65,$A$65-$A58+1,FALSE),0)+ IFERROR( HLOOKUP("B",J58:BQ$65,$A$65-$A58+1,FALSE),0)</f>
+        <v>40821</v>
+      </c>
+      <c r="G58" s="4">
+        <f>IFERROR( HLOOKUP("BE",J58:BQ$65,$A$65-$A58+1,FALSE),0)+ IFERROR( HLOOKUP("E",J58:BQ$65,$A$65-$A58+1,FALSE),0)</f>
+        <v>40821</v>
+      </c>
+      <c r="H58" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
       <c r="L58" s="17"/>
@@ -5568,7 +5915,9 @@
       <c r="AV58" s="17"/>
       <c r="AW58" s="1"/>
       <c r="AX58" s="1"/>
-      <c r="AY58" s="1"/>
+      <c r="AY58" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="AZ58" s="1"/>
       <c r="BA58" s="1"/>
       <c r="BB58" s="17"/>
@@ -5588,15 +5937,34 @@
       <c r="BP58" s="17"/>
       <c r="BQ58" s="17"/>
     </row>
-    <row r="59" spans="1:69">
-      <c r="B59" s="3"/>
-      <c r="C59" s="34"/>
-      <c r="D59" s="3"/>
+    <row r="59" spans="1:69" hidden="1">
+      <c r="A59">
+        <v>50</v>
+      </c>
+      <c r="B59" s="3">
+        <v>24</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="E59" s="3"/>
-      <c r="F59" s="4"/>
-      <c r="G59" s="4"/>
-      <c r="H59" s="4"/>
-      <c r="I59" s="3"/>
+      <c r="F59" s="4">
+        <f>IFERROR( HLOOKUP("BE",J59:BQ$65,$A$65-$A59+1,FALSE),0)+ IFERROR( HLOOKUP("B",J59:BQ$65,$A$65-$A59+1,FALSE),0)</f>
+        <v>40813</v>
+      </c>
+      <c r="G59" s="4">
+        <f>IFERROR( HLOOKUP("BE",J59:BQ$65,$A$65-$A59+1,FALSE),0)+ IFERROR( HLOOKUP("E",J59:BQ$65,$A$65-$A59+1,FALSE),0)</f>
+        <v>40820</v>
+      </c>
+      <c r="H59" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>58</v>
+      </c>
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
       <c r="L59" s="17"/>
@@ -5630,14 +5998,30 @@
       <c r="AN59" s="17"/>
       <c r="AO59" s="17"/>
       <c r="AP59" s="1"/>
-      <c r="AQ59" s="1"/>
-      <c r="AR59" s="1"/>
-      <c r="AS59" s="1"/>
-      <c r="AT59" s="1"/>
-      <c r="AU59" s="17"/>
-      <c r="AV59" s="17"/>
-      <c r="AW59" s="1"/>
-      <c r="AX59" s="1"/>
+      <c r="AQ59" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AR59" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AS59" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AT59" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AU59" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="AV59" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="AW59" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AX59" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="AY59" s="1"/>
       <c r="AZ59" s="1"/>
       <c r="BA59" s="1"/>
@@ -5658,15 +6042,34 @@
       <c r="BP59" s="17"/>
       <c r="BQ59" s="17"/>
     </row>
-    <row r="60" spans="1:69">
-      <c r="B60" s="3"/>
-      <c r="C60" s="34"/>
-      <c r="D60" s="3"/>
+    <row r="60" spans="1:69" hidden="1">
+      <c r="A60">
+        <v>51</v>
+      </c>
+      <c r="B60" s="3">
+        <v>25</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="E60" s="3"/>
-      <c r="F60" s="4"/>
-      <c r="G60" s="4"/>
-      <c r="H60" s="4"/>
-      <c r="I60" s="3"/>
+      <c r="F60" s="4">
+        <f>IFERROR( HLOOKUP("BE",J60:BQ$65,$A$65-$A60+1,FALSE),0)+ IFERROR( HLOOKUP("B",J60:BQ$65,$A$65-$A60+1,FALSE),0)</f>
+        <v>40821</v>
+      </c>
+      <c r="G60" s="4">
+        <f>IFERROR( HLOOKUP("BE",J60:BQ$65,$A$65-$A60+1,FALSE),0)+ IFERROR( HLOOKUP("E",J60:BQ$65,$A$65-$A60+1,FALSE),0)</f>
+        <v>40827</v>
+      </c>
+      <c r="H60" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>58</v>
+      </c>
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
       <c r="L60" s="17"/>
@@ -5708,13 +6111,27 @@
       <c r="AV60" s="17"/>
       <c r="AW60" s="1"/>
       <c r="AX60" s="1"/>
-      <c r="AY60" s="1"/>
-      <c r="AZ60" s="1"/>
-      <c r="BA60" s="1"/>
-      <c r="BB60" s="17"/>
-      <c r="BC60" s="17"/>
-      <c r="BD60" s="1"/>
-      <c r="BE60" s="1"/>
+      <c r="AY60" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="AZ60" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="BA60" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="BB60" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="BC60" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="BD60" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="BE60" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="BF60" s="1"/>
       <c r="BG60" s="1"/>
       <c r="BH60" s="1"/>
@@ -5728,16 +6145,24 @@
       <c r="BP60" s="17"/>
       <c r="BQ60" s="17"/>
     </row>
-    <row r="61" spans="1:69">
+    <row r="61" spans="1:69" ht="18.75" customHeight="1">
       <c r="A61">
-        <v>33</v>
-      </c>
-      <c r="B61" s="3"/>
-      <c r="C61" s="3"/>
+        <v>52</v>
+      </c>
+      <c r="B61" s="3">
+        <v>26</v>
+      </c>
+      <c r="C61" s="27"/>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
-      <c r="F61" s="4"/>
-      <c r="G61" s="4"/>
+      <c r="F61" s="4">
+        <f>IFERROR( HLOOKUP("BE",J61:BQ$65,$A$65-$A61+1,FALSE),0)+ IFERROR( HLOOKUP("B",J61:BQ$65,$A$65-$A61+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="G61" s="4">
+        <f>IFERROR( HLOOKUP("BE",J61:BQ$65,$A$65-$A61+1,FALSE),0)+ IFERROR( HLOOKUP("E",J61:BQ$65,$A$65-$A61+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
       <c r="H61" s="4"/>
       <c r="I61" s="3"/>
       <c r="J61" s="1"/>
@@ -5801,887 +6226,274 @@
       <c r="BP61" s="17"/>
       <c r="BQ61" s="17"/>
     </row>
-    <row r="62" spans="1:69" hidden="1">
+    <row r="62" spans="1:69">
       <c r="A62">
-        <v>34</v>
-      </c>
-      <c r="B62" s="3">
-        <v>20</v>
-      </c>
-      <c r="C62" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E62" s="3"/>
-      <c r="F62" s="4">
-        <f>IFERROR( HLOOKUP("BE",J62:BD$72,$A$72-$A62+1,FALSE),0)+ IFERROR( HLOOKUP("B",J62:BD$72,$A$72-$A62+1,FALSE),0)</f>
-        <v>40795</v>
-      </c>
-      <c r="G62" s="4">
-        <f>IFERROR( HLOOKUP("BE",J62:BD$72,$A$72-$A62+1,FALSE),0)+ IFERROR( HLOOKUP("E",J62:BD$72,$A$72-$A62+1,FALSE),0)</f>
-        <v>40809</v>
-      </c>
-      <c r="H62" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="J62" s="1"/>
-      <c r="K62" s="1"/>
-      <c r="L62" s="17"/>
-      <c r="M62" s="17"/>
-      <c r="N62" s="1"/>
-      <c r="O62" s="1"/>
-      <c r="P62" s="1"/>
-      <c r="Q62" s="1"/>
-      <c r="R62" s="17"/>
-      <c r="S62" s="17"/>
-      <c r="T62" s="17"/>
-      <c r="U62" s="1"/>
-      <c r="V62" s="1"/>
-      <c r="W62" s="1"/>
-      <c r="X62" s="1"/>
-      <c r="Y62" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z62" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA62" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB62" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC62" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD62" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AE62" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AF62" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AG62" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="AH62" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="AI62" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AJ62" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AK62" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AL62" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AM62" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AN62" s="17"/>
-      <c r="AO62" s="17"/>
-      <c r="AP62" s="1"/>
-      <c r="AQ62" s="1"/>
-      <c r="AR62" s="1"/>
-      <c r="AS62" s="1"/>
-      <c r="AT62" s="1"/>
-      <c r="AU62" s="17"/>
-      <c r="AV62" s="17"/>
-      <c r="AW62" s="1"/>
-      <c r="AX62" s="1"/>
-      <c r="AY62" s="1"/>
-      <c r="AZ62" s="1"/>
-      <c r="BA62" s="1"/>
-      <c r="BB62" s="17"/>
-      <c r="BC62" s="17"/>
-      <c r="BD62" s="1"/>
-      <c r="BE62" s="1"/>
-      <c r="BF62" s="1"/>
-      <c r="BG62" s="1"/>
-      <c r="BH62" s="1"/>
-      <c r="BI62" s="17"/>
-      <c r="BJ62" s="17"/>
-      <c r="BK62" s="1"/>
-      <c r="BL62" s="1"/>
-      <c r="BM62" s="1"/>
-      <c r="BN62" s="1"/>
-      <c r="BO62" s="1"/>
-      <c r="BP62" s="17"/>
-      <c r="BQ62" s="17"/>
-    </row>
-    <row r="63" spans="1:69" hidden="1">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="63" spans="1:69">
       <c r="A63">
-        <v>35</v>
-      </c>
-      <c r="B63" s="3">
-        <v>21</v>
-      </c>
-      <c r="C63" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E63" s="3"/>
-      <c r="F63" s="4"/>
-      <c r="G63" s="4"/>
-      <c r="H63" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="I63" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="J63" s="1"/>
-      <c r="K63" s="1"/>
-      <c r="L63" s="17"/>
-      <c r="M63" s="17"/>
-      <c r="N63" s="1"/>
-      <c r="O63" s="1"/>
-      <c r="P63" s="1"/>
-      <c r="Q63" s="1"/>
-      <c r="R63" s="17"/>
-      <c r="S63" s="17"/>
-      <c r="T63" s="17"/>
-      <c r="U63" s="1"/>
-      <c r="V63" s="1"/>
-      <c r="W63" s="1"/>
-      <c r="X63" s="1"/>
-      <c r="Y63" s="1"/>
-      <c r="Z63" s="17"/>
-      <c r="AA63" s="17"/>
-      <c r="AB63" s="1"/>
-      <c r="AC63" s="1"/>
-      <c r="AD63" s="1"/>
-      <c r="AE63" s="1"/>
-      <c r="AF63" s="1"/>
-      <c r="AG63" s="17"/>
-      <c r="AH63" s="17"/>
-      <c r="AI63" s="1"/>
-      <c r="AJ63" s="1"/>
-      <c r="AK63" s="1"/>
-      <c r="AL63" s="1"/>
-      <c r="AM63" s="1"/>
-      <c r="AN63" s="17"/>
-      <c r="AO63" s="17"/>
-      <c r="AP63" s="1"/>
-      <c r="AQ63" s="1"/>
-      <c r="AR63" s="1"/>
-      <c r="AS63" s="1"/>
-      <c r="AT63" s="1"/>
-      <c r="AU63" s="17"/>
-      <c r="AV63" s="17"/>
-      <c r="AW63" s="1"/>
-      <c r="AX63" s="1"/>
-      <c r="AY63" s="1"/>
-      <c r="AZ63" s="1"/>
-      <c r="BA63" s="1"/>
-      <c r="BB63" s="17"/>
-      <c r="BC63" s="17"/>
-      <c r="BD63" s="1"/>
-      <c r="BE63" s="1"/>
-      <c r="BF63" s="1"/>
-      <c r="BG63" s="1"/>
-      <c r="BH63" s="1"/>
-      <c r="BI63" s="17"/>
-      <c r="BJ63" s="17"/>
-      <c r="BK63" s="1"/>
-      <c r="BL63" s="1"/>
-      <c r="BM63" s="1"/>
-      <c r="BN63" s="1"/>
-      <c r="BO63" s="1"/>
-      <c r="BP63" s="17"/>
-      <c r="BQ63" s="17"/>
-    </row>
-    <row r="64" spans="1:69" hidden="1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="64" spans="1:69">
       <c r="A64">
-        <v>36</v>
-      </c>
-      <c r="B64" s="3">
-        <v>22</v>
-      </c>
-      <c r="C64" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E64" s="3"/>
-      <c r="F64" s="4"/>
-      <c r="G64" s="4"/>
-      <c r="H64" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="I64" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="J64" s="1"/>
-      <c r="K64" s="1"/>
-      <c r="L64" s="17"/>
-      <c r="M64" s="17"/>
-      <c r="N64" s="1"/>
-      <c r="O64" s="1"/>
-      <c r="P64" s="1"/>
-      <c r="Q64" s="1"/>
-      <c r="R64" s="17"/>
-      <c r="S64" s="17"/>
-      <c r="T64" s="17"/>
-      <c r="U64" s="1"/>
-      <c r="V64" s="1"/>
-      <c r="W64" s="1"/>
-      <c r="X64" s="1"/>
-      <c r="Y64" s="1"/>
-      <c r="Z64" s="17"/>
-      <c r="AA64" s="17"/>
-      <c r="AB64" s="1"/>
-      <c r="AC64" s="1"/>
-      <c r="AD64" s="1"/>
-      <c r="AE64" s="1"/>
-      <c r="AF64" s="1"/>
-      <c r="AG64" s="17"/>
-      <c r="AH64" s="17"/>
-      <c r="AI64" s="1"/>
-      <c r="AJ64" s="1"/>
-      <c r="AK64" s="1"/>
-      <c r="AL64" s="1"/>
-      <c r="AM64" s="1"/>
-      <c r="AN64" s="17"/>
-      <c r="AO64" s="17"/>
-      <c r="AP64" s="1"/>
-      <c r="AQ64" s="1"/>
-      <c r="AR64" s="1"/>
-      <c r="AS64" s="1"/>
-      <c r="AT64" s="1"/>
-      <c r="AU64" s="17"/>
-      <c r="AV64" s="17"/>
-      <c r="AW64" s="1"/>
-      <c r="AX64" s="1"/>
-      <c r="AY64" s="1"/>
-      <c r="AZ64" s="1"/>
-      <c r="BA64" s="1"/>
-      <c r="BB64" s="17"/>
-      <c r="BC64" s="17"/>
-      <c r="BD64" s="1"/>
-      <c r="BE64" s="1"/>
-      <c r="BF64" s="1"/>
-      <c r="BG64" s="1"/>
-      <c r="BH64" s="1"/>
-      <c r="BI64" s="17"/>
-      <c r="BJ64" s="17"/>
-      <c r="BK64" s="1"/>
-      <c r="BL64" s="1"/>
-      <c r="BM64" s="1"/>
-      <c r="BN64" s="1"/>
-      <c r="BO64" s="1"/>
-      <c r="BP64" s="17"/>
-      <c r="BQ64" s="17"/>
-    </row>
-    <row r="65" spans="1:69">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="65" spans="1:69" s="10" customFormat="1">
       <c r="A65">
-        <v>37</v>
-      </c>
-      <c r="B65" s="3">
-        <v>23</v>
-      </c>
-      <c r="C65" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E65" s="3"/>
-      <c r="F65" s="4">
-        <f>IFERROR( HLOOKUP("BE",J65:BD$72,$A$72-$A65+1,FALSE),0)+ IFERROR( HLOOKUP("B",J65:BD$72,$A$72-$A65+1,FALSE),0)</f>
-        <v>40821</v>
-      </c>
-      <c r="G65" s="4">
-        <f>IFERROR( HLOOKUP("BE",J65:BD$72,$A$72-$A65+1,FALSE),0)+ IFERROR( HLOOKUP("E",J65:BD$72,$A$72-$A65+1,FALSE),0)</f>
-        <v>40821</v>
-      </c>
-      <c r="H65" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="I65" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="J65" s="1"/>
-      <c r="K65" s="1"/>
-      <c r="L65" s="17"/>
-      <c r="M65" s="17"/>
-      <c r="N65" s="1"/>
-      <c r="O65" s="1"/>
-      <c r="P65" s="1"/>
-      <c r="Q65" s="1"/>
-      <c r="R65" s="17"/>
-      <c r="S65" s="17"/>
-      <c r="T65" s="17"/>
-      <c r="U65" s="1"/>
-      <c r="V65" s="1"/>
-      <c r="W65" s="1"/>
-      <c r="X65" s="1"/>
-      <c r="Y65" s="1"/>
-      <c r="Z65" s="17"/>
-      <c r="AA65" s="17"/>
-      <c r="AB65" s="1"/>
-      <c r="AC65" s="1"/>
-      <c r="AD65" s="1"/>
-      <c r="AE65" s="1"/>
-      <c r="AF65" s="1"/>
-      <c r="AG65" s="17"/>
-      <c r="AH65" s="17"/>
-      <c r="AI65" s="1"/>
-      <c r="AJ65" s="1"/>
-      <c r="AK65" s="1"/>
-      <c r="AL65" s="1"/>
-      <c r="AM65" s="1"/>
-      <c r="AN65" s="17"/>
-      <c r="AO65" s="17"/>
-      <c r="AP65" s="1"/>
-      <c r="AQ65" s="1"/>
-      <c r="AR65" s="1"/>
-      <c r="AS65" s="1"/>
-      <c r="AT65" s="1"/>
-      <c r="AU65" s="17"/>
-      <c r="AV65" s="17"/>
-      <c r="AW65" s="1"/>
-      <c r="AX65" s="1"/>
-      <c r="AY65" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="AZ65" s="1"/>
-      <c r="BA65" s="1"/>
-      <c r="BB65" s="17"/>
-      <c r="BC65" s="17"/>
-      <c r="BD65" s="1"/>
-      <c r="BE65" s="1"/>
-      <c r="BF65" s="1"/>
-      <c r="BG65" s="1"/>
-      <c r="BH65" s="1"/>
-      <c r="BI65" s="17"/>
-      <c r="BJ65" s="17"/>
-      <c r="BK65" s="1"/>
-      <c r="BL65" s="1"/>
-      <c r="BM65" s="1"/>
-      <c r="BN65" s="1"/>
-      <c r="BO65" s="1"/>
-      <c r="BP65" s="17"/>
-      <c r="BQ65" s="17"/>
-    </row>
-    <row r="66" spans="1:69" hidden="1">
-      <c r="A66">
-        <v>38</v>
-      </c>
-      <c r="B66" s="3">
-        <v>24</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E66" s="3"/>
-      <c r="F66" s="4">
-        <f>IFERROR( HLOOKUP("BE",J66:BD$72,$A$72-$A66+1,FALSE),0)+ IFERROR( HLOOKUP("B",J66:BD$72,$A$72-$A66+1,FALSE),0)</f>
-        <v>40813</v>
-      </c>
-      <c r="G66" s="4">
-        <f>IFERROR( HLOOKUP("BE",J66:BD$72,$A$72-$A66+1,FALSE),0)+ IFERROR( HLOOKUP("E",J66:BD$72,$A$72-$A66+1,FALSE),0)</f>
-        <v>40820</v>
-      </c>
-      <c r="H66" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="J66" s="1"/>
-      <c r="K66" s="1"/>
-      <c r="L66" s="17"/>
-      <c r="M66" s="17"/>
-      <c r="N66" s="1"/>
-      <c r="O66" s="1"/>
-      <c r="P66" s="1"/>
-      <c r="Q66" s="1"/>
-      <c r="R66" s="17"/>
-      <c r="S66" s="17"/>
-      <c r="T66" s="17"/>
-      <c r="U66" s="1"/>
-      <c r="V66" s="1"/>
-      <c r="W66" s="1"/>
-      <c r="X66" s="1"/>
-      <c r="Y66" s="1"/>
-      <c r="Z66" s="17"/>
-      <c r="AA66" s="17"/>
-      <c r="AB66" s="1"/>
-      <c r="AC66" s="1"/>
-      <c r="AD66" s="1"/>
-      <c r="AE66" s="1"/>
-      <c r="AF66" s="1"/>
-      <c r="AG66" s="17"/>
-      <c r="AH66" s="17"/>
-      <c r="AI66" s="1"/>
-      <c r="AJ66" s="1"/>
-      <c r="AK66" s="1"/>
-      <c r="AL66" s="1"/>
-      <c r="AM66" s="1"/>
-      <c r="AN66" s="17"/>
-      <c r="AO66" s="17"/>
-      <c r="AP66" s="1"/>
-      <c r="AQ66" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AR66" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AS66" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AT66" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AU66" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="AV66" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="AW66" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AX66" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AY66" s="1"/>
-      <c r="AZ66" s="1"/>
-      <c r="BA66" s="1"/>
-      <c r="BB66" s="17"/>
-      <c r="BC66" s="17"/>
-      <c r="BD66" s="1"/>
-      <c r="BE66" s="1"/>
-      <c r="BF66" s="1"/>
-      <c r="BG66" s="1"/>
-      <c r="BH66" s="1"/>
-      <c r="BI66" s="17"/>
-      <c r="BJ66" s="17"/>
-      <c r="BK66" s="1"/>
-      <c r="BL66" s="1"/>
-      <c r="BM66" s="1"/>
-      <c r="BN66" s="1"/>
-      <c r="BO66" s="1"/>
-      <c r="BP66" s="17"/>
-      <c r="BQ66" s="17"/>
-    </row>
-    <row r="67" spans="1:69" hidden="1">
-      <c r="A67">
-        <v>39</v>
-      </c>
-      <c r="B67" s="3">
-        <v>25</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E67" s="3"/>
-      <c r="F67" s="4">
-        <f>IFERROR( HLOOKUP("BE",J67:BD$72,$A$72-$A67+1,FALSE),0)+ IFERROR( HLOOKUP("B",J67:BD$72,$A$72-$A67+1,FALSE),0)</f>
-        <v>40821</v>
-      </c>
-      <c r="G67" s="4">
-        <f>IFERROR( HLOOKUP("BE",J67:BD$72,$A$72-$A67+1,FALSE),0)+ IFERROR( HLOOKUP("E",J67:BD$72,$A$72-$A67+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H67" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="I67" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="J67" s="1"/>
-      <c r="K67" s="1"/>
-      <c r="L67" s="17"/>
-      <c r="M67" s="17"/>
-      <c r="N67" s="1"/>
-      <c r="O67" s="1"/>
-      <c r="P67" s="1"/>
-      <c r="Q67" s="1"/>
-      <c r="R67" s="17"/>
-      <c r="S67" s="17"/>
-      <c r="T67" s="17"/>
-      <c r="U67" s="1"/>
-      <c r="V67" s="1"/>
-      <c r="W67" s="1"/>
-      <c r="X67" s="1"/>
-      <c r="Y67" s="1"/>
-      <c r="Z67" s="17"/>
-      <c r="AA67" s="17"/>
-      <c r="AB67" s="1"/>
-      <c r="AC67" s="1"/>
-      <c r="AD67" s="1"/>
-      <c r="AE67" s="1"/>
-      <c r="AF67" s="1"/>
-      <c r="AG67" s="17"/>
-      <c r="AH67" s="17"/>
-      <c r="AI67" s="1"/>
-      <c r="AJ67" s="1"/>
-      <c r="AK67" s="1"/>
-      <c r="AL67" s="1"/>
-      <c r="AM67" s="1"/>
-      <c r="AN67" s="17"/>
-      <c r="AO67" s="17"/>
-      <c r="AP67" s="1"/>
-      <c r="AQ67" s="1"/>
-      <c r="AR67" s="1"/>
-      <c r="AS67" s="1"/>
-      <c r="AT67" s="1"/>
-      <c r="AU67" s="17"/>
-      <c r="AV67" s="17"/>
-      <c r="AW67" s="1"/>
-      <c r="AX67" s="1"/>
-      <c r="AY67" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="AZ67" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="BA67" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="BB67" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="BC67" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="BD67" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="BE67" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="BF67" s="1"/>
-      <c r="BG67" s="1"/>
-      <c r="BH67" s="1"/>
-      <c r="BI67" s="17"/>
-      <c r="BJ67" s="17"/>
-      <c r="BK67" s="1"/>
-      <c r="BL67" s="1"/>
-      <c r="BM67" s="1"/>
-      <c r="BN67" s="1"/>
-      <c r="BO67" s="1"/>
-      <c r="BP67" s="17"/>
-      <c r="BQ67" s="17"/>
-    </row>
-    <row r="68" spans="1:69" ht="18.75" customHeight="1">
-      <c r="A68">
-        <v>40</v>
-      </c>
-      <c r="B68" s="3">
-        <v>26</v>
-      </c>
-      <c r="C68" s="27"/>
-      <c r="D68" s="3"/>
-      <c r="E68" s="3"/>
-      <c r="F68" s="4">
-        <f>IFERROR( HLOOKUP("BE",J68:BD$72,$A$72-$A68+1,FALSE),0)+ IFERROR( HLOOKUP("B",J68:BD$72,$A$72-$A68+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="G68" s="4">
-        <f>IFERROR( HLOOKUP("BE",J68:BD$72,$A$72-$A68+1,FALSE),0)+ IFERROR( HLOOKUP("E",J68:BD$72,$A$72-$A68+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H68" s="4"/>
-      <c r="I68" s="3"/>
-      <c r="J68" s="1"/>
-      <c r="K68" s="1"/>
-      <c r="L68" s="17"/>
-      <c r="M68" s="17"/>
-      <c r="N68" s="1"/>
-      <c r="O68" s="1"/>
-      <c r="P68" s="1"/>
-      <c r="Q68" s="1"/>
-      <c r="R68" s="17"/>
-      <c r="S68" s="17"/>
-      <c r="T68" s="17"/>
-      <c r="U68" s="1"/>
-      <c r="V68" s="1"/>
-      <c r="W68" s="1"/>
-      <c r="X68" s="1"/>
-      <c r="Y68" s="1"/>
-      <c r="Z68" s="17"/>
-      <c r="AA68" s="17"/>
-      <c r="AB68" s="1"/>
-      <c r="AC68" s="1"/>
-      <c r="AD68" s="1"/>
-      <c r="AE68" s="1"/>
-      <c r="AF68" s="1"/>
-      <c r="AG68" s="17"/>
-      <c r="AH68" s="17"/>
-      <c r="AI68" s="1"/>
-      <c r="AJ68" s="1"/>
-      <c r="AK68" s="1"/>
-      <c r="AL68" s="1"/>
-      <c r="AM68" s="1"/>
-      <c r="AN68" s="17"/>
-      <c r="AO68" s="17"/>
-      <c r="AP68" s="1"/>
-      <c r="AQ68" s="1"/>
-      <c r="AR68" s="1"/>
-      <c r="AS68" s="1"/>
-      <c r="AT68" s="1"/>
-      <c r="AU68" s="17"/>
-      <c r="AV68" s="17"/>
-      <c r="AW68" s="1"/>
-      <c r="AX68" s="1"/>
-      <c r="AY68" s="1"/>
-      <c r="AZ68" s="1"/>
-      <c r="BA68" s="1"/>
-      <c r="BB68" s="17"/>
-      <c r="BC68" s="17"/>
-      <c r="BD68" s="1"/>
-      <c r="BE68" s="1"/>
-      <c r="BF68" s="1"/>
-      <c r="BG68" s="1"/>
-      <c r="BH68" s="1"/>
-      <c r="BI68" s="17"/>
-      <c r="BJ68" s="17"/>
-      <c r="BK68" s="1"/>
-      <c r="BL68" s="1"/>
-      <c r="BM68" s="1"/>
-      <c r="BN68" s="1"/>
-      <c r="BO68" s="1"/>
-      <c r="BP68" s="17"/>
-      <c r="BQ68" s="17"/>
-    </row>
-    <row r="69" spans="1:69">
-      <c r="A69">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="70" spans="1:69">
-      <c r="A70">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="71" spans="1:69">
-      <c r="A71">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="72" spans="1:69" s="10" customFormat="1">
-      <c r="A72">
-        <v>44</v>
-      </c>
-      <c r="C72" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="C65" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="F72" s="5"/>
-      <c r="G72" s="5"/>
-      <c r="H72" s="5"/>
-      <c r="J72" s="5">
+      <c r="F65" s="5"/>
+      <c r="G65" s="5"/>
+      <c r="H65" s="5"/>
+      <c r="J65" s="5">
         <f>J8</f>
         <v>40780</v>
       </c>
-      <c r="K72" s="5">
-        <f t="shared" ref="K72:BD72" si="1">K8</f>
+      <c r="K65" s="5">
+        <f t="shared" ref="K65:BQ65" si="1">K8</f>
         <v>40781</v>
       </c>
-      <c r="L72" s="5">
+      <c r="L65" s="5">
         <f t="shared" si="1"/>
         <v>40782</v>
       </c>
-      <c r="M72" s="5">
+      <c r="M65" s="5">
         <f t="shared" si="1"/>
         <v>40783</v>
       </c>
-      <c r="N72" s="5">
+      <c r="N65" s="5">
         <f t="shared" si="1"/>
         <v>40784</v>
       </c>
-      <c r="O72" s="5">
+      <c r="O65" s="5">
         <f t="shared" si="1"/>
         <v>40785</v>
       </c>
-      <c r="P72" s="5">
+      <c r="P65" s="5">
         <f t="shared" si="1"/>
         <v>40786</v>
       </c>
-      <c r="Q72" s="5">
+      <c r="Q65" s="5">
         <f t="shared" si="1"/>
         <v>40787</v>
       </c>
-      <c r="R72" s="5">
+      <c r="R65" s="5">
         <f t="shared" si="1"/>
         <v>40788</v>
       </c>
-      <c r="S72" s="5">
+      <c r="S65" s="5">
         <f t="shared" si="1"/>
         <v>40789</v>
       </c>
-      <c r="T72" s="5">
+      <c r="T65" s="5">
         <f t="shared" si="1"/>
         <v>40790</v>
       </c>
-      <c r="U72" s="5">
+      <c r="U65" s="5">
         <f t="shared" si="1"/>
         <v>40791</v>
       </c>
-      <c r="V72" s="5">
+      <c r="V65" s="5">
         <f t="shared" si="1"/>
         <v>40792</v>
       </c>
-      <c r="W72" s="5">
+      <c r="W65" s="5">
         <f t="shared" si="1"/>
         <v>40793</v>
       </c>
-      <c r="X72" s="5">
+      <c r="X65" s="5">
         <f t="shared" si="1"/>
         <v>40794</v>
       </c>
-      <c r="Y72" s="5">
+      <c r="Y65" s="5">
         <f t="shared" si="1"/>
         <v>40795</v>
       </c>
-      <c r="Z72" s="5">
+      <c r="Z65" s="5">
         <f t="shared" si="1"/>
         <v>40796</v>
       </c>
-      <c r="AA72" s="5">
+      <c r="AA65" s="5">
         <f t="shared" si="1"/>
         <v>40797</v>
       </c>
-      <c r="AB72" s="5">
+      <c r="AB65" s="5">
         <f t="shared" si="1"/>
         <v>40798</v>
       </c>
-      <c r="AC72" s="5">
+      <c r="AC65" s="5">
         <f t="shared" si="1"/>
         <v>40799</v>
       </c>
-      <c r="AD72" s="5">
+      <c r="AD65" s="5">
         <f t="shared" si="1"/>
         <v>40800</v>
       </c>
-      <c r="AE72" s="5">
+      <c r="AE65" s="5">
         <f t="shared" si="1"/>
         <v>40801</v>
       </c>
-      <c r="AF72" s="5">
+      <c r="AF65" s="5">
         <f t="shared" si="1"/>
         <v>40802</v>
       </c>
-      <c r="AG72" s="5">
+      <c r="AG65" s="5">
         <f t="shared" si="1"/>
         <v>40803</v>
       </c>
-      <c r="AH72" s="5">
+      <c r="AH65" s="5">
         <f t="shared" si="1"/>
         <v>40804</v>
       </c>
-      <c r="AI72" s="5">
+      <c r="AI65" s="5">
         <f t="shared" si="1"/>
         <v>40805</v>
       </c>
-      <c r="AJ72" s="5">
+      <c r="AJ65" s="5">
         <f t="shared" si="1"/>
         <v>40806</v>
       </c>
-      <c r="AK72" s="5">
+      <c r="AK65" s="5">
         <f t="shared" si="1"/>
         <v>40807</v>
       </c>
-      <c r="AL72" s="5">
+      <c r="AL65" s="5">
         <f t="shared" si="1"/>
         <v>40808</v>
       </c>
-      <c r="AM72" s="5">
+      <c r="AM65" s="5">
         <f t="shared" si="1"/>
         <v>40809</v>
       </c>
-      <c r="AN72" s="5">
+      <c r="AN65" s="5">
         <f t="shared" si="1"/>
         <v>40810</v>
       </c>
-      <c r="AO72" s="5">
+      <c r="AO65" s="5">
         <f t="shared" si="1"/>
         <v>40811</v>
       </c>
-      <c r="AP72" s="5">
+      <c r="AP65" s="5">
         <f t="shared" si="1"/>
         <v>40812</v>
       </c>
-      <c r="AQ72" s="5">
+      <c r="AQ65" s="5">
         <f t="shared" si="1"/>
         <v>40813</v>
       </c>
-      <c r="AR72" s="5">
+      <c r="AR65" s="5">
         <f t="shared" si="1"/>
         <v>40814</v>
       </c>
-      <c r="AS72" s="5">
+      <c r="AS65" s="5">
         <f t="shared" si="1"/>
         <v>40815</v>
       </c>
-      <c r="AT72" s="5">
+      <c r="AT65" s="5">
         <f t="shared" si="1"/>
         <v>40816</v>
       </c>
-      <c r="AU72" s="5">
+      <c r="AU65" s="5">
         <f t="shared" si="1"/>
         <v>40817</v>
       </c>
-      <c r="AV72" s="5">
+      <c r="AV65" s="5">
         <f t="shared" si="1"/>
         <v>40818</v>
       </c>
-      <c r="AW72" s="5">
+      <c r="AW65" s="5">
         <f t="shared" si="1"/>
         <v>40819</v>
       </c>
-      <c r="AX72" s="5">
+      <c r="AX65" s="5">
         <f t="shared" si="1"/>
         <v>40820</v>
       </c>
-      <c r="AY72" s="5">
+      <c r="AY65" s="5">
         <f t="shared" si="1"/>
         <v>40821</v>
       </c>
-      <c r="AZ72" s="5">
+      <c r="AZ65" s="5">
         <f t="shared" si="1"/>
         <v>40822</v>
       </c>
-      <c r="BA72" s="5">
+      <c r="BA65" s="5">
         <f t="shared" si="1"/>
         <v>40823</v>
       </c>
-      <c r="BB72" s="5">
+      <c r="BB65" s="5">
         <f t="shared" si="1"/>
         <v>40824</v>
       </c>
-      <c r="BC72" s="5">
+      <c r="BC65" s="5">
         <f t="shared" si="1"/>
         <v>40825</v>
       </c>
-      <c r="BD72" s="5">
+      <c r="BD65" s="5">
         <f t="shared" si="1"/>
         <v>40826</v>
       </c>
+      <c r="BE65" s="5">
+        <f t="shared" si="1"/>
+        <v>40827</v>
+      </c>
+      <c r="BF65" s="5">
+        <f t="shared" si="1"/>
+        <v>40828</v>
+      </c>
+      <c r="BG65" s="5">
+        <f t="shared" si="1"/>
+        <v>40829</v>
+      </c>
+      <c r="BH65" s="5">
+        <f t="shared" si="1"/>
+        <v>40830</v>
+      </c>
+      <c r="BI65" s="5">
+        <f t="shared" si="1"/>
+        <v>40831</v>
+      </c>
+      <c r="BJ65" s="5">
+        <f t="shared" si="1"/>
+        <v>40832</v>
+      </c>
+      <c r="BK65" s="5">
+        <f t="shared" si="1"/>
+        <v>40833</v>
+      </c>
+      <c r="BL65" s="5">
+        <f t="shared" si="1"/>
+        <v>40834</v>
+      </c>
+      <c r="BM65" s="5">
+        <f t="shared" si="1"/>
+        <v>40835</v>
+      </c>
+      <c r="BN65" s="5">
+        <f t="shared" si="1"/>
+        <v>40836</v>
+      </c>
+      <c r="BO65" s="5">
+        <f t="shared" si="1"/>
+        <v>40837</v>
+      </c>
+      <c r="BP65" s="5">
+        <f t="shared" si="1"/>
+        <v>40838</v>
+      </c>
+      <c r="BQ65" s="5">
+        <f t="shared" si="1"/>
+        <v>40839</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A8:BQ72">
+  <autoFilter ref="A8:BQ65">
     <filterColumn colId="3">
       <filters blank="1">
         <filter val="Trinhnv"/>
@@ -6691,7 +6503,7 @@
   <mergeCells count="1">
     <mergeCell ref="K2:Q2"/>
   </mergeCells>
-  <conditionalFormatting sqref="J69:AW69 J44:BQ68 J13:BD13 J10:AF11 AG11 AH10:BD11 J15:BD22 AU11:AV38 BB11:BC38 J24:BD43 BE10:BQ43">
+  <conditionalFormatting sqref="J62:AW62 J43:BQ61 J23:BD42 J13:BD13 J10:AF11 AG11 AH10:BD11 J15:BD21 AU11:AV37 BB11:BC37 BE10:BQ42">
     <cfRule type="cellIs" dxfId="6" priority="34" operator="equal">
       <formula>"-"</formula>
     </cfRule>
@@ -6702,30 +6514,32 @@
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J44:BQ68 J13:BD13 J10:AF11 AG11 AH10:BD11 J15:BD22 AU11:AV38 BB11:BC38 J24:BD43 BE10:BQ43">
+  <conditionalFormatting sqref="J43:BQ61 J23:BD42 J13:BD13 J10:AF11 AG11 AH10:BD11 J15:BD21 AU11:AV37 BB11:BC37 BE10:BQ42">
     <cfRule type="cellIs" dxfId="3" priority="33" operator="equal">
       <formula>"BE"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H10:H11 H13 H15:H22 H24:H68">
+  <conditionalFormatting sqref="H23:H61 H10:H11 H13 H15:H21">
     <cfRule type="cellIs" dxfId="2" priority="15" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="20">
-      <formula>AND(H10&lt;&gt;$E$4,$G$10&lt;TODAY())</formula>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H11 H13 H15:H21 H23:H47">
+    <cfRule type="expression" dxfId="1" priority="19">
+      <formula>AND(H11&lt;&gt;$E$4,G10&lt;TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H11 H13 H15:H22 H24:H68">
-    <cfRule type="expression" dxfId="0" priority="19">
-      <formula>AND(H11&lt;&gt;$E$4,$G$10&lt;TODAY())</formula>
+  <conditionalFormatting sqref="H48:H61">
+    <cfRule type="expression" dxfId="0" priority="87">
+      <formula>AND(H48&lt;&gt;$E$4,#REF!&lt;TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H10:H68">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D13 D23:D61 D10:D11 D15:D21">
+      <formula1>$C$2:$C$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H10:H61">
       <formula1>$E$2:$E$6</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D13 D15:D22 D24:D68 D10:D11">
-      <formula1>$C$2:$C$4</formula1>
     </dataValidation>
   </dataValidations>
   <printOptions gridLines="1"/>

--- a/01. Document/DropOut_project v2011.08.25.xlsx
+++ b/01. Document/DropOut_project v2011.08.25.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -13,7 +13,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Plan!$A$8:$BQ$65</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -531,73 +531,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill>
-          <stop position="0">
-            <color rgb="FF0000CC"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFF0000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="7">
     <dxf>
       <fill>
         <patternFill>
@@ -960,14 +894,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:BQ65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="8" topLeftCell="H9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="8" topLeftCell="H42" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="A10" sqref="A10:A65"/>
+      <selection pane="bottomRight" activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1592,7 +1525,7 @@
       <c r="BC9" s="6"/>
       <c r="BD9" s="6"/>
     </row>
-    <row r="10" spans="1:69" hidden="1">
+    <row r="10" spans="1:69">
       <c r="A10">
         <v>1</v>
       </c>
@@ -1851,7 +1784,7 @@
       <c r="BP12" s="17"/>
       <c r="BQ12" s="17"/>
     </row>
-    <row r="13" spans="1:69" s="16" customFormat="1" hidden="1">
+    <row r="13" spans="1:69" s="16" customFormat="1">
       <c r="A13">
         <v>4</v>
       </c>
@@ -3673,7 +3606,7 @@
       <c r="BP32" s="17"/>
       <c r="BQ32" s="17"/>
     </row>
-    <row r="33" spans="1:69" hidden="1">
+    <row r="33" spans="1:69">
       <c r="A33">
         <v>24</v>
       </c>
@@ -3869,7 +3802,7 @@
       <c r="BP34" s="17"/>
       <c r="BQ34" s="17"/>
     </row>
-    <row r="35" spans="1:69" hidden="1">
+    <row r="35" spans="1:69">
       <c r="A35">
         <v>26</v>
       </c>
@@ -3962,7 +3895,7 @@
       <c r="BP35" s="17"/>
       <c r="BQ35" s="17"/>
     </row>
-    <row r="36" spans="1:69" hidden="1">
+    <row r="36" spans="1:69">
       <c r="A36">
         <v>27</v>
       </c>
@@ -4300,7 +4233,7 @@
       <c r="BP39" s="17"/>
       <c r="BQ39" s="17"/>
     </row>
-    <row r="40" spans="1:69" hidden="1">
+    <row r="40" spans="1:69">
       <c r="A40">
         <v>31</v>
       </c>
@@ -4387,7 +4320,7 @@
       <c r="BP40" s="17"/>
       <c r="BQ40" s="17"/>
     </row>
-    <row r="41" spans="1:69" hidden="1">
+    <row r="41" spans="1:69">
       <c r="A41">
         <v>32</v>
       </c>
@@ -4474,7 +4407,7 @@
       <c r="BP41" s="17"/>
       <c r="BQ41" s="17"/>
     </row>
-    <row r="42" spans="1:69" hidden="1">
+    <row r="42" spans="1:69">
       <c r="A42">
         <v>33</v>
       </c>
@@ -4642,7 +4575,7 @@
       <c r="BP43" s="17"/>
       <c r="BQ43" s="17"/>
     </row>
-    <row r="44" spans="1:69" hidden="1">
+    <row r="44" spans="1:69">
       <c r="A44">
         <v>35</v>
       </c>
@@ -4729,7 +4662,7 @@
       <c r="BP44" s="17"/>
       <c r="BQ44" s="17"/>
     </row>
-    <row r="45" spans="1:69" hidden="1">
+    <row r="45" spans="1:69">
       <c r="A45">
         <v>36</v>
       </c>
@@ -4816,7 +4749,7 @@
       <c r="BP45" s="17"/>
       <c r="BQ45" s="17"/>
     </row>
-    <row r="46" spans="1:69" hidden="1">
+    <row r="46" spans="1:69">
       <c r="A46">
         <v>37</v>
       </c>
@@ -5063,7 +4996,7 @@
       <c r="BP48" s="17"/>
       <c r="BQ48" s="17"/>
     </row>
-    <row r="49" spans="1:69" hidden="1">
+    <row r="49" spans="1:69">
       <c r="A49">
         <v>40</v>
       </c>
@@ -5146,7 +5079,7 @@
       <c r="BP49" s="17"/>
       <c r="BQ49" s="17"/>
     </row>
-    <row r="50" spans="1:69" hidden="1">
+    <row r="50" spans="1:69">
       <c r="A50">
         <v>41</v>
       </c>
@@ -5549,7 +5482,7 @@
       <c r="BP54" s="17"/>
       <c r="BQ54" s="17"/>
     </row>
-    <row r="55" spans="1:69" hidden="1">
+    <row r="55" spans="1:69">
       <c r="A55">
         <v>46</v>
       </c>
@@ -5668,7 +5601,7 @@
       <c r="BP55" s="17"/>
       <c r="BQ55" s="17"/>
     </row>
-    <row r="56" spans="1:69" hidden="1">
+    <row r="56" spans="1:69">
       <c r="A56">
         <v>47</v>
       </c>
@@ -5757,7 +5690,7 @@
       <c r="BP56" s="17"/>
       <c r="BQ56" s="17"/>
     </row>
-    <row r="57" spans="1:69" hidden="1">
+    <row r="57" spans="1:69">
       <c r="A57">
         <v>48</v>
       </c>
@@ -5937,7 +5870,7 @@
       <c r="BP58" s="17"/>
       <c r="BQ58" s="17"/>
     </row>
-    <row r="59" spans="1:69" hidden="1">
+    <row r="59" spans="1:69">
       <c r="A59">
         <v>50</v>
       </c>
@@ -6042,7 +5975,7 @@
       <c r="BP59" s="17"/>
       <c r="BQ59" s="17"/>
     </row>
-    <row r="60" spans="1:69" hidden="1">
+    <row r="60" spans="1:69">
       <c r="A60">
         <v>51</v>
       </c>
@@ -6494,11 +6427,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A8:BQ65">
-    <filterColumn colId="3">
-      <filters blank="1">
-        <filter val="Trinhnv"/>
-      </filters>
-    </filterColumn>
+    <filterColumn colId="3"/>
   </autoFilter>
   <mergeCells count="1">
     <mergeCell ref="K2:Q2"/>

--- a/01. Document/DropOut_project v2011.08.25.xlsx
+++ b/01. Document/DropOut_project v2011.08.25.xlsx
@@ -4,21 +4,21 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="7140" yWindow="390" windowWidth="15960" windowHeight="9180"/>
   </bookViews>
   <sheets>
     <sheet name="Plan" sheetId="2" r:id="rId1"/>
     <sheet name="Convension" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Plan!$A$8:$BQ$65</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Plan!$A$8:$BQ$85</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="132">
   <si>
     <t>STT</t>
   </si>
@@ -122,9 +122,6 @@
     <t>Tìm hiểu phần mềm Time Series Prediction - a.Bắc</t>
   </si>
   <si>
-    <t>Lập trình các chức năng</t>
-  </si>
-  <si>
     <t>Test và so sánh với kết quả của Alyuda</t>
   </si>
   <si>
@@ -266,64 +263,157 @@
     <t xml:space="preserve"> 1 Training(Program+code)</t>
   </si>
   <si>
-    <t>Demo chương trình lần 1</t>
-  </si>
-  <si>
-    <t>Demo chương trình lần 2</t>
-  </si>
-  <si>
     <t>Xây dựng chức năng</t>
   </si>
   <si>
     <t>- Giao diện trang chủ</t>
   </si>
   <si>
-    <t>- Tham số luyện mạng</t>
-  </si>
-  <si>
-    <t>- Truy vấn kết quả</t>
-  </si>
-  <si>
-    <t>- Hỗ trợ xử lý thô</t>
-  </si>
-  <si>
-    <t>- Selection</t>
-  </si>
-  <si>
-    <t>-Preprocessing</t>
-  </si>
-  <si>
-    <t>- Transformation</t>
-  </si>
-  <si>
-    <t>-DataMining</t>
-  </si>
-  <si>
-    <t>- Pattern</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          - Hiển thị (dữ liệu dạng Catalog,…)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          - Chuẩn hóa dạng -1-&gt;1</t>
-  </si>
-  <si>
-    <t>Giao diện</t>
-  </si>
-  <si>
     <t>Module chương trình</t>
   </si>
   <si>
-    <t>- Hiển thị dữ liệu từ file text, csv</t>
-  </si>
-  <si>
-    <t>- Làm sạch dữ liệu, khử nhiễu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          - Rời rạc hóa dữ liệu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- </t>
+    <t>- Analysis</t>
+  </si>
+  <si>
+    <t>1. Module: Set đầu ra của mẫu</t>
+  </si>
+  <si>
+    <t>Cột nào của mẫu</t>
+  </si>
+  <si>
+    <t>2. Module: Loại bỏ ngoại lai bằng cách xóa (remove always)</t>
+  </si>
+  <si>
+    <t>Bảng dữ liệu mới</t>
+  </si>
+  <si>
+    <t>3. Module: Loại bỏ ngoại lai bằng cách thay thế (substitute)</t>
+  </si>
+  <si>
+    <t>4. Module: Thiết đặt tập mẫu (Trn, Vld, Tst, Ign)</t>
+  </si>
+  <si>
+    <t>Dữ liệu luyện mạng</t>
+  </si>
+  <si>
+    <t>5. Module: Lấy lại hoặc loại bỏ mẫu bằng tay</t>
+  </si>
+  <si>
+    <t>6. Module: Thiết lập thuộc tính cho cột dữ liệu (catalog, date, numberic, binary)</t>
+  </si>
+  <si>
+    <t>7. Module + Form: Dataset options</t>
+  </si>
+  <si>
+    <t>Tùy chỉnh dữ liệu luyện mạng</t>
+  </si>
+  <si>
+    <t>8. Module: Phân chia dữ liệu theo thứ tự (Specific order)</t>
+  </si>
+  <si>
+    <t>10. Module: Phân chia dữ liệu theo ngẫu nhiên (randomize approach)</t>
+  </si>
+  <si>
+    <t>VUnb</t>
+  </si>
+  <si>
+    <t>9. Module: Form tùy chỉnh (cách) phân chia dữ liệu</t>
+  </si>
+  <si>
+    <t>- Preprocessing</t>
+  </si>
+  <si>
+    <t>0. Đọc dữ liệu từ file (comma delimited format)</t>
+  </si>
+  <si>
+    <t>1. Module: Biến đổi dữ liệu luyện mạng kiểu: categories</t>
+  </si>
+  <si>
+    <t>2. Module: Biến đổi dữ liệu luyện mạng kiểu: Binary</t>
+  </si>
+  <si>
+    <t>3. Module: Biến đổi dữ liệu luyện mạng kiểu: Numberic</t>
+  </si>
+  <si>
+    <t>4. Module: Biến đổi dữ liệu luyện mạng kiểu: Date Time</t>
+  </si>
+  <si>
+    <t>5. Module: Hiển thị dữ liệu đã được xử lý lên lưới</t>
+  </si>
+  <si>
+    <t>6. Module: Hiển thị các thông số, chi tiết cột dữ liệu</t>
+  </si>
+  <si>
+    <t>7. Module: Form tùy chỉnh (chức năng) biến đổi dữ liệu</t>
+  </si>
+  <si>
+    <t>Giao diện chương trình chính</t>
+  </si>
+  <si>
+    <t>- Training</t>
+  </si>
+  <si>
+    <t>1. Module: Xuất kiến trúc mạng mặc định</t>
+  </si>
+  <si>
+    <t>2. Module: Hiển thị kiến trúc mạng</t>
+  </si>
+  <si>
+    <t>3. Module: Hiển thị thông số mạng (hàm lỗi, hàm kích hoạt)</t>
+  </si>
+  <si>
+    <t>4. Module: Vẽ đồ thị hàm lỗi</t>
+  </si>
+  <si>
+    <t>5. Module: Form tùy chỉnh kiến trúc mạng từ người dùng</t>
+  </si>
+  <si>
+    <t>6. Module: Form tùy trình thông số mạng</t>
+  </si>
+  <si>
+    <t>7. Module: Form tùy chỉnh kiến trúc mạng</t>
+  </si>
+  <si>
+    <t>8. Module: Form tùy chỉnh thông số luyện mạng</t>
+  </si>
+  <si>
+    <t>- Testing</t>
+  </si>
+  <si>
+    <t>1. Module: Hiển thị kết quả: Train</t>
+  </si>
+  <si>
+    <t>2. Module: Hiển thị kết quả: Validation</t>
+  </si>
+  <si>
+    <t>3. Module: Hiển thị kết quả: Test</t>
+  </si>
+  <si>
+    <t>4. Module: hiển thị tất cả</t>
+  </si>
+  <si>
+    <t>5. Hiển thị summary: Mean CCR</t>
+  </si>
+  <si>
+    <t>6. main tab ???</t>
+  </si>
+  <si>
+    <t>7. Module: Form chọn mạng từ các lần train cho tập mẫu hiện hành</t>
+  </si>
+  <si>
+    <t>- Query</t>
+  </si>
+  <si>
+    <t>2. Truy vấn + hiển thị kết quả (từ tập mẫu)</t>
+  </si>
+  <si>
+    <t>3. Truy vấn + hiển thị từ file (CSV comma delimited)</t>
+  </si>
+  <si>
+    <t>1. Truy vấn + hiển thị kết quả (bằng tay)</t>
+  </si>
+  <si>
+    <t>- Test chương trình</t>
   </si>
 </sst>
 </file>
@@ -457,7 +547,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -511,27 +601,164 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="73">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -595,6 +822,366 @@
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FF0000CC"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000CC"/>
         </patternFill>
       </fill>
     </dxf>
@@ -894,13 +1481,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BQ65"/>
+  <dimension ref="A1:BQ85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="8" topLeftCell="H42" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="8" topLeftCell="H38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="D50" sqref="D50"/>
+      <selection pane="bottomRight" activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -944,11 +1531,11 @@
         <v>6</v>
       </c>
       <c r="D2" s="17">
-        <f>SUMIF($D$9:$D$61,C2,$E$9:$E$61)</f>
+        <f>SUMIF($D$9:$D$81,C2,$E$9:$E$81)</f>
         <v>0</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F2" s="11"/>
       <c r="G2" s="2" t="s">
@@ -958,26 +1545,26 @@
         <f>60*(2/3)</f>
         <v>40</v>
       </c>
-      <c r="K2" s="36" t="s">
+      <c r="K2" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36"/>
-      <c r="O2" s="36"/>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32"/>
     </row>
     <row r="3" spans="1:69">
       <c r="C3" s="24" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="17">
-        <f>SUMIF($D$9:$D$61,#REF!,$E$9:$E$61)</f>
+        <f>SUMIF($D$9:$D$81,#REF!,$E$9:$E$81)</f>
         <v>0</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F3" s="11"/>
       <c r="G3" s="2" t="s">
@@ -989,18 +1576,18 @@
         <v>19</v>
       </c>
       <c r="D4" s="17">
-        <f>SUMIF($D$9:$D$61,C3,$E$9:$E$61)</f>
+        <f>SUMIF($D$9:$D$81,C3,$E$9:$E$81)</f>
         <v>0</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F4" s="11"/>
     </row>
     <row r="5" spans="1:69">
       <c r="C5" s="24"/>
       <c r="D5" s="17">
-        <f>SUMIF($D$9:$D$61,C5,$E$9:$E$61)</f>
+        <f>SUMIF($D$9:$D$81,C5,$E$9:$E$81)</f>
         <v>0</v>
       </c>
       <c r="E5" s="11"/>
@@ -1009,7 +1596,7 @@
     <row r="6" spans="1:69">
       <c r="C6" s="24"/>
       <c r="D6" s="17">
-        <f>SUMIF($D$9:$D$61,C6,$E$9:$E$61)</f>
+        <f>SUMIF($D$9:$D$81,C6,$E$9:$E$81)</f>
         <v>0</v>
       </c>
       <c r="E6" s="11"/>
@@ -1221,7 +1808,7 @@
         <v>3</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I8" s="8" t="s">
         <v>4</v>
@@ -1538,15 +2125,15 @@
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="4">
-        <f>IFERROR( HLOOKUP("BE",J10:BQ$65,$A$65-$A10+1,FALSE),0)+ IFERROR( HLOOKUP("B",J10:BQ$65,$A$65-$A10+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J10:BQ$85,$A$85-$A10+1,FALSE),0)+ IFERROR( HLOOKUP("B",J10:BQ$85,$A$85-$A10+1,FALSE),0)</f>
         <v>40780</v>
       </c>
       <c r="G10" s="4">
-        <f>IFERROR( HLOOKUP("BE",J10:BQ$65,$A$65-$A10+1,FALSE),0)+ IFERROR( HLOOKUP("E",J10:BQ$65,$A$65-$A10+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J10:BQ$85,$A$85-$A10+1,FALSE),0)+ IFERROR( HLOOKUP("E",J10:BQ$85,$A$85-$A10+1,FALSE),0)</f>
         <v>40780</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="1" t="s">
@@ -1629,15 +2216,15 @@
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="4">
-        <f>IFERROR( HLOOKUP("BE",J11:BQ$65,$A$65-$A11+1,FALSE),0)+ IFERROR( HLOOKUP("B",J11:BQ$65,$A$65-$A11+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J11:BQ$85,$A$85-$A11+1,FALSE),0)+ IFERROR( HLOOKUP("B",J11:BQ$85,$A$85-$A11+1,FALSE),0)</f>
         <v>40780</v>
       </c>
       <c r="G11" s="4">
-        <f>IFERROR( HLOOKUP("BE",J11:BQ$65,$A$65-$A11+1,FALSE),0)+ IFERROR( HLOOKUP("E",J11:BQ$65,$A$65-$A11+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J11:BQ$85,$A$85-$A11+1,FALSE),0)+ IFERROR( HLOOKUP("E",J11:BQ$85,$A$85-$A11+1,FALSE),0)</f>
         <v>40780</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="1" t="s">
@@ -1714,11 +2301,11 @@
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6">
-        <f>IFERROR( HLOOKUP("BE",J12:BQ$65,$A$65-$A12+1,FALSE),0)+ IFERROR( HLOOKUP("B",J12:BQ$65,$A$65-$A12+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J12:BQ$85,$A$85-$A12+1,FALSE),0)+ IFERROR( HLOOKUP("B",J12:BQ$85,$A$85-$A12+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="G12" s="6">
-        <f>IFERROR( HLOOKUP("BE",J12:BQ$65,$A$65-$A12+1,FALSE),0)+ IFERROR( HLOOKUP("E",J12:BQ$65,$A$65-$A12+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J12:BQ$85,$A$85-$A12+1,FALSE),0)+ IFERROR( HLOOKUP("E",J12:BQ$85,$A$85-$A12+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H12" s="6"/>
@@ -1790,22 +2377,22 @@
       </c>
       <c r="B13" s="12"/>
       <c r="C13" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E13" s="12"/>
       <c r="F13" s="13">
-        <f>IFERROR( HLOOKUP("BE",J13:BQ$65,$A$65-$A13+1,FALSE),0)+ IFERROR( HLOOKUP("B",J13:BQ$65,$A$65-$A13+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J13:BQ$85,$A$85-$A13+1,FALSE),0)+ IFERROR( HLOOKUP("B",J13:BQ$85,$A$85-$A13+1,FALSE),0)</f>
         <v>40780</v>
       </c>
       <c r="G13" s="13">
-        <f>IFERROR( HLOOKUP("BE",J13:BQ$65,$A$65-$A13+1,FALSE),0)+ IFERROR( HLOOKUP("E",J13:BQ$65,$A$65-$A13+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J13:BQ$85,$A$85-$A13+1,FALSE),0)+ IFERROR( HLOOKUP("E",J13:BQ$85,$A$85-$A13+1,FALSE),0)</f>
         <v>40780</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I13" s="14"/>
       <c r="J13" s="15" t="s">
@@ -1877,16 +2464,16 @@
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6">
-        <f>IFERROR( HLOOKUP("BE",J14:BQ$65,$A$65-$A14+1,FALSE),0)+ IFERROR( HLOOKUP("B",J14:BQ$65,$A$65-$A14+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J14:BQ$85,$A$85-$A14+1,FALSE),0)+ IFERROR( HLOOKUP("B",J14:BQ$85,$A$85-$A14+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="G14" s="6">
-        <f>IFERROR( HLOOKUP("BE",J14:BQ$65,$A$65-$A14+1,FALSE),0)+ IFERROR( HLOOKUP("E",J14:BQ$65,$A$65-$A14+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J14:BQ$85,$A$85-$A14+1,FALSE),0)+ IFERROR( HLOOKUP("E",J14:BQ$85,$A$85-$A14+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H14" s="6"/>
@@ -1960,25 +2547,25 @@
         <v>1</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="4">
-        <f>IFERROR( HLOOKUP("BE",J15:BQ$65,$A$65-$A15+1,FALSE),0)+ IFERROR( HLOOKUP("B",J15:BQ$65,$A$65-$A15+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J15:BQ$85,$A$85-$A15+1,FALSE),0)+ IFERROR( HLOOKUP("B",J15:BQ$85,$A$85-$A15+1,FALSE),0)</f>
         <v>40780</v>
       </c>
       <c r="G15" s="4">
-        <f>IFERROR( HLOOKUP("BE",J15:BQ$65,$A$65-$A15+1,FALSE),0)+ IFERROR( HLOOKUP("E",J15:BQ$65,$A$65-$A15+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J15:BQ$85,$A$85-$A15+1,FALSE),0)+ IFERROR( HLOOKUP("E",J15:BQ$85,$A$85-$A15+1,FALSE),0)</f>
         <v>40787</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>11</v>
@@ -2061,25 +2648,25 @@
         <v>2</v>
       </c>
       <c r="C16" s="28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="4">
-        <f>IFERROR( HLOOKUP("BE",J16:BQ$65,$A$65-$A16+1,FALSE),0)+ IFERROR( HLOOKUP("B",J16:BQ$65,$A$65-$A16+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J16:BQ$85,$A$85-$A16+1,FALSE),0)+ IFERROR( HLOOKUP("B",J16:BQ$85,$A$85-$A16+1,FALSE),0)</f>
         <v>40815</v>
       </c>
       <c r="G16" s="4">
-        <f>IFERROR( HLOOKUP("BE",J16:BQ$65,$A$65-$A16+1,FALSE),0)+ IFERROR( HLOOKUP("E",J16:BQ$65,$A$65-$A16+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J16:BQ$85,$A$85-$A16+1,FALSE),0)+ IFERROR( HLOOKUP("E",J16:BQ$85,$A$85-$A16+1,FALSE),0)</f>
         <v>40819</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
@@ -2163,18 +2750,18 @@
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="4">
-        <f>IFERROR( HLOOKUP("BE",J17:BQ$65,$A$65-$A17+1,FALSE),0)+ IFERROR( HLOOKUP("B",J17:BQ$65,$A$65-$A17+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J17:BQ$85,$A$85-$A17+1,FALSE),0)+ IFERROR( HLOOKUP("B",J17:BQ$85,$A$85-$A17+1,FALSE),0)</f>
         <v>40812</v>
       </c>
       <c r="G17" s="4">
-        <f>IFERROR( HLOOKUP("BE",J17:BQ$65,$A$65-$A17+1,FALSE),0)+ IFERROR( HLOOKUP("E",J17:BQ$65,$A$65-$A17+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J17:BQ$85,$A$85-$A17+1,FALSE),0)+ IFERROR( HLOOKUP("E",J17:BQ$85,$A$85-$A17+1,FALSE),0)</f>
         <v>40812</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
@@ -2254,18 +2841,18 @@
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="4">
-        <f>IFERROR( HLOOKUP("BE",J18:BQ$65,$A$65-$A18+1,FALSE),0)+ IFERROR( HLOOKUP("B",J18:BQ$65,$A$65-$A18+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J18:BQ$85,$A$85-$A18+1,FALSE),0)+ IFERROR( HLOOKUP("B",J18:BQ$85,$A$85-$A18+1,FALSE),0)</f>
         <v>40820</v>
       </c>
       <c r="G18" s="4">
-        <f>IFERROR( HLOOKUP("BE",J18:BQ$65,$A$65-$A18+1,FALSE),0)+ IFERROR( HLOOKUP("E",J18:BQ$65,$A$65-$A18+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J18:BQ$85,$A$85-$A18+1,FALSE),0)+ IFERROR( HLOOKUP("E",J18:BQ$85,$A$85-$A18+1,FALSE),0)</f>
         <v>40820</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
@@ -2345,18 +2932,18 @@
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="4">
-        <f>IFERROR( HLOOKUP("BE",J19:BQ$65,$A$65-$A19+1,FALSE),0)+ IFERROR( HLOOKUP("B",J19:BQ$65,$A$65-$A19+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J19:BQ$85,$A$85-$A19+1,FALSE),0)+ IFERROR( HLOOKUP("B",J19:BQ$85,$A$85-$A19+1,FALSE),0)</f>
         <v>40821</v>
       </c>
       <c r="G19" s="4">
-        <f>IFERROR( HLOOKUP("BE",J19:BQ$65,$A$65-$A19+1,FALSE),0)+ IFERROR( HLOOKUP("E",J19:BQ$65,$A$65-$A19+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J19:BQ$85,$A$85-$A19+1,FALSE),0)+ IFERROR( HLOOKUP("E",J19:BQ$85,$A$85-$A19+1,FALSE),0)</f>
         <v>40823</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
@@ -2440,18 +3027,18 @@
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="4">
-        <f>IFERROR( HLOOKUP("BE",J20:BQ$65,$A$65-$A20+1,FALSE),0)+ IFERROR( HLOOKUP("B",J20:BQ$65,$A$65-$A20+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J20:BQ$85,$A$85-$A20+1,FALSE),0)+ IFERROR( HLOOKUP("B",J20:BQ$85,$A$85-$A20+1,FALSE),0)</f>
         <v>40826</v>
       </c>
       <c r="G20" s="4">
-        <f>IFERROR( HLOOKUP("BE",J20:BQ$65,$A$65-$A20+1,FALSE),0)+ IFERROR( HLOOKUP("E",J20:BQ$65,$A$65-$A20+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J20:BQ$85,$A$85-$A20+1,FALSE),0)+ IFERROR( HLOOKUP("E",J20:BQ$85,$A$85-$A20+1,FALSE),0)</f>
         <v>40828</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
@@ -2535,18 +3122,18 @@
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="4">
-        <f>IFERROR( HLOOKUP("BE",J21:BQ$65,$A$65-$A21+1,FALSE),0)+ IFERROR( HLOOKUP("B",J21:BQ$65,$A$65-$A21+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J21:BQ$85,$A$85-$A21+1,FALSE),0)+ IFERROR( HLOOKUP("B",J21:BQ$85,$A$85-$A21+1,FALSE),0)</f>
         <v>40829</v>
       </c>
       <c r="G21" s="4">
-        <f>IFERROR( HLOOKUP("BE",J21:BQ$65,$A$65-$A21+1,FALSE),0)+ IFERROR( HLOOKUP("E",J21:BQ$65,$A$65-$A21+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J21:BQ$85,$A$85-$A21+1,FALSE),0)+ IFERROR( HLOOKUP("E",J21:BQ$85,$A$85-$A21+1,FALSE),0)</f>
         <v>40833</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
@@ -2623,16 +3210,16 @@
         <v>9</v>
       </c>
       <c r="C22" s="26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6">
-        <f>IFERROR( HLOOKUP("BE",J22:BQ$65,$A$65-$A22+1,FALSE),0)+ IFERROR( HLOOKUP("B",J22:BQ$65,$A$65-$A22+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J22:BQ$85,$A$85-$A22+1,FALSE),0)+ IFERROR( HLOOKUP("B",J22:BQ$85,$A$85-$A22+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="G22" s="6">
-        <f>IFERROR( HLOOKUP("BE",J22:BQ$65,$A$65-$A22+1,FALSE),0)+ IFERROR( HLOOKUP("E",J22:BQ$65,$A$65-$A22+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J22:BQ$85,$A$85-$A22+1,FALSE),0)+ IFERROR( HLOOKUP("E",J22:BQ$85,$A$85-$A22+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H22" s="6"/>
@@ -2713,18 +3300,18 @@
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="4">
-        <f>IFERROR( HLOOKUP("BE",J23:BQ$65,$A$65-$A23+1,FALSE),0)+ IFERROR( HLOOKUP("B",J23:BQ$65,$A$65-$A23+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J23:BQ$85,$A$85-$A23+1,FALSE),0)+ IFERROR( HLOOKUP("B",J23:BQ$85,$A$85-$A23+1,FALSE),0)</f>
         <v>40780</v>
       </c>
       <c r="G23" s="4">
-        <f>IFERROR( HLOOKUP("BE",J23:BQ$65,$A$65-$A23+1,FALSE),0)+ IFERROR( HLOOKUP("E",J23:BQ$65,$A$65-$A23+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J23:BQ$85,$A$85-$A23+1,FALSE),0)+ IFERROR( HLOOKUP("E",J23:BQ$85,$A$85-$A23+1,FALSE),0)</f>
         <v>40780</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>14</v>
@@ -2789,7 +3376,7 @@
       <c r="BP23" s="17"/>
       <c r="BQ23" s="17"/>
     </row>
-    <row r="24" spans="1:69" ht="30">
+    <row r="24" spans="1:69" ht="15.75" customHeight="1">
       <c r="A24">
         <v>15</v>
       </c>
@@ -2797,25 +3384,25 @@
         <v>11</v>
       </c>
       <c r="C24" s="27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="4">
-        <f>IFERROR( HLOOKUP("BE",J24:BQ$65,$A$65-$A24+1,FALSE),0)+ IFERROR( HLOOKUP("B",J24:BQ$65,$A$65-$A24+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J24:BQ$85,$A$85-$A24+1,FALSE),0)+ IFERROR( HLOOKUP("B",J24:BQ$85,$A$85-$A24+1,FALSE),0)</f>
         <v>40780</v>
       </c>
       <c r="G24" s="4">
-        <f>IFERROR( HLOOKUP("BE",J24:BQ$65,$A$65-$A24+1,FALSE),0)+ IFERROR( HLOOKUP("E",J24:BQ$65,$A$65-$A24+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J24:BQ$85,$A$85-$A24+1,FALSE),0)+ IFERROR( HLOOKUP("E",J24:BQ$85,$A$85-$A24+1,FALSE),0)</f>
         <v>40780</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>14</v>
@@ -2895,18 +3482,18 @@
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="4">
-        <f>IFERROR( HLOOKUP("BE",J25:BQ$65,$A$65-$A25+1,FALSE),0)+ IFERROR( HLOOKUP("B",J25:BQ$65,$A$65-$A25+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J25:BQ$85,$A$85-$A25+1,FALSE),0)+ IFERROR( HLOOKUP("B",J25:BQ$85,$A$85-$A25+1,FALSE),0)</f>
         <v>40780</v>
       </c>
       <c r="G25" s="4">
-        <f>IFERROR( HLOOKUP("BE",J25:BQ$65,$A$65-$A25+1,FALSE),0)+ IFERROR( HLOOKUP("E",J25:BQ$65,$A$65-$A25+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J25:BQ$85,$A$85-$A25+1,FALSE),0)+ IFERROR( HLOOKUP("E",J25:BQ$85,$A$85-$A25+1,FALSE),0)</f>
         <v>40780</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>14</v>
@@ -2971,7 +3558,7 @@
       <c r="BP25" s="17"/>
       <c r="BQ25" s="17"/>
     </row>
-    <row r="26" spans="1:69" ht="30">
+    <row r="26" spans="1:69" ht="16.5" customHeight="1">
       <c r="A26">
         <v>17</v>
       </c>
@@ -2979,25 +3566,25 @@
         <v>13</v>
       </c>
       <c r="C26" s="27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="4">
-        <f>IFERROR( HLOOKUP("BE",J26:BQ$65,$A$65-$A26+1,FALSE),0)+ IFERROR( HLOOKUP("B",J26:BQ$65,$A$65-$A26+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J26:BQ$85,$A$85-$A26+1,FALSE),0)+ IFERROR( HLOOKUP("B",J26:BQ$85,$A$85-$A26+1,FALSE),0)</f>
         <v>40813</v>
       </c>
       <c r="G26" s="4">
-        <f>IFERROR( HLOOKUP("BE",J26:BQ$65,$A$65-$A26+1,FALSE),0)+ IFERROR( HLOOKUP("E",J26:BQ$65,$A$65-$A26+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J26:BQ$85,$A$85-$A26+1,FALSE),0)+ IFERROR( HLOOKUP("E",J26:BQ$85,$A$85-$A26+1,FALSE),0)</f>
         <v>40814</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
@@ -3079,18 +3666,18 @@
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="4">
-        <f>IFERROR( HLOOKUP("BE",J27:BQ$65,$A$65-$A27+1,FALSE),0)+ IFERROR( HLOOKUP("B",J27:BQ$65,$A$65-$A27+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J27:BQ$85,$A$85-$A27+1,FALSE),0)+ IFERROR( HLOOKUP("B",J27:BQ$85,$A$85-$A27+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="G27" s="4">
-        <f>IFERROR( HLOOKUP("BE",J27:BQ$65,$A$65-$A27+1,FALSE),0)+ IFERROR( HLOOKUP("E",J27:BQ$65,$A$65-$A27+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J27:BQ$85,$A$85-$A27+1,FALSE),0)+ IFERROR( HLOOKUP("E",J27:BQ$85,$A$85-$A27+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
@@ -3153,7 +3740,7 @@
       <c r="BP27" s="17"/>
       <c r="BQ27" s="17"/>
     </row>
-    <row r="28" spans="1:69" ht="30">
+    <row r="28" spans="1:69" ht="19.5" customHeight="1">
       <c r="A28">
         <v>19</v>
       </c>
@@ -3161,25 +3748,25 @@
         <v>15</v>
       </c>
       <c r="C28" s="27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="4">
-        <f>IFERROR( HLOOKUP("BE",J28:BQ$65,$A$65-$A28+1,FALSE),0)+ IFERROR( HLOOKUP("B",J28:BQ$65,$A$65-$A28+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J28:BQ$85,$A$85-$A28+1,FALSE),0)+ IFERROR( HLOOKUP("B",J28:BQ$85,$A$85-$A28+1,FALSE),0)</f>
         <v>40795</v>
       </c>
       <c r="G28" s="4">
-        <f>IFERROR( HLOOKUP("BE",J28:BQ$65,$A$65-$A28+1,FALSE),0)+ IFERROR( HLOOKUP("E",J28:BQ$65,$A$65-$A28+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J28:BQ$85,$A$85-$A28+1,FALSE),0)+ IFERROR( HLOOKUP("E",J28:BQ$85,$A$85-$A28+1,FALSE),0)</f>
         <v>40800</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
@@ -3265,18 +3852,18 @@
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="4">
-        <f>IFERROR( HLOOKUP("BE",J29:BQ$65,$A$65-$A29+1,FALSE),0)+ IFERROR( HLOOKUP("B",J29:BQ$65,$A$65-$A29+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J29:BQ$85,$A$85-$A29+1,FALSE),0)+ IFERROR( HLOOKUP("B",J29:BQ$85,$A$85-$A29+1,FALSE),0)</f>
         <v>40780</v>
       </c>
       <c r="G29" s="4">
-        <f>IFERROR( HLOOKUP("BE",J29:BQ$65,$A$65-$A29+1,FALSE),0)+ IFERROR( HLOOKUP("E",J29:BQ$65,$A$65-$A29+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J29:BQ$85,$A$85-$A29+1,FALSE),0)+ IFERROR( HLOOKUP("E",J29:BQ$85,$A$85-$A29+1,FALSE),0)</f>
         <v>40780</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>14</v>
@@ -3349,18 +3936,18 @@
         <v>17</v>
       </c>
       <c r="C30" s="27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="4">
-        <f>IFERROR( HLOOKUP("BE",J30:BQ$65,$A$65-$A30+1,FALSE),0)+ IFERROR( HLOOKUP("B",J30:BQ$65,$A$65-$A30+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J30:BQ$85,$A$85-$A30+1,FALSE),0)+ IFERROR( HLOOKUP("B",J30:BQ$85,$A$85-$A30+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="G30" s="4">
-        <f>IFERROR( HLOOKUP("BE",J30:BQ$65,$A$65-$A30+1,FALSE),0)+ IFERROR( HLOOKUP("E",J30:BQ$65,$A$65-$A30+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J30:BQ$85,$A$85-$A30+1,FALSE),0)+ IFERROR( HLOOKUP("E",J30:BQ$85,$A$85-$A30+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H30" s="4"/>
@@ -3432,25 +4019,25 @@
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="27" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="4">
-        <f>IFERROR( HLOOKUP("BE",J31:BQ$65,$A$65-$A31+1,FALSE),0)+ IFERROR( HLOOKUP("B",J31:BQ$65,$A$65-$A31+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J31:BQ$85,$A$85-$A31+1,FALSE),0)+ IFERROR( HLOOKUP("B",J31:BQ$85,$A$85-$A31+1,FALSE),0)</f>
         <v>40781</v>
       </c>
       <c r="G31" s="4">
-        <f>IFERROR( HLOOKUP("BE",J31:BQ$65,$A$65-$A31+1,FALSE),0)+ IFERROR( HLOOKUP("E",J31:BQ$65,$A$65-$A31+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J31:BQ$85,$A$85-$A31+1,FALSE),0)+ IFERROR( HLOOKUP("E",J31:BQ$85,$A$85-$A31+1,FALSE),0)</f>
         <v>40781</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J31" s="1"/>
       <c r="K31" s="1" t="s">
@@ -3521,25 +4108,25 @@
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="27" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="4">
-        <f>IFERROR( HLOOKUP("BE",J32:BQ$65,$A$65-$A32+1,FALSE),0)+ IFERROR( HLOOKUP("B",J32:BQ$65,$A$65-$A32+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J32:BQ$85,$A$85-$A32+1,FALSE),0)+ IFERROR( HLOOKUP("B",J32:BQ$85,$A$85-$A32+1,FALSE),0)</f>
         <v>40781</v>
       </c>
       <c r="G32" s="4">
-        <f>IFERROR( HLOOKUP("BE",J32:BQ$65,$A$65-$A32+1,FALSE),0)+ IFERROR( HLOOKUP("E",J32:BQ$65,$A$65-$A32+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J32:BQ$85,$A$85-$A32+1,FALSE),0)+ IFERROR( HLOOKUP("E",J32:BQ$85,$A$85-$A32+1,FALSE),0)</f>
         <v>40784</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J32" s="1"/>
       <c r="K32" s="1" t="s">
@@ -3621,18 +4208,18 @@
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="4">
-        <f>IFERROR( HLOOKUP("BE",J33:BQ$65,$A$65-$A33+1,FALSE),0)+ IFERROR( HLOOKUP("B",J33:BQ$65,$A$65-$A33+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J33:BQ$85,$A$85-$A33+1,FALSE),0)+ IFERROR( HLOOKUP("B",J33:BQ$85,$A$85-$A33+1,FALSE),0)</f>
         <v>40780</v>
       </c>
       <c r="G33" s="4">
-        <f>IFERROR( HLOOKUP("BE",J33:BQ$65,$A$65-$A33+1,FALSE),0)+ IFERROR( HLOOKUP("E",J33:BQ$65,$A$65-$A33+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J33:BQ$85,$A$85-$A33+1,FALSE),0)+ IFERROR( HLOOKUP("E",J33:BQ$85,$A$85-$A33+1,FALSE),0)</f>
         <v>40787</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J33" s="1" t="s">
         <v>11</v>
@@ -3715,25 +4302,25 @@
         <v>18</v>
       </c>
       <c r="C34" s="27" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="4">
-        <f>IFERROR( HLOOKUP("BE",J34:BQ$65,$A$65-$A34+1,FALSE),0)+ IFERROR( HLOOKUP("B",J34:BQ$65,$A$65-$A34+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J34:BQ$85,$A$85-$A34+1,FALSE),0)+ IFERROR( HLOOKUP("B",J34:BQ$85,$A$85-$A34+1,FALSE),0)</f>
         <v>40826</v>
       </c>
       <c r="G34" s="4">
-        <f>IFERROR( HLOOKUP("BE",J34:BQ$65,$A$65-$A34+1,FALSE),0)+ IFERROR( HLOOKUP("E",J34:BQ$65,$A$65-$A34+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J34:BQ$85,$A$85-$A34+1,FALSE),0)+ IFERROR( HLOOKUP("E",J34:BQ$85,$A$85-$A34+1,FALSE),0)</f>
         <v>40828</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
@@ -3810,25 +4397,25 @@
         <v>19</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="4">
-        <f>IFERROR( HLOOKUP("BE",J35:BQ$65,$A$65-$A35+1,FALSE),0)+ IFERROR( HLOOKUP("B",J35:BQ$65,$A$65-$A35+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J35:BQ$85,$A$85-$A35+1,FALSE),0)+ IFERROR( HLOOKUP("B",J35:BQ$85,$A$85-$A35+1,FALSE),0)</f>
         <v>40791</v>
       </c>
       <c r="G35" s="4">
-        <f>IFERROR( HLOOKUP("BE",J35:BQ$65,$A$65-$A35+1,FALSE),0)+ IFERROR( HLOOKUP("E",J35:BQ$65,$A$65-$A35+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J35:BQ$85,$A$85-$A35+1,FALSE),0)+ IFERROR( HLOOKUP("E",J35:BQ$85,$A$85-$A35+1,FALSE),0)</f>
         <v>40792</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
@@ -3900,26 +4487,26 @@
         <v>27</v>
       </c>
       <c r="B36" s="3"/>
-      <c r="C36" s="31" t="s">
-        <v>85</v>
+      <c r="C36" s="33" t="s">
+        <v>82</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="4">
-        <f>IFERROR( HLOOKUP("BE",J36:BQ$65,$A$65-$A36+1,FALSE),0)+ IFERROR( HLOOKUP("B",J36:BQ$65,$A$65-$A36+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J36:BQ$85,$A$85-$A36+1,FALSE),0)+ IFERROR( HLOOKUP("B",J36:BQ$85,$A$85-$A36+1,FALSE),0)</f>
         <v>40812</v>
       </c>
       <c r="G36" s="4">
-        <f>IFERROR( HLOOKUP("BE",J36:BQ$65,$A$65-$A36+1,FALSE),0)+ IFERROR( HLOOKUP("E",J36:BQ$65,$A$65-$A36+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J36:BQ$85,$A$85-$A36+1,FALSE),0)+ IFERROR( HLOOKUP("E",J36:BQ$85,$A$85-$A36+1,FALSE),0)</f>
         <v>40816</v>
       </c>
       <c r="H36" s="4" t="s">
         <v>68</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
@@ -3997,20 +4584,24 @@
         <v>28</v>
       </c>
       <c r="B37" s="3"/>
-      <c r="C37" s="34" t="s">
-        <v>89</v>
-      </c>
-      <c r="D37" s="3"/>
+      <c r="C37" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="E37" s="3"/>
       <c r="F37" s="4">
-        <f>IFERROR( HLOOKUP("BE",J37:BQ$65,$A$65-$A37+1,FALSE),0)+ IFERROR( HLOOKUP("B",J37:BQ$65,$A$65-$A37+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J37:BQ$85,$A$85-$A37+1,FALSE),0)+ IFERROR( HLOOKUP("B",J37:BQ$85,$A$85-$A37+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="G37" s="4">
-        <f>IFERROR( HLOOKUP("BE",J37:BQ$65,$A$65-$A37+1,FALSE),0)+ IFERROR( HLOOKUP("E",J37:BQ$65,$A$65-$A37+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H37" s="4"/>
+        <f>IFERROR( HLOOKUP("BE",J37:BQ$85,$A$85-$A37+1,FALSE),0)+ IFERROR( HLOOKUP("E",J37:BQ$85,$A$85-$A37+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>66</v>
+      </c>
       <c r="I37" s="3"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
@@ -4078,19 +4669,27 @@
         <v>29</v>
       </c>
       <c r="B38" s="3"/>
-      <c r="C38" s="31"/>
-      <c r="D38" s="3"/>
+      <c r="C38" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="E38" s="3"/>
       <c r="F38" s="4">
-        <f>IFERROR( HLOOKUP("BE",J38:BQ$65,$A$65-$A38+1,FALSE),0)+ IFERROR( HLOOKUP("B",J38:BQ$65,$A$65-$A38+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J38:BQ$85,$A$85-$A38+1,FALSE),0)+ IFERROR( HLOOKUP("B",J38:BQ$85,$A$85-$A38+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="G38" s="4">
-        <f>IFERROR( HLOOKUP("BE",J38:BQ$65,$A$65-$A38+1,FALSE),0)+ IFERROR( HLOOKUP("E",J38:BQ$65,$A$65-$A38+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H38" s="4"/>
-      <c r="I38" s="3"/>
+        <f>IFERROR( HLOOKUP("BE",J38:BQ$85,$A$85-$A38+1,FALSE),0)+ IFERROR( HLOOKUP("E",J38:BQ$85,$A$85-$A38+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>83</v>
+      </c>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="17"/>
@@ -4158,20 +4757,26 @@
       </c>
       <c r="B39" s="3"/>
       <c r="C39" s="34" t="s">
-        <v>90</v>
-      </c>
-      <c r="D39" s="3"/>
+        <v>85</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="E39" s="3"/>
       <c r="F39" s="4">
-        <f>IFERROR( HLOOKUP("BE",J39:BQ$65,$A$65-$A39+1,FALSE),0)+ IFERROR( HLOOKUP("B",J39:BQ$65,$A$65-$A39+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J39:BQ$85,$A$85-$A39+1,FALSE),0)+ IFERROR( HLOOKUP("B",J39:BQ$85,$A$85-$A39+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="G39" s="4">
-        <f>IFERROR( HLOOKUP("BE",J39:BQ$65,$A$65-$A39+1,FALSE),0)+ IFERROR( HLOOKUP("E",J39:BQ$65,$A$65-$A39+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H39" s="4"/>
-      <c r="I39" s="3"/>
+        <f>IFERROR( HLOOKUP("BE",J39:BQ$85,$A$85-$A39+1,FALSE),0)+ IFERROR( HLOOKUP("E",J39:BQ$85,$A$85-$A39+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="17"/>
@@ -4238,26 +4843,26 @@
         <v>31</v>
       </c>
       <c r="B40" s="3"/>
-      <c r="C40" s="31" t="s">
-        <v>98</v>
+      <c r="C40" s="34" t="s">
+        <v>87</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="4">
-        <f>IFERROR( HLOOKUP("BE",J40:BQ$65,$A$65-$A40+1,FALSE),0)+ IFERROR( HLOOKUP("B",J40:BQ$65,$A$65-$A40+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J40:BQ$85,$A$85-$A40+1,FALSE),0)+ IFERROR( HLOOKUP("B",J40:BQ$85,$A$85-$A40+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="G40" s="4">
-        <f>IFERROR( HLOOKUP("BE",J40:BQ$65,$A$65-$A40+1,FALSE),0)+ IFERROR( HLOOKUP("E",J40:BQ$65,$A$65-$A40+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J40:BQ$85,$A$85-$A40+1,FALSE),0)+ IFERROR( HLOOKUP("E",J40:BQ$85,$A$85-$A40+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
@@ -4325,26 +4930,26 @@
         <v>32</v>
       </c>
       <c r="B41" s="3"/>
-      <c r="C41" s="31" t="s">
-        <v>99</v>
+      <c r="C41" s="34" t="s">
+        <v>89</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="4">
-        <f>IFERROR( HLOOKUP("BE",J41:BQ$65,$A$65-$A41+1,FALSE),0)+ IFERROR( HLOOKUP("B",J41:BQ$65,$A$65-$A41+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J41:BQ$85,$A$85-$A41+1,FALSE),0)+ IFERROR( HLOOKUP("B",J41:BQ$85,$A$85-$A41+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="G41" s="4">
-        <f>IFERROR( HLOOKUP("BE",J41:BQ$65,$A$65-$A41+1,FALSE),0)+ IFERROR( HLOOKUP("E",J41:BQ$65,$A$65-$A41+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J41:BQ$85,$A$85-$A41+1,FALSE),0)+ IFERROR( HLOOKUP("E",J41:BQ$85,$A$85-$A41+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
@@ -4412,26 +5017,26 @@
         <v>33</v>
       </c>
       <c r="B42" s="3"/>
-      <c r="C42" s="31" t="s">
-        <v>88</v>
+      <c r="C42" s="34" t="s">
+        <v>90</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="4">
-        <f>IFERROR( HLOOKUP("BE",J42:BQ$65,$A$65-$A42+1,FALSE),0)+ IFERROR( HLOOKUP("B",J42:BQ$65,$A$65-$A42+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J42:BQ$85,$A$85-$A42+1,FALSE),0)+ IFERROR( HLOOKUP("B",J42:BQ$85,$A$85-$A42+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="G42" s="4">
-        <f>IFERROR( HLOOKUP("BE",J42:BQ$65,$A$65-$A42+1,FALSE),0)+ IFERROR( HLOOKUP("E",J42:BQ$65,$A$65-$A42+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J42:BQ$85,$A$85-$A42+1,FALSE),0)+ IFERROR( HLOOKUP("E",J42:BQ$85,$A$85-$A42+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
@@ -4500,20 +5105,26 @@
       </c>
       <c r="B43" s="3"/>
       <c r="C43" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="D43" s="3"/>
+        <v>92</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="E43" s="3"/>
       <c r="F43" s="4">
-        <f>IFERROR( HLOOKUP("BE",J43:BQ$65,$A$65-$A43+1,FALSE),0)+ IFERROR( HLOOKUP("B",J43:BQ$65,$A$65-$A43+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J43:BQ$85,$A$85-$A43+1,FALSE),0)+ IFERROR( HLOOKUP("B",J43:BQ$85,$A$85-$A43+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="G43" s="4">
-        <f>IFERROR( HLOOKUP("BE",J43:BQ$65,$A$65-$A43+1,FALSE),0)+ IFERROR( HLOOKUP("E",J43:BQ$65,$A$65-$A43+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H43" s="4"/>
-      <c r="I43" s="3"/>
+        <f>IFERROR( HLOOKUP("BE",J43:BQ$85,$A$85-$A43+1,FALSE),0)+ IFERROR( HLOOKUP("E",J43:BQ$85,$A$85-$A43+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>91</v>
+      </c>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="L43" s="17"/>
@@ -4580,26 +5191,26 @@
         <v>35</v>
       </c>
       <c r="B44" s="3"/>
-      <c r="C44" s="3" t="s">
-        <v>100</v>
+      <c r="C44" s="34" t="s">
+        <v>93</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="4">
-        <f>IFERROR( HLOOKUP("BE",J44:BQ$65,$A$65-$A44+1,FALSE),0)+ IFERROR( HLOOKUP("B",J44:BQ$65,$A$65-$A44+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J44:BQ$85,$A$85-$A44+1,FALSE),0)+ IFERROR( HLOOKUP("B",J44:BQ$85,$A$85-$A44+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="G44" s="4">
-        <f>IFERROR( HLOOKUP("BE",J44:BQ$65,$A$65-$A44+1,FALSE),0)+ IFERROR( HLOOKUP("E",J44:BQ$65,$A$65-$A44+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J44:BQ$85,$A$85-$A44+1,FALSE),0)+ IFERROR( HLOOKUP("E",J44:BQ$85,$A$85-$A44+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
@@ -4667,7 +5278,7 @@
         <v>36</v>
       </c>
       <c r="B45" s="3"/>
-      <c r="C45" s="31" t="s">
+      <c r="C45" s="34" t="s">
         <v>94</v>
       </c>
       <c r="D45" s="3" t="s">
@@ -4675,18 +5286,16 @@
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="4">
-        <f>IFERROR( HLOOKUP("BE",J45:BQ$65,$A$65-$A45+1,FALSE),0)+ IFERROR( HLOOKUP("B",J45:BQ$65,$A$65-$A45+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J45:BQ$85,$A$85-$A45+1,FALSE),0)+ IFERROR( HLOOKUP("B",J45:BQ$85,$A$85-$A45+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="G45" s="4">
-        <f>IFERROR( HLOOKUP("BE",J45:BQ$65,$A$65-$A45+1,FALSE),0)+ IFERROR( HLOOKUP("E",J45:BQ$65,$A$65-$A45+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H45" s="4" t="s">
-        <v>67</v>
-      </c>
+        <f>IFERROR( HLOOKUP("BE",J45:BQ$85,$A$85-$A45+1,FALSE),0)+ IFERROR( HLOOKUP("E",J45:BQ$85,$A$85-$A45+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H45" s="4"/>
       <c r="I45" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
@@ -4754,26 +5363,26 @@
         <v>37</v>
       </c>
       <c r="B46" s="3"/>
-      <c r="C46" s="3" t="s">
-        <v>95</v>
+      <c r="C46" s="34" t="s">
+        <v>96</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E46" s="3"/>
       <c r="F46" s="4">
-        <f>IFERROR( HLOOKUP("BE",J46:BQ$65,$A$65-$A46+1,FALSE),0)+ IFERROR( HLOOKUP("B",J46:BQ$65,$A$65-$A46+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J46:BQ$85,$A$85-$A46+1,FALSE),0)+ IFERROR( HLOOKUP("B",J46:BQ$85,$A$85-$A46+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="G46" s="4">
-        <f>IFERROR( HLOOKUP("BE",J46:BQ$65,$A$65-$A46+1,FALSE),0)+ IFERROR( HLOOKUP("E",J46:BQ$65,$A$65-$A46+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J46:BQ$85,$A$85-$A46+1,FALSE),0)+ IFERROR( HLOOKUP("E",J46:BQ$85,$A$85-$A46+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
@@ -4841,19 +5450,27 @@
         <v>38</v>
       </c>
       <c r="B47" s="3"/>
-      <c r="C47" s="35"/>
-      <c r="D47" s="3"/>
+      <c r="C47" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>98</v>
+      </c>
       <c r="E47" s="3"/>
       <c r="F47" s="4">
-        <f>IFERROR( HLOOKUP("BE",J47:BQ$65,$A$65-$A47+1,FALSE),0)+ IFERROR( HLOOKUP("B",J47:BQ$65,$A$65-$A47+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J47:BQ$85,$A$85-$A47+1,FALSE),0)+ IFERROR( HLOOKUP("B",J47:BQ$85,$A$85-$A47+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="G47" s="4">
-        <f>IFERROR( HLOOKUP("BE",J47:BQ$65,$A$65-$A47+1,FALSE),0)+ IFERROR( HLOOKUP("E",J47:BQ$65,$A$65-$A47+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H47" s="4"/>
-      <c r="I47" s="3"/>
+        <f>IFERROR( HLOOKUP("BE",J47:BQ$85,$A$85-$A47+1,FALSE),0)+ IFERROR( HLOOKUP("E",J47:BQ$85,$A$85-$A47+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>91</v>
+      </c>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
       <c r="L47" s="17"/>
@@ -4921,20 +5538,26 @@
       </c>
       <c r="B48" s="3"/>
       <c r="C48" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="D48" s="3"/>
+        <v>99</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="E48" s="3"/>
       <c r="F48" s="4">
-        <f>IFERROR( HLOOKUP("BE",J48:BQ$65,$A$65-$A48+1,FALSE),0)+ IFERROR( HLOOKUP("B",J48:BQ$65,$A$65-$A48+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J48:BQ$85,$A$85-$A48+1,FALSE),0)+ IFERROR( HLOOKUP("B",J48:BQ$85,$A$85-$A48+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="G48" s="4">
-        <f>IFERROR( HLOOKUP("BE",J48:BQ$65,$A$65-$A48+1,FALSE),0)+ IFERROR( HLOOKUP("E",J48:BQ$65,$A$65-$A48+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H48" s="4"/>
-      <c r="I48" s="3"/>
+        <f>IFERROR( HLOOKUP("BE",J48:BQ$85,$A$85-$A48+1,FALSE),0)+ IFERROR( HLOOKUP("E",J48:BQ$85,$A$85-$A48+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>95</v>
+      </c>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
       <c r="L48" s="17"/>
@@ -5002,20 +5625,12 @@
       </c>
       <c r="B49" s="3"/>
       <c r="C49" s="31" t="s">
-        <v>86</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>19</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="D49" s="3"/>
       <c r="E49" s="3"/>
-      <c r="F49" s="4">
-        <f>IFERROR( HLOOKUP("BE",J49:BQ$65,$A$65-$A49+1,FALSE),0)+ IFERROR( HLOOKUP("B",J49:BQ$65,$A$65-$A49+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="G49" s="4">
-        <f>IFERROR( HLOOKUP("BE",J49:BQ$65,$A$65-$A49+1,FALSE),0)+ IFERROR( HLOOKUP("E",J49:BQ$65,$A$65-$A49+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
       <c r="H49" s="4"/>
       <c r="I49" s="3"/>
       <c r="J49" s="1"/>
@@ -5084,23 +5699,27 @@
         <v>41</v>
       </c>
       <c r="B50" s="3"/>
-      <c r="C50" s="31" t="s">
-        <v>87</v>
+      <c r="C50" s="34" t="s">
+        <v>102</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E50" s="3"/>
       <c r="F50" s="4">
-        <f>IFERROR( HLOOKUP("BE",J50:BQ$65,$A$65-$A50+1,FALSE),0)+ IFERROR( HLOOKUP("B",J50:BQ$65,$A$65-$A50+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J50:BQ$85,$A$85-$A50+1,FALSE),0)+ IFERROR( HLOOKUP("B",J50:BQ$85,$A$85-$A50+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="G50" s="4">
-        <f>IFERROR( HLOOKUP("BE",J50:BQ$65,$A$65-$A50+1,FALSE),0)+ IFERROR( HLOOKUP("E",J50:BQ$65,$A$65-$A50+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H50" s="4"/>
-      <c r="I50" s="3"/>
+        <f>IFERROR( HLOOKUP("BE",J50:BQ$85,$A$85-$A50+1,FALSE),0)+ IFERROR( HLOOKUP("E",J50:BQ$85,$A$85-$A50+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="I50" s="3" t="s">
+        <v>83</v>
+      </c>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
       <c r="L50" s="17"/>
@@ -5167,21 +5786,27 @@
         <v>42</v>
       </c>
       <c r="B51" s="3"/>
-      <c r="C51" s="31" t="s">
-        <v>101</v>
-      </c>
-      <c r="D51" s="3"/>
+      <c r="C51" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="E51" s="3"/>
       <c r="F51" s="4">
-        <f>IFERROR( HLOOKUP("BE",J51:BQ$65,$A$65-$A51+1,FALSE),0)+ IFERROR( HLOOKUP("B",J51:BQ$65,$A$65-$A51+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J51:BQ$85,$A$85-$A51+1,FALSE),0)+ IFERROR( HLOOKUP("B",J51:BQ$85,$A$85-$A51+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="G51" s="4">
-        <f>IFERROR( HLOOKUP("BE",J51:BQ$65,$A$65-$A51+1,FALSE),0)+ IFERROR( HLOOKUP("E",J51:BQ$65,$A$65-$A51+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H51" s="4"/>
-      <c r="I51" s="3"/>
+        <f>IFERROR( HLOOKUP("BE",J51:BQ$85,$A$85-$A51+1,FALSE),0)+ IFERROR( HLOOKUP("E",J51:BQ$85,$A$85-$A51+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="I51" s="3" t="s">
+        <v>83</v>
+      </c>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
       <c r="L51" s="17"/>
@@ -5248,19 +5873,27 @@
         <v>43</v>
       </c>
       <c r="B52" s="3"/>
-      <c r="C52" s="33"/>
-      <c r="D52" s="3"/>
+      <c r="C52" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="E52" s="3"/>
       <c r="F52" s="4">
-        <f>IFERROR( HLOOKUP("BE",J52:BQ$65,$A$65-$A52+1,FALSE),0)+ IFERROR( HLOOKUP("B",J52:BQ$65,$A$65-$A52+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J52:BQ$85,$A$85-$A52+1,FALSE),0)+ IFERROR( HLOOKUP("B",J52:BQ$85,$A$85-$A52+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="G52" s="4">
-        <f>IFERROR( HLOOKUP("BE",J52:BQ$65,$A$65-$A52+1,FALSE),0)+ IFERROR( HLOOKUP("E",J52:BQ$65,$A$65-$A52+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H52" s="4"/>
-      <c r="I52" s="3"/>
+        <f>IFERROR( HLOOKUP("BE",J52:BQ$85,$A$85-$A52+1,FALSE),0)+ IFERROR( HLOOKUP("E",J52:BQ$85,$A$85-$A52+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H52" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>83</v>
+      </c>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
       <c r="L52" s="17"/>
@@ -5327,21 +5960,25 @@
         <v>44</v>
       </c>
       <c r="B53" s="3"/>
-      <c r="C53" s="32" t="s">
-        <v>93</v>
-      </c>
-      <c r="D53" s="3"/>
+      <c r="C53" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="E53" s="3"/>
       <c r="F53" s="4">
-        <f>IFERROR( HLOOKUP("BE",J53:BQ$65,$A$65-$A53+1,FALSE),0)+ IFERROR( HLOOKUP("B",J53:BQ$65,$A$65-$A53+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J53:BQ$85,$A$85-$A53+1,FALSE),0)+ IFERROR( HLOOKUP("B",J53:BQ$85,$A$85-$A53+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="G53" s="4">
-        <f>IFERROR( HLOOKUP("BE",J53:BQ$65,$A$65-$A53+1,FALSE),0)+ IFERROR( HLOOKUP("E",J53:BQ$65,$A$65-$A53+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J53:BQ$85,$A$85-$A53+1,FALSE),0)+ IFERROR( HLOOKUP("E",J53:BQ$85,$A$85-$A53+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H53" s="4"/>
-      <c r="I53" s="3"/>
+      <c r="I53" s="3" t="s">
+        <v>83</v>
+      </c>
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
       <c r="L53" s="17"/>
@@ -5408,19 +6045,25 @@
         <v>45</v>
       </c>
       <c r="B54" s="3"/>
-      <c r="C54" s="31"/>
-      <c r="D54" s="3"/>
+      <c r="C54" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="E54" s="3"/>
       <c r="F54" s="4">
-        <f>IFERROR( HLOOKUP("BE",J54:BQ$65,$A$65-$A54+1,FALSE),0)+ IFERROR( HLOOKUP("B",J54:BQ$65,$A$65-$A54+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J54:BQ$85,$A$85-$A54+1,FALSE),0)+ IFERROR( HLOOKUP("B",J54:BQ$85,$A$85-$A54+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="G54" s="4">
-        <f>IFERROR( HLOOKUP("BE",J54:BQ$65,$A$65-$A54+1,FALSE),0)+ IFERROR( HLOOKUP("E",J54:BQ$65,$A$65-$A54+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J54:BQ$85,$A$85-$A54+1,FALSE),0)+ IFERROR( HLOOKUP("E",J54:BQ$85,$A$85-$A54+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H54" s="4"/>
-      <c r="I54" s="3"/>
+      <c r="I54" s="3" t="s">
+        <v>83</v>
+      </c>
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
       <c r="L54" s="17"/>
@@ -5486,29 +6129,25 @@
       <c r="A55">
         <v>46</v>
       </c>
-      <c r="B55" s="3">
-        <v>20</v>
-      </c>
-      <c r="C55" s="23" t="s">
-        <v>34</v>
+      <c r="B55" s="3"/>
+      <c r="C55" s="34" t="s">
+        <v>107</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E55" s="3"/>
       <c r="F55" s="4">
-        <f>IFERROR( HLOOKUP("BE",J55:BQ$65,$A$65-$A55+1,FALSE),0)+ IFERROR( HLOOKUP("B",J55:BQ$65,$A$65-$A55+1,FALSE),0)</f>
-        <v>40795</v>
+        <f>IFERROR( HLOOKUP("BE",J55:BQ$85,$A$85-$A55+1,FALSE),0)+ IFERROR( HLOOKUP("B",J55:BQ$85,$A$85-$A55+1,FALSE),0)</f>
+        <v>0</v>
       </c>
       <c r="G55" s="4">
-        <f>IFERROR( HLOOKUP("BE",J55:BQ$65,$A$65-$A55+1,FALSE),0)+ IFERROR( HLOOKUP("E",J55:BQ$65,$A$65-$A55+1,FALSE),0)</f>
-        <v>40809</v>
-      </c>
-      <c r="H55" s="4" t="s">
-        <v>68</v>
-      </c>
+        <f>IFERROR( HLOOKUP("BE",J55:BQ$85,$A$85-$A55+1,FALSE),0)+ IFERROR( HLOOKUP("E",J55:BQ$85,$A$85-$A55+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H55" s="4"/>
       <c r="I55" s="3" t="s">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
@@ -5525,51 +6164,21 @@
       <c r="V55" s="1"/>
       <c r="W55" s="1"/>
       <c r="X55" s="1"/>
-      <c r="Y55" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z55" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA55" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB55" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC55" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD55" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AE55" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AF55" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AG55" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="AH55" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="AI55" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AJ55" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AK55" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AL55" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AM55" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="Y55" s="1"/>
+      <c r="Z55" s="17"/>
+      <c r="AA55" s="17"/>
+      <c r="AB55" s="1"/>
+      <c r="AC55" s="1"/>
+      <c r="AD55" s="1"/>
+      <c r="AE55" s="1"/>
+      <c r="AF55" s="1"/>
+      <c r="AG55" s="17"/>
+      <c r="AH55" s="17"/>
+      <c r="AI55" s="1"/>
+      <c r="AJ55" s="1"/>
+      <c r="AK55" s="1"/>
+      <c r="AL55" s="1"/>
+      <c r="AM55" s="1"/>
       <c r="AN55" s="17"/>
       <c r="AO55" s="17"/>
       <c r="AP55" s="1"/>
@@ -5605,29 +6214,25 @@
       <c r="A56">
         <v>47</v>
       </c>
-      <c r="B56" s="3">
-        <v>21</v>
-      </c>
-      <c r="C56" s="12" t="s">
-        <v>82</v>
+      <c r="B56" s="3"/>
+      <c r="C56" s="34" t="s">
+        <v>108</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E56" s="3"/>
       <c r="F56" s="4">
-        <f>IFERROR( HLOOKUP("BE",J56:BQ$65,$A$65-$A56+1,FALSE),0)+ IFERROR( HLOOKUP("B",J56:BQ$65,$A$65-$A56+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J56:BQ$85,$A$85-$A56+1,FALSE),0)+ IFERROR( HLOOKUP("B",J56:BQ$85,$A$85-$A56+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="G56" s="4">
-        <f>IFERROR( HLOOKUP("BE",J56:BQ$65,$A$65-$A56+1,FALSE),0)+ IFERROR( HLOOKUP("E",J56:BQ$65,$A$65-$A56+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H56" s="4" t="s">
-        <v>67</v>
-      </c>
+        <f>IFERROR( HLOOKUP("BE",J56:BQ$85,$A$85-$A56+1,FALSE),0)+ IFERROR( HLOOKUP("E",J56:BQ$85,$A$85-$A56+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H56" s="4"/>
       <c r="I56" s="3" t="s">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
@@ -5694,30 +6299,22 @@
       <c r="A57">
         <v>48</v>
       </c>
-      <c r="B57" s="3">
-        <v>22</v>
-      </c>
-      <c r="C57" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>19</v>
-      </c>
+      <c r="B57" s="3"/>
+      <c r="C57" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="D57" s="3"/>
       <c r="E57" s="3"/>
       <c r="F57" s="4">
-        <f>IFERROR( HLOOKUP("BE",J57:BQ$65,$A$65-$A57+1,FALSE),0)+ IFERROR( HLOOKUP("B",J57:BQ$65,$A$65-$A57+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J57:BQ$85,$A$85-$A57+1,FALSE),0)+ IFERROR( HLOOKUP("B",J57:BQ$85,$A$85-$A57+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="G57" s="4">
-        <f>IFERROR( HLOOKUP("BE",J57:BQ$65,$A$65-$A57+1,FALSE),0)+ IFERROR( HLOOKUP("E",J57:BQ$65,$A$65-$A57+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H57" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>58</v>
-      </c>
+        <f>IFERROR( HLOOKUP("BE",J57:BQ$85,$A$85-$A57+1,FALSE),0)+ IFERROR( HLOOKUP("E",J57:BQ$85,$A$85-$A57+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H57" s="4"/>
+      <c r="I57" s="3"/>
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
       <c r="L57" s="17"/>
@@ -5783,29 +6380,27 @@
       <c r="A58">
         <v>49</v>
       </c>
-      <c r="B58" s="3">
-        <v>23</v>
-      </c>
-      <c r="C58" s="27" t="s">
-        <v>35</v>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3" t="s">
+        <v>111</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E58" s="3"/>
       <c r="F58" s="4">
-        <f>IFERROR( HLOOKUP("BE",J58:BQ$65,$A$65-$A58+1,FALSE),0)+ IFERROR( HLOOKUP("B",J58:BQ$65,$A$65-$A58+1,FALSE),0)</f>
-        <v>40821</v>
+        <f>IFERROR( HLOOKUP("BE",J58:BQ$85,$A$85-$A58+1,FALSE),0)+ IFERROR( HLOOKUP("B",J58:BQ$85,$A$85-$A58+1,FALSE),0)</f>
+        <v>0</v>
       </c>
       <c r="G58" s="4">
-        <f>IFERROR( HLOOKUP("BE",J58:BQ$65,$A$65-$A58+1,FALSE),0)+ IFERROR( HLOOKUP("E",J58:BQ$65,$A$65-$A58+1,FALSE),0)</f>
-        <v>40821</v>
+        <f>IFERROR( HLOOKUP("BE",J58:BQ$85,$A$85-$A58+1,FALSE),0)+ IFERROR( HLOOKUP("E",J58:BQ$85,$A$85-$A58+1,FALSE),0)</f>
+        <v>0</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
@@ -5848,9 +6443,7 @@
       <c r="AV58" s="17"/>
       <c r="AW58" s="1"/>
       <c r="AX58" s="1"/>
-      <c r="AY58" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="AY58" s="1"/>
       <c r="AZ58" s="1"/>
       <c r="BA58" s="1"/>
       <c r="BB58" s="17"/>
@@ -5874,29 +6467,27 @@
       <c r="A59">
         <v>50</v>
       </c>
-      <c r="B59" s="3">
-        <v>24</v>
-      </c>
+      <c r="B59" s="3"/>
       <c r="C59" s="3" t="s">
-        <v>37</v>
+        <v>112</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E59" s="3"/>
       <c r="F59" s="4">
-        <f>IFERROR( HLOOKUP("BE",J59:BQ$65,$A$65-$A59+1,FALSE),0)+ IFERROR( HLOOKUP("B",J59:BQ$65,$A$65-$A59+1,FALSE),0)</f>
-        <v>40813</v>
+        <f>IFERROR( HLOOKUP("BE",J59:BQ$85,$A$85-$A59+1,FALSE),0)+ IFERROR( HLOOKUP("B",J59:BQ$85,$A$85-$A59+1,FALSE),0)</f>
+        <v>0</v>
       </c>
       <c r="G59" s="4">
-        <f>IFERROR( HLOOKUP("BE",J59:BQ$65,$A$65-$A59+1,FALSE),0)+ IFERROR( HLOOKUP("E",J59:BQ$65,$A$65-$A59+1,FALSE),0)</f>
-        <v>40820</v>
+        <f>IFERROR( HLOOKUP("BE",J59:BQ$85,$A$85-$A59+1,FALSE),0)+ IFERROR( HLOOKUP("E",J59:BQ$85,$A$85-$A59+1,FALSE),0)</f>
+        <v>0</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
@@ -5931,30 +6522,14 @@
       <c r="AN59" s="17"/>
       <c r="AO59" s="17"/>
       <c r="AP59" s="1"/>
-      <c r="AQ59" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AR59" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AS59" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AT59" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AU59" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="AV59" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="AW59" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AX59" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="AQ59" s="1"/>
+      <c r="AR59" s="1"/>
+      <c r="AS59" s="1"/>
+      <c r="AT59" s="1"/>
+      <c r="AU59" s="17"/>
+      <c r="AV59" s="17"/>
+      <c r="AW59" s="1"/>
+      <c r="AX59" s="1"/>
       <c r="AY59" s="1"/>
       <c r="AZ59" s="1"/>
       <c r="BA59" s="1"/>
@@ -5979,29 +6554,27 @@
       <c r="A60">
         <v>51</v>
       </c>
-      <c r="B60" s="3">
-        <v>25</v>
-      </c>
+      <c r="B60" s="3"/>
       <c r="C60" s="3" t="s">
-        <v>38</v>
+        <v>113</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E60" s="3"/>
       <c r="F60" s="4">
-        <f>IFERROR( HLOOKUP("BE",J60:BQ$65,$A$65-$A60+1,FALSE),0)+ IFERROR( HLOOKUP("B",J60:BQ$65,$A$65-$A60+1,FALSE),0)</f>
-        <v>40821</v>
+        <f>IFERROR( HLOOKUP("BE",J60:BQ$85,$A$85-$A60+1,FALSE),0)+ IFERROR( HLOOKUP("B",J60:BQ$85,$A$85-$A60+1,FALSE),0)</f>
+        <v>0</v>
       </c>
       <c r="G60" s="4">
-        <f>IFERROR( HLOOKUP("BE",J60:BQ$65,$A$65-$A60+1,FALSE),0)+ IFERROR( HLOOKUP("E",J60:BQ$65,$A$65-$A60+1,FALSE),0)</f>
-        <v>40827</v>
+        <f>IFERROR( HLOOKUP("BE",J60:BQ$85,$A$85-$A60+1,FALSE),0)+ IFERROR( HLOOKUP("E",J60:BQ$85,$A$85-$A60+1,FALSE),0)</f>
+        <v>0</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
@@ -6044,27 +6617,13 @@
       <c r="AV60" s="17"/>
       <c r="AW60" s="1"/>
       <c r="AX60" s="1"/>
-      <c r="AY60" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="AZ60" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="BA60" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="BB60" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="BC60" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="BD60" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="BE60" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="AY60" s="1"/>
+      <c r="AZ60" s="1"/>
+      <c r="BA60" s="1"/>
+      <c r="BB60" s="17"/>
+      <c r="BC60" s="17"/>
+      <c r="BD60" s="1"/>
+      <c r="BE60" s="1"/>
       <c r="BF60" s="1"/>
       <c r="BG60" s="1"/>
       <c r="BH60" s="1"/>
@@ -6078,25 +6637,29 @@
       <c r="BP60" s="17"/>
       <c r="BQ60" s="17"/>
     </row>
-    <row r="61" spans="1:69" ht="18.75" customHeight="1">
+    <row r="61" spans="1:69">
       <c r="A61">
         <v>52</v>
       </c>
-      <c r="B61" s="3">
-        <v>26</v>
-      </c>
-      <c r="C61" s="27"/>
-      <c r="D61" s="3"/>
+      <c r="B61" s="3"/>
+      <c r="C61" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="E61" s="3"/>
       <c r="F61" s="4">
-        <f>IFERROR( HLOOKUP("BE",J61:BQ$65,$A$65-$A61+1,FALSE),0)+ IFERROR( HLOOKUP("B",J61:BQ$65,$A$65-$A61+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J61:BQ$85,$A$85-$A61+1,FALSE),0)+ IFERROR( HLOOKUP("B",J61:BQ$85,$A$85-$A61+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="G61" s="4">
-        <f>IFERROR( HLOOKUP("BE",J61:BQ$65,$A$65-$A61+1,FALSE),0)+ IFERROR( HLOOKUP("E",J61:BQ$65,$A$65-$A61+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H61" s="4"/>
+        <f>IFERROR( HLOOKUP("BE",J61:BQ$85,$A$85-$A61+1,FALSE),0)+ IFERROR( HLOOKUP("E",J61:BQ$85,$A$85-$A61+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H61" s="4" t="s">
+        <v>66</v>
+      </c>
       <c r="I61" s="3"/>
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
@@ -6163,311 +6726,2127 @@
       <c r="A62">
         <v>53</v>
       </c>
+      <c r="B62" s="3"/>
+      <c r="C62" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E62" s="3"/>
+      <c r="F62" s="4">
+        <f>IFERROR( HLOOKUP("BE",J62:BQ$85,$A$85-$A62+1,FALSE),0)+ IFERROR( HLOOKUP("B",J62:BQ$85,$A$85-$A62+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="G62" s="4">
+        <f>IFERROR( HLOOKUP("BE",J62:BQ$85,$A$85-$A62+1,FALSE),0)+ IFERROR( HLOOKUP("E",J62:BQ$85,$A$85-$A62+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H62" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="I62" s="3"/>
+      <c r="J62" s="1"/>
+      <c r="K62" s="1"/>
+      <c r="L62" s="17"/>
+      <c r="M62" s="17"/>
+      <c r="N62" s="1"/>
+      <c r="O62" s="1"/>
+      <c r="P62" s="1"/>
+      <c r="Q62" s="1"/>
+      <c r="R62" s="17"/>
+      <c r="S62" s="17"/>
+      <c r="T62" s="17"/>
+      <c r="U62" s="1"/>
+      <c r="V62" s="1"/>
+      <c r="W62" s="1"/>
+      <c r="X62" s="1"/>
+      <c r="Y62" s="1"/>
+      <c r="Z62" s="17"/>
+      <c r="AA62" s="17"/>
+      <c r="AB62" s="1"/>
+      <c r="AC62" s="1"/>
+      <c r="AD62" s="1"/>
+      <c r="AE62" s="1"/>
+      <c r="AF62" s="1"/>
+      <c r="AG62" s="17"/>
+      <c r="AH62" s="17"/>
+      <c r="AI62" s="1"/>
+      <c r="AJ62" s="1"/>
+      <c r="AK62" s="1"/>
+      <c r="AL62" s="1"/>
+      <c r="AM62" s="1"/>
+      <c r="AN62" s="17"/>
+      <c r="AO62" s="17"/>
+      <c r="AP62" s="1"/>
+      <c r="AQ62" s="1"/>
+      <c r="AR62" s="1"/>
+      <c r="AS62" s="1"/>
+      <c r="AT62" s="1"/>
+      <c r="AU62" s="17"/>
+      <c r="AV62" s="17"/>
+      <c r="AW62" s="1"/>
+      <c r="AX62" s="1"/>
+      <c r="AY62" s="1"/>
+      <c r="AZ62" s="1"/>
+      <c r="BA62" s="1"/>
+      <c r="BB62" s="17"/>
+      <c r="BC62" s="17"/>
+      <c r="BD62" s="1"/>
+      <c r="BE62" s="1"/>
+      <c r="BF62" s="1"/>
+      <c r="BG62" s="1"/>
+      <c r="BH62" s="1"/>
+      <c r="BI62" s="17"/>
+      <c r="BJ62" s="17"/>
+      <c r="BK62" s="1"/>
+      <c r="BL62" s="1"/>
+      <c r="BM62" s="1"/>
+      <c r="BN62" s="1"/>
+      <c r="BO62" s="1"/>
+      <c r="BP62" s="17"/>
+      <c r="BQ62" s="17"/>
     </row>
     <row r="63" spans="1:69">
       <c r="A63">
         <v>54</v>
       </c>
+      <c r="B63" s="3"/>
+      <c r="C63" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E63" s="3"/>
+      <c r="F63" s="4">
+        <f>IFERROR( HLOOKUP("BE",J63:BQ$85,$A$85-$A63+1,FALSE),0)+ IFERROR( HLOOKUP("B",J63:BQ$85,$A$85-$A63+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="G63" s="4">
+        <f>IFERROR( HLOOKUP("BE",J63:BQ$85,$A$85-$A63+1,FALSE),0)+ IFERROR( HLOOKUP("E",J63:BQ$85,$A$85-$A63+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H63" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="I63" s="3"/>
+      <c r="J63" s="1"/>
+      <c r="K63" s="1"/>
+      <c r="L63" s="17"/>
+      <c r="M63" s="17"/>
+      <c r="N63" s="1"/>
+      <c r="O63" s="1"/>
+      <c r="P63" s="1"/>
+      <c r="Q63" s="1"/>
+      <c r="R63" s="17"/>
+      <c r="S63" s="17"/>
+      <c r="T63" s="17"/>
+      <c r="U63" s="1"/>
+      <c r="V63" s="1"/>
+      <c r="W63" s="1"/>
+      <c r="X63" s="1"/>
+      <c r="Y63" s="1"/>
+      <c r="Z63" s="17"/>
+      <c r="AA63" s="17"/>
+      <c r="AB63" s="1"/>
+      <c r="AC63" s="1"/>
+      <c r="AD63" s="1"/>
+      <c r="AE63" s="1"/>
+      <c r="AF63" s="1"/>
+      <c r="AG63" s="17"/>
+      <c r="AH63" s="17"/>
+      <c r="AI63" s="1"/>
+      <c r="AJ63" s="1"/>
+      <c r="AK63" s="1"/>
+      <c r="AL63" s="1"/>
+      <c r="AM63" s="1"/>
+      <c r="AN63" s="17"/>
+      <c r="AO63" s="17"/>
+      <c r="AP63" s="1"/>
+      <c r="AQ63" s="1"/>
+      <c r="AR63" s="1"/>
+      <c r="AS63" s="1"/>
+      <c r="AT63" s="1"/>
+      <c r="AU63" s="17"/>
+      <c r="AV63" s="17"/>
+      <c r="AW63" s="1"/>
+      <c r="AX63" s="1"/>
+      <c r="AY63" s="1"/>
+      <c r="AZ63" s="1"/>
+      <c r="BA63" s="1"/>
+      <c r="BB63" s="17"/>
+      <c r="BC63" s="17"/>
+      <c r="BD63" s="1"/>
+      <c r="BE63" s="1"/>
+      <c r="BF63" s="1"/>
+      <c r="BG63" s="1"/>
+      <c r="BH63" s="1"/>
+      <c r="BI63" s="17"/>
+      <c r="BJ63" s="17"/>
+      <c r="BK63" s="1"/>
+      <c r="BL63" s="1"/>
+      <c r="BM63" s="1"/>
+      <c r="BN63" s="1"/>
+      <c r="BO63" s="1"/>
+      <c r="BP63" s="17"/>
+      <c r="BQ63" s="17"/>
     </row>
     <row r="64" spans="1:69">
       <c r="A64">
         <v>55</v>
       </c>
-    </row>
-    <row r="65" spans="1:69" s="10" customFormat="1">
+      <c r="B64" s="3"/>
+      <c r="C64" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E64" s="3"/>
+      <c r="F64" s="4">
+        <f>IFERROR( HLOOKUP("BE",J64:BQ$85,$A$85-$A64+1,FALSE),0)+ IFERROR( HLOOKUP("B",J64:BQ$85,$A$85-$A64+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="G64" s="4">
+        <f>IFERROR( HLOOKUP("BE",J64:BQ$85,$A$85-$A64+1,FALSE),0)+ IFERROR( HLOOKUP("E",J64:BQ$85,$A$85-$A64+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H64" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="I64" s="3"/>
+      <c r="J64" s="1"/>
+      <c r="K64" s="1"/>
+      <c r="L64" s="17"/>
+      <c r="M64" s="17"/>
+      <c r="N64" s="1"/>
+      <c r="O64" s="1"/>
+      <c r="P64" s="1"/>
+      <c r="Q64" s="1"/>
+      <c r="R64" s="17"/>
+      <c r="S64" s="17"/>
+      <c r="T64" s="17"/>
+      <c r="U64" s="1"/>
+      <c r="V64" s="1"/>
+      <c r="W64" s="1"/>
+      <c r="X64" s="1"/>
+      <c r="Y64" s="1"/>
+      <c r="Z64" s="17"/>
+      <c r="AA64" s="17"/>
+      <c r="AB64" s="1"/>
+      <c r="AC64" s="1"/>
+      <c r="AD64" s="1"/>
+      <c r="AE64" s="1"/>
+      <c r="AF64" s="1"/>
+      <c r="AG64" s="17"/>
+      <c r="AH64" s="17"/>
+      <c r="AI64" s="1"/>
+      <c r="AJ64" s="1"/>
+      <c r="AK64" s="1"/>
+      <c r="AL64" s="1"/>
+      <c r="AM64" s="1"/>
+      <c r="AN64" s="17"/>
+      <c r="AO64" s="17"/>
+      <c r="AP64" s="1"/>
+      <c r="AQ64" s="1"/>
+      <c r="AR64" s="1"/>
+      <c r="AS64" s="1"/>
+      <c r="AT64" s="1"/>
+      <c r="AU64" s="17"/>
+      <c r="AV64" s="17"/>
+      <c r="AW64" s="1"/>
+      <c r="AX64" s="1"/>
+      <c r="AY64" s="1"/>
+      <c r="AZ64" s="1"/>
+      <c r="BA64" s="1"/>
+      <c r="BB64" s="17"/>
+      <c r="BC64" s="17"/>
+      <c r="BD64" s="1"/>
+      <c r="BE64" s="1"/>
+      <c r="BF64" s="1"/>
+      <c r="BG64" s="1"/>
+      <c r="BH64" s="1"/>
+      <c r="BI64" s="17"/>
+      <c r="BJ64" s="17"/>
+      <c r="BK64" s="1"/>
+      <c r="BL64" s="1"/>
+      <c r="BM64" s="1"/>
+      <c r="BN64" s="1"/>
+      <c r="BO64" s="1"/>
+      <c r="BP64" s="17"/>
+      <c r="BQ64" s="17"/>
+    </row>
+    <row r="65" spans="1:69">
       <c r="A65">
         <v>56</v>
       </c>
-      <c r="C65" s="30" t="s">
+      <c r="B65" s="3"/>
+      <c r="C65" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E65" s="3"/>
+      <c r="F65" s="4">
+        <f>IFERROR( HLOOKUP("BE",J65:BQ$85,$A$85-$A65+1,FALSE),0)+ IFERROR( HLOOKUP("B",J65:BQ$85,$A$85-$A65+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="G65" s="4">
+        <f>IFERROR( HLOOKUP("BE",J65:BQ$85,$A$85-$A65+1,FALSE),0)+ IFERROR( HLOOKUP("E",J65:BQ$85,$A$85-$A65+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H65" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="I65" s="3"/>
+      <c r="J65" s="1"/>
+      <c r="K65" s="1"/>
+      <c r="L65" s="17"/>
+      <c r="M65" s="17"/>
+      <c r="N65" s="1"/>
+      <c r="O65" s="1"/>
+      <c r="P65" s="1"/>
+      <c r="Q65" s="1"/>
+      <c r="R65" s="17"/>
+      <c r="S65" s="17"/>
+      <c r="T65" s="17"/>
+      <c r="U65" s="1"/>
+      <c r="V65" s="1"/>
+      <c r="W65" s="1"/>
+      <c r="X65" s="1"/>
+      <c r="Y65" s="1"/>
+      <c r="Z65" s="17"/>
+      <c r="AA65" s="17"/>
+      <c r="AB65" s="1"/>
+      <c r="AC65" s="1"/>
+      <c r="AD65" s="1"/>
+      <c r="AE65" s="1"/>
+      <c r="AF65" s="1"/>
+      <c r="AG65" s="17"/>
+      <c r="AH65" s="17"/>
+      <c r="AI65" s="1"/>
+      <c r="AJ65" s="1"/>
+      <c r="AK65" s="1"/>
+      <c r="AL65" s="1"/>
+      <c r="AM65" s="1"/>
+      <c r="AN65" s="17"/>
+      <c r="AO65" s="17"/>
+      <c r="AP65" s="1"/>
+      <c r="AQ65" s="1"/>
+      <c r="AR65" s="1"/>
+      <c r="AS65" s="1"/>
+      <c r="AT65" s="1"/>
+      <c r="AU65" s="17"/>
+      <c r="AV65" s="17"/>
+      <c r="AW65" s="1"/>
+      <c r="AX65" s="1"/>
+      <c r="AY65" s="1"/>
+      <c r="AZ65" s="1"/>
+      <c r="BA65" s="1"/>
+      <c r="BB65" s="17"/>
+      <c r="BC65" s="17"/>
+      <c r="BD65" s="1"/>
+      <c r="BE65" s="1"/>
+      <c r="BF65" s="1"/>
+      <c r="BG65" s="1"/>
+      <c r="BH65" s="1"/>
+      <c r="BI65" s="17"/>
+      <c r="BJ65" s="17"/>
+      <c r="BK65" s="1"/>
+      <c r="BL65" s="1"/>
+      <c r="BM65" s="1"/>
+      <c r="BN65" s="1"/>
+      <c r="BO65" s="1"/>
+      <c r="BP65" s="17"/>
+      <c r="BQ65" s="17"/>
+    </row>
+    <row r="66" spans="1:69">
+      <c r="A66">
+        <v>57</v>
+      </c>
+      <c r="B66" s="3"/>
+      <c r="C66" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="4">
+        <f>IFERROR( HLOOKUP("BE",J66:BQ$85,$A$85-$A66+1,FALSE),0)+ IFERROR( HLOOKUP("B",J66:BQ$85,$A$85-$A66+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="G66" s="4">
+        <f>IFERROR( HLOOKUP("BE",J66:BQ$85,$A$85-$A66+1,FALSE),0)+ IFERROR( HLOOKUP("E",J66:BQ$85,$A$85-$A66+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H66" s="4"/>
+      <c r="I66" s="3"/>
+      <c r="J66" s="1"/>
+      <c r="K66" s="1"/>
+      <c r="L66" s="17"/>
+      <c r="M66" s="17"/>
+      <c r="N66" s="1"/>
+      <c r="O66" s="1"/>
+      <c r="P66" s="1"/>
+      <c r="Q66" s="1"/>
+      <c r="R66" s="17"/>
+      <c r="S66" s="17"/>
+      <c r="T66" s="17"/>
+      <c r="U66" s="1"/>
+      <c r="V66" s="1"/>
+      <c r="W66" s="1"/>
+      <c r="X66" s="1"/>
+      <c r="Y66" s="1"/>
+      <c r="Z66" s="17"/>
+      <c r="AA66" s="17"/>
+      <c r="AB66" s="1"/>
+      <c r="AC66" s="1"/>
+      <c r="AD66" s="1"/>
+      <c r="AE66" s="1"/>
+      <c r="AF66" s="1"/>
+      <c r="AG66" s="17"/>
+      <c r="AH66" s="17"/>
+      <c r="AI66" s="1"/>
+      <c r="AJ66" s="1"/>
+      <c r="AK66" s="1"/>
+      <c r="AL66" s="1"/>
+      <c r="AM66" s="1"/>
+      <c r="AN66" s="17"/>
+      <c r="AO66" s="17"/>
+      <c r="AP66" s="1"/>
+      <c r="AQ66" s="1"/>
+      <c r="AR66" s="1"/>
+      <c r="AS66" s="1"/>
+      <c r="AT66" s="1"/>
+      <c r="AU66" s="17"/>
+      <c r="AV66" s="17"/>
+      <c r="AW66" s="1"/>
+      <c r="AX66" s="1"/>
+      <c r="AY66" s="1"/>
+      <c r="AZ66" s="1"/>
+      <c r="BA66" s="1"/>
+      <c r="BB66" s="17"/>
+      <c r="BC66" s="17"/>
+      <c r="BD66" s="1"/>
+      <c r="BE66" s="1"/>
+      <c r="BF66" s="1"/>
+      <c r="BG66" s="1"/>
+      <c r="BH66" s="1"/>
+      <c r="BI66" s="17"/>
+      <c r="BJ66" s="17"/>
+      <c r="BK66" s="1"/>
+      <c r="BL66" s="1"/>
+      <c r="BM66" s="1"/>
+      <c r="BN66" s="1"/>
+      <c r="BO66" s="1"/>
+      <c r="BP66" s="17"/>
+      <c r="BQ66" s="17"/>
+    </row>
+    <row r="67" spans="1:69">
+      <c r="A67">
+        <v>58</v>
+      </c>
+      <c r="B67" s="3"/>
+      <c r="C67" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E67" s="3"/>
+      <c r="F67" s="4">
+        <f>IFERROR( HLOOKUP("BE",J67:BQ$85,$A$85-$A67+1,FALSE),0)+ IFERROR( HLOOKUP("B",J67:BQ$85,$A$85-$A67+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="G67" s="4">
+        <f>IFERROR( HLOOKUP("BE",J67:BQ$85,$A$85-$A67+1,FALSE),0)+ IFERROR( HLOOKUP("E",J67:BQ$85,$A$85-$A67+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H67" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="I67" s="3"/>
+      <c r="J67" s="1"/>
+      <c r="K67" s="1"/>
+      <c r="L67" s="17"/>
+      <c r="M67" s="17"/>
+      <c r="N67" s="1"/>
+      <c r="O67" s="1"/>
+      <c r="P67" s="1"/>
+      <c r="Q67" s="1"/>
+      <c r="R67" s="17"/>
+      <c r="S67" s="17"/>
+      <c r="T67" s="17"/>
+      <c r="U67" s="1"/>
+      <c r="V67" s="1"/>
+      <c r="W67" s="1"/>
+      <c r="X67" s="1"/>
+      <c r="Y67" s="1"/>
+      <c r="Z67" s="17"/>
+      <c r="AA67" s="17"/>
+      <c r="AB67" s="1"/>
+      <c r="AC67" s="1"/>
+      <c r="AD67" s="1"/>
+      <c r="AE67" s="1"/>
+      <c r="AF67" s="1"/>
+      <c r="AG67" s="17"/>
+      <c r="AH67" s="17"/>
+      <c r="AI67" s="1"/>
+      <c r="AJ67" s="1"/>
+      <c r="AK67" s="1"/>
+      <c r="AL67" s="1"/>
+      <c r="AM67" s="1"/>
+      <c r="AN67" s="17"/>
+      <c r="AO67" s="17"/>
+      <c r="AP67" s="1"/>
+      <c r="AQ67" s="1"/>
+      <c r="AR67" s="1"/>
+      <c r="AS67" s="1"/>
+      <c r="AT67" s="1"/>
+      <c r="AU67" s="17"/>
+      <c r="AV67" s="17"/>
+      <c r="AW67" s="1"/>
+      <c r="AX67" s="1"/>
+      <c r="AY67" s="1"/>
+      <c r="AZ67" s="1"/>
+      <c r="BA67" s="1"/>
+      <c r="BB67" s="17"/>
+      <c r="BC67" s="17"/>
+      <c r="BD67" s="1"/>
+      <c r="BE67" s="1"/>
+      <c r="BF67" s="1"/>
+      <c r="BG67" s="1"/>
+      <c r="BH67" s="1"/>
+      <c r="BI67" s="17"/>
+      <c r="BJ67" s="17"/>
+      <c r="BK67" s="1"/>
+      <c r="BL67" s="1"/>
+      <c r="BM67" s="1"/>
+      <c r="BN67" s="1"/>
+      <c r="BO67" s="1"/>
+      <c r="BP67" s="17"/>
+      <c r="BQ67" s="17"/>
+    </row>
+    <row r="68" spans="1:69">
+      <c r="A68">
+        <v>59</v>
+      </c>
+      <c r="B68" s="3"/>
+      <c r="C68" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E68" s="3"/>
+      <c r="F68" s="4">
+        <f>IFERROR( HLOOKUP("BE",J68:BQ$85,$A$85-$A68+1,FALSE),0)+ IFERROR( HLOOKUP("B",J68:BQ$85,$A$85-$A68+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="G68" s="4">
+        <f>IFERROR( HLOOKUP("BE",J68:BQ$85,$A$85-$A68+1,FALSE),0)+ IFERROR( HLOOKUP("E",J68:BQ$85,$A$85-$A68+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H68" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="I68" s="3"/>
+      <c r="J68" s="1"/>
+      <c r="K68" s="1"/>
+      <c r="L68" s="17"/>
+      <c r="M68" s="17"/>
+      <c r="N68" s="1"/>
+      <c r="O68" s="1"/>
+      <c r="P68" s="1"/>
+      <c r="Q68" s="1"/>
+      <c r="R68" s="17"/>
+      <c r="S68" s="17"/>
+      <c r="T68" s="17"/>
+      <c r="U68" s="1"/>
+      <c r="V68" s="1"/>
+      <c r="W68" s="1"/>
+      <c r="X68" s="1"/>
+      <c r="Y68" s="1"/>
+      <c r="Z68" s="17"/>
+      <c r="AA68" s="17"/>
+      <c r="AB68" s="1"/>
+      <c r="AC68" s="1"/>
+      <c r="AD68" s="1"/>
+      <c r="AE68" s="1"/>
+      <c r="AF68" s="1"/>
+      <c r="AG68" s="17"/>
+      <c r="AH68" s="17"/>
+      <c r="AI68" s="1"/>
+      <c r="AJ68" s="1"/>
+      <c r="AK68" s="1"/>
+      <c r="AL68" s="1"/>
+      <c r="AM68" s="1"/>
+      <c r="AN68" s="17"/>
+      <c r="AO68" s="17"/>
+      <c r="AP68" s="1"/>
+      <c r="AQ68" s="1"/>
+      <c r="AR68" s="1"/>
+      <c r="AS68" s="1"/>
+      <c r="AT68" s="1"/>
+      <c r="AU68" s="17"/>
+      <c r="AV68" s="17"/>
+      <c r="AW68" s="1"/>
+      <c r="AX68" s="1"/>
+      <c r="AY68" s="1"/>
+      <c r="AZ68" s="1"/>
+      <c r="BA68" s="1"/>
+      <c r="BB68" s="17"/>
+      <c r="BC68" s="17"/>
+      <c r="BD68" s="1"/>
+      <c r="BE68" s="1"/>
+      <c r="BF68" s="1"/>
+      <c r="BG68" s="1"/>
+      <c r="BH68" s="1"/>
+      <c r="BI68" s="17"/>
+      <c r="BJ68" s="17"/>
+      <c r="BK68" s="1"/>
+      <c r="BL68" s="1"/>
+      <c r="BM68" s="1"/>
+      <c r="BN68" s="1"/>
+      <c r="BO68" s="1"/>
+      <c r="BP68" s="17"/>
+      <c r="BQ68" s="17"/>
+    </row>
+    <row r="69" spans="1:69">
+      <c r="A69">
+        <v>60</v>
+      </c>
+      <c r="B69" s="3"/>
+      <c r="C69" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E69" s="3"/>
+      <c r="F69" s="4">
+        <f>IFERROR( HLOOKUP("BE",J69:BQ$85,$A$85-$A69+1,FALSE),0)+ IFERROR( HLOOKUP("B",J69:BQ$85,$A$85-$A69+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="G69" s="4">
+        <f>IFERROR( HLOOKUP("BE",J69:BQ$85,$A$85-$A69+1,FALSE),0)+ IFERROR( HLOOKUP("E",J69:BQ$85,$A$85-$A69+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H69" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="I69" s="3"/>
+      <c r="J69" s="1"/>
+      <c r="K69" s="1"/>
+      <c r="L69" s="17"/>
+      <c r="M69" s="17"/>
+      <c r="N69" s="1"/>
+      <c r="O69" s="1"/>
+      <c r="P69" s="1"/>
+      <c r="Q69" s="1"/>
+      <c r="R69" s="17"/>
+      <c r="S69" s="17"/>
+      <c r="T69" s="17"/>
+      <c r="U69" s="1"/>
+      <c r="V69" s="1"/>
+      <c r="W69" s="1"/>
+      <c r="X69" s="1"/>
+      <c r="Y69" s="1"/>
+      <c r="Z69" s="17"/>
+      <c r="AA69" s="17"/>
+      <c r="AB69" s="1"/>
+      <c r="AC69" s="1"/>
+      <c r="AD69" s="1"/>
+      <c r="AE69" s="1"/>
+      <c r="AF69" s="1"/>
+      <c r="AG69" s="17"/>
+      <c r="AH69" s="17"/>
+      <c r="AI69" s="1"/>
+      <c r="AJ69" s="1"/>
+      <c r="AK69" s="1"/>
+      <c r="AL69" s="1"/>
+      <c r="AM69" s="1"/>
+      <c r="AN69" s="17"/>
+      <c r="AO69" s="17"/>
+      <c r="AP69" s="1"/>
+      <c r="AQ69" s="1"/>
+      <c r="AR69" s="1"/>
+      <c r="AS69" s="1"/>
+      <c r="AT69" s="1"/>
+      <c r="AU69" s="17"/>
+      <c r="AV69" s="17"/>
+      <c r="AW69" s="1"/>
+      <c r="AX69" s="1"/>
+      <c r="AY69" s="1"/>
+      <c r="AZ69" s="1"/>
+      <c r="BA69" s="1"/>
+      <c r="BB69" s="17"/>
+      <c r="BC69" s="17"/>
+      <c r="BD69" s="1"/>
+      <c r="BE69" s="1"/>
+      <c r="BF69" s="1"/>
+      <c r="BG69" s="1"/>
+      <c r="BH69" s="1"/>
+      <c r="BI69" s="17"/>
+      <c r="BJ69" s="17"/>
+      <c r="BK69" s="1"/>
+      <c r="BL69" s="1"/>
+      <c r="BM69" s="1"/>
+      <c r="BN69" s="1"/>
+      <c r="BO69" s="1"/>
+      <c r="BP69" s="17"/>
+      <c r="BQ69" s="17"/>
+    </row>
+    <row r="70" spans="1:69">
+      <c r="A70">
+        <v>61</v>
+      </c>
+      <c r="B70" s="3"/>
+      <c r="C70" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E70" s="3"/>
+      <c r="F70" s="4">
+        <f>IFERROR( HLOOKUP("BE",J70:BQ$85,$A$85-$A70+1,FALSE),0)+ IFERROR( HLOOKUP("B",J70:BQ$85,$A$85-$A70+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="G70" s="4">
+        <f>IFERROR( HLOOKUP("BE",J70:BQ$85,$A$85-$A70+1,FALSE),0)+ IFERROR( HLOOKUP("E",J70:BQ$85,$A$85-$A70+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H70" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="I70" s="3"/>
+      <c r="J70" s="1"/>
+      <c r="K70" s="1"/>
+      <c r="L70" s="17"/>
+      <c r="M70" s="17"/>
+      <c r="N70" s="1"/>
+      <c r="O70" s="1"/>
+      <c r="P70" s="1"/>
+      <c r="Q70" s="1"/>
+      <c r="R70" s="17"/>
+      <c r="S70" s="17"/>
+      <c r="T70" s="17"/>
+      <c r="U70" s="1"/>
+      <c r="V70" s="1"/>
+      <c r="W70" s="1"/>
+      <c r="X70" s="1"/>
+      <c r="Y70" s="1"/>
+      <c r="Z70" s="17"/>
+      <c r="AA70" s="17"/>
+      <c r="AB70" s="1"/>
+      <c r="AC70" s="1"/>
+      <c r="AD70" s="1"/>
+      <c r="AE70" s="1"/>
+      <c r="AF70" s="1"/>
+      <c r="AG70" s="17"/>
+      <c r="AH70" s="17"/>
+      <c r="AI70" s="1"/>
+      <c r="AJ70" s="1"/>
+      <c r="AK70" s="1"/>
+      <c r="AL70" s="1"/>
+      <c r="AM70" s="1"/>
+      <c r="AN70" s="17"/>
+      <c r="AO70" s="17"/>
+      <c r="AP70" s="1"/>
+      <c r="AQ70" s="1"/>
+      <c r="AR70" s="1"/>
+      <c r="AS70" s="1"/>
+      <c r="AT70" s="1"/>
+      <c r="AU70" s="17"/>
+      <c r="AV70" s="17"/>
+      <c r="AW70" s="1"/>
+      <c r="AX70" s="1"/>
+      <c r="AY70" s="1"/>
+      <c r="AZ70" s="1"/>
+      <c r="BA70" s="1"/>
+      <c r="BB70" s="17"/>
+      <c r="BC70" s="17"/>
+      <c r="BD70" s="1"/>
+      <c r="BE70" s="1"/>
+      <c r="BF70" s="1"/>
+      <c r="BG70" s="1"/>
+      <c r="BH70" s="1"/>
+      <c r="BI70" s="17"/>
+      <c r="BJ70" s="17"/>
+      <c r="BK70" s="1"/>
+      <c r="BL70" s="1"/>
+      <c r="BM70" s="1"/>
+      <c r="BN70" s="1"/>
+      <c r="BO70" s="1"/>
+      <c r="BP70" s="17"/>
+      <c r="BQ70" s="17"/>
+    </row>
+    <row r="71" spans="1:69">
+      <c r="A71">
+        <v>62</v>
+      </c>
+      <c r="B71" s="3"/>
+      <c r="C71" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E71" s="3"/>
+      <c r="F71" s="4">
+        <f>IFERROR( HLOOKUP("BE",J71:BQ$85,$A$85-$A71+1,FALSE),0)+ IFERROR( HLOOKUP("B",J71:BQ$85,$A$85-$A71+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="G71" s="4">
+        <f>IFERROR( HLOOKUP("BE",J71:BQ$85,$A$85-$A71+1,FALSE),0)+ IFERROR( HLOOKUP("E",J71:BQ$85,$A$85-$A71+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H71" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="I71" s="3"/>
+      <c r="J71" s="1"/>
+      <c r="K71" s="1"/>
+      <c r="L71" s="17"/>
+      <c r="M71" s="17"/>
+      <c r="N71" s="1"/>
+      <c r="O71" s="1"/>
+      <c r="P71" s="1"/>
+      <c r="Q71" s="1"/>
+      <c r="R71" s="17"/>
+      <c r="S71" s="17"/>
+      <c r="T71" s="17"/>
+      <c r="U71" s="1"/>
+      <c r="V71" s="1"/>
+      <c r="W71" s="1"/>
+      <c r="X71" s="1"/>
+      <c r="Y71" s="1"/>
+      <c r="Z71" s="17"/>
+      <c r="AA71" s="17"/>
+      <c r="AB71" s="1"/>
+      <c r="AC71" s="1"/>
+      <c r="AD71" s="1"/>
+      <c r="AE71" s="1"/>
+      <c r="AF71" s="1"/>
+      <c r="AG71" s="17"/>
+      <c r="AH71" s="17"/>
+      <c r="AI71" s="1"/>
+      <c r="AJ71" s="1"/>
+      <c r="AK71" s="1"/>
+      <c r="AL71" s="1"/>
+      <c r="AM71" s="1"/>
+      <c r="AN71" s="17"/>
+      <c r="AO71" s="17"/>
+      <c r="AP71" s="1"/>
+      <c r="AQ71" s="1"/>
+      <c r="AR71" s="1"/>
+      <c r="AS71" s="1"/>
+      <c r="AT71" s="1"/>
+      <c r="AU71" s="17"/>
+      <c r="AV71" s="17"/>
+      <c r="AW71" s="1"/>
+      <c r="AX71" s="1"/>
+      <c r="AY71" s="1"/>
+      <c r="AZ71" s="1"/>
+      <c r="BA71" s="1"/>
+      <c r="BB71" s="17"/>
+      <c r="BC71" s="17"/>
+      <c r="BD71" s="1"/>
+      <c r="BE71" s="1"/>
+      <c r="BF71" s="1"/>
+      <c r="BG71" s="1"/>
+      <c r="BH71" s="1"/>
+      <c r="BI71" s="17"/>
+      <c r="BJ71" s="17"/>
+      <c r="BK71" s="1"/>
+      <c r="BL71" s="1"/>
+      <c r="BM71" s="1"/>
+      <c r="BN71" s="1"/>
+      <c r="BO71" s="1"/>
+      <c r="BP71" s="17"/>
+      <c r="BQ71" s="17"/>
+    </row>
+    <row r="72" spans="1:69">
+      <c r="A72">
+        <v>63</v>
+      </c>
+      <c r="B72" s="3"/>
+      <c r="C72" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="D72" s="3"/>
+      <c r="E72" s="3"/>
+      <c r="F72" s="4"/>
+      <c r="G72" s="4"/>
+      <c r="H72" s="4"/>
+      <c r="I72" s="3"/>
+      <c r="J72" s="1"/>
+      <c r="K72" s="1"/>
+      <c r="L72" s="17"/>
+      <c r="M72" s="17"/>
+      <c r="N72" s="1"/>
+      <c r="O72" s="1"/>
+      <c r="P72" s="1"/>
+      <c r="Q72" s="1"/>
+      <c r="R72" s="17"/>
+      <c r="S72" s="17"/>
+      <c r="T72" s="17"/>
+      <c r="U72" s="1"/>
+      <c r="V72" s="1"/>
+      <c r="W72" s="1"/>
+      <c r="X72" s="1"/>
+      <c r="Y72" s="1"/>
+      <c r="Z72" s="17"/>
+      <c r="AA72" s="17"/>
+      <c r="AB72" s="1"/>
+      <c r="AC72" s="1"/>
+      <c r="AD72" s="1"/>
+      <c r="AE72" s="1"/>
+      <c r="AF72" s="1"/>
+      <c r="AG72" s="17"/>
+      <c r="AH72" s="17"/>
+      <c r="AI72" s="1"/>
+      <c r="AJ72" s="1"/>
+      <c r="AK72" s="1"/>
+      <c r="AL72" s="1"/>
+      <c r="AM72" s="1"/>
+      <c r="AN72" s="17"/>
+      <c r="AO72" s="17"/>
+      <c r="AP72" s="1"/>
+      <c r="AQ72" s="1"/>
+      <c r="AR72" s="1"/>
+      <c r="AS72" s="1"/>
+      <c r="AT72" s="1"/>
+      <c r="AU72" s="17"/>
+      <c r="AV72" s="17"/>
+      <c r="AW72" s="1"/>
+      <c r="AX72" s="1"/>
+      <c r="AY72" s="1"/>
+      <c r="AZ72" s="1"/>
+      <c r="BA72" s="1"/>
+      <c r="BB72" s="17"/>
+      <c r="BC72" s="17"/>
+      <c r="BD72" s="1"/>
+      <c r="BE72" s="1"/>
+      <c r="BF72" s="1"/>
+      <c r="BG72" s="1"/>
+      <c r="BH72" s="1"/>
+      <c r="BI72" s="17"/>
+      <c r="BJ72" s="17"/>
+      <c r="BK72" s="1"/>
+      <c r="BL72" s="1"/>
+      <c r="BM72" s="1"/>
+      <c r="BN72" s="1"/>
+      <c r="BO72" s="1"/>
+      <c r="BP72" s="17"/>
+      <c r="BQ72" s="17"/>
+    </row>
+    <row r="73" spans="1:69">
+      <c r="A73">
+        <v>64</v>
+      </c>
+      <c r="B73" s="3"/>
+      <c r="C73" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E73" s="3"/>
+      <c r="F73" s="4">
+        <f>IFERROR( HLOOKUP("BE",J73:BQ$85,$A$85-$A73+1,FALSE),0)+ IFERROR( HLOOKUP("B",J73:BQ$85,$A$85-$A73+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="G73" s="4">
+        <f>IFERROR( HLOOKUP("BE",J73:BQ$85,$A$85-$A73+1,FALSE),0)+ IFERROR( HLOOKUP("E",J73:BQ$85,$A$85-$A73+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H73" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="I73" s="3"/>
+      <c r="J73" s="1"/>
+      <c r="K73" s="1"/>
+      <c r="L73" s="17"/>
+      <c r="M73" s="17"/>
+      <c r="N73" s="1"/>
+      <c r="O73" s="1"/>
+      <c r="P73" s="1"/>
+      <c r="Q73" s="1"/>
+      <c r="R73" s="17"/>
+      <c r="S73" s="17"/>
+      <c r="T73" s="17"/>
+      <c r="U73" s="1"/>
+      <c r="V73" s="1"/>
+      <c r="W73" s="1"/>
+      <c r="X73" s="1"/>
+      <c r="Y73" s="1"/>
+      <c r="Z73" s="17"/>
+      <c r="AA73" s="17"/>
+      <c r="AB73" s="1"/>
+      <c r="AC73" s="1"/>
+      <c r="AD73" s="1"/>
+      <c r="AE73" s="1"/>
+      <c r="AF73" s="1"/>
+      <c r="AG73" s="17"/>
+      <c r="AH73" s="17"/>
+      <c r="AI73" s="1"/>
+      <c r="AJ73" s="1"/>
+      <c r="AK73" s="1"/>
+      <c r="AL73" s="1"/>
+      <c r="AM73" s="1"/>
+      <c r="AN73" s="17"/>
+      <c r="AO73" s="17"/>
+      <c r="AP73" s="1"/>
+      <c r="AQ73" s="1"/>
+      <c r="AR73" s="1"/>
+      <c r="AS73" s="1"/>
+      <c r="AT73" s="1"/>
+      <c r="AU73" s="17"/>
+      <c r="AV73" s="17"/>
+      <c r="AW73" s="1"/>
+      <c r="AX73" s="1"/>
+      <c r="AY73" s="1"/>
+      <c r="AZ73" s="1"/>
+      <c r="BA73" s="1"/>
+      <c r="BB73" s="17"/>
+      <c r="BC73" s="17"/>
+      <c r="BD73" s="1"/>
+      <c r="BE73" s="1"/>
+      <c r="BF73" s="1"/>
+      <c r="BG73" s="1"/>
+      <c r="BH73" s="1"/>
+      <c r="BI73" s="17"/>
+      <c r="BJ73" s="17"/>
+      <c r="BK73" s="1"/>
+      <c r="BL73" s="1"/>
+      <c r="BM73" s="1"/>
+      <c r="BN73" s="1"/>
+      <c r="BO73" s="1"/>
+      <c r="BP73" s="17"/>
+      <c r="BQ73" s="17"/>
+    </row>
+    <row r="74" spans="1:69">
+      <c r="A74">
+        <v>65</v>
+      </c>
+      <c r="B74" s="3"/>
+      <c r="C74" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="D74" s="3"/>
+      <c r="E74" s="3"/>
+      <c r="F74" s="4"/>
+      <c r="G74" s="4"/>
+      <c r="H74" s="4"/>
+      <c r="I74" s="3"/>
+      <c r="J74" s="1"/>
+      <c r="K74" s="1"/>
+      <c r="L74" s="17"/>
+      <c r="M74" s="17"/>
+      <c r="N74" s="1"/>
+      <c r="O74" s="1"/>
+      <c r="P74" s="1"/>
+      <c r="Q74" s="1"/>
+      <c r="R74" s="17"/>
+      <c r="S74" s="17"/>
+      <c r="T74" s="17"/>
+      <c r="U74" s="1"/>
+      <c r="V74" s="1"/>
+      <c r="W74" s="1"/>
+      <c r="X74" s="1"/>
+      <c r="Y74" s="1"/>
+      <c r="Z74" s="17"/>
+      <c r="AA74" s="17"/>
+      <c r="AB74" s="1"/>
+      <c r="AC74" s="1"/>
+      <c r="AD74" s="1"/>
+      <c r="AE74" s="1"/>
+      <c r="AF74" s="1"/>
+      <c r="AG74" s="17"/>
+      <c r="AH74" s="17"/>
+      <c r="AI74" s="1"/>
+      <c r="AJ74" s="1"/>
+      <c r="AK74" s="1"/>
+      <c r="AL74" s="1"/>
+      <c r="AM74" s="1"/>
+      <c r="AN74" s="17"/>
+      <c r="AO74" s="17"/>
+      <c r="AP74" s="1"/>
+      <c r="AQ74" s="1"/>
+      <c r="AR74" s="1"/>
+      <c r="AS74" s="1"/>
+      <c r="AT74" s="1"/>
+      <c r="AU74" s="17"/>
+      <c r="AV74" s="17"/>
+      <c r="AW74" s="1"/>
+      <c r="AX74" s="1"/>
+      <c r="AY74" s="1"/>
+      <c r="AZ74" s="1"/>
+      <c r="BA74" s="1"/>
+      <c r="BB74" s="17"/>
+      <c r="BC74" s="17"/>
+      <c r="BD74" s="1"/>
+      <c r="BE74" s="1"/>
+      <c r="BF74" s="1"/>
+      <c r="BG74" s="1"/>
+      <c r="BH74" s="1"/>
+      <c r="BI74" s="17"/>
+      <c r="BJ74" s="17"/>
+      <c r="BK74" s="1"/>
+      <c r="BL74" s="1"/>
+      <c r="BM74" s="1"/>
+      <c r="BN74" s="1"/>
+      <c r="BO74" s="1"/>
+      <c r="BP74" s="17"/>
+      <c r="BQ74" s="17"/>
+    </row>
+    <row r="75" spans="1:69">
+      <c r="A75">
+        <v>66</v>
+      </c>
+      <c r="B75" s="3"/>
+      <c r="C75" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E75" s="3"/>
+      <c r="F75" s="4">
+        <f>IFERROR( HLOOKUP("BE",J75:BQ$85,$A$85-$A75+1,FALSE),0)+ IFERROR( HLOOKUP("B",J75:BQ$85,$A$85-$A75+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="G75" s="4">
+        <f>IFERROR( HLOOKUP("BE",J75:BQ$85,$A$85-$A75+1,FALSE),0)+ IFERROR( HLOOKUP("E",J75:BQ$85,$A$85-$A75+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H75" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="I75" s="3"/>
+      <c r="J75" s="1"/>
+      <c r="K75" s="1"/>
+      <c r="L75" s="17"/>
+      <c r="M75" s="17"/>
+      <c r="N75" s="1"/>
+      <c r="O75" s="1"/>
+      <c r="P75" s="1"/>
+      <c r="Q75" s="1"/>
+      <c r="R75" s="17"/>
+      <c r="S75" s="17"/>
+      <c r="T75" s="17"/>
+      <c r="U75" s="1"/>
+      <c r="V75" s="1"/>
+      <c r="W75" s="1"/>
+      <c r="X75" s="1"/>
+      <c r="Y75" s="1"/>
+      <c r="Z75" s="17"/>
+      <c r="AA75" s="17"/>
+      <c r="AB75" s="1"/>
+      <c r="AC75" s="1"/>
+      <c r="AD75" s="1"/>
+      <c r="AE75" s="1"/>
+      <c r="AF75" s="1"/>
+      <c r="AG75" s="17"/>
+      <c r="AH75" s="17"/>
+      <c r="AI75" s="1"/>
+      <c r="AJ75" s="1"/>
+      <c r="AK75" s="1"/>
+      <c r="AL75" s="1"/>
+      <c r="AM75" s="1"/>
+      <c r="AN75" s="17"/>
+      <c r="AO75" s="17"/>
+      <c r="AP75" s="1"/>
+      <c r="AQ75" s="1"/>
+      <c r="AR75" s="1"/>
+      <c r="AS75" s="1"/>
+      <c r="AT75" s="1"/>
+      <c r="AU75" s="17"/>
+      <c r="AV75" s="17"/>
+      <c r="AW75" s="1"/>
+      <c r="AX75" s="1"/>
+      <c r="AY75" s="1"/>
+      <c r="AZ75" s="1"/>
+      <c r="BA75" s="1"/>
+      <c r="BB75" s="17"/>
+      <c r="BC75" s="17"/>
+      <c r="BD75" s="1"/>
+      <c r="BE75" s="1"/>
+      <c r="BF75" s="1"/>
+      <c r="BG75" s="1"/>
+      <c r="BH75" s="1"/>
+      <c r="BI75" s="17"/>
+      <c r="BJ75" s="17"/>
+      <c r="BK75" s="1"/>
+      <c r="BL75" s="1"/>
+      <c r="BM75" s="1"/>
+      <c r="BN75" s="1"/>
+      <c r="BO75" s="1"/>
+      <c r="BP75" s="17"/>
+      <c r="BQ75" s="17"/>
+    </row>
+    <row r="76" spans="1:69">
+      <c r="A76">
+        <v>67</v>
+      </c>
+      <c r="B76" s="3"/>
+      <c r="C76" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E76" s="3"/>
+      <c r="F76" s="4">
+        <f>IFERROR( HLOOKUP("BE",J76:BQ$85,$A$85-$A76+1,FALSE),0)+ IFERROR( HLOOKUP("B",J76:BQ$85,$A$85-$A76+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="G76" s="4">
+        <f>IFERROR( HLOOKUP("BE",J76:BQ$85,$A$85-$A76+1,FALSE),0)+ IFERROR( HLOOKUP("E",J76:BQ$85,$A$85-$A76+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H76" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="I76" s="3"/>
+      <c r="J76" s="1"/>
+      <c r="K76" s="1"/>
+      <c r="L76" s="17"/>
+      <c r="M76" s="17"/>
+      <c r="N76" s="1"/>
+      <c r="O76" s="1"/>
+      <c r="P76" s="1"/>
+      <c r="Q76" s="1"/>
+      <c r="R76" s="17"/>
+      <c r="S76" s="17"/>
+      <c r="T76" s="17"/>
+      <c r="U76" s="1"/>
+      <c r="V76" s="1"/>
+      <c r="W76" s="1"/>
+      <c r="X76" s="1"/>
+      <c r="Y76" s="1"/>
+      <c r="Z76" s="17"/>
+      <c r="AA76" s="17"/>
+      <c r="AB76" s="1"/>
+      <c r="AC76" s="1"/>
+      <c r="AD76" s="1"/>
+      <c r="AE76" s="1"/>
+      <c r="AF76" s="1"/>
+      <c r="AG76" s="17"/>
+      <c r="AH76" s="17"/>
+      <c r="AI76" s="1"/>
+      <c r="AJ76" s="1"/>
+      <c r="AK76" s="1"/>
+      <c r="AL76" s="1"/>
+      <c r="AM76" s="1"/>
+      <c r="AN76" s="17"/>
+      <c r="AO76" s="17"/>
+      <c r="AP76" s="1"/>
+      <c r="AQ76" s="1"/>
+      <c r="AR76" s="1"/>
+      <c r="AS76" s="1"/>
+      <c r="AT76" s="1"/>
+      <c r="AU76" s="17"/>
+      <c r="AV76" s="17"/>
+      <c r="AW76" s="1"/>
+      <c r="AX76" s="1"/>
+      <c r="AY76" s="1"/>
+      <c r="AZ76" s="1"/>
+      <c r="BA76" s="1"/>
+      <c r="BB76" s="17"/>
+      <c r="BC76" s="17"/>
+      <c r="BD76" s="1"/>
+      <c r="BE76" s="1"/>
+      <c r="BF76" s="1"/>
+      <c r="BG76" s="1"/>
+      <c r="BH76" s="1"/>
+      <c r="BI76" s="17"/>
+      <c r="BJ76" s="17"/>
+      <c r="BK76" s="1"/>
+      <c r="BL76" s="1"/>
+      <c r="BM76" s="1"/>
+      <c r="BN76" s="1"/>
+      <c r="BO76" s="1"/>
+      <c r="BP76" s="17"/>
+      <c r="BQ76" s="17"/>
+    </row>
+    <row r="77" spans="1:69">
+      <c r="A77">
+        <v>68</v>
+      </c>
+      <c r="B77" s="3"/>
+      <c r="C77" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E77" s="3"/>
+      <c r="F77" s="4">
+        <f>IFERROR( HLOOKUP("BE",J77:BQ$85,$A$85-$A77+1,FALSE),0)+ IFERROR( HLOOKUP("B",J77:BQ$85,$A$85-$A77+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="G77" s="4">
+        <f>IFERROR( HLOOKUP("BE",J77:BQ$85,$A$85-$A77+1,FALSE),0)+ IFERROR( HLOOKUP("E",J77:BQ$85,$A$85-$A77+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H77" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="I77" s="3"/>
+      <c r="J77" s="1"/>
+      <c r="K77" s="1"/>
+      <c r="L77" s="17"/>
+      <c r="M77" s="17"/>
+      <c r="N77" s="1"/>
+      <c r="O77" s="1"/>
+      <c r="P77" s="1"/>
+      <c r="Q77" s="1"/>
+      <c r="R77" s="17"/>
+      <c r="S77" s="17"/>
+      <c r="T77" s="17"/>
+      <c r="U77" s="1"/>
+      <c r="V77" s="1"/>
+      <c r="W77" s="1"/>
+      <c r="X77" s="1"/>
+      <c r="Y77" s="1"/>
+      <c r="Z77" s="17"/>
+      <c r="AA77" s="17"/>
+      <c r="AB77" s="1"/>
+      <c r="AC77" s="1"/>
+      <c r="AD77" s="1"/>
+      <c r="AE77" s="1"/>
+      <c r="AF77" s="1"/>
+      <c r="AG77" s="17"/>
+      <c r="AH77" s="17"/>
+      <c r="AI77" s="1"/>
+      <c r="AJ77" s="1"/>
+      <c r="AK77" s="1"/>
+      <c r="AL77" s="1"/>
+      <c r="AM77" s="1"/>
+      <c r="AN77" s="17"/>
+      <c r="AO77" s="17"/>
+      <c r="AP77" s="1"/>
+      <c r="AQ77" s="1"/>
+      <c r="AR77" s="1"/>
+      <c r="AS77" s="1"/>
+      <c r="AT77" s="1"/>
+      <c r="AU77" s="17"/>
+      <c r="AV77" s="17"/>
+      <c r="AW77" s="1"/>
+      <c r="AX77" s="1"/>
+      <c r="AY77" s="1"/>
+      <c r="AZ77" s="1"/>
+      <c r="BA77" s="1"/>
+      <c r="BB77" s="17"/>
+      <c r="BC77" s="17"/>
+      <c r="BD77" s="1"/>
+      <c r="BE77" s="1"/>
+      <c r="BF77" s="1"/>
+      <c r="BG77" s="1"/>
+      <c r="BH77" s="1"/>
+      <c r="BI77" s="17"/>
+      <c r="BJ77" s="17"/>
+      <c r="BK77" s="1"/>
+      <c r="BL77" s="1"/>
+      <c r="BM77" s="1"/>
+      <c r="BN77" s="1"/>
+      <c r="BO77" s="1"/>
+      <c r="BP77" s="17"/>
+      <c r="BQ77" s="17"/>
+    </row>
+    <row r="78" spans="1:69">
+      <c r="A78">
+        <v>69</v>
+      </c>
+      <c r="B78" s="3"/>
+      <c r="C78" s="35" t="s">
+        <v>131</v>
+      </c>
+      <c r="D78" s="3"/>
+      <c r="E78" s="3"/>
+      <c r="F78" s="4">
+        <f>IFERROR( HLOOKUP("BE",J78:BQ$85,$A$85-$A78+1,FALSE),0)+ IFERROR( HLOOKUP("B",J78:BQ$85,$A$85-$A78+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="G78" s="4">
+        <f>IFERROR( HLOOKUP("BE",J78:BQ$85,$A$85-$A78+1,FALSE),0)+ IFERROR( HLOOKUP("E",J78:BQ$85,$A$85-$A78+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H78" s="4"/>
+      <c r="I78" s="3"/>
+      <c r="J78" s="1"/>
+      <c r="K78" s="1"/>
+      <c r="L78" s="17"/>
+      <c r="M78" s="17"/>
+      <c r="N78" s="1"/>
+      <c r="O78" s="1"/>
+      <c r="P78" s="1"/>
+      <c r="Q78" s="1"/>
+      <c r="R78" s="17"/>
+      <c r="S78" s="17"/>
+      <c r="T78" s="17"/>
+      <c r="U78" s="1"/>
+      <c r="V78" s="1"/>
+      <c r="W78" s="1"/>
+      <c r="X78" s="1"/>
+      <c r="Y78" s="1"/>
+      <c r="Z78" s="17"/>
+      <c r="AA78" s="17"/>
+      <c r="AB78" s="1"/>
+      <c r="AC78" s="1"/>
+      <c r="AD78" s="1"/>
+      <c r="AE78" s="1"/>
+      <c r="AF78" s="1"/>
+      <c r="AG78" s="17"/>
+      <c r="AH78" s="17"/>
+      <c r="AI78" s="1"/>
+      <c r="AJ78" s="1"/>
+      <c r="AK78" s="1"/>
+      <c r="AL78" s="1"/>
+      <c r="AM78" s="1"/>
+      <c r="AN78" s="17"/>
+      <c r="AO78" s="17"/>
+      <c r="AP78" s="1"/>
+      <c r="AQ78" s="1"/>
+      <c r="AR78" s="1"/>
+      <c r="AS78" s="1"/>
+      <c r="AT78" s="1"/>
+      <c r="AU78" s="17"/>
+      <c r="AV78" s="17"/>
+      <c r="AW78" s="1"/>
+      <c r="AX78" s="1"/>
+      <c r="AY78" s="1"/>
+      <c r="AZ78" s="1"/>
+      <c r="BA78" s="1"/>
+      <c r="BB78" s="17"/>
+      <c r="BC78" s="17"/>
+      <c r="BD78" s="1"/>
+      <c r="BE78" s="1"/>
+      <c r="BF78" s="1"/>
+      <c r="BG78" s="1"/>
+      <c r="BH78" s="1"/>
+      <c r="BI78" s="17"/>
+      <c r="BJ78" s="17"/>
+      <c r="BK78" s="1"/>
+      <c r="BL78" s="1"/>
+      <c r="BM78" s="1"/>
+      <c r="BN78" s="1"/>
+      <c r="BO78" s="1"/>
+      <c r="BP78" s="17"/>
+      <c r="BQ78" s="17"/>
+    </row>
+    <row r="79" spans="1:69">
+      <c r="A79">
+        <v>70</v>
+      </c>
+      <c r="B79" s="3">
+        <v>23</v>
+      </c>
+      <c r="C79" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E79" s="3"/>
+      <c r="F79" s="4">
+        <f>IFERROR( HLOOKUP("BE",J79:BQ$85,$A$85-$A79+1,FALSE),0)+ IFERROR( HLOOKUP("B",J79:BQ$85,$A$85-$A79+1,FALSE),0)</f>
+        <v>40821</v>
+      </c>
+      <c r="G79" s="4">
+        <f>IFERROR( HLOOKUP("BE",J79:BQ$85,$A$85-$A79+1,FALSE),0)+ IFERROR( HLOOKUP("E",J79:BQ$85,$A$85-$A79+1,FALSE),0)</f>
+        <v>40821</v>
+      </c>
+      <c r="H79" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="I79" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J79" s="1"/>
+      <c r="K79" s="1"/>
+      <c r="L79" s="17"/>
+      <c r="M79" s="17"/>
+      <c r="N79" s="1"/>
+      <c r="O79" s="1"/>
+      <c r="P79" s="1"/>
+      <c r="Q79" s="1"/>
+      <c r="R79" s="17"/>
+      <c r="S79" s="17"/>
+      <c r="T79" s="17"/>
+      <c r="U79" s="1"/>
+      <c r="V79" s="1"/>
+      <c r="W79" s="1"/>
+      <c r="X79" s="1"/>
+      <c r="Y79" s="1"/>
+      <c r="Z79" s="17"/>
+      <c r="AA79" s="17"/>
+      <c r="AB79" s="1"/>
+      <c r="AC79" s="1"/>
+      <c r="AD79" s="1"/>
+      <c r="AE79" s="1"/>
+      <c r="AF79" s="1"/>
+      <c r="AG79" s="17"/>
+      <c r="AH79" s="17"/>
+      <c r="AI79" s="1"/>
+      <c r="AJ79" s="1"/>
+      <c r="AK79" s="1"/>
+      <c r="AL79" s="1"/>
+      <c r="AM79" s="1"/>
+      <c r="AN79" s="17"/>
+      <c r="AO79" s="17"/>
+      <c r="AP79" s="1"/>
+      <c r="AQ79" s="1"/>
+      <c r="AR79" s="1"/>
+      <c r="AS79" s="1"/>
+      <c r="AT79" s="1"/>
+      <c r="AU79" s="17"/>
+      <c r="AV79" s="17"/>
+      <c r="AW79" s="1"/>
+      <c r="AX79" s="1"/>
+      <c r="AY79" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AZ79" s="1"/>
+      <c r="BA79" s="1"/>
+      <c r="BB79" s="17"/>
+      <c r="BC79" s="17"/>
+      <c r="BD79" s="1"/>
+      <c r="BE79" s="1"/>
+      <c r="BF79" s="1"/>
+      <c r="BG79" s="1"/>
+      <c r="BH79" s="1"/>
+      <c r="BI79" s="17"/>
+      <c r="BJ79" s="17"/>
+      <c r="BK79" s="1"/>
+      <c r="BL79" s="1"/>
+      <c r="BM79" s="1"/>
+      <c r="BN79" s="1"/>
+      <c r="BO79" s="1"/>
+      <c r="BP79" s="17"/>
+      <c r="BQ79" s="17"/>
+    </row>
+    <row r="80" spans="1:69">
+      <c r="A80">
+        <v>71</v>
+      </c>
+      <c r="B80" s="3">
+        <v>24</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E80" s="3"/>
+      <c r="F80" s="4">
+        <f>IFERROR( HLOOKUP("BE",J80:BQ$85,$A$85-$A80+1,FALSE),0)+ IFERROR( HLOOKUP("B",J80:BQ$85,$A$85-$A80+1,FALSE),0)</f>
+        <v>40813</v>
+      </c>
+      <c r="G80" s="4">
+        <f>IFERROR( HLOOKUP("BE",J80:BQ$85,$A$85-$A80+1,FALSE),0)+ IFERROR( HLOOKUP("E",J80:BQ$85,$A$85-$A80+1,FALSE),0)</f>
+        <v>40820</v>
+      </c>
+      <c r="H80" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="I80" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J80" s="1"/>
+      <c r="K80" s="1"/>
+      <c r="L80" s="17"/>
+      <c r="M80" s="17"/>
+      <c r="N80" s="1"/>
+      <c r="O80" s="1"/>
+      <c r="P80" s="1"/>
+      <c r="Q80" s="1"/>
+      <c r="R80" s="17"/>
+      <c r="S80" s="17"/>
+      <c r="T80" s="17"/>
+      <c r="U80" s="1"/>
+      <c r="V80" s="1"/>
+      <c r="W80" s="1"/>
+      <c r="X80" s="1"/>
+      <c r="Y80" s="1"/>
+      <c r="Z80" s="17"/>
+      <c r="AA80" s="17"/>
+      <c r="AB80" s="1"/>
+      <c r="AC80" s="1"/>
+      <c r="AD80" s="1"/>
+      <c r="AE80" s="1"/>
+      <c r="AF80" s="1"/>
+      <c r="AG80" s="17"/>
+      <c r="AH80" s="17"/>
+      <c r="AI80" s="1"/>
+      <c r="AJ80" s="1"/>
+      <c r="AK80" s="1"/>
+      <c r="AL80" s="1"/>
+      <c r="AM80" s="1"/>
+      <c r="AN80" s="17"/>
+      <c r="AO80" s="17"/>
+      <c r="AP80" s="1"/>
+      <c r="AQ80" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AR80" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AS80" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AT80" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AU80" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="AV80" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="AW80" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AX80" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AY80" s="1"/>
+      <c r="AZ80" s="1"/>
+      <c r="BA80" s="1"/>
+      <c r="BB80" s="17"/>
+      <c r="BC80" s="17"/>
+      <c r="BD80" s="1"/>
+      <c r="BE80" s="1"/>
+      <c r="BF80" s="1"/>
+      <c r="BG80" s="1"/>
+      <c r="BH80" s="1"/>
+      <c r="BI80" s="17"/>
+      <c r="BJ80" s="17"/>
+      <c r="BK80" s="1"/>
+      <c r="BL80" s="1"/>
+      <c r="BM80" s="1"/>
+      <c r="BN80" s="1"/>
+      <c r="BO80" s="1"/>
+      <c r="BP80" s="17"/>
+      <c r="BQ80" s="17"/>
+    </row>
+    <row r="81" spans="1:69">
+      <c r="A81">
+        <v>72</v>
+      </c>
+      <c r="B81" s="3">
+        <v>25</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E81" s="3"/>
+      <c r="F81" s="4">
+        <f>IFERROR( HLOOKUP("BE",J81:BQ$85,$A$85-$A81+1,FALSE),0)+ IFERROR( HLOOKUP("B",J81:BQ$85,$A$85-$A81+1,FALSE),0)</f>
+        <v>40821</v>
+      </c>
+      <c r="G81" s="4">
+        <f>IFERROR( HLOOKUP("BE",J81:BQ$85,$A$85-$A81+1,FALSE),0)+ IFERROR( HLOOKUP("E",J81:BQ$85,$A$85-$A81+1,FALSE),0)</f>
+        <v>40827</v>
+      </c>
+      <c r="H81" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J81" s="1"/>
+      <c r="K81" s="1"/>
+      <c r="L81" s="17"/>
+      <c r="M81" s="17"/>
+      <c r="N81" s="1"/>
+      <c r="O81" s="1"/>
+      <c r="P81" s="1"/>
+      <c r="Q81" s="1"/>
+      <c r="R81" s="17"/>
+      <c r="S81" s="17"/>
+      <c r="T81" s="17"/>
+      <c r="U81" s="1"/>
+      <c r="V81" s="1"/>
+      <c r="W81" s="1"/>
+      <c r="X81" s="1"/>
+      <c r="Y81" s="1"/>
+      <c r="Z81" s="17"/>
+      <c r="AA81" s="17"/>
+      <c r="AB81" s="1"/>
+      <c r="AC81" s="1"/>
+      <c r="AD81" s="1"/>
+      <c r="AE81" s="1"/>
+      <c r="AF81" s="1"/>
+      <c r="AG81" s="17"/>
+      <c r="AH81" s="17"/>
+      <c r="AI81" s="1"/>
+      <c r="AJ81" s="1"/>
+      <c r="AK81" s="1"/>
+      <c r="AL81" s="1"/>
+      <c r="AM81" s="1"/>
+      <c r="AN81" s="17"/>
+      <c r="AO81" s="17"/>
+      <c r="AP81" s="1"/>
+      <c r="AQ81" s="1"/>
+      <c r="AR81" s="1"/>
+      <c r="AS81" s="1"/>
+      <c r="AT81" s="1"/>
+      <c r="AU81" s="17"/>
+      <c r="AV81" s="17"/>
+      <c r="AW81" s="1"/>
+      <c r="AX81" s="1"/>
+      <c r="AY81" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="AZ81" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="BA81" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="BB81" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="BC81" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="BD81" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="BE81" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="BF81" s="1"/>
+      <c r="BG81" s="1"/>
+      <c r="BH81" s="1"/>
+      <c r="BI81" s="17"/>
+      <c r="BJ81" s="17"/>
+      <c r="BK81" s="1"/>
+      <c r="BL81" s="1"/>
+      <c r="BM81" s="1"/>
+      <c r="BN81" s="1"/>
+      <c r="BO81" s="1"/>
+      <c r="BP81" s="17"/>
+      <c r="BQ81" s="17"/>
+    </row>
+    <row r="82" spans="1:69">
+      <c r="A82">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="83" spans="1:69">
+      <c r="A83">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="84" spans="1:69">
+      <c r="A84">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="85" spans="1:69" s="10" customFormat="1">
+      <c r="A85">
+        <v>76</v>
+      </c>
+      <c r="C85" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="F65" s="5"/>
-      <c r="G65" s="5"/>
-      <c r="H65" s="5"/>
-      <c r="J65" s="5">
+      <c r="F85" s="5"/>
+      <c r="G85" s="5"/>
+      <c r="H85" s="5"/>
+      <c r="J85" s="5">
         <f>J8</f>
         <v>40780</v>
       </c>
-      <c r="K65" s="5">
-        <f t="shared" ref="K65:BQ65" si="1">K8</f>
+      <c r="K85" s="5">
+        <f t="shared" ref="K85:BQ85" si="1">K8</f>
         <v>40781</v>
       </c>
-      <c r="L65" s="5">
+      <c r="L85" s="5">
         <f t="shared" si="1"/>
         <v>40782</v>
       </c>
-      <c r="M65" s="5">
+      <c r="M85" s="5">
         <f t="shared" si="1"/>
         <v>40783</v>
       </c>
-      <c r="N65" s="5">
+      <c r="N85" s="5">
         <f t="shared" si="1"/>
         <v>40784</v>
       </c>
-      <c r="O65" s="5">
+      <c r="O85" s="5">
         <f t="shared" si="1"/>
         <v>40785</v>
       </c>
-      <c r="P65" s="5">
+      <c r="P85" s="5">
         <f t="shared" si="1"/>
         <v>40786</v>
       </c>
-      <c r="Q65" s="5">
+      <c r="Q85" s="5">
         <f t="shared" si="1"/>
         <v>40787</v>
       </c>
-      <c r="R65" s="5">
+      <c r="R85" s="5">
         <f t="shared" si="1"/>
         <v>40788</v>
       </c>
-      <c r="S65" s="5">
+      <c r="S85" s="5">
         <f t="shared" si="1"/>
         <v>40789</v>
       </c>
-      <c r="T65" s="5">
+      <c r="T85" s="5">
         <f t="shared" si="1"/>
         <v>40790</v>
       </c>
-      <c r="U65" s="5">
+      <c r="U85" s="5">
         <f t="shared" si="1"/>
         <v>40791</v>
       </c>
-      <c r="V65" s="5">
+      <c r="V85" s="5">
         <f t="shared" si="1"/>
         <v>40792</v>
       </c>
-      <c r="W65" s="5">
+      <c r="W85" s="5">
         <f t="shared" si="1"/>
         <v>40793</v>
       </c>
-      <c r="X65" s="5">
+      <c r="X85" s="5">
         <f t="shared" si="1"/>
         <v>40794</v>
       </c>
-      <c r="Y65" s="5">
+      <c r="Y85" s="5">
         <f t="shared" si="1"/>
         <v>40795</v>
       </c>
-      <c r="Z65" s="5">
+      <c r="Z85" s="5">
         <f t="shared" si="1"/>
         <v>40796</v>
       </c>
-      <c r="AA65" s="5">
+      <c r="AA85" s="5">
         <f t="shared" si="1"/>
         <v>40797</v>
       </c>
-      <c r="AB65" s="5">
+      <c r="AB85" s="5">
         <f t="shared" si="1"/>
         <v>40798</v>
       </c>
-      <c r="AC65" s="5">
+      <c r="AC85" s="5">
         <f t="shared" si="1"/>
         <v>40799</v>
       </c>
-      <c r="AD65" s="5">
+      <c r="AD85" s="5">
         <f t="shared" si="1"/>
         <v>40800</v>
       </c>
-      <c r="AE65" s="5">
+      <c r="AE85" s="5">
         <f t="shared" si="1"/>
         <v>40801</v>
       </c>
-      <c r="AF65" s="5">
+      <c r="AF85" s="5">
         <f t="shared" si="1"/>
         <v>40802</v>
       </c>
-      <c r="AG65" s="5">
+      <c r="AG85" s="5">
         <f t="shared" si="1"/>
         <v>40803</v>
       </c>
-      <c r="AH65" s="5">
+      <c r="AH85" s="5">
         <f t="shared" si="1"/>
         <v>40804</v>
       </c>
-      <c r="AI65" s="5">
+      <c r="AI85" s="5">
         <f t="shared" si="1"/>
         <v>40805</v>
       </c>
-      <c r="AJ65" s="5">
+      <c r="AJ85" s="5">
         <f t="shared" si="1"/>
         <v>40806</v>
       </c>
-      <c r="AK65" s="5">
+      <c r="AK85" s="5">
         <f t="shared" si="1"/>
         <v>40807</v>
       </c>
-      <c r="AL65" s="5">
+      <c r="AL85" s="5">
         <f t="shared" si="1"/>
         <v>40808</v>
       </c>
-      <c r="AM65" s="5">
+      <c r="AM85" s="5">
         <f t="shared" si="1"/>
         <v>40809</v>
       </c>
-      <c r="AN65" s="5">
+      <c r="AN85" s="5">
         <f t="shared" si="1"/>
         <v>40810</v>
       </c>
-      <c r="AO65" s="5">
+      <c r="AO85" s="5">
         <f t="shared" si="1"/>
         <v>40811</v>
       </c>
-      <c r="AP65" s="5">
+      <c r="AP85" s="5">
         <f t="shared" si="1"/>
         <v>40812</v>
       </c>
-      <c r="AQ65" s="5">
+      <c r="AQ85" s="5">
         <f t="shared" si="1"/>
         <v>40813</v>
       </c>
-      <c r="AR65" s="5">
+      <c r="AR85" s="5">
         <f t="shared" si="1"/>
         <v>40814</v>
       </c>
-      <c r="AS65" s="5">
+      <c r="AS85" s="5">
         <f t="shared" si="1"/>
         <v>40815</v>
       </c>
-      <c r="AT65" s="5">
+      <c r="AT85" s="5">
         <f t="shared" si="1"/>
         <v>40816</v>
       </c>
-      <c r="AU65" s="5">
+      <c r="AU85" s="5">
         <f t="shared" si="1"/>
         <v>40817</v>
       </c>
-      <c r="AV65" s="5">
+      <c r="AV85" s="5">
         <f t="shared" si="1"/>
         <v>40818</v>
       </c>
-      <c r="AW65" s="5">
+      <c r="AW85" s="5">
         <f t="shared" si="1"/>
         <v>40819</v>
       </c>
-      <c r="AX65" s="5">
+      <c r="AX85" s="5">
         <f t="shared" si="1"/>
         <v>40820</v>
       </c>
-      <c r="AY65" s="5">
+      <c r="AY85" s="5">
         <f t="shared" si="1"/>
         <v>40821</v>
       </c>
-      <c r="AZ65" s="5">
+      <c r="AZ85" s="5">
         <f t="shared" si="1"/>
         <v>40822</v>
       </c>
-      <c r="BA65" s="5">
+      <c r="BA85" s="5">
         <f t="shared" si="1"/>
         <v>40823</v>
       </c>
-      <c r="BB65" s="5">
+      <c r="BB85" s="5">
         <f t="shared" si="1"/>
         <v>40824</v>
       </c>
-      <c r="BC65" s="5">
+      <c r="BC85" s="5">
         <f t="shared" si="1"/>
         <v>40825</v>
       </c>
-      <c r="BD65" s="5">
+      <c r="BD85" s="5">
         <f t="shared" si="1"/>
         <v>40826</v>
       </c>
-      <c r="BE65" s="5">
+      <c r="BE85" s="5">
         <f t="shared" si="1"/>
         <v>40827</v>
       </c>
-      <c r="BF65" s="5">
+      <c r="BF85" s="5">
         <f t="shared" si="1"/>
         <v>40828</v>
       </c>
-      <c r="BG65" s="5">
+      <c r="BG85" s="5">
         <f t="shared" si="1"/>
         <v>40829</v>
       </c>
-      <c r="BH65" s="5">
+      <c r="BH85" s="5">
         <f t="shared" si="1"/>
         <v>40830</v>
       </c>
-      <c r="BI65" s="5">
+      <c r="BI85" s="5">
         <f t="shared" si="1"/>
         <v>40831</v>
       </c>
-      <c r="BJ65" s="5">
+      <c r="BJ85" s="5">
         <f t="shared" si="1"/>
         <v>40832</v>
       </c>
-      <c r="BK65" s="5">
+      <c r="BK85" s="5">
         <f t="shared" si="1"/>
         <v>40833</v>
       </c>
-      <c r="BL65" s="5">
+      <c r="BL85" s="5">
         <f t="shared" si="1"/>
         <v>40834</v>
       </c>
-      <c r="BM65" s="5">
+      <c r="BM85" s="5">
         <f t="shared" si="1"/>
         <v>40835</v>
       </c>
-      <c r="BN65" s="5">
+      <c r="BN85" s="5">
         <f t="shared" si="1"/>
         <v>40836</v>
       </c>
-      <c r="BO65" s="5">
+      <c r="BO85" s="5">
         <f t="shared" si="1"/>
         <v>40837</v>
       </c>
-      <c r="BP65" s="5">
+      <c r="BP85" s="5">
         <f t="shared" si="1"/>
         <v>40838</v>
       </c>
-      <c r="BQ65" s="5">
+      <c r="BQ85" s="5">
         <f t="shared" si="1"/>
         <v>40839</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A8:BQ65">
+  <autoFilter ref="A8:BQ85">
     <filterColumn colId="3"/>
   </autoFilter>
   <mergeCells count="1">
     <mergeCell ref="K2:Q2"/>
   </mergeCells>
-  <conditionalFormatting sqref="J62:AW62 J43:BQ61 J23:BD42 J13:BD13 J10:AF11 AG11 AH10:BD11 J15:BD21 AU11:AV37 BB11:BC37 BE10:BQ42">
-    <cfRule type="cellIs" dxfId="6" priority="34" operator="equal">
+  <conditionalFormatting sqref="J82:AW82 J57:BQ81 J23:BD56 J13:BD13 J10:AF11 AG11 AH10:BD11 J15:BD21 AU11:AV48 BB11:BC48 BE10:BQ56">
+    <cfRule type="cellIs" dxfId="53" priority="40" operator="equal">
       <formula>"-"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="41" operator="equal">
       <formula>"E"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="42" operator="equal">
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J43:BQ61 J23:BD42 J13:BD13 J10:AF11 AG11 AH10:BD11 J15:BD21 AU11:AV37 BB11:BC37 BE10:BQ42">
-    <cfRule type="cellIs" dxfId="3" priority="33" operator="equal">
+  <conditionalFormatting sqref="J57:BQ81 J23:BD56 J13:BD13 J10:AF11 AG11 AH10:BD11 J15:BD21 AU11:AV48 BB11:BC48 BE10:BQ56">
+    <cfRule type="cellIs" dxfId="50" priority="39" operator="equal">
       <formula>"BE"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H23:H61 H10:H11 H13 H15:H21">
-    <cfRule type="cellIs" dxfId="2" priority="15" operator="equal">
+  <conditionalFormatting sqref="H10:H11 H13 H23:H81 H15:H21">
+    <cfRule type="cellIs" dxfId="49" priority="21" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H11 H13 H15:H21 H23:H47">
-    <cfRule type="expression" dxfId="1" priority="19">
-      <formula>AND(H11&lt;&gt;$E$4,G10&lt;TODAY())</formula>
+  <conditionalFormatting sqref="H11 H13 H23:H38 H15:H21">
+    <cfRule type="expression" dxfId="27" priority="25">
+      <formula>AND(H11&lt;&gt;$E$4,G11&lt;TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H48:H61">
-    <cfRule type="expression" dxfId="0" priority="87">
-      <formula>AND(H48&lt;&gt;$E$4,#REF!&lt;TODAY())</formula>
+  <conditionalFormatting sqref="H66:H81">
+    <cfRule type="expression" dxfId="48" priority="93">
+      <formula>AND(H66&lt;&gt;$E$4,#REF!&lt;TODAY())</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H43">
+    <cfRule type="expression" dxfId="47" priority="100">
+      <formula>AND(H43&lt;&gt;$E$4,G37&lt;TODAY())</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H41">
+    <cfRule type="expression" dxfId="46" priority="103">
+      <formula>AND(H41&lt;&gt;$E$4,G37&lt;TODAY())</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H48 H40">
+    <cfRule type="expression" dxfId="45" priority="106">
+      <formula>AND(H40&lt;&gt;$E$4,G37&lt;TODAY())</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H39:H48">
+    <cfRule type="expression" dxfId="44" priority="109">
+      <formula>AND(H39&lt;&gt;$E$4,G37&lt;TODAY())</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H48">
+    <cfRule type="expression" dxfId="43" priority="121">
+      <formula>AND(H48&lt;&gt;$E$4,G40&lt;TODAY())</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H44:H48">
+    <cfRule type="expression" dxfId="42" priority="127">
+      <formula>AND(H44&lt;&gt;$E$4,G37&lt;TODAY())</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H42">
+    <cfRule type="expression" dxfId="41" priority="134">
+      <formula>AND(H42&lt;&gt;$E$4,G37&lt;TODAY())</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H57:H65">
+    <cfRule type="expression" dxfId="40" priority="139">
+      <formula>AND(H57&lt;&gt;$E$4,G42&lt;TODAY())</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H55:H56">
+    <cfRule type="expression" dxfId="39" priority="143">
+      <formula>AND(H55&lt;&gt;$E$4,G42&lt;TODAY())</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H54">
+    <cfRule type="expression" dxfId="38" priority="145">
+      <formula>AND(H54&lt;&gt;$E$4,G42&lt;TODAY())</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H64:H65">
+    <cfRule type="expression" dxfId="37" priority="149">
+      <formula>AND(H64&lt;&gt;$E$4,G46&lt;TODAY())</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H63">
+    <cfRule type="expression" dxfId="36" priority="151">
+      <formula>AND(H63&lt;&gt;$E$4,G46&lt;TODAY())</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H62">
+    <cfRule type="expression" dxfId="35" priority="153">
+      <formula>AND(H62&lt;&gt;$E$4,G46&lt;TODAY())</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H49:H53">
+    <cfRule type="expression" dxfId="34" priority="203">
+      <formula>AND(H49&lt;&gt;$E$4,G38&lt;TODAY())</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H67:H73">
+    <cfRule type="expression" dxfId="33" priority="6">
+      <formula>AND(H67&lt;&gt;$E$4,G52&lt;TODAY())</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H67:H73">
+    <cfRule type="expression" dxfId="32" priority="5">
+      <formula>AND(H67&lt;&gt;$E$4,G49&lt;TODAY())</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H75:H77">
+    <cfRule type="expression" dxfId="31" priority="4">
+      <formula>AND(H75&lt;&gt;$E$4,G60&lt;TODAY())</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H75:H77">
+    <cfRule type="expression" dxfId="30" priority="3">
+      <formula>AND(H75&lt;&gt;$E$4,G57&lt;TODAY())</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H79:H81">
+    <cfRule type="expression" dxfId="29" priority="2">
+      <formula>AND(H79&lt;&gt;$E$4,G64&lt;TODAY())</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H79:H81">
+    <cfRule type="expression" dxfId="28" priority="1">
+      <formula>AND(H79&lt;&gt;$E$4,G61&lt;TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D13 D23:D61 D10:D11 D15:D21">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D13 D15:D21 D10:D11 D23:D81">
       <formula1>$C$2:$C$4</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H10:H61">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H10:H81">
       <formula1>$E$2:$E$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -6493,57 +8872,57 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="B4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/01. Document/DropOut_project v2011.08.25.xlsx
+++ b/01. Document/DropOut_project v2011.08.25.xlsx
@@ -11,14 +11,14 @@
     <sheet name="Convension" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Plan!$A$8:$BQ$85</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Plan!$A$8:$BQ$86</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="133">
   <si>
     <t>STT</t>
   </si>
@@ -414,6 +414,9 @@
   </si>
   <si>
     <t>- Test chương trình</t>
+  </si>
+  <si>
+    <t>- Thay icons cho ứng dụng</t>
   </si>
 </sst>
 </file>
@@ -604,9 +607,6 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
@@ -614,188 +614,19 @@
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="73">
+  <dxfs count="31">
     <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill>
-          <stop position="0">
-            <color rgb="FF0000CC"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFF0000"/>
-          </stop>
-        </gradientFill>
       </fill>
     </dxf>
     <dxf>
@@ -817,11 +648,11 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="0" tint="-0.14996795556505021"/>
+        <color theme="0"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
+          <bgColor rgb="FF0000CC"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1028,160 +859,6 @@
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000CC"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1481,13 +1158,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BQ85"/>
+  <dimension ref="A1:BQ86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="8" topLeftCell="H38" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="8" topLeftCell="H59" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="H18" sqref="H18"/>
+      <selection pane="bottomRight" activeCell="H76" sqref="H76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1500,8 +1177,8 @@
     <col min="7" max="7" width="10.28515625" style="2" customWidth="1"/>
     <col min="8" max="8" width="11.28515625" style="2" customWidth="1"/>
     <col min="9" max="9" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="37" width="5.7109375" customWidth="1"/>
-    <col min="38" max="56" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="41" width="5.7109375" hidden="1" customWidth="1"/>
+    <col min="42" max="56" width="5.7109375" bestFit="1" customWidth="1"/>
     <col min="57" max="57" width="5.7109375" customWidth="1"/>
     <col min="58" max="58" width="5.85546875" customWidth="1"/>
     <col min="59" max="59" width="5.42578125" customWidth="1"/>
@@ -1531,7 +1208,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="17">
-        <f>SUMIF($D$9:$D$81,C2,$E$9:$E$81)</f>
+        <f>SUMIF($D$9:$D$82,C2,$E$9:$E$82)</f>
         <v>0</v>
       </c>
       <c r="E2" s="11" t="s">
@@ -1545,22 +1222,22 @@
         <f>60*(2/3)</f>
         <v>40</v>
       </c>
-      <c r="K2" s="32" t="s">
+      <c r="K2" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
     </row>
     <row r="3" spans="1:69">
       <c r="C3" s="24" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="17">
-        <f>SUMIF($D$9:$D$81,#REF!,$E$9:$E$81)</f>
+        <f>SUMIF($D$9:$D$82,#REF!,$E$9:$E$82)</f>
         <v>0</v>
       </c>
       <c r="E3" s="11" t="s">
@@ -1576,7 +1253,7 @@
         <v>19</v>
       </c>
       <c r="D4" s="17">
-        <f>SUMIF($D$9:$D$81,C3,$E$9:$E$81)</f>
+        <f>SUMIF($D$9:$D$82,C3,$E$9:$E$82)</f>
         <v>0</v>
       </c>
       <c r="E4" s="11" t="s">
@@ -1587,7 +1264,7 @@
     <row r="5" spans="1:69">
       <c r="C5" s="24"/>
       <c r="D5" s="17">
-        <f>SUMIF($D$9:$D$81,C5,$E$9:$E$81)</f>
+        <f>SUMIF($D$9:$D$82,C5,$E$9:$E$82)</f>
         <v>0</v>
       </c>
       <c r="E5" s="11"/>
@@ -1596,7 +1273,7 @@
     <row r="6" spans="1:69">
       <c r="C6" s="24"/>
       <c r="D6" s="17">
-        <f>SUMIF($D$9:$D$81,C6,$E$9:$E$81)</f>
+        <f>SUMIF($D$9:$D$82,C6,$E$9:$E$82)</f>
         <v>0</v>
       </c>
       <c r="E6" s="11"/>
@@ -2125,11 +1802,11 @@
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="4">
-        <f>IFERROR( HLOOKUP("BE",J10:BQ$85,$A$85-$A10+1,FALSE),0)+ IFERROR( HLOOKUP("B",J10:BQ$85,$A$85-$A10+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J10:BQ$86,$A$86-$A10+1,FALSE),0)+ IFERROR( HLOOKUP("B",J10:BQ$86,$A$86-$A10+1,FALSE),0)</f>
         <v>40780</v>
       </c>
       <c r="G10" s="4">
-        <f>IFERROR( HLOOKUP("BE",J10:BQ$85,$A$85-$A10+1,FALSE),0)+ IFERROR( HLOOKUP("E",J10:BQ$85,$A$85-$A10+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J10:BQ$86,$A$86-$A10+1,FALSE),0)+ IFERROR( HLOOKUP("E",J10:BQ$86,$A$86-$A10+1,FALSE),0)</f>
         <v>40780</v>
       </c>
       <c r="H10" s="4" t="s">
@@ -2216,11 +1893,11 @@
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="4">
-        <f>IFERROR( HLOOKUP("BE",J11:BQ$85,$A$85-$A11+1,FALSE),0)+ IFERROR( HLOOKUP("B",J11:BQ$85,$A$85-$A11+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J11:BQ$86,$A$86-$A11+1,FALSE),0)+ IFERROR( HLOOKUP("B",J11:BQ$86,$A$86-$A11+1,FALSE),0)</f>
         <v>40780</v>
       </c>
       <c r="G11" s="4">
-        <f>IFERROR( HLOOKUP("BE",J11:BQ$85,$A$85-$A11+1,FALSE),0)+ IFERROR( HLOOKUP("E",J11:BQ$85,$A$85-$A11+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J11:BQ$86,$A$86-$A11+1,FALSE),0)+ IFERROR( HLOOKUP("E",J11:BQ$86,$A$86-$A11+1,FALSE),0)</f>
         <v>40780</v>
       </c>
       <c r="H11" s="4" t="s">
@@ -2301,11 +1978,11 @@
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6">
-        <f>IFERROR( HLOOKUP("BE",J12:BQ$85,$A$85-$A12+1,FALSE),0)+ IFERROR( HLOOKUP("B",J12:BQ$85,$A$85-$A12+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J12:BQ$86,$A$86-$A12+1,FALSE),0)+ IFERROR( HLOOKUP("B",J12:BQ$86,$A$86-$A12+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="G12" s="6">
-        <f>IFERROR( HLOOKUP("BE",J12:BQ$85,$A$85-$A12+1,FALSE),0)+ IFERROR( HLOOKUP("E",J12:BQ$85,$A$85-$A12+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J12:BQ$86,$A$86-$A12+1,FALSE),0)+ IFERROR( HLOOKUP("E",J12:BQ$86,$A$86-$A12+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H12" s="6"/>
@@ -2384,11 +2061,11 @@
       </c>
       <c r="E13" s="12"/>
       <c r="F13" s="13">
-        <f>IFERROR( HLOOKUP("BE",J13:BQ$85,$A$85-$A13+1,FALSE),0)+ IFERROR( HLOOKUP("B",J13:BQ$85,$A$85-$A13+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J13:BQ$86,$A$86-$A13+1,FALSE),0)+ IFERROR( HLOOKUP("B",J13:BQ$86,$A$86-$A13+1,FALSE),0)</f>
         <v>40780</v>
       </c>
       <c r="G13" s="13">
-        <f>IFERROR( HLOOKUP("BE",J13:BQ$85,$A$85-$A13+1,FALSE),0)+ IFERROR( HLOOKUP("E",J13:BQ$85,$A$85-$A13+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J13:BQ$86,$A$86-$A13+1,FALSE),0)+ IFERROR( HLOOKUP("E",J13:BQ$86,$A$86-$A13+1,FALSE),0)</f>
         <v>40780</v>
       </c>
       <c r="H13" s="4" t="s">
@@ -2469,11 +2146,11 @@
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6">
-        <f>IFERROR( HLOOKUP("BE",J14:BQ$85,$A$85-$A14+1,FALSE),0)+ IFERROR( HLOOKUP("B",J14:BQ$85,$A$85-$A14+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J14:BQ$86,$A$86-$A14+1,FALSE),0)+ IFERROR( HLOOKUP("B",J14:BQ$86,$A$86-$A14+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="G14" s="6">
-        <f>IFERROR( HLOOKUP("BE",J14:BQ$85,$A$85-$A14+1,FALSE),0)+ IFERROR( HLOOKUP("E",J14:BQ$85,$A$85-$A14+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J14:BQ$86,$A$86-$A14+1,FALSE),0)+ IFERROR( HLOOKUP("E",J14:BQ$86,$A$86-$A14+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H14" s="6"/>
@@ -2554,11 +2231,11 @@
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="4">
-        <f>IFERROR( HLOOKUP("BE",J15:BQ$85,$A$85-$A15+1,FALSE),0)+ IFERROR( HLOOKUP("B",J15:BQ$85,$A$85-$A15+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J15:BQ$86,$A$86-$A15+1,FALSE),0)+ IFERROR( HLOOKUP("B",J15:BQ$86,$A$86-$A15+1,FALSE),0)</f>
         <v>40780</v>
       </c>
       <c r="G15" s="4">
-        <f>IFERROR( HLOOKUP("BE",J15:BQ$85,$A$85-$A15+1,FALSE),0)+ IFERROR( HLOOKUP("E",J15:BQ$85,$A$85-$A15+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J15:BQ$86,$A$86-$A15+1,FALSE),0)+ IFERROR( HLOOKUP("E",J15:BQ$86,$A$86-$A15+1,FALSE),0)</f>
         <v>40787</v>
       </c>
       <c r="H15" s="4" t="s">
@@ -2655,11 +2332,11 @@
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="4">
-        <f>IFERROR( HLOOKUP("BE",J16:BQ$85,$A$85-$A16+1,FALSE),0)+ IFERROR( HLOOKUP("B",J16:BQ$85,$A$85-$A16+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J16:BQ$86,$A$86-$A16+1,FALSE),0)+ IFERROR( HLOOKUP("B",J16:BQ$86,$A$86-$A16+1,FALSE),0)</f>
         <v>40815</v>
       </c>
       <c r="G16" s="4">
-        <f>IFERROR( HLOOKUP("BE",J16:BQ$85,$A$85-$A16+1,FALSE),0)+ IFERROR( HLOOKUP("E",J16:BQ$85,$A$85-$A16+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J16:BQ$86,$A$86-$A16+1,FALSE),0)+ IFERROR( HLOOKUP("E",J16:BQ$86,$A$86-$A16+1,FALSE),0)</f>
         <v>40819</v>
       </c>
       <c r="H16" s="4" t="s">
@@ -2750,11 +2427,11 @@
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="4">
-        <f>IFERROR( HLOOKUP("BE",J17:BQ$85,$A$85-$A17+1,FALSE),0)+ IFERROR( HLOOKUP("B",J17:BQ$85,$A$85-$A17+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J17:BQ$86,$A$86-$A17+1,FALSE),0)+ IFERROR( HLOOKUP("B",J17:BQ$86,$A$86-$A17+1,FALSE),0)</f>
         <v>40812</v>
       </c>
       <c r="G17" s="4">
-        <f>IFERROR( HLOOKUP("BE",J17:BQ$85,$A$85-$A17+1,FALSE),0)+ IFERROR( HLOOKUP("E",J17:BQ$85,$A$85-$A17+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J17:BQ$86,$A$86-$A17+1,FALSE),0)+ IFERROR( HLOOKUP("E",J17:BQ$86,$A$86-$A17+1,FALSE),0)</f>
         <v>40812</v>
       </c>
       <c r="H17" s="4" t="s">
@@ -2841,11 +2518,11 @@
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="4">
-        <f>IFERROR( HLOOKUP("BE",J18:BQ$85,$A$85-$A18+1,FALSE),0)+ IFERROR( HLOOKUP("B",J18:BQ$85,$A$85-$A18+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J18:BQ$86,$A$86-$A18+1,FALSE),0)+ IFERROR( HLOOKUP("B",J18:BQ$86,$A$86-$A18+1,FALSE),0)</f>
         <v>40820</v>
       </c>
       <c r="G18" s="4">
-        <f>IFERROR( HLOOKUP("BE",J18:BQ$85,$A$85-$A18+1,FALSE),0)+ IFERROR( HLOOKUP("E",J18:BQ$85,$A$85-$A18+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J18:BQ$86,$A$86-$A18+1,FALSE),0)+ IFERROR( HLOOKUP("E",J18:BQ$86,$A$86-$A18+1,FALSE),0)</f>
         <v>40820</v>
       </c>
       <c r="H18" s="4" t="s">
@@ -2932,11 +2609,11 @@
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="4">
-        <f>IFERROR( HLOOKUP("BE",J19:BQ$85,$A$85-$A19+1,FALSE),0)+ IFERROR( HLOOKUP("B",J19:BQ$85,$A$85-$A19+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J19:BQ$86,$A$86-$A19+1,FALSE),0)+ IFERROR( HLOOKUP("B",J19:BQ$86,$A$86-$A19+1,FALSE),0)</f>
         <v>40821</v>
       </c>
       <c r="G19" s="4">
-        <f>IFERROR( HLOOKUP("BE",J19:BQ$85,$A$85-$A19+1,FALSE),0)+ IFERROR( HLOOKUP("E",J19:BQ$85,$A$85-$A19+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J19:BQ$86,$A$86-$A19+1,FALSE),0)+ IFERROR( HLOOKUP("E",J19:BQ$86,$A$86-$A19+1,FALSE),0)</f>
         <v>40823</v>
       </c>
       <c r="H19" s="4" t="s">
@@ -3027,11 +2704,11 @@
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="4">
-        <f>IFERROR( HLOOKUP("BE",J20:BQ$85,$A$85-$A20+1,FALSE),0)+ IFERROR( HLOOKUP("B",J20:BQ$85,$A$85-$A20+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J20:BQ$86,$A$86-$A20+1,FALSE),0)+ IFERROR( HLOOKUP("B",J20:BQ$86,$A$86-$A20+1,FALSE),0)</f>
         <v>40826</v>
       </c>
       <c r="G20" s="4">
-        <f>IFERROR( HLOOKUP("BE",J20:BQ$85,$A$85-$A20+1,FALSE),0)+ IFERROR( HLOOKUP("E",J20:BQ$85,$A$85-$A20+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J20:BQ$86,$A$86-$A20+1,FALSE),0)+ IFERROR( HLOOKUP("E",J20:BQ$86,$A$86-$A20+1,FALSE),0)</f>
         <v>40828</v>
       </c>
       <c r="H20" s="4" t="s">
@@ -3122,11 +2799,11 @@
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="4">
-        <f>IFERROR( HLOOKUP("BE",J21:BQ$85,$A$85-$A21+1,FALSE),0)+ IFERROR( HLOOKUP("B",J21:BQ$85,$A$85-$A21+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J21:BQ$86,$A$86-$A21+1,FALSE),0)+ IFERROR( HLOOKUP("B",J21:BQ$86,$A$86-$A21+1,FALSE),0)</f>
         <v>40829</v>
       </c>
       <c r="G21" s="4">
-        <f>IFERROR( HLOOKUP("BE",J21:BQ$85,$A$85-$A21+1,FALSE),0)+ IFERROR( HLOOKUP("E",J21:BQ$85,$A$85-$A21+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J21:BQ$86,$A$86-$A21+1,FALSE),0)+ IFERROR( HLOOKUP("E",J21:BQ$86,$A$86-$A21+1,FALSE),0)</f>
         <v>40833</v>
       </c>
       <c r="H21" s="4" t="s">
@@ -3215,11 +2892,11 @@
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6">
-        <f>IFERROR( HLOOKUP("BE",J22:BQ$85,$A$85-$A22+1,FALSE),0)+ IFERROR( HLOOKUP("B",J22:BQ$85,$A$85-$A22+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J22:BQ$86,$A$86-$A22+1,FALSE),0)+ IFERROR( HLOOKUP("B",J22:BQ$86,$A$86-$A22+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="G22" s="6">
-        <f>IFERROR( HLOOKUP("BE",J22:BQ$85,$A$85-$A22+1,FALSE),0)+ IFERROR( HLOOKUP("E",J22:BQ$85,$A$85-$A22+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J22:BQ$86,$A$86-$A22+1,FALSE),0)+ IFERROR( HLOOKUP("E",J22:BQ$86,$A$86-$A22+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H22" s="6"/>
@@ -3300,11 +2977,11 @@
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="4">
-        <f>IFERROR( HLOOKUP("BE",J23:BQ$85,$A$85-$A23+1,FALSE),0)+ IFERROR( HLOOKUP("B",J23:BQ$85,$A$85-$A23+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J23:BQ$86,$A$86-$A23+1,FALSE),0)+ IFERROR( HLOOKUP("B",J23:BQ$86,$A$86-$A23+1,FALSE),0)</f>
         <v>40780</v>
       </c>
       <c r="G23" s="4">
-        <f>IFERROR( HLOOKUP("BE",J23:BQ$85,$A$85-$A23+1,FALSE),0)+ IFERROR( HLOOKUP("E",J23:BQ$85,$A$85-$A23+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J23:BQ$86,$A$86-$A23+1,FALSE),0)+ IFERROR( HLOOKUP("E",J23:BQ$86,$A$86-$A23+1,FALSE),0)</f>
         <v>40780</v>
       </c>
       <c r="H23" s="4" t="s">
@@ -3391,11 +3068,11 @@
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="4">
-        <f>IFERROR( HLOOKUP("BE",J24:BQ$85,$A$85-$A24+1,FALSE),0)+ IFERROR( HLOOKUP("B",J24:BQ$85,$A$85-$A24+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J24:BQ$86,$A$86-$A24+1,FALSE),0)+ IFERROR( HLOOKUP("B",J24:BQ$86,$A$86-$A24+1,FALSE),0)</f>
         <v>40780</v>
       </c>
       <c r="G24" s="4">
-        <f>IFERROR( HLOOKUP("BE",J24:BQ$85,$A$85-$A24+1,FALSE),0)+ IFERROR( HLOOKUP("E",J24:BQ$85,$A$85-$A24+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J24:BQ$86,$A$86-$A24+1,FALSE),0)+ IFERROR( HLOOKUP("E",J24:BQ$86,$A$86-$A24+1,FALSE),0)</f>
         <v>40780</v>
       </c>
       <c r="H24" s="4" t="s">
@@ -3482,11 +3159,11 @@
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="4">
-        <f>IFERROR( HLOOKUP("BE",J25:BQ$85,$A$85-$A25+1,FALSE),0)+ IFERROR( HLOOKUP("B",J25:BQ$85,$A$85-$A25+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J25:BQ$86,$A$86-$A25+1,FALSE),0)+ IFERROR( HLOOKUP("B",J25:BQ$86,$A$86-$A25+1,FALSE),0)</f>
         <v>40780</v>
       </c>
       <c r="G25" s="4">
-        <f>IFERROR( HLOOKUP("BE",J25:BQ$85,$A$85-$A25+1,FALSE),0)+ IFERROR( HLOOKUP("E",J25:BQ$85,$A$85-$A25+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J25:BQ$86,$A$86-$A25+1,FALSE),0)+ IFERROR( HLOOKUP("E",J25:BQ$86,$A$86-$A25+1,FALSE),0)</f>
         <v>40780</v>
       </c>
       <c r="H25" s="4" t="s">
@@ -3573,11 +3250,11 @@
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="4">
-        <f>IFERROR( HLOOKUP("BE",J26:BQ$85,$A$85-$A26+1,FALSE),0)+ IFERROR( HLOOKUP("B",J26:BQ$85,$A$85-$A26+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J26:BQ$86,$A$86-$A26+1,FALSE),0)+ IFERROR( HLOOKUP("B",J26:BQ$86,$A$86-$A26+1,FALSE),0)</f>
         <v>40813</v>
       </c>
       <c r="G26" s="4">
-        <f>IFERROR( HLOOKUP("BE",J26:BQ$85,$A$85-$A26+1,FALSE),0)+ IFERROR( HLOOKUP("E",J26:BQ$85,$A$85-$A26+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J26:BQ$86,$A$86-$A26+1,FALSE),0)+ IFERROR( HLOOKUP("E",J26:BQ$86,$A$86-$A26+1,FALSE),0)</f>
         <v>40814</v>
       </c>
       <c r="H26" s="4" t="s">
@@ -3666,11 +3343,11 @@
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="4">
-        <f>IFERROR( HLOOKUP("BE",J27:BQ$85,$A$85-$A27+1,FALSE),0)+ IFERROR( HLOOKUP("B",J27:BQ$85,$A$85-$A27+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J27:BQ$86,$A$86-$A27+1,FALSE),0)+ IFERROR( HLOOKUP("B",J27:BQ$86,$A$86-$A27+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="G27" s="4">
-        <f>IFERROR( HLOOKUP("BE",J27:BQ$85,$A$85-$A27+1,FALSE),0)+ IFERROR( HLOOKUP("E",J27:BQ$85,$A$85-$A27+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J27:BQ$86,$A$86-$A27+1,FALSE),0)+ IFERROR( HLOOKUP("E",J27:BQ$86,$A$86-$A27+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H27" s="4" t="s">
@@ -3755,11 +3432,11 @@
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="4">
-        <f>IFERROR( HLOOKUP("BE",J28:BQ$85,$A$85-$A28+1,FALSE),0)+ IFERROR( HLOOKUP("B",J28:BQ$85,$A$85-$A28+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J28:BQ$86,$A$86-$A28+1,FALSE),0)+ IFERROR( HLOOKUP("B",J28:BQ$86,$A$86-$A28+1,FALSE),0)</f>
         <v>40795</v>
       </c>
       <c r="G28" s="4">
-        <f>IFERROR( HLOOKUP("BE",J28:BQ$85,$A$85-$A28+1,FALSE),0)+ IFERROR( HLOOKUP("E",J28:BQ$85,$A$85-$A28+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J28:BQ$86,$A$86-$A28+1,FALSE),0)+ IFERROR( HLOOKUP("E",J28:BQ$86,$A$86-$A28+1,FALSE),0)</f>
         <v>40800</v>
       </c>
       <c r="H28" s="4" t="s">
@@ -3852,11 +3529,11 @@
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="4">
-        <f>IFERROR( HLOOKUP("BE",J29:BQ$85,$A$85-$A29+1,FALSE),0)+ IFERROR( HLOOKUP("B",J29:BQ$85,$A$85-$A29+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J29:BQ$86,$A$86-$A29+1,FALSE),0)+ IFERROR( HLOOKUP("B",J29:BQ$86,$A$86-$A29+1,FALSE),0)</f>
         <v>40780</v>
       </c>
       <c r="G29" s="4">
-        <f>IFERROR( HLOOKUP("BE",J29:BQ$85,$A$85-$A29+1,FALSE),0)+ IFERROR( HLOOKUP("E",J29:BQ$85,$A$85-$A29+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J29:BQ$86,$A$86-$A29+1,FALSE),0)+ IFERROR( HLOOKUP("E",J29:BQ$86,$A$86-$A29+1,FALSE),0)</f>
         <v>40780</v>
       </c>
       <c r="H29" s="4" t="s">
@@ -3943,11 +3620,11 @@
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="4">
-        <f>IFERROR( HLOOKUP("BE",J30:BQ$85,$A$85-$A30+1,FALSE),0)+ IFERROR( HLOOKUP("B",J30:BQ$85,$A$85-$A30+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J30:BQ$86,$A$86-$A30+1,FALSE),0)+ IFERROR( HLOOKUP("B",J30:BQ$86,$A$86-$A30+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="G30" s="4">
-        <f>IFERROR( HLOOKUP("BE",J30:BQ$85,$A$85-$A30+1,FALSE),0)+ IFERROR( HLOOKUP("E",J30:BQ$85,$A$85-$A30+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J30:BQ$86,$A$86-$A30+1,FALSE),0)+ IFERROR( HLOOKUP("E",J30:BQ$86,$A$86-$A30+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H30" s="4"/>
@@ -4026,11 +3703,11 @@
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="4">
-        <f>IFERROR( HLOOKUP("BE",J31:BQ$85,$A$85-$A31+1,FALSE),0)+ IFERROR( HLOOKUP("B",J31:BQ$85,$A$85-$A31+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J31:BQ$86,$A$86-$A31+1,FALSE),0)+ IFERROR( HLOOKUP("B",J31:BQ$86,$A$86-$A31+1,FALSE),0)</f>
         <v>40781</v>
       </c>
       <c r="G31" s="4">
-        <f>IFERROR( HLOOKUP("BE",J31:BQ$85,$A$85-$A31+1,FALSE),0)+ IFERROR( HLOOKUP("E",J31:BQ$85,$A$85-$A31+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J31:BQ$86,$A$86-$A31+1,FALSE),0)+ IFERROR( HLOOKUP("E",J31:BQ$86,$A$86-$A31+1,FALSE),0)</f>
         <v>40781</v>
       </c>
       <c r="H31" s="4" t="s">
@@ -4115,11 +3792,11 @@
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="4">
-        <f>IFERROR( HLOOKUP("BE",J32:BQ$85,$A$85-$A32+1,FALSE),0)+ IFERROR( HLOOKUP("B",J32:BQ$85,$A$85-$A32+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J32:BQ$86,$A$86-$A32+1,FALSE),0)+ IFERROR( HLOOKUP("B",J32:BQ$86,$A$86-$A32+1,FALSE),0)</f>
         <v>40781</v>
       </c>
       <c r="G32" s="4">
-        <f>IFERROR( HLOOKUP("BE",J32:BQ$85,$A$85-$A32+1,FALSE),0)+ IFERROR( HLOOKUP("E",J32:BQ$85,$A$85-$A32+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J32:BQ$86,$A$86-$A32+1,FALSE),0)+ IFERROR( HLOOKUP("E",J32:BQ$86,$A$86-$A32+1,FALSE),0)</f>
         <v>40784</v>
       </c>
       <c r="H32" s="4" t="s">
@@ -4208,11 +3885,11 @@
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="4">
-        <f>IFERROR( HLOOKUP("BE",J33:BQ$85,$A$85-$A33+1,FALSE),0)+ IFERROR( HLOOKUP("B",J33:BQ$85,$A$85-$A33+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J33:BQ$86,$A$86-$A33+1,FALSE),0)+ IFERROR( HLOOKUP("B",J33:BQ$86,$A$86-$A33+1,FALSE),0)</f>
         <v>40780</v>
       </c>
       <c r="G33" s="4">
-        <f>IFERROR( HLOOKUP("BE",J33:BQ$85,$A$85-$A33+1,FALSE),0)+ IFERROR( HLOOKUP("E",J33:BQ$85,$A$85-$A33+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J33:BQ$86,$A$86-$A33+1,FALSE),0)+ IFERROR( HLOOKUP("E",J33:BQ$86,$A$86-$A33+1,FALSE),0)</f>
         <v>40787</v>
       </c>
       <c r="H33" s="4" t="s">
@@ -4309,11 +3986,11 @@
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="4">
-        <f>IFERROR( HLOOKUP("BE",J34:BQ$85,$A$85-$A34+1,FALSE),0)+ IFERROR( HLOOKUP("B",J34:BQ$85,$A$85-$A34+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J34:BQ$86,$A$86-$A34+1,FALSE),0)+ IFERROR( HLOOKUP("B",J34:BQ$86,$A$86-$A34+1,FALSE),0)</f>
         <v>40826</v>
       </c>
       <c r="G34" s="4">
-        <f>IFERROR( HLOOKUP("BE",J34:BQ$85,$A$85-$A34+1,FALSE),0)+ IFERROR( HLOOKUP("E",J34:BQ$85,$A$85-$A34+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J34:BQ$86,$A$86-$A34+1,FALSE),0)+ IFERROR( HLOOKUP("E",J34:BQ$86,$A$86-$A34+1,FALSE),0)</f>
         <v>40828</v>
       </c>
       <c r="H34" s="4" t="s">
@@ -4404,11 +4081,11 @@
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="4">
-        <f>IFERROR( HLOOKUP("BE",J35:BQ$85,$A$85-$A35+1,FALSE),0)+ IFERROR( HLOOKUP("B",J35:BQ$85,$A$85-$A35+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J35:BQ$86,$A$86-$A35+1,FALSE),0)+ IFERROR( HLOOKUP("B",J35:BQ$86,$A$86-$A35+1,FALSE),0)</f>
         <v>40791</v>
       </c>
       <c r="G35" s="4">
-        <f>IFERROR( HLOOKUP("BE",J35:BQ$85,$A$85-$A35+1,FALSE),0)+ IFERROR( HLOOKUP("E",J35:BQ$85,$A$85-$A35+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J35:BQ$86,$A$86-$A35+1,FALSE),0)+ IFERROR( HLOOKUP("E",J35:BQ$86,$A$86-$A35+1,FALSE),0)</f>
         <v>40792</v>
       </c>
       <c r="H35" s="4" t="s">
@@ -4487,7 +4164,7 @@
         <v>27</v>
       </c>
       <c r="B36" s="3"/>
-      <c r="C36" s="33" t="s">
+      <c r="C36" s="32" t="s">
         <v>82</v>
       </c>
       <c r="D36" s="3" t="s">
@@ -4495,11 +4172,11 @@
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="4">
-        <f>IFERROR( HLOOKUP("BE",J36:BQ$85,$A$85-$A36+1,FALSE),0)+ IFERROR( HLOOKUP("B",J36:BQ$85,$A$85-$A36+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J36:BQ$86,$A$86-$A36+1,FALSE),0)+ IFERROR( HLOOKUP("B",J36:BQ$86,$A$86-$A36+1,FALSE),0)</f>
         <v>40812</v>
       </c>
       <c r="G36" s="4">
-        <f>IFERROR( HLOOKUP("BE",J36:BQ$85,$A$85-$A36+1,FALSE),0)+ IFERROR( HLOOKUP("E",J36:BQ$85,$A$85-$A36+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J36:BQ$86,$A$86-$A36+1,FALSE),0)+ IFERROR( HLOOKUP("E",J36:BQ$86,$A$86-$A36+1,FALSE),0)</f>
         <v>40816</v>
       </c>
       <c r="H36" s="4" t="s">
@@ -4584,25 +4261,27 @@
         <v>28</v>
       </c>
       <c r="B37" s="3"/>
-      <c r="C37" s="31" t="s">
-        <v>84</v>
+      <c r="C37" s="32" t="s">
+        <v>132</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="4">
-        <f>IFERROR( HLOOKUP("BE",J37:BQ$85,$A$85-$A37+1,FALSE),0)+ IFERROR( HLOOKUP("B",J37:BQ$85,$A$85-$A37+1,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR( HLOOKUP("BE",J37:BQ$86,$A$86-$A37+1,FALSE),0)+ IFERROR( HLOOKUP("B",J37:BQ$86,$A$86-$A37+1,FALSE),0)</f>
+        <v>40815</v>
       </c>
       <c r="G37" s="4">
-        <f>IFERROR( HLOOKUP("BE",J37:BQ$85,$A$85-$A37+1,FALSE),0)+ IFERROR( HLOOKUP("E",J37:BQ$85,$A$85-$A37+1,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR( HLOOKUP("BE",J37:BQ$86,$A$86-$A37+1,FALSE),0)+ IFERROR( HLOOKUP("E",J37:BQ$86,$A$86-$A37+1,FALSE),0)</f>
+        <v>40815</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="I37" s="3"/>
+        <v>68</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>109</v>
+      </c>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="17"/>
@@ -4638,7 +4317,9 @@
       <c r="AP37" s="1"/>
       <c r="AQ37" s="1"/>
       <c r="AR37" s="1"/>
-      <c r="AS37" s="1"/>
+      <c r="AS37" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="AT37" s="1"/>
       <c r="AU37" s="17"/>
       <c r="AV37" s="17"/>
@@ -4669,27 +4350,17 @@
         <v>29</v>
       </c>
       <c r="B38" s="3"/>
-      <c r="C38" s="34" t="s">
-        <v>101</v>
+      <c r="C38" s="31" t="s">
+        <v>84</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E38" s="3"/>
-      <c r="F38" s="4">
-        <f>IFERROR( HLOOKUP("BE",J38:BQ$85,$A$85-$A38+1,FALSE),0)+ IFERROR( HLOOKUP("B",J38:BQ$85,$A$85-$A38+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="G38" s="4">
-        <f>IFERROR( HLOOKUP("BE",J38:BQ$85,$A$85-$A38+1,FALSE),0)+ IFERROR( HLOOKUP("E",J38:BQ$85,$A$85-$A38+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H38" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="I38" s="3" t="s">
-        <v>83</v>
-      </c>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="3"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="17"/>
@@ -4756,26 +4427,26 @@
         <v>30</v>
       </c>
       <c r="B39" s="3"/>
-      <c r="C39" s="34" t="s">
-        <v>85</v>
+      <c r="C39" s="33" t="s">
+        <v>101</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="4">
-        <f>IFERROR( HLOOKUP("BE",J39:BQ$85,$A$85-$A39+1,FALSE),0)+ IFERROR( HLOOKUP("B",J39:BQ$85,$A$85-$A39+1,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR( HLOOKUP("BE",J39:BQ$86,$A$86-$A39+1,FALSE),0)+ IFERROR( HLOOKUP("B",J39:BQ$86,$A$86-$A39+1,FALSE),0)</f>
+        <v>40813</v>
       </c>
       <c r="G39" s="4">
-        <f>IFERROR( HLOOKUP("BE",J39:BQ$85,$A$85-$A39+1,FALSE),0)+ IFERROR( HLOOKUP("E",J39:BQ$85,$A$85-$A39+1,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR( HLOOKUP("BE",J39:BQ$86,$A$86-$A39+1,FALSE),0)+ IFERROR( HLOOKUP("E",J39:BQ$86,$A$86-$A39+1,FALSE),0)</f>
+        <v>40813</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
@@ -4810,7 +4481,9 @@
       <c r="AN39" s="17"/>
       <c r="AO39" s="17"/>
       <c r="AP39" s="1"/>
-      <c r="AQ39" s="1"/>
+      <c r="AQ39" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="AR39" s="1"/>
       <c r="AS39" s="1"/>
       <c r="AT39" s="1"/>
@@ -4843,26 +4516,26 @@
         <v>31</v>
       </c>
       <c r="B40" s="3"/>
-      <c r="C40" s="34" t="s">
-        <v>87</v>
+      <c r="C40" s="33" t="s">
+        <v>85</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="4">
-        <f>IFERROR( HLOOKUP("BE",J40:BQ$85,$A$85-$A40+1,FALSE),0)+ IFERROR( HLOOKUP("B",J40:BQ$85,$A$85-$A40+1,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR( HLOOKUP("BE",J40:BQ$86,$A$86-$A40+1,FALSE),0)+ IFERROR( HLOOKUP("B",J40:BQ$86,$A$86-$A40+1,FALSE),0)</f>
+        <v>40814</v>
       </c>
       <c r="G40" s="4">
-        <f>IFERROR( HLOOKUP("BE",J40:BQ$85,$A$85-$A40+1,FALSE),0)+ IFERROR( HLOOKUP("E",J40:BQ$85,$A$85-$A40+1,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR( HLOOKUP("BE",J40:BQ$86,$A$86-$A40+1,FALSE),0)+ IFERROR( HLOOKUP("E",J40:BQ$86,$A$86-$A40+1,FALSE),0)</f>
+        <v>40814</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
@@ -4898,7 +4571,9 @@
       <c r="AO40" s="17"/>
       <c r="AP40" s="1"/>
       <c r="AQ40" s="1"/>
-      <c r="AR40" s="1"/>
+      <c r="AR40" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="AS40" s="1"/>
       <c r="AT40" s="1"/>
       <c r="AU40" s="17"/>
@@ -4930,19 +4605,19 @@
         <v>32</v>
       </c>
       <c r="B41" s="3"/>
-      <c r="C41" s="34" t="s">
-        <v>89</v>
+      <c r="C41" s="33" t="s">
+        <v>87</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="4">
-        <f>IFERROR( HLOOKUP("BE",J41:BQ$85,$A$85-$A41+1,FALSE),0)+ IFERROR( HLOOKUP("B",J41:BQ$85,$A$85-$A41+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J41:BQ$86,$A$86-$A41+1,FALSE),0)+ IFERROR( HLOOKUP("B",J41:BQ$86,$A$86-$A41+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="G41" s="4">
-        <f>IFERROR( HLOOKUP("BE",J41:BQ$85,$A$85-$A41+1,FALSE),0)+ IFERROR( HLOOKUP("E",J41:BQ$85,$A$85-$A41+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J41:BQ$86,$A$86-$A41+1,FALSE),0)+ IFERROR( HLOOKUP("E",J41:BQ$86,$A$86-$A41+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H41" s="4" t="s">
@@ -5017,26 +4692,26 @@
         <v>33</v>
       </c>
       <c r="B42" s="3"/>
-      <c r="C42" s="34" t="s">
-        <v>90</v>
+      <c r="C42" s="33" t="s">
+        <v>89</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="4">
-        <f>IFERROR( HLOOKUP("BE",J42:BQ$85,$A$85-$A42+1,FALSE),0)+ IFERROR( HLOOKUP("B",J42:BQ$85,$A$85-$A42+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J42:BQ$86,$A$86-$A42+1,FALSE),0)+ IFERROR( HLOOKUP("B",J42:BQ$86,$A$86-$A42+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="G42" s="4">
-        <f>IFERROR( HLOOKUP("BE",J42:BQ$85,$A$85-$A42+1,FALSE),0)+ IFERROR( HLOOKUP("E",J42:BQ$85,$A$85-$A42+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J42:BQ$86,$A$86-$A42+1,FALSE),0)+ IFERROR( HLOOKUP("E",J42:BQ$86,$A$86-$A42+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H42" s="4" t="s">
         <v>66</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
@@ -5104,20 +4779,20 @@
         <v>34</v>
       </c>
       <c r="B43" s="3"/>
-      <c r="C43" s="34" t="s">
-        <v>92</v>
+      <c r="C43" s="33" t="s">
+        <v>90</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="4">
-        <f>IFERROR( HLOOKUP("BE",J43:BQ$85,$A$85-$A43+1,FALSE),0)+ IFERROR( HLOOKUP("B",J43:BQ$85,$A$85-$A43+1,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR( HLOOKUP("BE",J43:BQ$86,$A$86-$A43+1,FALSE),0)+ IFERROR( HLOOKUP("B",J43:BQ$86,$A$86-$A43+1,FALSE),0)</f>
+        <v>40819</v>
       </c>
       <c r="G43" s="4">
-        <f>IFERROR( HLOOKUP("BE",J43:BQ$85,$A$85-$A43+1,FALSE),0)+ IFERROR( HLOOKUP("E",J43:BQ$85,$A$85-$A43+1,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR( HLOOKUP("BE",J43:BQ$86,$A$86-$A43+1,FALSE),0)+ IFERROR( HLOOKUP("E",J43:BQ$86,$A$86-$A43+1,FALSE),0)</f>
+        <v>40821</v>
       </c>
       <c r="H43" s="4" t="s">
         <v>66</v>
@@ -5164,9 +4839,15 @@
       <c r="AT43" s="1"/>
       <c r="AU43" s="17"/>
       <c r="AV43" s="17"/>
-      <c r="AW43" s="1"/>
-      <c r="AX43" s="1"/>
-      <c r="AY43" s="1"/>
+      <c r="AW43" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AX43" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AY43" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="AZ43" s="1"/>
       <c r="BA43" s="1"/>
       <c r="BB43" s="17"/>
@@ -5191,19 +4872,19 @@
         <v>35</v>
       </c>
       <c r="B44" s="3"/>
-      <c r="C44" s="34" t="s">
-        <v>93</v>
+      <c r="C44" s="33" t="s">
+        <v>92</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="4">
-        <f>IFERROR( HLOOKUP("BE",J44:BQ$85,$A$85-$A44+1,FALSE),0)+ IFERROR( HLOOKUP("B",J44:BQ$85,$A$85-$A44+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J44:BQ$86,$A$86-$A44+1,FALSE),0)+ IFERROR( HLOOKUP("B",J44:BQ$86,$A$86-$A44+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="G44" s="4">
-        <f>IFERROR( HLOOKUP("BE",J44:BQ$85,$A$85-$A44+1,FALSE),0)+ IFERROR( HLOOKUP("E",J44:BQ$85,$A$85-$A44+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J44:BQ$86,$A$86-$A44+1,FALSE),0)+ IFERROR( HLOOKUP("E",J44:BQ$86,$A$86-$A44+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H44" s="4" t="s">
@@ -5278,24 +4959,26 @@
         <v>36</v>
       </c>
       <c r="B45" s="3"/>
-      <c r="C45" s="34" t="s">
-        <v>94</v>
+      <c r="C45" s="33" t="s">
+        <v>93</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="4">
-        <f>IFERROR( HLOOKUP("BE",J45:BQ$85,$A$85-$A45+1,FALSE),0)+ IFERROR( HLOOKUP("B",J45:BQ$85,$A$85-$A45+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J45:BQ$86,$A$86-$A45+1,FALSE),0)+ IFERROR( HLOOKUP("B",J45:BQ$86,$A$86-$A45+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="G45" s="4">
-        <f>IFERROR( HLOOKUP("BE",J45:BQ$85,$A$85-$A45+1,FALSE),0)+ IFERROR( HLOOKUP("E",J45:BQ$85,$A$85-$A45+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J45:BQ$86,$A$86-$A45+1,FALSE),0)+ IFERROR( HLOOKUP("E",J45:BQ$86,$A$86-$A45+1,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="H45" s="4"/>
+      <c r="H45" s="4" t="s">
+        <v>66</v>
+      </c>
       <c r="I45" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
@@ -5363,26 +5046,24 @@
         <v>37</v>
       </c>
       <c r="B46" s="3"/>
-      <c r="C46" s="34" t="s">
-        <v>96</v>
+      <c r="C46" s="33" t="s">
+        <v>94</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E46" s="3"/>
       <c r="F46" s="4">
-        <f>IFERROR( HLOOKUP("BE",J46:BQ$85,$A$85-$A46+1,FALSE),0)+ IFERROR( HLOOKUP("B",J46:BQ$85,$A$85-$A46+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J46:BQ$86,$A$86-$A46+1,FALSE),0)+ IFERROR( HLOOKUP("B",J46:BQ$86,$A$86-$A46+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="G46" s="4">
-        <f>IFERROR( HLOOKUP("BE",J46:BQ$85,$A$85-$A46+1,FALSE),0)+ IFERROR( HLOOKUP("E",J46:BQ$85,$A$85-$A46+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J46:BQ$86,$A$86-$A46+1,FALSE),0)+ IFERROR( HLOOKUP("E",J46:BQ$86,$A$86-$A46+1,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="H46" s="4" t="s">
-        <v>66</v>
-      </c>
+      <c r="H46" s="4"/>
       <c r="I46" s="3" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
@@ -5450,23 +5131,23 @@
         <v>38</v>
       </c>
       <c r="B47" s="3"/>
-      <c r="C47" s="34" t="s">
-        <v>97</v>
+      <c r="C47" s="33" t="s">
+        <v>96</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>98</v>
+        <v>19</v>
       </c>
       <c r="E47" s="3"/>
       <c r="F47" s="4">
-        <f>IFERROR( HLOOKUP("BE",J47:BQ$85,$A$85-$A47+1,FALSE),0)+ IFERROR( HLOOKUP("B",J47:BQ$85,$A$85-$A47+1,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR( HLOOKUP("BE",J47:BQ$86,$A$86-$A47+1,FALSE),0)+ IFERROR( HLOOKUP("B",J47:BQ$86,$A$86-$A47+1,FALSE),0)</f>
+        <v>40815</v>
       </c>
       <c r="G47" s="4">
-        <f>IFERROR( HLOOKUP("BE",J47:BQ$85,$A$85-$A47+1,FALSE),0)+ IFERROR( HLOOKUP("E",J47:BQ$85,$A$85-$A47+1,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR( HLOOKUP("BE",J47:BQ$86,$A$86-$A47+1,FALSE),0)+ IFERROR( HLOOKUP("E",J47:BQ$86,$A$86-$A47+1,FALSE),0)</f>
+        <v>40816</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>91</v>
@@ -5506,8 +5187,12 @@
       <c r="AP47" s="1"/>
       <c r="AQ47" s="1"/>
       <c r="AR47" s="1"/>
-      <c r="AS47" s="1"/>
-      <c r="AT47" s="1"/>
+      <c r="AS47" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AT47" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="AU47" s="17"/>
       <c r="AV47" s="17"/>
       <c r="AW47" s="1"/>
@@ -5537,26 +5222,26 @@
         <v>39</v>
       </c>
       <c r="B48" s="3"/>
-      <c r="C48" s="34" t="s">
-        <v>99</v>
+      <c r="C48" s="33" t="s">
+        <v>97</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>19</v>
+        <v>98</v>
       </c>
       <c r="E48" s="3"/>
       <c r="F48" s="4">
-        <f>IFERROR( HLOOKUP("BE",J48:BQ$85,$A$85-$A48+1,FALSE),0)+ IFERROR( HLOOKUP("B",J48:BQ$85,$A$85-$A48+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J48:BQ$86,$A$86-$A48+1,FALSE),0)+ IFERROR( HLOOKUP("B",J48:BQ$86,$A$86-$A48+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="G48" s="4">
-        <f>IFERROR( HLOOKUP("BE",J48:BQ$85,$A$85-$A48+1,FALSE),0)+ IFERROR( HLOOKUP("E",J48:BQ$85,$A$85-$A48+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J48:BQ$86,$A$86-$A48+1,FALSE),0)+ IFERROR( HLOOKUP("E",J48:BQ$86,$A$86-$A48+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H48" s="4" t="s">
         <v>66</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
@@ -5624,15 +5309,27 @@
         <v>40</v>
       </c>
       <c r="B49" s="3"/>
-      <c r="C49" s="31" t="s">
-        <v>100</v>
-      </c>
-      <c r="D49" s="3"/>
+      <c r="C49" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="E49" s="3"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
-      <c r="H49" s="4"/>
-      <c r="I49" s="3"/>
+      <c r="F49" s="4">
+        <f>IFERROR( HLOOKUP("BE",J49:BQ$86,$A$86-$A49+1,FALSE),0)+ IFERROR( HLOOKUP("B",J49:BQ$86,$A$86-$A49+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="G49" s="4">
+        <f>IFERROR( HLOOKUP("BE",J49:BQ$86,$A$86-$A49+1,FALSE),0)+ IFERROR( HLOOKUP("E",J49:BQ$86,$A$86-$A49+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>95</v>
+      </c>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
       <c r="L49" s="17"/>
@@ -5699,27 +5396,15 @@
         <v>41</v>
       </c>
       <c r="B50" s="3"/>
-      <c r="C50" s="34" t="s">
-        <v>102</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>19</v>
-      </c>
+      <c r="C50" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="D50" s="3"/>
       <c r="E50" s="3"/>
-      <c r="F50" s="4">
-        <f>IFERROR( HLOOKUP("BE",J50:BQ$85,$A$85-$A50+1,FALSE),0)+ IFERROR( HLOOKUP("B",J50:BQ$85,$A$85-$A50+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="G50" s="4">
-        <f>IFERROR( HLOOKUP("BE",J50:BQ$85,$A$85-$A50+1,FALSE),0)+ IFERROR( HLOOKUP("E",J50:BQ$85,$A$85-$A50+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H50" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="I50" s="3" t="s">
-        <v>83</v>
-      </c>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="3"/>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
       <c r="L50" s="17"/>
@@ -5786,23 +5471,23 @@
         <v>42</v>
       </c>
       <c r="B51" s="3"/>
-      <c r="C51" s="34" t="s">
-        <v>103</v>
+      <c r="C51" s="33" t="s">
+        <v>102</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E51" s="3"/>
       <c r="F51" s="4">
-        <f>IFERROR( HLOOKUP("BE",J51:BQ$85,$A$85-$A51+1,FALSE),0)+ IFERROR( HLOOKUP("B",J51:BQ$85,$A$85-$A51+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J51:BQ$86,$A$86-$A51+1,FALSE),0)+ IFERROR( HLOOKUP("B",J51:BQ$86,$A$86-$A51+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="G51" s="4">
-        <f>IFERROR( HLOOKUP("BE",J51:BQ$85,$A$85-$A51+1,FALSE),0)+ IFERROR( HLOOKUP("E",J51:BQ$85,$A$85-$A51+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J51:BQ$86,$A$86-$A51+1,FALSE),0)+ IFERROR( HLOOKUP("E",J51:BQ$86,$A$86-$A51+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I51" s="3" t="s">
         <v>83</v>
@@ -5873,19 +5558,19 @@
         <v>43</v>
       </c>
       <c r="B52" s="3"/>
-      <c r="C52" s="34" t="s">
-        <v>104</v>
+      <c r="C52" s="33" t="s">
+        <v>103</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E52" s="3"/>
       <c r="F52" s="4">
-        <f>IFERROR( HLOOKUP("BE",J52:BQ$85,$A$85-$A52+1,FALSE),0)+ IFERROR( HLOOKUP("B",J52:BQ$85,$A$85-$A52+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J52:BQ$86,$A$86-$A52+1,FALSE),0)+ IFERROR( HLOOKUP("B",J52:BQ$86,$A$86-$A52+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="G52" s="4">
-        <f>IFERROR( HLOOKUP("BE",J52:BQ$85,$A$85-$A52+1,FALSE),0)+ IFERROR( HLOOKUP("E",J52:BQ$85,$A$85-$A52+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J52:BQ$86,$A$86-$A52+1,FALSE),0)+ IFERROR( HLOOKUP("E",J52:BQ$86,$A$86-$A52+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H52" s="4" t="s">
@@ -5960,22 +5645,24 @@
         <v>44</v>
       </c>
       <c r="B53" s="3"/>
-      <c r="C53" s="34" t="s">
-        <v>105</v>
+      <c r="C53" s="33" t="s">
+        <v>104</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E53" s="3"/>
       <c r="F53" s="4">
-        <f>IFERROR( HLOOKUP("BE",J53:BQ$85,$A$85-$A53+1,FALSE),0)+ IFERROR( HLOOKUP("B",J53:BQ$85,$A$85-$A53+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J53:BQ$86,$A$86-$A53+1,FALSE),0)+ IFERROR( HLOOKUP("B",J53:BQ$86,$A$86-$A53+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="G53" s="4">
-        <f>IFERROR( HLOOKUP("BE",J53:BQ$85,$A$85-$A53+1,FALSE),0)+ IFERROR( HLOOKUP("E",J53:BQ$85,$A$85-$A53+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J53:BQ$86,$A$86-$A53+1,FALSE),0)+ IFERROR( HLOOKUP("E",J53:BQ$86,$A$86-$A53+1,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="H53" s="4"/>
+      <c r="H53" s="4" t="s">
+        <v>66</v>
+      </c>
       <c r="I53" s="3" t="s">
         <v>83</v>
       </c>
@@ -6045,22 +5732,24 @@
         <v>45</v>
       </c>
       <c r="B54" s="3"/>
-      <c r="C54" s="34" t="s">
-        <v>106</v>
+      <c r="C54" s="33" t="s">
+        <v>105</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E54" s="3"/>
       <c r="F54" s="4">
-        <f>IFERROR( HLOOKUP("BE",J54:BQ$85,$A$85-$A54+1,FALSE),0)+ IFERROR( HLOOKUP("B",J54:BQ$85,$A$85-$A54+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J54:BQ$86,$A$86-$A54+1,FALSE),0)+ IFERROR( HLOOKUP("B",J54:BQ$86,$A$86-$A54+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="G54" s="4">
-        <f>IFERROR( HLOOKUP("BE",J54:BQ$85,$A$85-$A54+1,FALSE),0)+ IFERROR( HLOOKUP("E",J54:BQ$85,$A$85-$A54+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J54:BQ$86,$A$86-$A54+1,FALSE),0)+ IFERROR( HLOOKUP("E",J54:BQ$86,$A$86-$A54+1,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="H54" s="4"/>
+      <c r="H54" s="4" t="s">
+        <v>66</v>
+      </c>
       <c r="I54" s="3" t="s">
         <v>83</v>
       </c>
@@ -6130,22 +5819,24 @@
         <v>46</v>
       </c>
       <c r="B55" s="3"/>
-      <c r="C55" s="34" t="s">
-        <v>107</v>
+      <c r="C55" s="33" t="s">
+        <v>106</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E55" s="3"/>
       <c r="F55" s="4">
-        <f>IFERROR( HLOOKUP("BE",J55:BQ$85,$A$85-$A55+1,FALSE),0)+ IFERROR( HLOOKUP("B",J55:BQ$85,$A$85-$A55+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J55:BQ$86,$A$86-$A55+1,FALSE),0)+ IFERROR( HLOOKUP("B",J55:BQ$86,$A$86-$A55+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="G55" s="4">
-        <f>IFERROR( HLOOKUP("BE",J55:BQ$85,$A$85-$A55+1,FALSE),0)+ IFERROR( HLOOKUP("E",J55:BQ$85,$A$85-$A55+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J55:BQ$86,$A$86-$A55+1,FALSE),0)+ IFERROR( HLOOKUP("E",J55:BQ$86,$A$86-$A55+1,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="H55" s="4"/>
+      <c r="H55" s="4" t="s">
+        <v>66</v>
+      </c>
       <c r="I55" s="3" t="s">
         <v>83</v>
       </c>
@@ -6215,22 +5906,24 @@
         <v>47</v>
       </c>
       <c r="B56" s="3"/>
-      <c r="C56" s="34" t="s">
-        <v>108</v>
+      <c r="C56" s="33" t="s">
+        <v>107</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E56" s="3"/>
       <c r="F56" s="4">
-        <f>IFERROR( HLOOKUP("BE",J56:BQ$85,$A$85-$A56+1,FALSE),0)+ IFERROR( HLOOKUP("B",J56:BQ$85,$A$85-$A56+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J56:BQ$86,$A$86-$A56+1,FALSE),0)+ IFERROR( HLOOKUP("B",J56:BQ$86,$A$86-$A56+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="G56" s="4">
-        <f>IFERROR( HLOOKUP("BE",J56:BQ$85,$A$85-$A56+1,FALSE),0)+ IFERROR( HLOOKUP("E",J56:BQ$85,$A$85-$A56+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J56:BQ$86,$A$86-$A56+1,FALSE),0)+ IFERROR( HLOOKUP("E",J56:BQ$86,$A$86-$A56+1,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="H56" s="4"/>
+      <c r="H56" s="4" t="s">
+        <v>66</v>
+      </c>
       <c r="I56" s="3" t="s">
         <v>83</v>
       </c>
@@ -6300,21 +5993,27 @@
         <v>48</v>
       </c>
       <c r="B57" s="3"/>
-      <c r="C57" s="31" t="s">
-        <v>110</v>
-      </c>
-      <c r="D57" s="3"/>
+      <c r="C57" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="E57" s="3"/>
       <c r="F57" s="4">
-        <f>IFERROR( HLOOKUP("BE",J57:BQ$85,$A$85-$A57+1,FALSE),0)+ IFERROR( HLOOKUP("B",J57:BQ$85,$A$85-$A57+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J57:BQ$86,$A$86-$A57+1,FALSE),0)+ IFERROR( HLOOKUP("B",J57:BQ$86,$A$86-$A57+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="G57" s="4">
-        <f>IFERROR( HLOOKUP("BE",J57:BQ$85,$A$85-$A57+1,FALSE),0)+ IFERROR( HLOOKUP("E",J57:BQ$85,$A$85-$A57+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J57:BQ$86,$A$86-$A57+1,FALSE),0)+ IFERROR( HLOOKUP("E",J57:BQ$86,$A$86-$A57+1,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="H57" s="4"/>
-      <c r="I57" s="3"/>
+      <c r="H57" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>83</v>
+      </c>
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
       <c r="L57" s="17"/>
@@ -6381,27 +6080,21 @@
         <v>49</v>
       </c>
       <c r="B58" s="3"/>
-      <c r="C58" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>19</v>
-      </c>
+      <c r="C58" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="D58" s="3"/>
       <c r="E58" s="3"/>
       <c r="F58" s="4">
-        <f>IFERROR( HLOOKUP("BE",J58:BQ$85,$A$85-$A58+1,FALSE),0)+ IFERROR( HLOOKUP("B",J58:BQ$85,$A$85-$A58+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J58:BQ$86,$A$86-$A58+1,FALSE),0)+ IFERROR( HLOOKUP("B",J58:BQ$86,$A$86-$A58+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="G58" s="4">
-        <f>IFERROR( HLOOKUP("BE",J58:BQ$85,$A$85-$A58+1,FALSE),0)+ IFERROR( HLOOKUP("E",J58:BQ$85,$A$85-$A58+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J58:BQ$86,$A$86-$A58+1,FALSE),0)+ IFERROR( HLOOKUP("E",J58:BQ$86,$A$86-$A58+1,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="H58" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>83</v>
-      </c>
+      <c r="H58" s="4"/>
+      <c r="I58" s="3"/>
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
       <c r="L58" s="17"/>
@@ -6469,18 +6162,18 @@
       </c>
       <c r="B59" s="3"/>
       <c r="C59" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E59" s="3"/>
       <c r="F59" s="4">
-        <f>IFERROR( HLOOKUP("BE",J59:BQ$85,$A$85-$A59+1,FALSE),0)+ IFERROR( HLOOKUP("B",J59:BQ$85,$A$85-$A59+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J59:BQ$86,$A$86-$A59+1,FALSE),0)+ IFERROR( HLOOKUP("B",J59:BQ$86,$A$86-$A59+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="G59" s="4">
-        <f>IFERROR( HLOOKUP("BE",J59:BQ$85,$A$85-$A59+1,FALSE),0)+ IFERROR( HLOOKUP("E",J59:BQ$85,$A$85-$A59+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J59:BQ$86,$A$86-$A59+1,FALSE),0)+ IFERROR( HLOOKUP("E",J59:BQ$86,$A$86-$A59+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H59" s="4" t="s">
@@ -6556,18 +6249,18 @@
       </c>
       <c r="B60" s="3"/>
       <c r="C60" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E60" s="3"/>
       <c r="F60" s="4">
-        <f>IFERROR( HLOOKUP("BE",J60:BQ$85,$A$85-$A60+1,FALSE),0)+ IFERROR( HLOOKUP("B",J60:BQ$85,$A$85-$A60+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J60:BQ$86,$A$86-$A60+1,FALSE),0)+ IFERROR( HLOOKUP("B",J60:BQ$86,$A$86-$A60+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="G60" s="4">
-        <f>IFERROR( HLOOKUP("BE",J60:BQ$85,$A$85-$A60+1,FALSE),0)+ IFERROR( HLOOKUP("E",J60:BQ$85,$A$85-$A60+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J60:BQ$86,$A$86-$A60+1,FALSE),0)+ IFERROR( HLOOKUP("E",J60:BQ$86,$A$86-$A60+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H60" s="4" t="s">
@@ -6643,24 +6336,26 @@
       </c>
       <c r="B61" s="3"/>
       <c r="C61" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E61" s="3"/>
       <c r="F61" s="4">
-        <f>IFERROR( HLOOKUP("BE",J61:BQ$85,$A$85-$A61+1,FALSE),0)+ IFERROR( HLOOKUP("B",J61:BQ$85,$A$85-$A61+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J61:BQ$86,$A$86-$A61+1,FALSE),0)+ IFERROR( HLOOKUP("B",J61:BQ$86,$A$86-$A61+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="G61" s="4">
-        <f>IFERROR( HLOOKUP("BE",J61:BQ$85,$A$85-$A61+1,FALSE),0)+ IFERROR( HLOOKUP("E",J61:BQ$85,$A$85-$A61+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J61:BQ$86,$A$86-$A61+1,FALSE),0)+ IFERROR( HLOOKUP("E",J61:BQ$86,$A$86-$A61+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H61" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="I61" s="3"/>
+      <c r="I61" s="3" t="s">
+        <v>83</v>
+      </c>
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
       <c r="L61" s="17"/>
@@ -6728,18 +6423,18 @@
       </c>
       <c r="B62" s="3"/>
       <c r="C62" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E62" s="3"/>
       <c r="F62" s="4">
-        <f>IFERROR( HLOOKUP("BE",J62:BQ$85,$A$85-$A62+1,FALSE),0)+ IFERROR( HLOOKUP("B",J62:BQ$85,$A$85-$A62+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J62:BQ$86,$A$86-$A62+1,FALSE),0)+ IFERROR( HLOOKUP("B",J62:BQ$86,$A$86-$A62+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="G62" s="4">
-        <f>IFERROR( HLOOKUP("BE",J62:BQ$85,$A$85-$A62+1,FALSE),0)+ IFERROR( HLOOKUP("E",J62:BQ$85,$A$85-$A62+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J62:BQ$86,$A$86-$A62+1,FALSE),0)+ IFERROR( HLOOKUP("E",J62:BQ$86,$A$86-$A62+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H62" s="4" t="s">
@@ -6813,18 +6508,18 @@
       </c>
       <c r="B63" s="3"/>
       <c r="C63" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D63" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E63" s="3"/>
       <c r="F63" s="4">
-        <f>IFERROR( HLOOKUP("BE",J63:BQ$85,$A$85-$A63+1,FALSE),0)+ IFERROR( HLOOKUP("B",J63:BQ$85,$A$85-$A63+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J63:BQ$86,$A$86-$A63+1,FALSE),0)+ IFERROR( HLOOKUP("B",J63:BQ$86,$A$86-$A63+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="G63" s="4">
-        <f>IFERROR( HLOOKUP("BE",J63:BQ$85,$A$85-$A63+1,FALSE),0)+ IFERROR( HLOOKUP("E",J63:BQ$85,$A$85-$A63+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J63:BQ$86,$A$86-$A63+1,FALSE),0)+ IFERROR( HLOOKUP("E",J63:BQ$86,$A$86-$A63+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H63" s="4" t="s">
@@ -6898,18 +6593,18 @@
       </c>
       <c r="B64" s="3"/>
       <c r="C64" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D64" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E64" s="3"/>
       <c r="F64" s="4">
-        <f>IFERROR( HLOOKUP("BE",J64:BQ$85,$A$85-$A64+1,FALSE),0)+ IFERROR( HLOOKUP("B",J64:BQ$85,$A$85-$A64+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J64:BQ$86,$A$86-$A64+1,FALSE),0)+ IFERROR( HLOOKUP("B",J64:BQ$86,$A$86-$A64+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="G64" s="4">
-        <f>IFERROR( HLOOKUP("BE",J64:BQ$85,$A$85-$A64+1,FALSE),0)+ IFERROR( HLOOKUP("E",J64:BQ$85,$A$85-$A64+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J64:BQ$86,$A$86-$A64+1,FALSE),0)+ IFERROR( HLOOKUP("E",J64:BQ$86,$A$86-$A64+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H64" s="4" t="s">
@@ -6983,18 +6678,18 @@
       </c>
       <c r="B65" s="3"/>
       <c r="C65" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D65" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E65" s="3"/>
       <c r="F65" s="4">
-        <f>IFERROR( HLOOKUP("BE",J65:BQ$85,$A$85-$A65+1,FALSE),0)+ IFERROR( HLOOKUP("B",J65:BQ$85,$A$85-$A65+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J65:BQ$86,$A$86-$A65+1,FALSE),0)+ IFERROR( HLOOKUP("B",J65:BQ$86,$A$86-$A65+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="G65" s="4">
-        <f>IFERROR( HLOOKUP("BE",J65:BQ$85,$A$85-$A65+1,FALSE),0)+ IFERROR( HLOOKUP("E",J65:BQ$85,$A$85-$A65+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J65:BQ$86,$A$86-$A65+1,FALSE),0)+ IFERROR( HLOOKUP("E",J65:BQ$86,$A$86-$A65+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H65" s="4" t="s">
@@ -7067,20 +6762,24 @@
         <v>57</v>
       </c>
       <c r="B66" s="3"/>
-      <c r="C66" s="31" t="s">
-        <v>119</v>
-      </c>
-      <c r="D66" s="3"/>
+      <c r="C66" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="E66" s="3"/>
       <c r="F66" s="4">
-        <f>IFERROR( HLOOKUP("BE",J66:BQ$85,$A$85-$A66+1,FALSE),0)+ IFERROR( HLOOKUP("B",J66:BQ$85,$A$85-$A66+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J66:BQ$86,$A$86-$A66+1,FALSE),0)+ IFERROR( HLOOKUP("B",J66:BQ$86,$A$86-$A66+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="G66" s="4">
-        <f>IFERROR( HLOOKUP("BE",J66:BQ$85,$A$85-$A66+1,FALSE),0)+ IFERROR( HLOOKUP("E",J66:BQ$85,$A$85-$A66+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J66:BQ$86,$A$86-$A66+1,FALSE),0)+ IFERROR( HLOOKUP("E",J66:BQ$86,$A$86-$A66+1,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="H66" s="4"/>
+      <c r="H66" s="4" t="s">
+        <v>66</v>
+      </c>
       <c r="I66" s="3"/>
       <c r="J66" s="1"/>
       <c r="K66" s="1"/>
@@ -7148,24 +6847,20 @@
         <v>58</v>
       </c>
       <c r="B67" s="3"/>
-      <c r="C67" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>19</v>
-      </c>
+      <c r="C67" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="D67" s="3"/>
       <c r="E67" s="3"/>
       <c r="F67" s="4">
-        <f>IFERROR( HLOOKUP("BE",J67:BQ$85,$A$85-$A67+1,FALSE),0)+ IFERROR( HLOOKUP("B",J67:BQ$85,$A$85-$A67+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J67:BQ$86,$A$86-$A67+1,FALSE),0)+ IFERROR( HLOOKUP("B",J67:BQ$86,$A$86-$A67+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="G67" s="4">
-        <f>IFERROR( HLOOKUP("BE",J67:BQ$85,$A$85-$A67+1,FALSE),0)+ IFERROR( HLOOKUP("E",J67:BQ$85,$A$85-$A67+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J67:BQ$86,$A$86-$A67+1,FALSE),0)+ IFERROR( HLOOKUP("E",J67:BQ$86,$A$86-$A67+1,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="H67" s="4" t="s">
-        <v>66</v>
-      </c>
+      <c r="H67" s="4"/>
       <c r="I67" s="3"/>
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
@@ -7234,18 +6929,18 @@
       </c>
       <c r="B68" s="3"/>
       <c r="C68" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E68" s="3"/>
       <c r="F68" s="4">
-        <f>IFERROR( HLOOKUP("BE",J68:BQ$85,$A$85-$A68+1,FALSE),0)+ IFERROR( HLOOKUP("B",J68:BQ$85,$A$85-$A68+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J68:BQ$86,$A$86-$A68+1,FALSE),0)+ IFERROR( HLOOKUP("B",J68:BQ$86,$A$86-$A68+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="G68" s="4">
-        <f>IFERROR( HLOOKUP("BE",J68:BQ$85,$A$85-$A68+1,FALSE),0)+ IFERROR( HLOOKUP("E",J68:BQ$85,$A$85-$A68+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J68:BQ$86,$A$86-$A68+1,FALSE),0)+ IFERROR( HLOOKUP("E",J68:BQ$86,$A$86-$A68+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H68" s="4" t="s">
@@ -7319,18 +7014,18 @@
       </c>
       <c r="B69" s="3"/>
       <c r="C69" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D69" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E69" s="3"/>
       <c r="F69" s="4">
-        <f>IFERROR( HLOOKUP("BE",J69:BQ$85,$A$85-$A69+1,FALSE),0)+ IFERROR( HLOOKUP("B",J69:BQ$85,$A$85-$A69+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J69:BQ$86,$A$86-$A69+1,FALSE),0)+ IFERROR( HLOOKUP("B",J69:BQ$86,$A$86-$A69+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="G69" s="4">
-        <f>IFERROR( HLOOKUP("BE",J69:BQ$85,$A$85-$A69+1,FALSE),0)+ IFERROR( HLOOKUP("E",J69:BQ$85,$A$85-$A69+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J69:BQ$86,$A$86-$A69+1,FALSE),0)+ IFERROR( HLOOKUP("E",J69:BQ$86,$A$86-$A69+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H69" s="4" t="s">
@@ -7404,18 +7099,18 @@
       </c>
       <c r="B70" s="3"/>
       <c r="C70" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D70" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E70" s="3"/>
       <c r="F70" s="4">
-        <f>IFERROR( HLOOKUP("BE",J70:BQ$85,$A$85-$A70+1,FALSE),0)+ IFERROR( HLOOKUP("B",J70:BQ$85,$A$85-$A70+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J70:BQ$86,$A$86-$A70+1,FALSE),0)+ IFERROR( HLOOKUP("B",J70:BQ$86,$A$86-$A70+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="G70" s="4">
-        <f>IFERROR( HLOOKUP("BE",J70:BQ$85,$A$85-$A70+1,FALSE),0)+ IFERROR( HLOOKUP("E",J70:BQ$85,$A$85-$A70+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J70:BQ$86,$A$86-$A70+1,FALSE),0)+ IFERROR( HLOOKUP("E",J70:BQ$86,$A$86-$A70+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H70" s="4" t="s">
@@ -7489,18 +7184,18 @@
       </c>
       <c r="B71" s="3"/>
       <c r="C71" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D71" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E71" s="3"/>
       <c r="F71" s="4">
-        <f>IFERROR( HLOOKUP("BE",J71:BQ$85,$A$85-$A71+1,FALSE),0)+ IFERROR( HLOOKUP("B",J71:BQ$85,$A$85-$A71+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J71:BQ$86,$A$86-$A71+1,FALSE),0)+ IFERROR( HLOOKUP("B",J71:BQ$86,$A$86-$A71+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="G71" s="4">
-        <f>IFERROR( HLOOKUP("BE",J71:BQ$85,$A$85-$A71+1,FALSE),0)+ IFERROR( HLOOKUP("E",J71:BQ$85,$A$85-$A71+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J71:BQ$86,$A$86-$A71+1,FALSE),0)+ IFERROR( HLOOKUP("E",J71:BQ$86,$A$86-$A71+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H71" s="4" t="s">
@@ -7573,14 +7268,24 @@
         <v>63</v>
       </c>
       <c r="B72" s="3"/>
-      <c r="C72" s="23" t="s">
-        <v>125</v>
-      </c>
-      <c r="D72" s="3"/>
+      <c r="C72" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="E72" s="3"/>
-      <c r="F72" s="4"/>
-      <c r="G72" s="4"/>
-      <c r="H72" s="4"/>
+      <c r="F72" s="4">
+        <f>IFERROR( HLOOKUP("BE",J72:BQ$86,$A$86-$A72+1,FALSE),0)+ IFERROR( HLOOKUP("B",J72:BQ$86,$A$86-$A72+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="G72" s="4">
+        <f>IFERROR( HLOOKUP("BE",J72:BQ$86,$A$86-$A72+1,FALSE),0)+ IFERROR( HLOOKUP("E",J72:BQ$86,$A$86-$A72+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H72" s="4" t="s">
+        <v>66</v>
+      </c>
       <c r="I72" s="3"/>
       <c r="J72" s="1"/>
       <c r="K72" s="1"/>
@@ -7648,24 +7353,14 @@
         <v>64</v>
       </c>
       <c r="B73" s="3"/>
-      <c r="C73" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>19</v>
-      </c>
+      <c r="C73" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="D73" s="3"/>
       <c r="E73" s="3"/>
-      <c r="F73" s="4">
-        <f>IFERROR( HLOOKUP("BE",J73:BQ$85,$A$85-$A73+1,FALSE),0)+ IFERROR( HLOOKUP("B",J73:BQ$85,$A$85-$A73+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="G73" s="4">
-        <f>IFERROR( HLOOKUP("BE",J73:BQ$85,$A$85-$A73+1,FALSE),0)+ IFERROR( HLOOKUP("E",J73:BQ$85,$A$85-$A73+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H73" s="4" t="s">
-        <v>66</v>
-      </c>
+      <c r="F73" s="4"/>
+      <c r="G73" s="4"/>
+      <c r="H73" s="4"/>
       <c r="I73" s="3"/>
       <c r="J73" s="1"/>
       <c r="K73" s="1"/>
@@ -7733,14 +7428,24 @@
         <v>65</v>
       </c>
       <c r="B74" s="3"/>
-      <c r="C74" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="D74" s="3"/>
+      <c r="C74" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="E74" s="3"/>
-      <c r="F74" s="4"/>
-      <c r="G74" s="4"/>
-      <c r="H74" s="4"/>
+      <c r="F74" s="4">
+        <f>IFERROR( HLOOKUP("BE",J74:BQ$86,$A$86-$A74+1,FALSE),0)+ IFERROR( HLOOKUP("B",J74:BQ$86,$A$86-$A74+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="G74" s="4">
+        <f>IFERROR( HLOOKUP("BE",J74:BQ$86,$A$86-$A74+1,FALSE),0)+ IFERROR( HLOOKUP("E",J74:BQ$86,$A$86-$A74+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H74" s="4" t="s">
+        <v>66</v>
+      </c>
       <c r="I74" s="3"/>
       <c r="J74" s="1"/>
       <c r="K74" s="1"/>
@@ -7808,24 +7513,14 @@
         <v>66</v>
       </c>
       <c r="B75" s="3"/>
-      <c r="C75" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="D75" s="3" t="s">
-        <v>19</v>
-      </c>
+      <c r="C75" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="D75" s="3"/>
       <c r="E75" s="3"/>
-      <c r="F75" s="4">
-        <f>IFERROR( HLOOKUP("BE",J75:BQ$85,$A$85-$A75+1,FALSE),0)+ IFERROR( HLOOKUP("B",J75:BQ$85,$A$85-$A75+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="G75" s="4">
-        <f>IFERROR( HLOOKUP("BE",J75:BQ$85,$A$85-$A75+1,FALSE),0)+ IFERROR( HLOOKUP("E",J75:BQ$85,$A$85-$A75+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H75" s="4" t="s">
-        <v>66</v>
-      </c>
+      <c r="F75" s="4"/>
+      <c r="G75" s="4"/>
+      <c r="H75" s="4"/>
       <c r="I75" s="3"/>
       <c r="J75" s="1"/>
       <c r="K75" s="1"/>
@@ -7894,18 +7589,18 @@
       </c>
       <c r="B76" s="3"/>
       <c r="C76" s="3" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D76" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E76" s="3"/>
       <c r="F76" s="4">
-        <f>IFERROR( HLOOKUP("BE",J76:BQ$85,$A$85-$A76+1,FALSE),0)+ IFERROR( HLOOKUP("B",J76:BQ$85,$A$85-$A76+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J76:BQ$86,$A$86-$A76+1,FALSE),0)+ IFERROR( HLOOKUP("B",J76:BQ$86,$A$86-$A76+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="G76" s="4">
-        <f>IFERROR( HLOOKUP("BE",J76:BQ$85,$A$85-$A76+1,FALSE),0)+ IFERROR( HLOOKUP("E",J76:BQ$85,$A$85-$A76+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J76:BQ$86,$A$86-$A76+1,FALSE),0)+ IFERROR( HLOOKUP("E",J76:BQ$86,$A$86-$A76+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H76" s="4" t="s">
@@ -7979,18 +7674,18 @@
       </c>
       <c r="B77" s="3"/>
       <c r="C77" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D77" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E77" s="3"/>
       <c r="F77" s="4">
-        <f>IFERROR( HLOOKUP("BE",J77:BQ$85,$A$85-$A77+1,FALSE),0)+ IFERROR( HLOOKUP("B",J77:BQ$85,$A$85-$A77+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J77:BQ$86,$A$86-$A77+1,FALSE),0)+ IFERROR( HLOOKUP("B",J77:BQ$86,$A$86-$A77+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="G77" s="4">
-        <f>IFERROR( HLOOKUP("BE",J77:BQ$85,$A$85-$A77+1,FALSE),0)+ IFERROR( HLOOKUP("E",J77:BQ$85,$A$85-$A77+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J77:BQ$86,$A$86-$A77+1,FALSE),0)+ IFERROR( HLOOKUP("E",J77:BQ$86,$A$86-$A77+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H77" s="4" t="s">
@@ -8063,20 +7758,24 @@
         <v>69</v>
       </c>
       <c r="B78" s="3"/>
-      <c r="C78" s="35" t="s">
-        <v>131</v>
-      </c>
-      <c r="D78" s="3"/>
+      <c r="C78" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="E78" s="3"/>
       <c r="F78" s="4">
-        <f>IFERROR( HLOOKUP("BE",J78:BQ$85,$A$85-$A78+1,FALSE),0)+ IFERROR( HLOOKUP("B",J78:BQ$85,$A$85-$A78+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J78:BQ$86,$A$86-$A78+1,FALSE),0)+ IFERROR( HLOOKUP("B",J78:BQ$86,$A$86-$A78+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="G78" s="4">
-        <f>IFERROR( HLOOKUP("BE",J78:BQ$85,$A$85-$A78+1,FALSE),0)+ IFERROR( HLOOKUP("E",J78:BQ$85,$A$85-$A78+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",J78:BQ$86,$A$86-$A78+1,FALSE),0)+ IFERROR( HLOOKUP("E",J78:BQ$86,$A$86-$A78+1,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="H78" s="4"/>
+      <c r="H78" s="4" t="s">
+        <v>66</v>
+      </c>
       <c r="I78" s="3"/>
       <c r="J78" s="1"/>
       <c r="K78" s="1"/>
@@ -8143,30 +7842,22 @@
       <c r="A79">
         <v>70</v>
       </c>
-      <c r="B79" s="3">
-        <v>23</v>
-      </c>
-      <c r="C79" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="D79" s="3" t="s">
-        <v>18</v>
-      </c>
+      <c r="B79" s="3"/>
+      <c r="C79" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="D79" s="3"/>
       <c r="E79" s="3"/>
       <c r="F79" s="4">
-        <f>IFERROR( HLOOKUP("BE",J79:BQ$85,$A$85-$A79+1,FALSE),0)+ IFERROR( HLOOKUP("B",J79:BQ$85,$A$85-$A79+1,FALSE),0)</f>
-        <v>40821</v>
+        <f>IFERROR( HLOOKUP("BE",J79:BQ$86,$A$86-$A79+1,FALSE),0)+ IFERROR( HLOOKUP("B",J79:BQ$86,$A$86-$A79+1,FALSE),0)</f>
+        <v>0</v>
       </c>
       <c r="G79" s="4">
-        <f>IFERROR( HLOOKUP("BE",J79:BQ$85,$A$85-$A79+1,FALSE),0)+ IFERROR( HLOOKUP("E",J79:BQ$85,$A$85-$A79+1,FALSE),0)</f>
-        <v>40821</v>
-      </c>
-      <c r="H79" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="I79" s="3" t="s">
-        <v>58</v>
-      </c>
+        <f>IFERROR( HLOOKUP("BE",J79:BQ$86,$A$86-$A79+1,FALSE),0)+ IFERROR( HLOOKUP("E",J79:BQ$86,$A$86-$A79+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H79" s="4"/>
+      <c r="I79" s="3"/>
       <c r="J79" s="1"/>
       <c r="K79" s="1"/>
       <c r="L79" s="17"/>
@@ -8208,9 +7899,7 @@
       <c r="AV79" s="17"/>
       <c r="AW79" s="1"/>
       <c r="AX79" s="1"/>
-      <c r="AY79" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="AY79" s="1"/>
       <c r="AZ79" s="1"/>
       <c r="BA79" s="1"/>
       <c r="BB79" s="17"/>
@@ -8235,28 +7924,28 @@
         <v>71</v>
       </c>
       <c r="B80" s="3">
-        <v>24</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>36</v>
+        <v>23</v>
+      </c>
+      <c r="C80" s="27" t="s">
+        <v>34</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E80" s="3"/>
       <c r="F80" s="4">
-        <f>IFERROR( HLOOKUP("BE",J80:BQ$85,$A$85-$A80+1,FALSE),0)+ IFERROR( HLOOKUP("B",J80:BQ$85,$A$85-$A80+1,FALSE),0)</f>
-        <v>40813</v>
+        <f>IFERROR( HLOOKUP("BE",J80:BQ$86,$A$86-$A80+1,FALSE),0)+ IFERROR( HLOOKUP("B",J80:BQ$86,$A$86-$A80+1,FALSE),0)</f>
+        <v>40821</v>
       </c>
       <c r="G80" s="4">
-        <f>IFERROR( HLOOKUP("BE",J80:BQ$85,$A$85-$A80+1,FALSE),0)+ IFERROR( HLOOKUP("E",J80:BQ$85,$A$85-$A80+1,FALSE),0)</f>
-        <v>40820</v>
+        <f>IFERROR( HLOOKUP("BE",J80:BQ$86,$A$86-$A80+1,FALSE),0)+ IFERROR( HLOOKUP("E",J80:BQ$86,$A$86-$A80+1,FALSE),0)</f>
+        <v>40821</v>
       </c>
       <c r="H80" s="4" t="s">
         <v>66</v>
       </c>
       <c r="I80" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J80" s="1"/>
       <c r="K80" s="1"/>
@@ -8291,31 +7980,17 @@
       <c r="AN80" s="17"/>
       <c r="AO80" s="17"/>
       <c r="AP80" s="1"/>
-      <c r="AQ80" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AR80" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AS80" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AT80" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AU80" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="AV80" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="AW80" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AX80" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AY80" s="1"/>
+      <c r="AQ80" s="1"/>
+      <c r="AR80" s="1"/>
+      <c r="AS80" s="1"/>
+      <c r="AT80" s="1"/>
+      <c r="AU80" s="17"/>
+      <c r="AV80" s="17"/>
+      <c r="AW80" s="1"/>
+      <c r="AX80" s="1"/>
+      <c r="AY80" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="AZ80" s="1"/>
       <c r="BA80" s="1"/>
       <c r="BB80" s="17"/>
@@ -8340,22 +8015,22 @@
         <v>72</v>
       </c>
       <c r="B81" s="3">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D81" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E81" s="3"/>
       <c r="F81" s="4">
-        <f>IFERROR( HLOOKUP("BE",J81:BQ$85,$A$85-$A81+1,FALSE),0)+ IFERROR( HLOOKUP("B",J81:BQ$85,$A$85-$A81+1,FALSE),0)</f>
-        <v>40821</v>
+        <f>IFERROR( HLOOKUP("BE",J81:BQ$86,$A$86-$A81+1,FALSE),0)+ IFERROR( HLOOKUP("B",J81:BQ$86,$A$86-$A81+1,FALSE),0)</f>
+        <v>40813</v>
       </c>
       <c r="G81" s="4">
-        <f>IFERROR( HLOOKUP("BE",J81:BQ$85,$A$85-$A81+1,FALSE),0)+ IFERROR( HLOOKUP("E",J81:BQ$85,$A$85-$A81+1,FALSE),0)</f>
-        <v>40827</v>
+        <f>IFERROR( HLOOKUP("BE",J81:BQ$86,$A$86-$A81+1,FALSE),0)+ IFERROR( HLOOKUP("E",J81:BQ$86,$A$86-$A81+1,FALSE),0)</f>
+        <v>40820</v>
       </c>
       <c r="H81" s="4" t="s">
         <v>66</v>
@@ -8396,35 +8071,37 @@
       <c r="AN81" s="17"/>
       <c r="AO81" s="17"/>
       <c r="AP81" s="1"/>
-      <c r="AQ81" s="1"/>
-      <c r="AR81" s="1"/>
-      <c r="AS81" s="1"/>
-      <c r="AT81" s="1"/>
-      <c r="AU81" s="17"/>
-      <c r="AV81" s="17"/>
-      <c r="AW81" s="1"/>
-      <c r="AX81" s="1"/>
-      <c r="AY81" s="20" t="s">
+      <c r="AQ81" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="AZ81" s="1" t="s">
+      <c r="AR81" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="BA81" s="1" t="s">
+      <c r="AS81" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="BB81" s="17" t="s">
+      <c r="AT81" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="BC81" s="17" t="s">
+      <c r="AU81" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="BD81" s="1" t="s">
+      <c r="AV81" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="BE81" s="1" t="s">
+      <c r="AW81" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AX81" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="AY81" s="1"/>
+      <c r="AZ81" s="1"/>
+      <c r="BA81" s="1"/>
+      <c r="BB81" s="17"/>
+      <c r="BC81" s="17"/>
+      <c r="BD81" s="1"/>
+      <c r="BE81" s="1"/>
       <c r="BF81" s="1"/>
       <c r="BG81" s="1"/>
       <c r="BH81" s="1"/>
@@ -8442,6 +8119,104 @@
       <c r="A82">
         <v>73</v>
       </c>
+      <c r="B82" s="3">
+        <v>25</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E82" s="3"/>
+      <c r="F82" s="4">
+        <f>IFERROR( HLOOKUP("BE",J82:BQ$86,$A$86-$A82+1,FALSE),0)+ IFERROR( HLOOKUP("B",J82:BQ$86,$A$86-$A82+1,FALSE),0)</f>
+        <v>40821</v>
+      </c>
+      <c r="G82" s="4">
+        <f>IFERROR( HLOOKUP("BE",J82:BQ$86,$A$86-$A82+1,FALSE),0)+ IFERROR( HLOOKUP("E",J82:BQ$86,$A$86-$A82+1,FALSE),0)</f>
+        <v>40827</v>
+      </c>
+      <c r="H82" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="I82" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J82" s="1"/>
+      <c r="K82" s="1"/>
+      <c r="L82" s="17"/>
+      <c r="M82" s="17"/>
+      <c r="N82" s="1"/>
+      <c r="O82" s="1"/>
+      <c r="P82" s="1"/>
+      <c r="Q82" s="1"/>
+      <c r="R82" s="17"/>
+      <c r="S82" s="17"/>
+      <c r="T82" s="17"/>
+      <c r="U82" s="1"/>
+      <c r="V82" s="1"/>
+      <c r="W82" s="1"/>
+      <c r="X82" s="1"/>
+      <c r="Y82" s="1"/>
+      <c r="Z82" s="17"/>
+      <c r="AA82" s="17"/>
+      <c r="AB82" s="1"/>
+      <c r="AC82" s="1"/>
+      <c r="AD82" s="1"/>
+      <c r="AE82" s="1"/>
+      <c r="AF82" s="1"/>
+      <c r="AG82" s="17"/>
+      <c r="AH82" s="17"/>
+      <c r="AI82" s="1"/>
+      <c r="AJ82" s="1"/>
+      <c r="AK82" s="1"/>
+      <c r="AL82" s="1"/>
+      <c r="AM82" s="1"/>
+      <c r="AN82" s="17"/>
+      <c r="AO82" s="17"/>
+      <c r="AP82" s="1"/>
+      <c r="AQ82" s="1"/>
+      <c r="AR82" s="1"/>
+      <c r="AS82" s="1"/>
+      <c r="AT82" s="1"/>
+      <c r="AU82" s="17"/>
+      <c r="AV82" s="17"/>
+      <c r="AW82" s="1"/>
+      <c r="AX82" s="1"/>
+      <c r="AY82" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="AZ82" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="BA82" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="BB82" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="BC82" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="BD82" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="BE82" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="BF82" s="1"/>
+      <c r="BG82" s="1"/>
+      <c r="BH82" s="1"/>
+      <c r="BI82" s="17"/>
+      <c r="BJ82" s="17"/>
+      <c r="BK82" s="1"/>
+      <c r="BL82" s="1"/>
+      <c r="BM82" s="1"/>
+      <c r="BN82" s="1"/>
+      <c r="BO82" s="1"/>
+      <c r="BP82" s="17"/>
+      <c r="BQ82" s="17"/>
     </row>
     <row r="83" spans="1:69">
       <c r="A83">
@@ -8453,400 +8228,405 @@
         <v>75</v>
       </c>
     </row>
-    <row r="85" spans="1:69" s="10" customFormat="1">
+    <row r="85" spans="1:69">
       <c r="A85">
         <v>76</v>
       </c>
-      <c r="C85" s="30" t="s">
+    </row>
+    <row r="86" spans="1:69" s="10" customFormat="1">
+      <c r="A86">
+        <v>77</v>
+      </c>
+      <c r="C86" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="F85" s="5"/>
-      <c r="G85" s="5"/>
-      <c r="H85" s="5"/>
-      <c r="J85" s="5">
+      <c r="F86" s="5"/>
+      <c r="G86" s="5"/>
+      <c r="H86" s="5"/>
+      <c r="J86" s="5">
         <f>J8</f>
         <v>40780</v>
       </c>
-      <c r="K85" s="5">
-        <f t="shared" ref="K85:BQ85" si="1">K8</f>
+      <c r="K86" s="5">
+        <f t="shared" ref="K86:BQ86" si="1">K8</f>
         <v>40781</v>
       </c>
-      <c r="L85" s="5">
+      <c r="L86" s="5">
         <f t="shared" si="1"/>
         <v>40782</v>
       </c>
-      <c r="M85" s="5">
+      <c r="M86" s="5">
         <f t="shared" si="1"/>
         <v>40783</v>
       </c>
-      <c r="N85" s="5">
+      <c r="N86" s="5">
         <f t="shared" si="1"/>
         <v>40784</v>
       </c>
-      <c r="O85" s="5">
+      <c r="O86" s="5">
         <f t="shared" si="1"/>
         <v>40785</v>
       </c>
-      <c r="P85" s="5">
+      <c r="P86" s="5">
         <f t="shared" si="1"/>
         <v>40786</v>
       </c>
-      <c r="Q85" s="5">
+      <c r="Q86" s="5">
         <f t="shared" si="1"/>
         <v>40787</v>
       </c>
-      <c r="R85" s="5">
+      <c r="R86" s="5">
         <f t="shared" si="1"/>
         <v>40788</v>
       </c>
-      <c r="S85" s="5">
+      <c r="S86" s="5">
         <f t="shared" si="1"/>
         <v>40789</v>
       </c>
-      <c r="T85" s="5">
+      <c r="T86" s="5">
         <f t="shared" si="1"/>
         <v>40790</v>
       </c>
-      <c r="U85" s="5">
+      <c r="U86" s="5">
         <f t="shared" si="1"/>
         <v>40791</v>
       </c>
-      <c r="V85" s="5">
+      <c r="V86" s="5">
         <f t="shared" si="1"/>
         <v>40792</v>
       </c>
-      <c r="W85" s="5">
+      <c r="W86" s="5">
         <f t="shared" si="1"/>
         <v>40793</v>
       </c>
-      <c r="X85" s="5">
+      <c r="X86" s="5">
         <f t="shared" si="1"/>
         <v>40794</v>
       </c>
-      <c r="Y85" s="5">
+      <c r="Y86" s="5">
         <f t="shared" si="1"/>
         <v>40795</v>
       </c>
-      <c r="Z85" s="5">
+      <c r="Z86" s="5">
         <f t="shared" si="1"/>
         <v>40796</v>
       </c>
-      <c r="AA85" s="5">
+      <c r="AA86" s="5">
         <f t="shared" si="1"/>
         <v>40797</v>
       </c>
-      <c r="AB85" s="5">
+      <c r="AB86" s="5">
         <f t="shared" si="1"/>
         <v>40798</v>
       </c>
-      <c r="AC85" s="5">
+      <c r="AC86" s="5">
         <f t="shared" si="1"/>
         <v>40799</v>
       </c>
-      <c r="AD85" s="5">
+      <c r="AD86" s="5">
         <f t="shared" si="1"/>
         <v>40800</v>
       </c>
-      <c r="AE85" s="5">
+      <c r="AE86" s="5">
         <f t="shared" si="1"/>
         <v>40801</v>
       </c>
-      <c r="AF85" s="5">
+      <c r="AF86" s="5">
         <f t="shared" si="1"/>
         <v>40802</v>
       </c>
-      <c r="AG85" s="5">
+      <c r="AG86" s="5">
         <f t="shared" si="1"/>
         <v>40803</v>
       </c>
-      <c r="AH85" s="5">
+      <c r="AH86" s="5">
         <f t="shared" si="1"/>
         <v>40804</v>
       </c>
-      <c r="AI85" s="5">
+      <c r="AI86" s="5">
         <f t="shared" si="1"/>
         <v>40805</v>
       </c>
-      <c r="AJ85" s="5">
+      <c r="AJ86" s="5">
         <f t="shared" si="1"/>
         <v>40806</v>
       </c>
-      <c r="AK85" s="5">
+      <c r="AK86" s="5">
         <f t="shared" si="1"/>
         <v>40807</v>
       </c>
-      <c r="AL85" s="5">
+      <c r="AL86" s="5">
         <f t="shared" si="1"/>
         <v>40808</v>
       </c>
-      <c r="AM85" s="5">
+      <c r="AM86" s="5">
         <f t="shared" si="1"/>
         <v>40809</v>
       </c>
-      <c r="AN85" s="5">
+      <c r="AN86" s="5">
         <f t="shared" si="1"/>
         <v>40810</v>
       </c>
-      <c r="AO85" s="5">
+      <c r="AO86" s="5">
         <f t="shared" si="1"/>
         <v>40811</v>
       </c>
-      <c r="AP85" s="5">
+      <c r="AP86" s="5">
         <f t="shared" si="1"/>
         <v>40812</v>
       </c>
-      <c r="AQ85" s="5">
+      <c r="AQ86" s="5">
         <f t="shared" si="1"/>
         <v>40813</v>
       </c>
-      <c r="AR85" s="5">
+      <c r="AR86" s="5">
         <f t="shared" si="1"/>
         <v>40814</v>
       </c>
-      <c r="AS85" s="5">
+      <c r="AS86" s="5">
         <f t="shared" si="1"/>
         <v>40815</v>
       </c>
-      <c r="AT85" s="5">
+      <c r="AT86" s="5">
         <f t="shared" si="1"/>
         <v>40816</v>
       </c>
-      <c r="AU85" s="5">
+      <c r="AU86" s="5">
         <f t="shared" si="1"/>
         <v>40817</v>
       </c>
-      <c r="AV85" s="5">
+      <c r="AV86" s="5">
         <f t="shared" si="1"/>
         <v>40818</v>
       </c>
-      <c r="AW85" s="5">
+      <c r="AW86" s="5">
         <f t="shared" si="1"/>
         <v>40819</v>
       </c>
-      <c r="AX85" s="5">
+      <c r="AX86" s="5">
         <f t="shared" si="1"/>
         <v>40820</v>
       </c>
-      <c r="AY85" s="5">
+      <c r="AY86" s="5">
         <f t="shared" si="1"/>
         <v>40821</v>
       </c>
-      <c r="AZ85" s="5">
+      <c r="AZ86" s="5">
         <f t="shared" si="1"/>
         <v>40822</v>
       </c>
-      <c r="BA85" s="5">
+      <c r="BA86" s="5">
         <f t="shared" si="1"/>
         <v>40823</v>
       </c>
-      <c r="BB85" s="5">
+      <c r="BB86" s="5">
         <f t="shared" si="1"/>
         <v>40824</v>
       </c>
-      <c r="BC85" s="5">
+      <c r="BC86" s="5">
         <f t="shared" si="1"/>
         <v>40825</v>
       </c>
-      <c r="BD85" s="5">
+      <c r="BD86" s="5">
         <f t="shared" si="1"/>
         <v>40826</v>
       </c>
-      <c r="BE85" s="5">
+      <c r="BE86" s="5">
         <f t="shared" si="1"/>
         <v>40827</v>
       </c>
-      <c r="BF85" s="5">
+      <c r="BF86" s="5">
         <f t="shared" si="1"/>
         <v>40828</v>
       </c>
-      <c r="BG85" s="5">
+      <c r="BG86" s="5">
         <f t="shared" si="1"/>
         <v>40829</v>
       </c>
-      <c r="BH85" s="5">
+      <c r="BH86" s="5">
         <f t="shared" si="1"/>
         <v>40830</v>
       </c>
-      <c r="BI85" s="5">
+      <c r="BI86" s="5">
         <f t="shared" si="1"/>
         <v>40831</v>
       </c>
-      <c r="BJ85" s="5">
+      <c r="BJ86" s="5">
         <f t="shared" si="1"/>
         <v>40832</v>
       </c>
-      <c r="BK85" s="5">
+      <c r="BK86" s="5">
         <f t="shared" si="1"/>
         <v>40833</v>
       </c>
-      <c r="BL85" s="5">
+      <c r="BL86" s="5">
         <f t="shared" si="1"/>
         <v>40834</v>
       </c>
-      <c r="BM85" s="5">
+      <c r="BM86" s="5">
         <f t="shared" si="1"/>
         <v>40835</v>
       </c>
-      <c r="BN85" s="5">
+      <c r="BN86" s="5">
         <f t="shared" si="1"/>
         <v>40836</v>
       </c>
-      <c r="BO85" s="5">
+      <c r="BO86" s="5">
         <f t="shared" si="1"/>
         <v>40837</v>
       </c>
-      <c r="BP85" s="5">
+      <c r="BP86" s="5">
         <f t="shared" si="1"/>
         <v>40838</v>
       </c>
-      <c r="BQ85" s="5">
+      <c r="BQ86" s="5">
         <f t="shared" si="1"/>
         <v>40839</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A8:BQ85">
+  <autoFilter ref="A8:BQ86">
     <filterColumn colId="3"/>
   </autoFilter>
   <mergeCells count="1">
     <mergeCell ref="K2:Q2"/>
   </mergeCells>
-  <conditionalFormatting sqref="J82:AW82 J57:BQ81 J23:BD56 J13:BD13 J10:AF11 AG11 AH10:BD11 J15:BD21 AU11:AV48 BB11:BC48 BE10:BQ56">
-    <cfRule type="cellIs" dxfId="53" priority="40" operator="equal">
+  <conditionalFormatting sqref="J83:AW83 J58:BQ82 J23:BD57 J13:BD13 J10:AF11 AG11 AH10:BD11 J15:BD21 AU11:AV49 BB11:BC49 BE10:BQ57">
+    <cfRule type="cellIs" dxfId="30" priority="40" operator="equal">
       <formula>"-"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="41" operator="equal">
       <formula>"E"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="42" operator="equal">
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J57:BQ81 J23:BD56 J13:BD13 J10:AF11 AG11 AH10:BD11 J15:BD21 AU11:AV48 BB11:BC48 BE10:BQ56">
-    <cfRule type="cellIs" dxfId="50" priority="39" operator="equal">
+  <conditionalFormatting sqref="J58:BQ82 J23:BD57 J13:BD13 J10:AF11 AG11 AH10:BD11 J15:BD21 AU11:AV49 BB11:BC49 BE10:BQ57">
+    <cfRule type="cellIs" dxfId="27" priority="39" operator="equal">
       <formula>"BE"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H10:H11 H13 H23:H81 H15:H21">
-    <cfRule type="cellIs" dxfId="49" priority="21" operator="equal">
+  <conditionalFormatting sqref="H10:H11 H13 H15:H21 H23:H82">
+    <cfRule type="cellIs" dxfId="26" priority="21" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H11 H13 H23:H38 H15:H21">
-    <cfRule type="expression" dxfId="27" priority="25">
+  <conditionalFormatting sqref="H11 H13 H23:H39 H15:H21">
+    <cfRule type="expression" dxfId="25" priority="25">
       <formula>AND(H11&lt;&gt;$E$4,G11&lt;TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H66:H81">
-    <cfRule type="expression" dxfId="48" priority="93">
-      <formula>AND(H66&lt;&gt;$E$4,#REF!&lt;TODAY())</formula>
+  <conditionalFormatting sqref="H67:H82">
+    <cfRule type="expression" dxfId="24" priority="93">
+      <formula>AND(H67&lt;&gt;$E$4,#REF!&lt;TODAY())</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H44">
+    <cfRule type="expression" dxfId="23" priority="100">
+      <formula>AND(H44&lt;&gt;$E$4,G38&lt;TODAY())</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H42">
+    <cfRule type="expression" dxfId="22" priority="103">
+      <formula>AND(H42&lt;&gt;$E$4,G38&lt;TODAY())</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H49 H41">
+    <cfRule type="expression" dxfId="21" priority="106">
+      <formula>AND(H41&lt;&gt;$E$4,G38&lt;TODAY())</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H40:H49">
+    <cfRule type="expression" dxfId="20" priority="109">
+      <formula>AND(H40&lt;&gt;$E$4,G38&lt;TODAY())</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H49">
+    <cfRule type="expression" dxfId="19" priority="121">
+      <formula>AND(H49&lt;&gt;$E$4,G41&lt;TODAY())</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H45:H49">
+    <cfRule type="expression" dxfId="18" priority="127">
+      <formula>AND(H45&lt;&gt;$E$4,G38&lt;TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H43">
-    <cfRule type="expression" dxfId="47" priority="100">
-      <formula>AND(H43&lt;&gt;$E$4,G37&lt;TODAY())</formula>
+    <cfRule type="expression" dxfId="17" priority="134">
+      <formula>AND(H43&lt;&gt;$E$4,G38&lt;TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H41">
-    <cfRule type="expression" dxfId="46" priority="103">
-      <formula>AND(H41&lt;&gt;$E$4,G37&lt;TODAY())</formula>
+  <conditionalFormatting sqref="H58:H66">
+    <cfRule type="expression" dxfId="16" priority="139">
+      <formula>AND(H58&lt;&gt;$E$4,G43&lt;TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H48 H40">
-    <cfRule type="expression" dxfId="45" priority="106">
-      <formula>AND(H40&lt;&gt;$E$4,G37&lt;TODAY())</formula>
+  <conditionalFormatting sqref="H56:H57">
+    <cfRule type="expression" dxfId="15" priority="143">
+      <formula>AND(H56&lt;&gt;$E$4,G43&lt;TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H39:H48">
-    <cfRule type="expression" dxfId="44" priority="109">
-      <formula>AND(H39&lt;&gt;$E$4,G37&lt;TODAY())</formula>
+  <conditionalFormatting sqref="H55">
+    <cfRule type="expression" dxfId="14" priority="145">
+      <formula>AND(H55&lt;&gt;$E$4,G43&lt;TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H48">
-    <cfRule type="expression" dxfId="43" priority="121">
-      <formula>AND(H48&lt;&gt;$E$4,G40&lt;TODAY())</formula>
+  <conditionalFormatting sqref="H65:H66">
+    <cfRule type="expression" dxfId="13" priority="149">
+      <formula>AND(H65&lt;&gt;$E$4,G47&lt;TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H44:H48">
-    <cfRule type="expression" dxfId="42" priority="127">
-      <formula>AND(H44&lt;&gt;$E$4,G37&lt;TODAY())</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H42">
-    <cfRule type="expression" dxfId="41" priority="134">
-      <formula>AND(H42&lt;&gt;$E$4,G37&lt;TODAY())</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H57:H65">
-    <cfRule type="expression" dxfId="40" priority="139">
-      <formula>AND(H57&lt;&gt;$E$4,G42&lt;TODAY())</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H55:H56">
-    <cfRule type="expression" dxfId="39" priority="143">
-      <formula>AND(H55&lt;&gt;$E$4,G42&lt;TODAY())</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H54">
-    <cfRule type="expression" dxfId="38" priority="145">
-      <formula>AND(H54&lt;&gt;$E$4,G42&lt;TODAY())</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H64:H65">
-    <cfRule type="expression" dxfId="37" priority="149">
-      <formula>AND(H64&lt;&gt;$E$4,G46&lt;TODAY())</formula>
+  <conditionalFormatting sqref="H64">
+    <cfRule type="expression" dxfId="12" priority="151">
+      <formula>AND(H64&lt;&gt;$E$4,G47&lt;TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H63">
-    <cfRule type="expression" dxfId="36" priority="151">
-      <formula>AND(H63&lt;&gt;$E$4,G46&lt;TODAY())</formula>
+    <cfRule type="expression" dxfId="11" priority="153">
+      <formula>AND(H63&lt;&gt;$E$4,G47&lt;TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H62">
-    <cfRule type="expression" dxfId="35" priority="153">
-      <formula>AND(H62&lt;&gt;$E$4,G46&lt;TODAY())</formula>
+  <conditionalFormatting sqref="H50:H57">
+    <cfRule type="expression" dxfId="10" priority="203">
+      <formula>AND(H50&lt;&gt;$E$4,G39&lt;TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H49:H53">
-    <cfRule type="expression" dxfId="34" priority="203">
-      <formula>AND(H49&lt;&gt;$E$4,G38&lt;TODAY())</formula>
+  <conditionalFormatting sqref="H68:H74">
+    <cfRule type="expression" dxfId="9" priority="6">
+      <formula>AND(H68&lt;&gt;$E$4,G53&lt;TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H67:H73">
-    <cfRule type="expression" dxfId="33" priority="6">
-      <formula>AND(H67&lt;&gt;$E$4,G52&lt;TODAY())</formula>
+  <conditionalFormatting sqref="H68:H74">
+    <cfRule type="expression" dxfId="8" priority="5">
+      <formula>AND(H68&lt;&gt;$E$4,G50&lt;TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H67:H73">
-    <cfRule type="expression" dxfId="32" priority="5">
-      <formula>AND(H67&lt;&gt;$E$4,G49&lt;TODAY())</formula>
+  <conditionalFormatting sqref="H76:H78">
+    <cfRule type="expression" dxfId="7" priority="4">
+      <formula>AND(H76&lt;&gt;$E$4,G61&lt;TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H75:H77">
-    <cfRule type="expression" dxfId="31" priority="4">
-      <formula>AND(H75&lt;&gt;$E$4,G60&lt;TODAY())</formula>
+  <conditionalFormatting sqref="H76:H78">
+    <cfRule type="expression" dxfId="6" priority="3">
+      <formula>AND(H76&lt;&gt;$E$4,G58&lt;TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H75:H77">
-    <cfRule type="expression" dxfId="30" priority="3">
-      <formula>AND(H75&lt;&gt;$E$4,G57&lt;TODAY())</formula>
+  <conditionalFormatting sqref="H80:H82">
+    <cfRule type="expression" dxfId="5" priority="2">
+      <formula>AND(H80&lt;&gt;$E$4,G65&lt;TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H79:H81">
-    <cfRule type="expression" dxfId="29" priority="2">
-      <formula>AND(H79&lt;&gt;$E$4,G64&lt;TODAY())</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H79:H81">
-    <cfRule type="expression" dxfId="28" priority="1">
-      <formula>AND(H79&lt;&gt;$E$4,G61&lt;TODAY())</formula>
+  <conditionalFormatting sqref="H80:H82">
+    <cfRule type="expression" dxfId="4" priority="1">
+      <formula>AND(H80&lt;&gt;$E$4,G62&lt;TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D13 D15:D21 D10:D11 D23:D81">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D13 D15:D21 D10:D11 D23:D82">
       <formula1>$C$2:$C$4</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H10:H81">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H10:H82">
       <formula1>$E$2:$E$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/01. Document/DropOut_project v2011.08.25.xlsx
+++ b/01. Document/DropOut_project v2011.08.25.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="133">
   <si>
     <t>STT</t>
   </si>
@@ -621,41 +621,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="31">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="27">
     <dxf>
       <fill>
         <patternFill>
@@ -1161,10 +1127,10 @@
   <dimension ref="A1:BQ86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="8" topLeftCell="H59" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="8" topLeftCell="H66" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="H76" sqref="H76"/>
+      <selection pane="bottomRight" activeCell="AV80" sqref="AV80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5480,14 +5446,14 @@
       <c r="E51" s="3"/>
       <c r="F51" s="4">
         <f>IFERROR( HLOOKUP("BE",J51:BQ$86,$A$86-$A51+1,FALSE),0)+ IFERROR( HLOOKUP("B",J51:BQ$86,$A$86-$A51+1,FALSE),0)</f>
-        <v>0</v>
+        <v>40816</v>
       </c>
       <c r="G51" s="4">
         <f>IFERROR( HLOOKUP("BE",J51:BQ$86,$A$86-$A51+1,FALSE),0)+ IFERROR( HLOOKUP("E",J51:BQ$86,$A$86-$A51+1,FALSE),0)</f>
-        <v>0</v>
+        <v>40817</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I51" s="3" t="s">
         <v>83</v>
@@ -5528,8 +5494,12 @@
       <c r="AQ51" s="1"/>
       <c r="AR51" s="1"/>
       <c r="AS51" s="1"/>
-      <c r="AT51" s="1"/>
-      <c r="AU51" s="17"/>
+      <c r="AT51" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AU51" s="17" t="s">
+        <v>12</v>
+      </c>
       <c r="AV51" s="17"/>
       <c r="AW51" s="1"/>
       <c r="AX51" s="1"/>
@@ -5567,14 +5537,14 @@
       <c r="E52" s="3"/>
       <c r="F52" s="4">
         <f>IFERROR( HLOOKUP("BE",J52:BQ$86,$A$86-$A52+1,FALSE),0)+ IFERROR( HLOOKUP("B",J52:BQ$86,$A$86-$A52+1,FALSE),0)</f>
-        <v>0</v>
+        <v>40816</v>
       </c>
       <c r="G52" s="4">
         <f>IFERROR( HLOOKUP("BE",J52:BQ$86,$A$86-$A52+1,FALSE),0)+ IFERROR( HLOOKUP("E",J52:BQ$86,$A$86-$A52+1,FALSE),0)</f>
-        <v>0</v>
+        <v>40817</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>83</v>
@@ -5615,8 +5585,12 @@
       <c r="AQ52" s="1"/>
       <c r="AR52" s="1"/>
       <c r="AS52" s="1"/>
-      <c r="AT52" s="1"/>
-      <c r="AU52" s="17"/>
+      <c r="AT52" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AU52" s="17" t="s">
+        <v>12</v>
+      </c>
       <c r="AV52" s="17"/>
       <c r="AW52" s="1"/>
       <c r="AX52" s="1"/>
@@ -5654,14 +5628,14 @@
       <c r="E53" s="3"/>
       <c r="F53" s="4">
         <f>IFERROR( HLOOKUP("BE",J53:BQ$86,$A$86-$A53+1,FALSE),0)+ IFERROR( HLOOKUP("B",J53:BQ$86,$A$86-$A53+1,FALSE),0)</f>
-        <v>0</v>
+        <v>40817</v>
       </c>
       <c r="G53" s="4">
         <f>IFERROR( HLOOKUP("BE",J53:BQ$86,$A$86-$A53+1,FALSE),0)+ IFERROR( HLOOKUP("E",J53:BQ$86,$A$86-$A53+1,FALSE),0)</f>
-        <v>0</v>
+        <v>40820</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I53" s="3" t="s">
         <v>83</v>
@@ -5703,10 +5677,18 @@
       <c r="AR53" s="1"/>
       <c r="AS53" s="1"/>
       <c r="AT53" s="1"/>
-      <c r="AU53" s="17"/>
-      <c r="AV53" s="17"/>
-      <c r="AW53" s="1"/>
-      <c r="AX53" s="1"/>
+      <c r="AU53" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="AV53" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="AW53" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AX53" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="AY53" s="1"/>
       <c r="AZ53" s="1"/>
       <c r="BA53" s="1"/>
@@ -5741,14 +5723,14 @@
       <c r="E54" s="3"/>
       <c r="F54" s="4">
         <f>IFERROR( HLOOKUP("BE",J54:BQ$86,$A$86-$A54+1,FALSE),0)+ IFERROR( HLOOKUP("B",J54:BQ$86,$A$86-$A54+1,FALSE),0)</f>
-        <v>0</v>
+        <v>40817</v>
       </c>
       <c r="G54" s="4">
         <f>IFERROR( HLOOKUP("BE",J54:BQ$86,$A$86-$A54+1,FALSE),0)+ IFERROR( HLOOKUP("E",J54:BQ$86,$A$86-$A54+1,FALSE),0)</f>
-        <v>0</v>
+        <v>40820</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>83</v>
@@ -5790,10 +5772,18 @@
       <c r="AR54" s="1"/>
       <c r="AS54" s="1"/>
       <c r="AT54" s="1"/>
-      <c r="AU54" s="17"/>
-      <c r="AV54" s="17"/>
-      <c r="AW54" s="1"/>
-      <c r="AX54" s="1"/>
+      <c r="AU54" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="AV54" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="AW54" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AX54" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="AY54" s="1"/>
       <c r="AZ54" s="1"/>
       <c r="BA54" s="1"/>
@@ -8030,7 +8020,7 @@
       </c>
       <c r="G81" s="4">
         <f>IFERROR( HLOOKUP("BE",J81:BQ$86,$A$86-$A81+1,FALSE),0)+ IFERROR( HLOOKUP("E",J81:BQ$86,$A$86-$A81+1,FALSE),0)</f>
-        <v>40820</v>
+        <v>40826</v>
       </c>
       <c r="H81" s="4" t="s">
         <v>66</v>
@@ -8093,14 +8083,22 @@
         <v>13</v>
       </c>
       <c r="AX81" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AY81" s="1"/>
-      <c r="AZ81" s="1"/>
-      <c r="BA81" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="AY81" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AZ81" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="BA81" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="BB81" s="17"/>
       <c r="BC81" s="17"/>
-      <c r="BD81" s="1"/>
+      <c r="BD81" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="BE81" s="1"/>
       <c r="BF81" s="1"/>
       <c r="BG81" s="1"/>
@@ -8131,11 +8129,11 @@
       <c r="E82" s="3"/>
       <c r="F82" s="4">
         <f>IFERROR( HLOOKUP("BE",J82:BQ$86,$A$86-$A82+1,FALSE),0)+ IFERROR( HLOOKUP("B",J82:BQ$86,$A$86-$A82+1,FALSE),0)</f>
-        <v>40821</v>
+        <v>40827</v>
       </c>
       <c r="G82" s="4">
         <f>IFERROR( HLOOKUP("BE",J82:BQ$86,$A$86-$A82+1,FALSE),0)+ IFERROR( HLOOKUP("E",J82:BQ$86,$A$86-$A82+1,FALSE),0)</f>
-        <v>40827</v>
+        <v>40830</v>
       </c>
       <c r="H82" s="4" t="s">
         <v>66</v>
@@ -8184,30 +8182,24 @@
       <c r="AV82" s="17"/>
       <c r="AW82" s="1"/>
       <c r="AX82" s="1"/>
-      <c r="AY82" s="20" t="s">
+      <c r="AY82" s="20"/>
+      <c r="AZ82" s="1"/>
+      <c r="BA82" s="1"/>
+      <c r="BB82" s="17"/>
+      <c r="BC82" s="17"/>
+      <c r="BD82" s="1"/>
+      <c r="BE82" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="AZ82" s="1" t="s">
+      <c r="BF82" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="BA82" s="1" t="s">
+      <c r="BG82" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="BB82" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="BC82" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="BD82" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="BE82" s="1" t="s">
+      <c r="BH82" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="BF82" s="1"/>
-      <c r="BG82" s="1"/>
-      <c r="BH82" s="1"/>
       <c r="BI82" s="17"/>
       <c r="BJ82" s="17"/>
       <c r="BK82" s="1"/>
@@ -8492,133 +8484,133 @@
     <mergeCell ref="K2:Q2"/>
   </mergeCells>
   <conditionalFormatting sqref="J83:AW83 J58:BQ82 J23:BD57 J13:BD13 J10:AF11 AG11 AH10:BD11 J15:BD21 AU11:AV49 BB11:BC49 BE10:BQ57">
-    <cfRule type="cellIs" dxfId="30" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="40" operator="equal">
       <formula>"-"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="41" operator="equal">
       <formula>"E"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="42" operator="equal">
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J58:BQ82 J23:BD57 J13:BD13 J10:AF11 AG11 AH10:BD11 J15:BD21 AU11:AV49 BB11:BC49 BE10:BQ57">
-    <cfRule type="cellIs" dxfId="27" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="39" operator="equal">
       <formula>"BE"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10:H11 H13 H15:H21 H23:H82">
-    <cfRule type="cellIs" dxfId="26" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="21" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11 H13 H23:H39 H15:H21">
-    <cfRule type="expression" dxfId="25" priority="25">
+    <cfRule type="expression" dxfId="21" priority="25">
       <formula>AND(H11&lt;&gt;$E$4,G11&lt;TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H67:H82">
-    <cfRule type="expression" dxfId="24" priority="93">
+    <cfRule type="expression" dxfId="20" priority="93">
       <formula>AND(H67&lt;&gt;$E$4,#REF!&lt;TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H44">
-    <cfRule type="expression" dxfId="23" priority="100">
+    <cfRule type="expression" dxfId="19" priority="100">
       <formula>AND(H44&lt;&gt;$E$4,G38&lt;TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H42">
-    <cfRule type="expression" dxfId="22" priority="103">
+    <cfRule type="expression" dxfId="18" priority="103">
       <formula>AND(H42&lt;&gt;$E$4,G38&lt;TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H49 H41">
-    <cfRule type="expression" dxfId="21" priority="106">
+    <cfRule type="expression" dxfId="17" priority="106">
       <formula>AND(H41&lt;&gt;$E$4,G38&lt;TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H40:H49">
-    <cfRule type="expression" dxfId="20" priority="109">
+    <cfRule type="expression" dxfId="16" priority="109">
       <formula>AND(H40&lt;&gt;$E$4,G38&lt;TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H49">
-    <cfRule type="expression" dxfId="19" priority="121">
+    <cfRule type="expression" dxfId="15" priority="121">
       <formula>AND(H49&lt;&gt;$E$4,G41&lt;TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H45:H49">
-    <cfRule type="expression" dxfId="18" priority="127">
+    <cfRule type="expression" dxfId="14" priority="127">
       <formula>AND(H45&lt;&gt;$E$4,G38&lt;TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H43">
-    <cfRule type="expression" dxfId="17" priority="134">
+    <cfRule type="expression" dxfId="13" priority="134">
       <formula>AND(H43&lt;&gt;$E$4,G38&lt;TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H58:H66">
-    <cfRule type="expression" dxfId="16" priority="139">
+    <cfRule type="expression" dxfId="12" priority="139">
       <formula>AND(H58&lt;&gt;$E$4,G43&lt;TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H56:H57">
-    <cfRule type="expression" dxfId="15" priority="143">
+    <cfRule type="expression" dxfId="11" priority="143">
       <formula>AND(H56&lt;&gt;$E$4,G43&lt;TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H55">
-    <cfRule type="expression" dxfId="14" priority="145">
+    <cfRule type="expression" dxfId="10" priority="145">
       <formula>AND(H55&lt;&gt;$E$4,G43&lt;TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H65:H66">
-    <cfRule type="expression" dxfId="13" priority="149">
+    <cfRule type="expression" dxfId="9" priority="149">
       <formula>AND(H65&lt;&gt;$E$4,G47&lt;TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H64">
-    <cfRule type="expression" dxfId="12" priority="151">
+    <cfRule type="expression" dxfId="8" priority="151">
       <formula>AND(H64&lt;&gt;$E$4,G47&lt;TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H63">
-    <cfRule type="expression" dxfId="11" priority="153">
+    <cfRule type="expression" dxfId="7" priority="153">
       <formula>AND(H63&lt;&gt;$E$4,G47&lt;TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H50:H57">
-    <cfRule type="expression" dxfId="10" priority="203">
+    <cfRule type="expression" dxfId="6" priority="203">
       <formula>AND(H50&lt;&gt;$E$4,G39&lt;TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H68:H74">
-    <cfRule type="expression" dxfId="9" priority="6">
+    <cfRule type="expression" dxfId="5" priority="6">
       <formula>AND(H68&lt;&gt;$E$4,G53&lt;TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H68:H74">
-    <cfRule type="expression" dxfId="8" priority="5">
+    <cfRule type="expression" dxfId="4" priority="5">
       <formula>AND(H68&lt;&gt;$E$4,G50&lt;TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H76:H78">
-    <cfRule type="expression" dxfId="7" priority="4">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>AND(H76&lt;&gt;$E$4,G61&lt;TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H76:H78">
-    <cfRule type="expression" dxfId="6" priority="3">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>AND(H76&lt;&gt;$E$4,G58&lt;TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H80:H82">
-    <cfRule type="expression" dxfId="5" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>AND(H80&lt;&gt;$E$4,G65&lt;TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H80:H82">
-    <cfRule type="expression" dxfId="4" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>AND(H80&lt;&gt;$E$4,G62&lt;TODAY())</formula>
     </cfRule>
   </conditionalFormatting>

--- a/01. Document/DropOut_project v2011.08.25.xlsx
+++ b/01. Document/DropOut_project v2011.08.25.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="133">
   <si>
     <t>STT</t>
   </si>
@@ -1127,10 +1127,10 @@
   <dimension ref="A1:BQ86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="8" topLeftCell="H66" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="8" topLeftCell="H43" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="AV80" sqref="AV80"/>
+      <selection pane="bottomRight" activeCell="I55" sqref="I55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4580,14 +4580,14 @@
       <c r="E41" s="3"/>
       <c r="F41" s="4">
         <f>IFERROR( HLOOKUP("BE",J41:BQ$86,$A$86-$A41+1,FALSE),0)+ IFERROR( HLOOKUP("B",J41:BQ$86,$A$86-$A41+1,FALSE),0)</f>
-        <v>0</v>
+        <v>40816</v>
       </c>
       <c r="G41" s="4">
         <f>IFERROR( HLOOKUP("BE",J41:BQ$86,$A$86-$A41+1,FALSE),0)+ IFERROR( HLOOKUP("E",J41:BQ$86,$A$86-$A41+1,FALSE),0)</f>
-        <v>0</v>
+        <v>40819</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>88</v>
@@ -4628,10 +4628,18 @@
       <c r="AQ41" s="1"/>
       <c r="AR41" s="1"/>
       <c r="AS41" s="1"/>
-      <c r="AT41" s="1"/>
-      <c r="AU41" s="17"/>
-      <c r="AV41" s="17"/>
-      <c r="AW41" s="1"/>
+      <c r="AT41" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AU41" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="AV41" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="AW41" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="AX41" s="1"/>
       <c r="AY41" s="1"/>
       <c r="AZ41" s="1"/>
@@ -4934,14 +4942,14 @@
       <c r="E45" s="3"/>
       <c r="F45" s="4">
         <f>IFERROR( HLOOKUP("BE",J45:BQ$86,$A$86-$A45+1,FALSE),0)+ IFERROR( HLOOKUP("B",J45:BQ$86,$A$86-$A45+1,FALSE),0)</f>
-        <v>0</v>
+        <v>40820</v>
       </c>
       <c r="G45" s="4">
         <f>IFERROR( HLOOKUP("BE",J45:BQ$86,$A$86-$A45+1,FALSE),0)+ IFERROR( HLOOKUP("E",J45:BQ$86,$A$86-$A45+1,FALSE),0)</f>
-        <v>0</v>
+        <v>40822</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>91</v>
@@ -4986,9 +4994,15 @@
       <c r="AU45" s="17"/>
       <c r="AV45" s="17"/>
       <c r="AW45" s="1"/>
-      <c r="AX45" s="1"/>
-      <c r="AY45" s="1"/>
-      <c r="AZ45" s="1"/>
+      <c r="AX45" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AY45" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AZ45" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="BA45" s="1"/>
       <c r="BB45" s="17"/>
       <c r="BC45" s="17"/>
@@ -5027,7 +5041,9 @@
         <f>IFERROR( HLOOKUP("BE",J46:BQ$86,$A$86-$A46+1,FALSE),0)+ IFERROR( HLOOKUP("E",J46:BQ$86,$A$86-$A46+1,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="H46" s="4"/>
+      <c r="H46" s="4" t="s">
+        <v>66</v>
+      </c>
       <c r="I46" s="3" t="s">
         <v>95</v>
       </c>
@@ -5197,14 +5213,14 @@
       <c r="E48" s="3"/>
       <c r="F48" s="4">
         <f>IFERROR( HLOOKUP("BE",J48:BQ$86,$A$86-$A48+1,FALSE),0)+ IFERROR( HLOOKUP("B",J48:BQ$86,$A$86-$A48+1,FALSE),0)</f>
-        <v>0</v>
+        <v>40818</v>
       </c>
       <c r="G48" s="4">
         <f>IFERROR( HLOOKUP("BE",J48:BQ$86,$A$86-$A48+1,FALSE),0)+ IFERROR( HLOOKUP("E",J48:BQ$86,$A$86-$A48+1,FALSE),0)</f>
-        <v>0</v>
+        <v>40821</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>91</v>
@@ -5247,10 +5263,18 @@
       <c r="AS48" s="1"/>
       <c r="AT48" s="1"/>
       <c r="AU48" s="17"/>
-      <c r="AV48" s="17"/>
-      <c r="AW48" s="1"/>
-      <c r="AX48" s="1"/>
-      <c r="AY48" s="1"/>
+      <c r="AV48" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="AW48" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AX48" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AY48" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="AZ48" s="1"/>
       <c r="BA48" s="1"/>
       <c r="BB48" s="17"/>
@@ -5635,7 +5659,7 @@
         <v>40820</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I53" s="3" t="s">
         <v>83</v>
@@ -5730,7 +5754,7 @@
         <v>40820</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>83</v>
@@ -5818,14 +5842,14 @@
       <c r="E55" s="3"/>
       <c r="F55" s="4">
         <f>IFERROR( HLOOKUP("BE",J55:BQ$86,$A$86-$A55+1,FALSE),0)+ IFERROR( HLOOKUP("B",J55:BQ$86,$A$86-$A55+1,FALSE),0)</f>
-        <v>0</v>
+        <v>40819</v>
       </c>
       <c r="G55" s="4">
         <f>IFERROR( HLOOKUP("BE",J55:BQ$86,$A$86-$A55+1,FALSE),0)+ IFERROR( HLOOKUP("E",J55:BQ$86,$A$86-$A55+1,FALSE),0)</f>
-        <v>0</v>
+        <v>40820</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I55" s="3" t="s">
         <v>83</v>
@@ -5869,8 +5893,12 @@
       <c r="AT55" s="1"/>
       <c r="AU55" s="17"/>
       <c r="AV55" s="17"/>
-      <c r="AW55" s="1"/>
-      <c r="AX55" s="1"/>
+      <c r="AW55" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AX55" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="AY55" s="1"/>
       <c r="AZ55" s="1"/>
       <c r="BA55" s="1"/>

--- a/01. Document/DropOut_project v2011.08.25.xlsx
+++ b/01. Document/DropOut_project v2011.08.25.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="133">
   <si>
     <t>STT</t>
   </si>
@@ -404,9 +404,6 @@
     <t>- Query</t>
   </si>
   <si>
-    <t>2. Truy vấn + hiển thị kết quả (từ tập mẫu)</t>
-  </si>
-  <si>
     <t>3. Truy vấn + hiển thị từ file (CSV comma delimited)</t>
   </si>
   <si>
@@ -417,6 +414,9 @@
   </si>
   <si>
     <t>- Thay icons cho ứng dụng</t>
+  </si>
+  <si>
+    <t>2. Truy vấn + hiển thị kết quả (từ tập mẫu) + Thiết kế form chọn tập mẫu query</t>
   </si>
 </sst>
 </file>
@@ -621,7 +621,91 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="27">
+  <dxfs count="35">
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FF0000CC"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FF0000CC"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1124,13 +1208,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:BQ86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="8" topLeftCell="H43" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="8" topLeftCell="BH61" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="I55" sqref="I55"/>
+      <selection pane="bottomRight" activeCell="BL73" sqref="BL73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1755,7 +1840,7 @@
       <c r="BC9" s="6"/>
       <c r="BD9" s="6"/>
     </row>
-    <row r="10" spans="1:69">
+    <row r="10" spans="1:69" hidden="1">
       <c r="A10">
         <v>1</v>
       </c>
@@ -1846,7 +1931,7 @@
       <c r="BP10" s="1"/>
       <c r="BQ10" s="1"/>
     </row>
-    <row r="11" spans="1:69">
+    <row r="11" spans="1:69" hidden="1">
       <c r="A11">
         <v>2</v>
       </c>
@@ -2014,7 +2099,7 @@
       <c r="BP12" s="17"/>
       <c r="BQ12" s="17"/>
     </row>
-    <row r="13" spans="1:69" s="16" customFormat="1">
+    <row r="13" spans="1:69" s="16" customFormat="1" hidden="1">
       <c r="A13">
         <v>4</v>
       </c>
@@ -2182,7 +2267,7 @@
       <c r="BP14" s="17"/>
       <c r="BQ14" s="17"/>
     </row>
-    <row r="15" spans="1:69" ht="28.5" customHeight="1">
+    <row r="15" spans="1:69" ht="28.5" hidden="1" customHeight="1">
       <c r="A15">
         <v>6</v>
       </c>
@@ -2283,7 +2368,7 @@
       <c r="BP15" s="17"/>
       <c r="BQ15" s="17"/>
     </row>
-    <row r="16" spans="1:69">
+    <row r="16" spans="1:69" hidden="1">
       <c r="A16">
         <v>7</v>
       </c>
@@ -2378,7 +2463,7 @@
       <c r="BP16" s="17"/>
       <c r="BQ16" s="17"/>
     </row>
-    <row r="17" spans="1:69">
+    <row r="17" spans="1:69" hidden="1">
       <c r="A17">
         <v>8</v>
       </c>
@@ -2469,7 +2554,7 @@
       <c r="BP17" s="17"/>
       <c r="BQ17" s="17"/>
     </row>
-    <row r="18" spans="1:69">
+    <row r="18" spans="1:69" hidden="1">
       <c r="A18">
         <v>9</v>
       </c>
@@ -2560,7 +2645,7 @@
       <c r="BP18" s="17"/>
       <c r="BQ18" s="17"/>
     </row>
-    <row r="19" spans="1:69">
+    <row r="19" spans="1:69" hidden="1">
       <c r="A19">
         <v>10</v>
       </c>
@@ -2655,7 +2740,7 @@
       <c r="BP19" s="17"/>
       <c r="BQ19" s="17"/>
     </row>
-    <row r="20" spans="1:69">
+    <row r="20" spans="1:69" hidden="1">
       <c r="A20">
         <v>11</v>
       </c>
@@ -2750,7 +2835,7 @@
       <c r="BP20" s="17"/>
       <c r="BQ20" s="17"/>
     </row>
-    <row r="21" spans="1:69">
+    <row r="21" spans="1:69" hidden="1">
       <c r="A21">
         <v>12</v>
       </c>
@@ -2928,7 +3013,7 @@
       <c r="BP22" s="17"/>
       <c r="BQ22" s="17"/>
     </row>
-    <row r="23" spans="1:69">
+    <row r="23" spans="1:69" hidden="1">
       <c r="A23">
         <v>14</v>
       </c>
@@ -3019,7 +3104,7 @@
       <c r="BP23" s="17"/>
       <c r="BQ23" s="17"/>
     </row>
-    <row r="24" spans="1:69" ht="15.75" customHeight="1">
+    <row r="24" spans="1:69" ht="15.75" hidden="1" customHeight="1">
       <c r="A24">
         <v>15</v>
       </c>
@@ -3110,7 +3195,7 @@
       <c r="BP24" s="17"/>
       <c r="BQ24" s="17"/>
     </row>
-    <row r="25" spans="1:69">
+    <row r="25" spans="1:69" hidden="1">
       <c r="A25">
         <v>16</v>
       </c>
@@ -3201,7 +3286,7 @@
       <c r="BP25" s="17"/>
       <c r="BQ25" s="17"/>
     </row>
-    <row r="26" spans="1:69" ht="16.5" customHeight="1">
+    <row r="26" spans="1:69" ht="16.5" hidden="1" customHeight="1">
       <c r="A26">
         <v>17</v>
       </c>
@@ -3294,7 +3379,7 @@
       <c r="BP26" s="17"/>
       <c r="BQ26" s="17"/>
     </row>
-    <row r="27" spans="1:69">
+    <row r="27" spans="1:69" hidden="1">
       <c r="A27">
         <v>18</v>
       </c>
@@ -3383,7 +3468,7 @@
       <c r="BP27" s="17"/>
       <c r="BQ27" s="17"/>
     </row>
-    <row r="28" spans="1:69" ht="19.5" customHeight="1">
+    <row r="28" spans="1:69" ht="19.5" hidden="1" customHeight="1">
       <c r="A28">
         <v>19</v>
       </c>
@@ -3480,7 +3565,7 @@
       <c r="BP28" s="17"/>
       <c r="BQ28" s="17"/>
     </row>
-    <row r="29" spans="1:69">
+    <row r="29" spans="1:69" hidden="1">
       <c r="A29">
         <v>20</v>
       </c>
@@ -3571,7 +3656,7 @@
       <c r="BP29" s="17"/>
       <c r="BQ29" s="17"/>
     </row>
-    <row r="30" spans="1:69">
+    <row r="30" spans="1:69" hidden="1">
       <c r="A30">
         <v>21</v>
       </c>
@@ -3656,7 +3741,7 @@
       <c r="BP30" s="17"/>
       <c r="BQ30" s="17"/>
     </row>
-    <row r="31" spans="1:69">
+    <row r="31" spans="1:69" hidden="1">
       <c r="A31">
         <v>22</v>
       </c>
@@ -3745,7 +3830,7 @@
       <c r="BP31" s="17"/>
       <c r="BQ31" s="17"/>
     </row>
-    <row r="32" spans="1:69">
+    <row r="32" spans="1:69" hidden="1">
       <c r="A32">
         <v>23</v>
       </c>
@@ -3859,7 +3944,7 @@
         <v>40787</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>56</v>
@@ -3937,7 +4022,7 @@
       <c r="BP33" s="17"/>
       <c r="BQ33" s="17"/>
     </row>
-    <row r="34" spans="1:69">
+    <row r="34" spans="1:69" hidden="1">
       <c r="A34">
         <v>25</v>
       </c>
@@ -4032,7 +4117,7 @@
       <c r="BP34" s="17"/>
       <c r="BQ34" s="17"/>
     </row>
-    <row r="35" spans="1:69">
+    <row r="35" spans="1:69" hidden="1">
       <c r="A35">
         <v>26</v>
       </c>
@@ -4228,7 +4313,7 @@
       </c>
       <c r="B37" s="3"/>
       <c r="C37" s="32" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>19</v>
@@ -4675,11 +4760,11 @@
       <c r="E42" s="3"/>
       <c r="F42" s="4">
         <f>IFERROR( HLOOKUP("BE",J42:BQ$86,$A$86-$A42+1,FALSE),0)+ IFERROR( HLOOKUP("B",J42:BQ$86,$A$86-$A42+1,FALSE),0)</f>
-        <v>0</v>
+        <v>40834</v>
       </c>
       <c r="G42" s="4">
         <f>IFERROR( HLOOKUP("BE",J42:BQ$86,$A$86-$A42+1,FALSE),0)+ IFERROR( HLOOKUP("E",J42:BQ$86,$A$86-$A42+1,FALSE),0)</f>
-        <v>0</v>
+        <v>40835</v>
       </c>
       <c r="H42" s="4" t="s">
         <v>66</v>
@@ -4741,8 +4826,12 @@
       <c r="BI42" s="17"/>
       <c r="BJ42" s="17"/>
       <c r="BK42" s="1"/>
-      <c r="BL42" s="1"/>
-      <c r="BM42" s="1"/>
+      <c r="BL42" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="BM42" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="BN42" s="1"/>
       <c r="BO42" s="1"/>
       <c r="BP42" s="17"/>
@@ -4769,7 +4858,7 @@
         <v>40821</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>91</v>
@@ -4855,11 +4944,11 @@
       <c r="E44" s="3"/>
       <c r="F44" s="4">
         <f>IFERROR( HLOOKUP("BE",J44:BQ$86,$A$86-$A44+1,FALSE),0)+ IFERROR( HLOOKUP("B",J44:BQ$86,$A$86-$A44+1,FALSE),0)</f>
-        <v>0</v>
+        <v>40833</v>
       </c>
       <c r="G44" s="4">
         <f>IFERROR( HLOOKUP("BE",J44:BQ$86,$A$86-$A44+1,FALSE),0)+ IFERROR( HLOOKUP("E",J44:BQ$86,$A$86-$A44+1,FALSE),0)</f>
-        <v>0</v>
+        <v>40833</v>
       </c>
       <c r="H44" s="4" t="s">
         <v>66</v>
@@ -4920,7 +5009,9 @@
       <c r="BH44" s="1"/>
       <c r="BI44" s="17"/>
       <c r="BJ44" s="17"/>
-      <c r="BK44" s="1"/>
+      <c r="BK44" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="BL44" s="1"/>
       <c r="BM44" s="1"/>
       <c r="BN44" s="1"/>
@@ -5035,14 +5126,14 @@
       <c r="E46" s="3"/>
       <c r="F46" s="4">
         <f>IFERROR( HLOOKUP("BE",J46:BQ$86,$A$86-$A46+1,FALSE),0)+ IFERROR( HLOOKUP("B",J46:BQ$86,$A$86-$A46+1,FALSE),0)</f>
-        <v>0</v>
+        <v>40829</v>
       </c>
       <c r="G46" s="4">
         <f>IFERROR( HLOOKUP("BE",J46:BQ$86,$A$86-$A46+1,FALSE),0)+ IFERROR( HLOOKUP("E",J46:BQ$86,$A$86-$A46+1,FALSE),0)</f>
-        <v>0</v>
+        <v>40829</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>95</v>
@@ -5096,7 +5187,9 @@
       <c r="BD46" s="1"/>
       <c r="BE46" s="1"/>
       <c r="BF46" s="1"/>
-      <c r="BG46" s="1"/>
+      <c r="BG46" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="BH46" s="1"/>
       <c r="BI46" s="17"/>
       <c r="BJ46" s="17"/>
@@ -5308,14 +5401,14 @@
       <c r="E49" s="3"/>
       <c r="F49" s="4">
         <f>IFERROR( HLOOKUP("BE",J49:BQ$86,$A$86-$A49+1,FALSE),0)+ IFERROR( HLOOKUP("B",J49:BQ$86,$A$86-$A49+1,FALSE),0)</f>
-        <v>0</v>
+        <v>40828</v>
       </c>
       <c r="G49" s="4">
         <f>IFERROR( HLOOKUP("BE",J49:BQ$86,$A$86-$A49+1,FALSE),0)+ IFERROR( HLOOKUP("E",J49:BQ$86,$A$86-$A49+1,FALSE),0)</f>
-        <v>0</v>
+        <v>40828</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>95</v>
@@ -5368,7 +5461,9 @@
       <c r="BC49" s="17"/>
       <c r="BD49" s="1"/>
       <c r="BE49" s="1"/>
-      <c r="BF49" s="1"/>
+      <c r="BF49" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="BG49" s="1"/>
       <c r="BH49" s="1"/>
       <c r="BI49" s="17"/>
@@ -5933,14 +6028,14 @@
       <c r="E56" s="3"/>
       <c r="F56" s="4">
         <f>IFERROR( HLOOKUP("BE",J56:BQ$86,$A$86-$A56+1,FALSE),0)+ IFERROR( HLOOKUP("B",J56:BQ$86,$A$86-$A56+1,FALSE),0)</f>
-        <v>0</v>
+        <v>40823</v>
       </c>
       <c r="G56" s="4">
         <f>IFERROR( HLOOKUP("BE",J56:BQ$86,$A$86-$A56+1,FALSE),0)+ IFERROR( HLOOKUP("E",J56:BQ$86,$A$86-$A56+1,FALSE),0)</f>
-        <v>0</v>
+        <v>40826</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I56" s="3" t="s">
         <v>83</v>
@@ -5988,10 +6083,18 @@
       <c r="AX56" s="1"/>
       <c r="AY56" s="1"/>
       <c r="AZ56" s="1"/>
-      <c r="BA56" s="1"/>
-      <c r="BB56" s="17"/>
-      <c r="BC56" s="17"/>
-      <c r="BD56" s="1"/>
+      <c r="BA56" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="BB56" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="BC56" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="BD56" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="BE56" s="1"/>
       <c r="BF56" s="1"/>
       <c r="BG56" s="1"/>
@@ -6103,14 +6206,8 @@
       </c>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
-      <c r="F58" s="4">
-        <f>IFERROR( HLOOKUP("BE",J58:BQ$86,$A$86-$A58+1,FALSE),0)+ IFERROR( HLOOKUP("B",J58:BQ$86,$A$86-$A58+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="G58" s="4">
-        <f>IFERROR( HLOOKUP("BE",J58:BQ$86,$A$86-$A58+1,FALSE),0)+ IFERROR( HLOOKUP("E",J58:BQ$86,$A$86-$A58+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
       <c r="H58" s="4"/>
       <c r="I58" s="3"/>
       <c r="J58" s="1"/>
@@ -6188,14 +6285,14 @@
       <c r="E59" s="3"/>
       <c r="F59" s="4">
         <f>IFERROR( HLOOKUP("BE",J59:BQ$86,$A$86-$A59+1,FALSE),0)+ IFERROR( HLOOKUP("B",J59:BQ$86,$A$86-$A59+1,FALSE),0)</f>
-        <v>0</v>
+        <v>40822</v>
       </c>
       <c r="G59" s="4">
         <f>IFERROR( HLOOKUP("BE",J59:BQ$86,$A$86-$A59+1,FALSE),0)+ IFERROR( HLOOKUP("E",J59:BQ$86,$A$86-$A59+1,FALSE),0)</f>
-        <v>0</v>
+        <v>40826</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>83</v>
@@ -6242,11 +6339,17 @@
       <c r="AW59" s="1"/>
       <c r="AX59" s="1"/>
       <c r="AY59" s="1"/>
-      <c r="AZ59" s="1"/>
-      <c r="BA59" s="1"/>
+      <c r="AZ59" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="BA59" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="BB59" s="17"/>
       <c r="BC59" s="17"/>
-      <c r="BD59" s="1"/>
+      <c r="BD59" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="BE59" s="1"/>
       <c r="BF59" s="1"/>
       <c r="BG59" s="1"/>
@@ -6275,14 +6378,14 @@
       <c r="E60" s="3"/>
       <c r="F60" s="4">
         <f>IFERROR( HLOOKUP("BE",J60:BQ$86,$A$86-$A60+1,FALSE),0)+ IFERROR( HLOOKUP("B",J60:BQ$86,$A$86-$A60+1,FALSE),0)</f>
-        <v>0</v>
+        <v>40826</v>
       </c>
       <c r="G60" s="4">
         <f>IFERROR( HLOOKUP("BE",J60:BQ$86,$A$86-$A60+1,FALSE),0)+ IFERROR( HLOOKUP("E",J60:BQ$86,$A$86-$A60+1,FALSE),0)</f>
-        <v>0</v>
+        <v>40826</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>83</v>
@@ -6333,7 +6436,9 @@
       <c r="BA60" s="1"/>
       <c r="BB60" s="17"/>
       <c r="BC60" s="17"/>
-      <c r="BD60" s="1"/>
+      <c r="BD60" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="BE60" s="1"/>
       <c r="BF60" s="1"/>
       <c r="BG60" s="1"/>
@@ -6362,14 +6467,14 @@
       <c r="E61" s="3"/>
       <c r="F61" s="4">
         <f>IFERROR( HLOOKUP("BE",J61:BQ$86,$A$86-$A61+1,FALSE),0)+ IFERROR( HLOOKUP("B",J61:BQ$86,$A$86-$A61+1,FALSE),0)</f>
-        <v>0</v>
+        <v>40826</v>
       </c>
       <c r="G61" s="4">
         <f>IFERROR( HLOOKUP("BE",J61:BQ$86,$A$86-$A61+1,FALSE),0)+ IFERROR( HLOOKUP("E",J61:BQ$86,$A$86-$A61+1,FALSE),0)</f>
-        <v>0</v>
+        <v>40827</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I61" s="3" t="s">
         <v>83</v>
@@ -6420,8 +6525,12 @@
       <c r="BA61" s="1"/>
       <c r="BB61" s="17"/>
       <c r="BC61" s="17"/>
-      <c r="BD61" s="1"/>
-      <c r="BE61" s="1"/>
+      <c r="BD61" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="BE61" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="BF61" s="1"/>
       <c r="BG61" s="1"/>
       <c r="BH61" s="1"/>
@@ -6449,11 +6558,11 @@
       <c r="E62" s="3"/>
       <c r="F62" s="4">
         <f>IFERROR( HLOOKUP("BE",J62:BQ$86,$A$86-$A62+1,FALSE),0)+ IFERROR( HLOOKUP("B",J62:BQ$86,$A$86-$A62+1,FALSE),0)</f>
-        <v>0</v>
+        <v>40830</v>
       </c>
       <c r="G62" s="4">
         <f>IFERROR( HLOOKUP("BE",J62:BQ$86,$A$86-$A62+1,FALSE),0)+ IFERROR( HLOOKUP("E",J62:BQ$86,$A$86-$A62+1,FALSE),0)</f>
-        <v>0</v>
+        <v>40830</v>
       </c>
       <c r="H62" s="4" t="s">
         <v>66</v>
@@ -6509,7 +6618,9 @@
       <c r="BE62" s="1"/>
       <c r="BF62" s="1"/>
       <c r="BG62" s="1"/>
-      <c r="BH62" s="1"/>
+      <c r="BH62" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="BI62" s="17"/>
       <c r="BJ62" s="17"/>
       <c r="BK62" s="1"/>
@@ -6534,11 +6645,11 @@
       <c r="E63" s="3"/>
       <c r="F63" s="4">
         <f>IFERROR( HLOOKUP("BE",J63:BQ$86,$A$86-$A63+1,FALSE),0)+ IFERROR( HLOOKUP("B",J63:BQ$86,$A$86-$A63+1,FALSE),0)</f>
-        <v>0</v>
+        <v>40836</v>
       </c>
       <c r="G63" s="4">
         <f>IFERROR( HLOOKUP("BE",J63:BQ$86,$A$86-$A63+1,FALSE),0)+ IFERROR( HLOOKUP("E",J63:BQ$86,$A$86-$A63+1,FALSE),0)</f>
-        <v>0</v>
+        <v>40839</v>
       </c>
       <c r="H63" s="4" t="s">
         <v>66</v>
@@ -6600,10 +6711,18 @@
       <c r="BK63" s="1"/>
       <c r="BL63" s="1"/>
       <c r="BM63" s="1"/>
-      <c r="BN63" s="1"/>
-      <c r="BO63" s="1"/>
-      <c r="BP63" s="17"/>
-      <c r="BQ63" s="17"/>
+      <c r="BN63" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="BO63" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="BP63" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="BQ63" s="17" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="64" spans="1:69">
       <c r="A64">
@@ -6619,11 +6738,11 @@
       <c r="E64" s="3"/>
       <c r="F64" s="4">
         <f>IFERROR( HLOOKUP("BE",J64:BQ$86,$A$86-$A64+1,FALSE),0)+ IFERROR( HLOOKUP("B",J64:BQ$86,$A$86-$A64+1,FALSE),0)</f>
-        <v>0</v>
+        <v>40836</v>
       </c>
       <c r="G64" s="4">
         <f>IFERROR( HLOOKUP("BE",J64:BQ$86,$A$86-$A64+1,FALSE),0)+ IFERROR( HLOOKUP("E",J64:BQ$86,$A$86-$A64+1,FALSE),0)</f>
-        <v>0</v>
+        <v>40839</v>
       </c>
       <c r="H64" s="4" t="s">
         <v>66</v>
@@ -6685,10 +6804,18 @@
       <c r="BK64" s="1"/>
       <c r="BL64" s="1"/>
       <c r="BM64" s="1"/>
-      <c r="BN64" s="1"/>
-      <c r="BO64" s="1"/>
-      <c r="BP64" s="17"/>
-      <c r="BQ64" s="17"/>
+      <c r="BN64" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="BO64" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="BP64" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="BQ64" s="17" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="65" spans="1:69">
       <c r="A65">
@@ -6704,11 +6831,11 @@
       <c r="E65" s="3"/>
       <c r="F65" s="4">
         <f>IFERROR( HLOOKUP("BE",J65:BQ$86,$A$86-$A65+1,FALSE),0)+ IFERROR( HLOOKUP("B",J65:BQ$86,$A$86-$A65+1,FALSE),0)</f>
-        <v>0</v>
+        <v>40836</v>
       </c>
       <c r="G65" s="4">
         <f>IFERROR( HLOOKUP("BE",J65:BQ$86,$A$86-$A65+1,FALSE),0)+ IFERROR( HLOOKUP("E",J65:BQ$86,$A$86-$A65+1,FALSE),0)</f>
-        <v>0</v>
+        <v>40839</v>
       </c>
       <c r="H65" s="4" t="s">
         <v>66</v>
@@ -6770,10 +6897,18 @@
       <c r="BK65" s="1"/>
       <c r="BL65" s="1"/>
       <c r="BM65" s="1"/>
-      <c r="BN65" s="1"/>
-      <c r="BO65" s="1"/>
-      <c r="BP65" s="17"/>
-      <c r="BQ65" s="17"/>
+      <c r="BN65" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="BO65" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="BP65" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="BQ65" s="17" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="66" spans="1:69">
       <c r="A66">
@@ -6789,11 +6924,11 @@
       <c r="E66" s="3"/>
       <c r="F66" s="4">
         <f>IFERROR( HLOOKUP("BE",J66:BQ$86,$A$86-$A66+1,FALSE),0)+ IFERROR( HLOOKUP("B",J66:BQ$86,$A$86-$A66+1,FALSE),0)</f>
-        <v>0</v>
+        <v>40836</v>
       </c>
       <c r="G66" s="4">
         <f>IFERROR( HLOOKUP("BE",J66:BQ$86,$A$86-$A66+1,FALSE),0)+ IFERROR( HLOOKUP("E",J66:BQ$86,$A$86-$A66+1,FALSE),0)</f>
-        <v>0</v>
+        <v>40839</v>
       </c>
       <c r="H66" s="4" t="s">
         <v>66</v>
@@ -6855,10 +6990,18 @@
       <c r="BK66" s="1"/>
       <c r="BL66" s="1"/>
       <c r="BM66" s="1"/>
-      <c r="BN66" s="1"/>
-      <c r="BO66" s="1"/>
-      <c r="BP66" s="17"/>
-      <c r="BQ66" s="17"/>
+      <c r="BN66" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="BO66" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="BP66" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="BQ66" s="17" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="67" spans="1:69">
       <c r="A67">
@@ -6870,14 +7013,8 @@
       </c>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
-      <c r="F67" s="4">
-        <f>IFERROR( HLOOKUP("BE",J67:BQ$86,$A$86-$A67+1,FALSE),0)+ IFERROR( HLOOKUP("B",J67:BQ$86,$A$86-$A67+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="G67" s="4">
-        <f>IFERROR( HLOOKUP("BE",J67:BQ$86,$A$86-$A67+1,FALSE),0)+ IFERROR( HLOOKUP("E",J67:BQ$86,$A$86-$A67+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
+      <c r="F67" s="4"/>
+      <c r="G67" s="4"/>
       <c r="H67" s="4"/>
       <c r="I67" s="3"/>
       <c r="J67" s="1"/>
@@ -6955,14 +7092,14 @@
       <c r="E68" s="3"/>
       <c r="F68" s="4">
         <f>IFERROR( HLOOKUP("BE",J68:BQ$86,$A$86-$A68+1,FALSE),0)+ IFERROR( HLOOKUP("B",J68:BQ$86,$A$86-$A68+1,FALSE),0)</f>
-        <v>0</v>
+        <v>40831</v>
       </c>
       <c r="G68" s="4">
         <f>IFERROR( HLOOKUP("BE",J68:BQ$86,$A$86-$A68+1,FALSE),0)+ IFERROR( HLOOKUP("E",J68:BQ$86,$A$86-$A68+1,FALSE),0)</f>
-        <v>0</v>
+        <v>40835</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I68" s="3"/>
       <c r="J68" s="1"/>
@@ -7016,11 +7153,21 @@
       <c r="BF68" s="1"/>
       <c r="BG68" s="1"/>
       <c r="BH68" s="1"/>
-      <c r="BI68" s="17"/>
-      <c r="BJ68" s="17"/>
-      <c r="BK68" s="1"/>
-      <c r="BL68" s="1"/>
-      <c r="BM68" s="1"/>
+      <c r="BI68" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="BJ68" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="BK68" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="BL68" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="BM68" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="BN68" s="1"/>
       <c r="BO68" s="1"/>
       <c r="BP68" s="17"/>
@@ -7040,14 +7187,14 @@
       <c r="E69" s="3"/>
       <c r="F69" s="4">
         <f>IFERROR( HLOOKUP("BE",J69:BQ$86,$A$86-$A69+1,FALSE),0)+ IFERROR( HLOOKUP("B",J69:BQ$86,$A$86-$A69+1,FALSE),0)</f>
-        <v>0</v>
+        <v>40831</v>
       </c>
       <c r="G69" s="4">
         <f>IFERROR( HLOOKUP("BE",J69:BQ$86,$A$86-$A69+1,FALSE),0)+ IFERROR( HLOOKUP("E",J69:BQ$86,$A$86-$A69+1,FALSE),0)</f>
-        <v>0</v>
+        <v>40835</v>
       </c>
       <c r="H69" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I69" s="3"/>
       <c r="J69" s="1"/>
@@ -7101,11 +7248,21 @@
       <c r="BF69" s="1"/>
       <c r="BG69" s="1"/>
       <c r="BH69" s="1"/>
-      <c r="BI69" s="17"/>
-      <c r="BJ69" s="17"/>
-      <c r="BK69" s="1"/>
-      <c r="BL69" s="1"/>
-      <c r="BM69" s="1"/>
+      <c r="BI69" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="BJ69" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="BK69" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="BL69" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="BM69" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="BN69" s="1"/>
       <c r="BO69" s="1"/>
       <c r="BP69" s="17"/>
@@ -7125,14 +7282,14 @@
       <c r="E70" s="3"/>
       <c r="F70" s="4">
         <f>IFERROR( HLOOKUP("BE",J70:BQ$86,$A$86-$A70+1,FALSE),0)+ IFERROR( HLOOKUP("B",J70:BQ$86,$A$86-$A70+1,FALSE),0)</f>
-        <v>0</v>
+        <v>40831</v>
       </c>
       <c r="G70" s="4">
         <f>IFERROR( HLOOKUP("BE",J70:BQ$86,$A$86-$A70+1,FALSE),0)+ IFERROR( HLOOKUP("E",J70:BQ$86,$A$86-$A70+1,FALSE),0)</f>
-        <v>0</v>
+        <v>40835</v>
       </c>
       <c r="H70" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I70" s="3"/>
       <c r="J70" s="1"/>
@@ -7186,11 +7343,21 @@
       <c r="BF70" s="1"/>
       <c r="BG70" s="1"/>
       <c r="BH70" s="1"/>
-      <c r="BI70" s="17"/>
-      <c r="BJ70" s="17"/>
-      <c r="BK70" s="1"/>
-      <c r="BL70" s="1"/>
-      <c r="BM70" s="1"/>
+      <c r="BI70" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="BJ70" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="BK70" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="BL70" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="BM70" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="BN70" s="1"/>
       <c r="BO70" s="1"/>
       <c r="BP70" s="17"/>
@@ -7210,14 +7377,14 @@
       <c r="E71" s="3"/>
       <c r="F71" s="4">
         <f>IFERROR( HLOOKUP("BE",J71:BQ$86,$A$86-$A71+1,FALSE),0)+ IFERROR( HLOOKUP("B",J71:BQ$86,$A$86-$A71+1,FALSE),0)</f>
-        <v>0</v>
+        <v>40831</v>
       </c>
       <c r="G71" s="4">
         <f>IFERROR( HLOOKUP("BE",J71:BQ$86,$A$86-$A71+1,FALSE),0)+ IFERROR( HLOOKUP("E",J71:BQ$86,$A$86-$A71+1,FALSE),0)</f>
-        <v>0</v>
+        <v>40835</v>
       </c>
       <c r="H71" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I71" s="3"/>
       <c r="J71" s="1"/>
@@ -7271,11 +7438,21 @@
       <c r="BF71" s="1"/>
       <c r="BG71" s="1"/>
       <c r="BH71" s="1"/>
-      <c r="BI71" s="17"/>
-      <c r="BJ71" s="17"/>
-      <c r="BK71" s="1"/>
-      <c r="BL71" s="1"/>
-      <c r="BM71" s="1"/>
+      <c r="BI71" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="BJ71" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="BK71" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="BL71" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="BM71" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="BN71" s="1"/>
       <c r="BO71" s="1"/>
       <c r="BP71" s="17"/>
@@ -7295,14 +7472,14 @@
       <c r="E72" s="3"/>
       <c r="F72" s="4">
         <f>IFERROR( HLOOKUP("BE",J72:BQ$86,$A$86-$A72+1,FALSE),0)+ IFERROR( HLOOKUP("B",J72:BQ$86,$A$86-$A72+1,FALSE),0)</f>
-        <v>0</v>
+        <v>40831</v>
       </c>
       <c r="G72" s="4">
         <f>IFERROR( HLOOKUP("BE",J72:BQ$86,$A$86-$A72+1,FALSE),0)+ IFERROR( HLOOKUP("E",J72:BQ$86,$A$86-$A72+1,FALSE),0)</f>
-        <v>0</v>
+        <v>40835</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I72" s="3"/>
       <c r="J72" s="1"/>
@@ -7356,11 +7533,21 @@
       <c r="BF72" s="1"/>
       <c r="BG72" s="1"/>
       <c r="BH72" s="1"/>
-      <c r="BI72" s="17"/>
-      <c r="BJ72" s="17"/>
-      <c r="BK72" s="1"/>
-      <c r="BL72" s="1"/>
-      <c r="BM72" s="1"/>
+      <c r="BI72" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="BJ72" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="BK72" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="BL72" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="BM72" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="BN72" s="1"/>
       <c r="BO72" s="1"/>
       <c r="BP72" s="17"/>
@@ -7607,7 +7794,7 @@
       </c>
       <c r="B76" s="3"/>
       <c r="C76" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D76" s="3" t="s">
         <v>19</v>
@@ -7615,14 +7802,14 @@
       <c r="E76" s="3"/>
       <c r="F76" s="4">
         <f>IFERROR( HLOOKUP("BE",J76:BQ$86,$A$86-$A76+1,FALSE),0)+ IFERROR( HLOOKUP("B",J76:BQ$86,$A$86-$A76+1,FALSE),0)</f>
-        <v>0</v>
+        <v>40824</v>
       </c>
       <c r="G76" s="4">
         <f>IFERROR( HLOOKUP("BE",J76:BQ$86,$A$86-$A76+1,FALSE),0)+ IFERROR( HLOOKUP("E",J76:BQ$86,$A$86-$A76+1,FALSE),0)</f>
-        <v>0</v>
+        <v>40828</v>
       </c>
       <c r="H76" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I76" s="3"/>
       <c r="J76" s="1"/>
@@ -7669,11 +7856,21 @@
       <c r="AY76" s="1"/>
       <c r="AZ76" s="1"/>
       <c r="BA76" s="1"/>
-      <c r="BB76" s="17"/>
-      <c r="BC76" s="17"/>
-      <c r="BD76" s="1"/>
-      <c r="BE76" s="1"/>
-      <c r="BF76" s="1"/>
+      <c r="BB76" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="BC76" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="BD76" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="BE76" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="BF76" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="BG76" s="1"/>
       <c r="BH76" s="1"/>
       <c r="BI76" s="17"/>
@@ -7692,7 +7889,7 @@
       </c>
       <c r="B77" s="3"/>
       <c r="C77" s="3" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="D77" s="3" t="s">
         <v>19</v>
@@ -7700,14 +7897,14 @@
       <c r="E77" s="3"/>
       <c r="F77" s="4">
         <f>IFERROR( HLOOKUP("BE",J77:BQ$86,$A$86-$A77+1,FALSE),0)+ IFERROR( HLOOKUP("B",J77:BQ$86,$A$86-$A77+1,FALSE),0)</f>
-        <v>0</v>
+        <v>40824</v>
       </c>
       <c r="G77" s="4">
         <f>IFERROR( HLOOKUP("BE",J77:BQ$86,$A$86-$A77+1,FALSE),0)+ IFERROR( HLOOKUP("E",J77:BQ$86,$A$86-$A77+1,FALSE),0)</f>
-        <v>0</v>
+        <v>40828</v>
       </c>
       <c r="H77" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I77" s="3"/>
       <c r="J77" s="1"/>
@@ -7754,11 +7951,21 @@
       <c r="AY77" s="1"/>
       <c r="AZ77" s="1"/>
       <c r="BA77" s="1"/>
-      <c r="BB77" s="17"/>
-      <c r="BC77" s="17"/>
-      <c r="BD77" s="1"/>
-      <c r="BE77" s="1"/>
-      <c r="BF77" s="1"/>
+      <c r="BB77" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="BC77" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="BD77" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="BE77" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="BF77" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="BG77" s="1"/>
       <c r="BH77" s="1"/>
       <c r="BI77" s="17"/>
@@ -7777,7 +7984,7 @@
       </c>
       <c r="B78" s="3"/>
       <c r="C78" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D78" s="3" t="s">
         <v>19</v>
@@ -7785,14 +7992,14 @@
       <c r="E78" s="3"/>
       <c r="F78" s="4">
         <f>IFERROR( HLOOKUP("BE",J78:BQ$86,$A$86-$A78+1,FALSE),0)+ IFERROR( HLOOKUP("B",J78:BQ$86,$A$86-$A78+1,FALSE),0)</f>
-        <v>0</v>
+        <v>40824</v>
       </c>
       <c r="G78" s="4">
         <f>IFERROR( HLOOKUP("BE",J78:BQ$86,$A$86-$A78+1,FALSE),0)+ IFERROR( HLOOKUP("E",J78:BQ$86,$A$86-$A78+1,FALSE),0)</f>
-        <v>0</v>
+        <v>40828</v>
       </c>
       <c r="H78" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I78" s="3"/>
       <c r="J78" s="1"/>
@@ -7839,11 +8046,21 @@
       <c r="AY78" s="1"/>
       <c r="AZ78" s="1"/>
       <c r="BA78" s="1"/>
-      <c r="BB78" s="17"/>
-      <c r="BC78" s="17"/>
-      <c r="BD78" s="1"/>
-      <c r="BE78" s="1"/>
-      <c r="BF78" s="1"/>
+      <c r="BB78" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="BC78" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="BD78" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="BE78" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="BF78" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="BG78" s="1"/>
       <c r="BH78" s="1"/>
       <c r="BI78" s="17"/>
@@ -7862,18 +8079,12 @@
       </c>
       <c r="B79" s="3"/>
       <c r="C79" s="34" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
-      <c r="F79" s="4">
-        <f>IFERROR( HLOOKUP("BE",J79:BQ$86,$A$86-$A79+1,FALSE),0)+ IFERROR( HLOOKUP("B",J79:BQ$86,$A$86-$A79+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="G79" s="4">
-        <f>IFERROR( HLOOKUP("BE",J79:BQ$86,$A$86-$A79+1,FALSE),0)+ IFERROR( HLOOKUP("E",J79:BQ$86,$A$86-$A79+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
+      <c r="F79" s="4"/>
+      <c r="G79" s="4"/>
       <c r="H79" s="4"/>
       <c r="I79" s="3"/>
       <c r="J79" s="1"/>
@@ -7937,7 +8148,7 @@
       <c r="BP79" s="17"/>
       <c r="BQ79" s="17"/>
     </row>
-    <row r="80" spans="1:69">
+    <row r="80" spans="1:69" hidden="1">
       <c r="A80">
         <v>71</v>
       </c>
@@ -8506,144 +8717,180 @@
     </row>
   </sheetData>
   <autoFilter ref="A8:BQ86">
-    <filterColumn colId="3"/>
+    <filterColumn colId="3">
+      <filters blank="1">
+        <filter val="Vunb"/>
+      </filters>
+    </filterColumn>
   </autoFilter>
   <mergeCells count="1">
     <mergeCell ref="K2:Q2"/>
   </mergeCells>
-  <conditionalFormatting sqref="J83:AW83 J58:BQ82 J23:BD57 J13:BD13 J10:AF11 AG11 AH10:BD11 J15:BD21 AU11:AV49 BB11:BC49 BE10:BQ57">
-    <cfRule type="cellIs" dxfId="26" priority="40" operator="equal">
+  <conditionalFormatting sqref="BN63:BO66 BP66 BQ63:BQ66 J83:AW83 BE10:BQ57 J23:BD57 J13:BD13 J10:AF11 AG11 AH10:BD11 J15:BD21 AU11:AV49 BB11:BC49 BL58:BQ62 BL67:BQ82 J58:BK82">
+    <cfRule type="cellIs" dxfId="34" priority="56" operator="equal">
       <formula>"-"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="57" operator="equal">
       <formula>"E"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="58" operator="equal">
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J58:BQ82 J23:BD57 J13:BD13 J10:AF11 AG11 AH10:BD11 J15:BD21 AU11:AV49 BB11:BC49 BE10:BQ57">
-    <cfRule type="cellIs" dxfId="23" priority="39" operator="equal">
+  <conditionalFormatting sqref="BN63:BO66 BP66 BQ63:BQ66 BE10:BQ57 J23:BD57 J13:BD13 J10:AF11 AG11 AH10:BD11 J15:BD21 AU11:AV49 BB11:BC49 BL58:BQ62 BL67:BQ82 J58:BK82">
+    <cfRule type="cellIs" dxfId="31" priority="55" operator="equal">
       <formula>"BE"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10:H11 H13 H15:H21 H23:H82">
-    <cfRule type="cellIs" dxfId="22" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="37" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11 H13 H23:H39 H15:H21">
-    <cfRule type="expression" dxfId="21" priority="25">
+    <cfRule type="expression" dxfId="29" priority="41">
       <formula>AND(H11&lt;&gt;$E$4,G11&lt;TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H67:H82">
-    <cfRule type="expression" dxfId="20" priority="93">
+    <cfRule type="expression" dxfId="28" priority="109">
       <formula>AND(H67&lt;&gt;$E$4,#REF!&lt;TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H44">
-    <cfRule type="expression" dxfId="19" priority="100">
+    <cfRule type="expression" dxfId="27" priority="116">
       <formula>AND(H44&lt;&gt;$E$4,G38&lt;TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H42">
-    <cfRule type="expression" dxfId="18" priority="103">
+    <cfRule type="expression" dxfId="26" priority="119">
       <formula>AND(H42&lt;&gt;$E$4,G38&lt;TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H49 H41">
-    <cfRule type="expression" dxfId="17" priority="106">
+    <cfRule type="expression" dxfId="25" priority="122">
       <formula>AND(H41&lt;&gt;$E$4,G38&lt;TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H40:H49">
-    <cfRule type="expression" dxfId="16" priority="109">
+    <cfRule type="expression" dxfId="24" priority="125">
       <formula>AND(H40&lt;&gt;$E$4,G38&lt;TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H49">
-    <cfRule type="expression" dxfId="15" priority="121">
+    <cfRule type="expression" dxfId="23" priority="137">
       <formula>AND(H49&lt;&gt;$E$4,G41&lt;TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H45:H49">
-    <cfRule type="expression" dxfId="14" priority="127">
+    <cfRule type="expression" dxfId="22" priority="143">
       <formula>AND(H45&lt;&gt;$E$4,G38&lt;TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H43">
-    <cfRule type="expression" dxfId="13" priority="134">
+    <cfRule type="expression" dxfId="21" priority="150">
       <formula>AND(H43&lt;&gt;$E$4,G38&lt;TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H58:H66">
-    <cfRule type="expression" dxfId="12" priority="139">
+    <cfRule type="expression" dxfId="20" priority="155">
       <formula>AND(H58&lt;&gt;$E$4,G43&lt;TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H56:H57">
-    <cfRule type="expression" dxfId="11" priority="143">
+    <cfRule type="expression" dxfId="19" priority="159">
       <formula>AND(H56&lt;&gt;$E$4,G43&lt;TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H55">
-    <cfRule type="expression" dxfId="10" priority="145">
+    <cfRule type="expression" dxfId="18" priority="161">
       <formula>AND(H55&lt;&gt;$E$4,G43&lt;TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H65:H66">
-    <cfRule type="expression" dxfId="9" priority="149">
+    <cfRule type="expression" dxfId="17" priority="165">
       <formula>AND(H65&lt;&gt;$E$4,G47&lt;TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H64">
-    <cfRule type="expression" dxfId="8" priority="151">
+    <cfRule type="expression" dxfId="16" priority="167">
       <formula>AND(H64&lt;&gt;$E$4,G47&lt;TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H63">
-    <cfRule type="expression" dxfId="7" priority="153">
+    <cfRule type="expression" dxfId="15" priority="169">
       <formula>AND(H63&lt;&gt;$E$4,G47&lt;TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H50:H57">
-    <cfRule type="expression" dxfId="6" priority="203">
+    <cfRule type="expression" dxfId="14" priority="219">
       <formula>AND(H50&lt;&gt;$E$4,G39&lt;TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H68:H74">
-    <cfRule type="expression" dxfId="5" priority="6">
+    <cfRule type="expression" dxfId="13" priority="22">
       <formula>AND(H68&lt;&gt;$E$4,G53&lt;TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H68:H74">
-    <cfRule type="expression" dxfId="4" priority="5">
+    <cfRule type="expression" dxfId="12" priority="21">
       <formula>AND(H68&lt;&gt;$E$4,G50&lt;TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H76:H78">
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule type="expression" dxfId="11" priority="20">
       <formula>AND(H76&lt;&gt;$E$4,G61&lt;TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H76:H78">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="10" priority="19">
       <formula>AND(H76&lt;&gt;$E$4,G58&lt;TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H80:H82">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="9" priority="18">
       <formula>AND(H80&lt;&gt;$E$4,G65&lt;TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H80:H82">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="8" priority="17">
       <formula>AND(H80&lt;&gt;$E$4,G62&lt;TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="BP63:BP65">
+    <cfRule type="cellIs" dxfId="7" priority="14" operator="equal">
+      <formula>"-"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="15" operator="equal">
+      <formula>"E"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="16" operator="equal">
+      <formula>"B"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BP63:BP65">
+    <cfRule type="cellIs" dxfId="4" priority="13" operator="equal">
+      <formula>"BE"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BL63:BM66">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+      <formula>"-"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>"E"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
+      <formula>"B"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BL63:BM66">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"BE"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D13 D15:D21 D10:D11 D23:D82">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D13 D23:D82 D10:D11 D15:D21">
       <formula1>$C$2:$C$4</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H10:H82">

--- a/01. Document/DropOut_project v2011.08.25.xlsx
+++ b/01. Document/DropOut_project v2011.08.25.xlsx
@@ -1212,10 +1212,10 @@
   <dimension ref="A1:BQ86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="8" topLeftCell="BH61" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="8" topLeftCell="H65" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="BL73" sqref="BL73"/>
+      <selection pane="bottomRight" activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6292,7 +6292,7 @@
         <v>40826</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>83</v>
@@ -6385,7 +6385,7 @@
         <v>40826</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>83</v>
@@ -6745,7 +6745,7 @@
         <v>40839</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I64" s="3"/>
       <c r="J64" s="1"/>
@@ -6838,7 +6838,7 @@
         <v>40839</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I65" s="3"/>
       <c r="J65" s="1"/>
@@ -6931,7 +6931,7 @@
         <v>40839</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I66" s="3"/>
       <c r="J66" s="1"/>
@@ -7099,7 +7099,7 @@
         <v>40835</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I68" s="3"/>
       <c r="J68" s="1"/>
@@ -7194,7 +7194,7 @@
         <v>40835</v>
       </c>
       <c r="H69" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I69" s="3"/>
       <c r="J69" s="1"/>
@@ -7289,7 +7289,7 @@
         <v>40835</v>
       </c>
       <c r="H70" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I70" s="3"/>
       <c r="J70" s="1"/>
@@ -7384,7 +7384,7 @@
         <v>40835</v>
       </c>
       <c r="H71" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I71" s="3"/>
       <c r="J71" s="1"/>
@@ -7479,7 +7479,7 @@
         <v>40835</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I72" s="3"/>
       <c r="J72" s="1"/>
@@ -8718,7 +8718,7 @@
   </sheetData>
   <autoFilter ref="A8:BQ86">
     <filterColumn colId="3">
-      <filters blank="1">
+      <filters>
         <filter val="Vunb"/>
       </filters>
     </filterColumn>
